--- a/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>HCMLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>28187500</v>
+        <v>27711200</v>
       </c>
       <c r="E8" s="3">
-        <v>27730800</v>
+        <v>28482800</v>
       </c>
       <c r="F8" s="3">
-        <v>27610800</v>
+        <v>28021300</v>
       </c>
       <c r="G8" s="3">
-        <v>24203600</v>
+        <v>27900000</v>
       </c>
       <c r="H8" s="3">
-        <v>19319500</v>
+        <v>24457100</v>
       </c>
       <c r="I8" s="3">
-        <v>20237000</v>
+        <v>19521900</v>
       </c>
       <c r="J8" s="3">
+        <v>20449000</v>
+      </c>
+      <c r="K8" s="3">
         <v>21715900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21480800</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16227400</v>
+        <v>16012600</v>
       </c>
       <c r="E9" s="3">
-        <v>38393800</v>
+        <v>16397400</v>
       </c>
       <c r="F9" s="3">
-        <v>32085300</v>
+        <v>38796000</v>
       </c>
       <c r="G9" s="3">
-        <v>16923200</v>
+        <v>32421400</v>
       </c>
       <c r="H9" s="3">
-        <v>21559900</v>
+        <v>17100500</v>
       </c>
       <c r="I9" s="3">
-        <v>11378300</v>
+        <v>21785700</v>
       </c>
       <c r="J9" s="3">
+        <v>11497400</v>
+      </c>
+      <c r="K9" s="3">
         <v>17829400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12649900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11960200</v>
+        <v>11698600</v>
       </c>
       <c r="E10" s="3">
-        <v>-10662900</v>
+        <v>12085400</v>
       </c>
       <c r="F10" s="3">
-        <v>-4474500</v>
+        <v>-10774600</v>
       </c>
       <c r="G10" s="3">
-        <v>7280400</v>
+        <v>-4521400</v>
       </c>
       <c r="H10" s="3">
-        <v>-2240300</v>
+        <v>7356600</v>
       </c>
       <c r="I10" s="3">
-        <v>8858800</v>
+        <v>-2263800</v>
       </c>
       <c r="J10" s="3">
+        <v>8951600</v>
+      </c>
+      <c r="K10" s="3">
         <v>3886500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8830900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,39 +889,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>583900</v>
+        <v>-238500</v>
       </c>
       <c r="E14" s="3">
-        <v>-105700</v>
+        <v>590100</v>
       </c>
       <c r="F14" s="3">
-        <v>-715300</v>
+        <v>-106800</v>
       </c>
       <c r="G14" s="3">
-        <v>-1092000</v>
+        <v>-722800</v>
       </c>
       <c r="H14" s="3">
-        <v>-180600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>-1103400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-182500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>4100</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -921,21 +943,24 @@
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>252500</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I15" s="3">
+        <v>255100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
         <v>316900</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24886000</v>
+        <v>23497800</v>
       </c>
       <c r="E17" s="3">
-        <v>28096200</v>
+        <v>25146700</v>
       </c>
       <c r="F17" s="3">
-        <v>23854600</v>
+        <v>28390500</v>
       </c>
       <c r="G17" s="3">
-        <v>23870000</v>
+        <v>24104500</v>
       </c>
       <c r="H17" s="3">
-        <v>16837000</v>
+        <v>24120000</v>
       </c>
       <c r="I17" s="3">
-        <v>17818100</v>
+        <v>17013400</v>
       </c>
       <c r="J17" s="3">
+        <v>18004700</v>
+      </c>
+      <c r="K17" s="3">
         <v>19920900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19483300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3301500</v>
+        <v>4213400</v>
       </c>
       <c r="E18" s="3">
-        <v>-365400</v>
+        <v>3336100</v>
       </c>
       <c r="F18" s="3">
-        <v>3756100</v>
+        <v>-369200</v>
       </c>
       <c r="G18" s="3">
-        <v>333500</v>
+        <v>3795500</v>
       </c>
       <c r="H18" s="3">
-        <v>2482500</v>
+        <v>337000</v>
       </c>
       <c r="I18" s="3">
-        <v>2418900</v>
+        <v>2508600</v>
       </c>
       <c r="J18" s="3">
+        <v>2444300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1794900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1997500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,158 +1051,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-125200</v>
+        <v>-139000</v>
       </c>
       <c r="E20" s="3">
-        <v>-87200</v>
+        <v>-126500</v>
       </c>
       <c r="F20" s="3">
-        <v>86200</v>
+        <v>-88100</v>
       </c>
       <c r="G20" s="3">
-        <v>-187800</v>
+        <v>87100</v>
       </c>
       <c r="H20" s="3">
-        <v>270900</v>
+        <v>-189800</v>
       </c>
       <c r="I20" s="3">
-        <v>358200</v>
+        <v>273800</v>
       </c>
       <c r="J20" s="3">
+        <v>361900</v>
+      </c>
+      <c r="K20" s="3">
         <v>447500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-189500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5481100</v>
+        <v>6635600</v>
       </c>
       <c r="E21" s="3">
-        <v>5915100</v>
+        <v>5526000</v>
       </c>
       <c r="F21" s="3">
-        <v>6256000</v>
+        <v>5942600</v>
       </c>
       <c r="G21" s="3">
-        <v>4688500</v>
+        <v>6308500</v>
       </c>
       <c r="H21" s="3">
-        <v>4194100</v>
+        <v>4713000</v>
       </c>
       <c r="I21" s="3">
-        <v>4357400</v>
+        <v>4230200</v>
       </c>
       <c r="J21" s="3">
+        <v>4394500</v>
+      </c>
+      <c r="K21" s="3">
         <v>4441300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3907300</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>738900</v>
+        <v>632600</v>
       </c>
       <c r="E22" s="3">
-        <v>758400</v>
+        <v>746700</v>
       </c>
       <c r="F22" s="3">
-        <v>884600</v>
+        <v>766400</v>
       </c>
       <c r="G22" s="3">
-        <v>847700</v>
+        <v>893900</v>
       </c>
       <c r="H22" s="3">
-        <v>494700</v>
+        <v>856600</v>
       </c>
       <c r="I22" s="3">
-        <v>593200</v>
+        <v>499800</v>
       </c>
       <c r="J22" s="3">
+        <v>599400</v>
+      </c>
+      <c r="K22" s="3">
         <v>649600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>636800</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2437400</v>
+        <v>3441900</v>
       </c>
       <c r="E23" s="3">
-        <v>-1211000</v>
+        <v>2462900</v>
       </c>
       <c r="F23" s="3">
-        <v>2957700</v>
+        <v>-1223700</v>
       </c>
       <c r="G23" s="3">
-        <v>-702000</v>
+        <v>2988700</v>
       </c>
       <c r="H23" s="3">
-        <v>2258800</v>
+        <v>-709300</v>
       </c>
       <c r="I23" s="3">
-        <v>2183900</v>
+        <v>2282500</v>
       </c>
       <c r="J23" s="3">
+        <v>2206800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1592800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1171200</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>673200</v>
+        <v>835800</v>
       </c>
       <c r="E24" s="3">
-        <v>550100</v>
+        <v>680300</v>
       </c>
       <c r="F24" s="3">
-        <v>856900</v>
+        <v>555800</v>
       </c>
       <c r="G24" s="3">
-        <v>801500</v>
+        <v>865900</v>
       </c>
       <c r="H24" s="3">
-        <v>596300</v>
+        <v>809900</v>
       </c>
       <c r="I24" s="3">
-        <v>546000</v>
+        <v>602500</v>
       </c>
       <c r="J24" s="3">
+        <v>551700</v>
+      </c>
+      <c r="K24" s="3">
         <v>564400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>464900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1764200</v>
+        <v>2606000</v>
       </c>
       <c r="E26" s="3">
-        <v>-1761100</v>
+        <v>1782600</v>
       </c>
       <c r="F26" s="3">
-        <v>2100800</v>
+        <v>-1779500</v>
       </c>
       <c r="G26" s="3">
-        <v>-1503500</v>
+        <v>2122800</v>
       </c>
       <c r="H26" s="3">
-        <v>1662600</v>
+        <v>-1519200</v>
       </c>
       <c r="I26" s="3">
-        <v>1637900</v>
+        <v>1680000</v>
       </c>
       <c r="J26" s="3">
+        <v>1655100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1028300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>706200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1541500</v>
+        <v>2314600</v>
       </c>
       <c r="E27" s="3">
-        <v>-1719000</v>
+        <v>1557600</v>
       </c>
       <c r="F27" s="3">
-        <v>1793900</v>
+        <v>-1737000</v>
       </c>
       <c r="G27" s="3">
-        <v>-1613300</v>
+        <v>1812700</v>
       </c>
       <c r="H27" s="3">
-        <v>1319800</v>
+        <v>-1630200</v>
       </c>
       <c r="I27" s="3">
-        <v>1305400</v>
+        <v>1333600</v>
       </c>
       <c r="J27" s="3">
+        <v>1319100</v>
+      </c>
+      <c r="K27" s="3">
         <v>626000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>284800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,29 +1345,32 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>44100</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>105700</v>
+        <v>44600</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>106800</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>125200</v>
+        <v>139000</v>
       </c>
       <c r="E32" s="3">
-        <v>87200</v>
+        <v>126500</v>
       </c>
       <c r="F32" s="3">
-        <v>-86200</v>
+        <v>88100</v>
       </c>
       <c r="G32" s="3">
-        <v>187800</v>
+        <v>-87100</v>
       </c>
       <c r="H32" s="3">
-        <v>-270900</v>
+        <v>189800</v>
       </c>
       <c r="I32" s="3">
-        <v>-358200</v>
+        <v>-273800</v>
       </c>
       <c r="J32" s="3">
+        <v>-361900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-447500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>189500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1541500</v>
+        <v>2314600</v>
       </c>
       <c r="E33" s="3">
-        <v>-1719000</v>
+        <v>1557600</v>
       </c>
       <c r="F33" s="3">
-        <v>1838000</v>
+        <v>-1737000</v>
       </c>
       <c r="G33" s="3">
-        <v>-1507600</v>
+        <v>1857300</v>
       </c>
       <c r="H33" s="3">
-        <v>1319800</v>
+        <v>-1523400</v>
       </c>
       <c r="I33" s="3">
-        <v>1305400</v>
+        <v>1333600</v>
       </c>
       <c r="J33" s="3">
+        <v>1319100</v>
+      </c>
+      <c r="K33" s="3">
         <v>626000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>284800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1541500</v>
+        <v>2314600</v>
       </c>
       <c r="E35" s="3">
-        <v>-1719000</v>
+        <v>1557600</v>
       </c>
       <c r="F35" s="3">
-        <v>1838000</v>
+        <v>-1737000</v>
       </c>
       <c r="G35" s="3">
-        <v>-1507600</v>
+        <v>1857300</v>
       </c>
       <c r="H35" s="3">
-        <v>1319800</v>
+        <v>-1523400</v>
       </c>
       <c r="I35" s="3">
-        <v>1305400</v>
+        <v>1333600</v>
       </c>
       <c r="J35" s="3">
+        <v>1319100</v>
+      </c>
+      <c r="K35" s="3">
         <v>626000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>284800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,278 +1647,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1567100</v>
+        <v>2408500</v>
       </c>
       <c r="E41" s="3">
-        <v>2513300</v>
+        <v>1588600</v>
       </c>
       <c r="F41" s="3">
-        <v>8311800</v>
+        <v>2547900</v>
       </c>
       <c r="G41" s="3">
-        <v>3278900</v>
+        <v>8426000</v>
       </c>
       <c r="H41" s="3">
-        <v>3011100</v>
+        <v>3324000</v>
       </c>
       <c r="I41" s="3">
-        <v>631200</v>
+        <v>3052400</v>
       </c>
       <c r="J41" s="3">
+        <v>639800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1814400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>773500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1017000</v>
+        <v>1911200</v>
       </c>
       <c r="E42" s="3">
-        <v>1815500</v>
+        <v>1031000</v>
       </c>
       <c r="F42" s="3">
-        <v>1792900</v>
+        <v>1840400</v>
       </c>
       <c r="G42" s="3">
-        <v>1229500</v>
+        <v>1817500</v>
       </c>
       <c r="H42" s="3">
-        <v>1397800</v>
+        <v>1246400</v>
       </c>
       <c r="I42" s="3">
-        <v>1671800</v>
+        <v>1417000</v>
       </c>
       <c r="J42" s="3">
+        <v>1694800</v>
+      </c>
+      <c r="K42" s="3">
         <v>2299900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2281300</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4221000</v>
+        <v>3862900</v>
       </c>
       <c r="E43" s="3">
-        <v>4431400</v>
+        <v>4279000</v>
       </c>
       <c r="F43" s="3">
-        <v>7145900</v>
+        <v>4492300</v>
       </c>
       <c r="G43" s="3">
-        <v>4332900</v>
+        <v>7244100</v>
       </c>
       <c r="H43" s="3">
-        <v>5435100</v>
+        <v>4392400</v>
       </c>
       <c r="I43" s="3">
-        <v>2669300</v>
+        <v>5509800</v>
       </c>
       <c r="J43" s="3">
+        <v>2706000</v>
+      </c>
+      <c r="K43" s="3">
         <v>8557000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2904600</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3161900</v>
+        <v>2594700</v>
       </c>
       <c r="E44" s="3">
-        <v>2945400</v>
+        <v>3205400</v>
       </c>
       <c r="F44" s="3">
-        <v>5429000</v>
+        <v>2985900</v>
       </c>
       <c r="G44" s="3">
-        <v>3140400</v>
+        <v>5503600</v>
       </c>
       <c r="H44" s="3">
-        <v>3789000</v>
+        <v>3183500</v>
       </c>
       <c r="I44" s="3">
-        <v>1748800</v>
+        <v>3841000</v>
       </c>
       <c r="J44" s="3">
+        <v>1772800</v>
+      </c>
+      <c r="K44" s="3">
         <v>6236600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2160100</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1997100</v>
+        <v>1925700</v>
       </c>
       <c r="E45" s="3">
-        <v>1243800</v>
+        <v>2024600</v>
       </c>
       <c r="F45" s="3">
-        <v>5211400</v>
+        <v>1260900</v>
       </c>
       <c r="G45" s="3">
-        <v>1699500</v>
+        <v>5283000</v>
       </c>
       <c r="H45" s="3">
-        <v>954400</v>
+        <v>1722900</v>
       </c>
       <c r="I45" s="3">
-        <v>1068300</v>
+        <v>967500</v>
       </c>
       <c r="J45" s="3">
+        <v>1083000</v>
+      </c>
+      <c r="K45" s="3">
         <v>3166000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>324100</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11964300</v>
+        <v>12702900</v>
       </c>
       <c r="E46" s="3">
-        <v>12949500</v>
+        <v>12128600</v>
       </c>
       <c r="F46" s="3">
-        <v>14814200</v>
+        <v>13127400</v>
       </c>
       <c r="G46" s="3">
-        <v>13681200</v>
+        <v>15017700</v>
       </c>
       <c r="H46" s="3">
-        <v>7421000</v>
+        <v>13869200</v>
       </c>
       <c r="I46" s="3">
-        <v>7789400</v>
+        <v>7522900</v>
       </c>
       <c r="J46" s="3">
+        <v>7896400</v>
+      </c>
+      <c r="K46" s="3">
         <v>8492400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8443600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3738700</v>
+        <v>3969000</v>
       </c>
       <c r="E47" s="3">
-        <v>3732500</v>
+        <v>3790100</v>
       </c>
       <c r="F47" s="3">
-        <v>5473100</v>
+        <v>3783800</v>
       </c>
       <c r="G47" s="3">
-        <v>3993200</v>
+        <v>5548300</v>
       </c>
       <c r="H47" s="3">
-        <v>2517400</v>
+        <v>4048100</v>
       </c>
       <c r="I47" s="3">
-        <v>2143900</v>
+        <v>2552000</v>
       </c>
       <c r="J47" s="3">
+        <v>2173300</v>
+      </c>
+      <c r="K47" s="3">
         <v>4013700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2152800</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28622700</v>
+        <v>28286600</v>
       </c>
       <c r="E48" s="3">
-        <v>30944100</v>
+        <v>29015900</v>
       </c>
       <c r="F48" s="3">
-        <v>65788000</v>
+        <v>31369200</v>
       </c>
       <c r="G48" s="3">
-        <v>37712300</v>
+        <v>66691900</v>
       </c>
       <c r="H48" s="3">
-        <v>44251700</v>
+        <v>38230500</v>
       </c>
       <c r="I48" s="3">
-        <v>20555200</v>
+        <v>44859700</v>
       </c>
       <c r="J48" s="3">
+        <v>20837600</v>
+      </c>
+      <c r="K48" s="3">
         <v>25485400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23747600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15245200</v>
+        <v>14235400</v>
       </c>
       <c r="E49" s="3">
-        <v>16004700</v>
+        <v>15454700</v>
       </c>
       <c r="F49" s="3">
-        <v>35435100</v>
+        <v>16224600</v>
       </c>
       <c r="G49" s="3">
-        <v>18376400</v>
+        <v>35921900</v>
       </c>
       <c r="H49" s="3">
-        <v>15869200</v>
+        <v>18628900</v>
       </c>
       <c r="I49" s="3">
-        <v>7682700</v>
+        <v>16087200</v>
       </c>
       <c r="J49" s="3">
+        <v>7788200</v>
+      </c>
+      <c r="K49" s="3">
         <v>25165200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8753300</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1692300</v>
+        <v>1470000</v>
       </c>
       <c r="E52" s="3">
-        <v>1721100</v>
+        <v>1715600</v>
       </c>
       <c r="F52" s="3">
-        <v>2640600</v>
+        <v>1744700</v>
       </c>
       <c r="G52" s="3">
-        <v>1460400</v>
+        <v>2676900</v>
       </c>
       <c r="H52" s="3">
-        <v>1015000</v>
+        <v>1480400</v>
       </c>
       <c r="I52" s="3">
-        <v>769700</v>
+        <v>1028900</v>
       </c>
       <c r="J52" s="3">
+        <v>780300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2361400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>968200</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>61263200</v>
+        <v>60664000</v>
       </c>
       <c r="E54" s="3">
-        <v>65351800</v>
+        <v>62104900</v>
       </c>
       <c r="F54" s="3">
-        <v>71445800</v>
+        <v>66249700</v>
       </c>
       <c r="G54" s="3">
-        <v>75223500</v>
+        <v>72427400</v>
       </c>
       <c r="H54" s="3">
-        <v>40527400</v>
+        <v>76257000</v>
       </c>
       <c r="I54" s="3">
-        <v>38940800</v>
+        <v>41084200</v>
       </c>
       <c r="J54" s="3">
+        <v>39475800</v>
+      </c>
+      <c r="K54" s="3">
         <v>42280300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44065500</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,188 +2139,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3869000</v>
+        <v>3677700</v>
       </c>
       <c r="E57" s="3">
-        <v>3812600</v>
+        <v>3922200</v>
       </c>
       <c r="F57" s="3">
-        <v>3393900</v>
+        <v>3865000</v>
       </c>
       <c r="G57" s="3">
-        <v>3790000</v>
+        <v>3440500</v>
       </c>
       <c r="H57" s="3">
-        <v>2179800</v>
+        <v>3842100</v>
       </c>
       <c r="I57" s="3">
-        <v>1984800</v>
+        <v>2209700</v>
       </c>
       <c r="J57" s="3">
+        <v>2012100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2202400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2481100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3054200</v>
+        <v>2065100</v>
       </c>
       <c r="E58" s="3">
-        <v>3832100</v>
+        <v>3096100</v>
       </c>
       <c r="F58" s="3">
-        <v>12248500</v>
+        <v>3884700</v>
       </c>
       <c r="G58" s="3">
-        <v>7002200</v>
+        <v>12416800</v>
       </c>
       <c r="H58" s="3">
-        <v>5096500</v>
+        <v>7098400</v>
       </c>
       <c r="I58" s="3">
-        <v>3113700</v>
+        <v>5166500</v>
       </c>
       <c r="J58" s="3">
+        <v>3156500</v>
+      </c>
+      <c r="K58" s="3">
         <v>5770700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2912900</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4085600</v>
+        <v>3770300</v>
       </c>
       <c r="E59" s="3">
-        <v>4176900</v>
+        <v>4141700</v>
       </c>
       <c r="F59" s="3">
-        <v>4367800</v>
+        <v>4234300</v>
       </c>
       <c r="G59" s="3">
-        <v>4429400</v>
+        <v>4427800</v>
       </c>
       <c r="H59" s="3">
-        <v>2484600</v>
+        <v>4490200</v>
       </c>
       <c r="I59" s="3">
-        <v>2558500</v>
+        <v>2518700</v>
       </c>
       <c r="J59" s="3">
+        <v>2593600</v>
+      </c>
+      <c r="K59" s="3">
         <v>5404300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2574300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11008800</v>
+        <v>9513100</v>
       </c>
       <c r="E60" s="3">
-        <v>11821600</v>
+        <v>11160000</v>
       </c>
       <c r="F60" s="3">
-        <v>12837600</v>
+        <v>11984000</v>
       </c>
       <c r="G60" s="3">
-        <v>15221600</v>
+        <v>13014000</v>
       </c>
       <c r="H60" s="3">
-        <v>7026900</v>
+        <v>15430800</v>
       </c>
       <c r="I60" s="3">
-        <v>7657000</v>
+        <v>7123400</v>
       </c>
       <c r="J60" s="3">
+        <v>7762200</v>
+      </c>
+      <c r="K60" s="3">
         <v>8517000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7968300</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13353800</v>
+        <v>12674800</v>
       </c>
       <c r="E61" s="3">
-        <v>15153900</v>
+        <v>13537300</v>
       </c>
       <c r="F61" s="3">
-        <v>15050200</v>
+        <v>15362100</v>
       </c>
       <c r="G61" s="3">
-        <v>15249300</v>
+        <v>15257000</v>
       </c>
       <c r="H61" s="3">
-        <v>9438600</v>
+        <v>15458900</v>
       </c>
       <c r="I61" s="3">
-        <v>9015800</v>
+        <v>9568300</v>
       </c>
       <c r="J61" s="3">
+        <v>9139700</v>
+      </c>
+      <c r="K61" s="3">
         <v>10110800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11932300</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6058100</v>
+        <v>5705400</v>
       </c>
       <c r="E62" s="3">
-        <v>6587600</v>
+        <v>6141300</v>
       </c>
       <c r="F62" s="3">
-        <v>10105700</v>
+        <v>6678100</v>
       </c>
       <c r="G62" s="3">
-        <v>8092100</v>
+        <v>10244500</v>
       </c>
       <c r="H62" s="3">
-        <v>4530000</v>
+        <v>8203300</v>
       </c>
       <c r="I62" s="3">
-        <v>3101400</v>
+        <v>4592200</v>
       </c>
       <c r="J62" s="3">
+        <v>3144000</v>
+      </c>
+      <c r="K62" s="3">
         <v>7285500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3809700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33630900</v>
+        <v>30944800</v>
       </c>
       <c r="E66" s="3">
-        <v>36834900</v>
+        <v>34092900</v>
       </c>
       <c r="F66" s="3">
-        <v>39814100</v>
+        <v>37341000</v>
       </c>
       <c r="G66" s="3">
-        <v>43034600</v>
+        <v>40361200</v>
       </c>
       <c r="H66" s="3">
-        <v>22639500</v>
+        <v>43625800</v>
       </c>
       <c r="I66" s="3">
-        <v>22310100</v>
+        <v>22950600</v>
       </c>
       <c r="J66" s="3">
+        <v>22616600</v>
+      </c>
+      <c r="K66" s="3">
         <v>25411500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26637700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17636400</v>
+        <v>19944900</v>
       </c>
       <c r="E72" s="3">
-        <v>15782000</v>
+        <v>17878800</v>
       </c>
       <c r="F72" s="3">
-        <v>16980700</v>
+        <v>15998800</v>
       </c>
       <c r="G72" s="3">
-        <v>15381700</v>
+        <v>17214000</v>
       </c>
       <c r="H72" s="3">
-        <v>28243000</v>
+        <v>15593100</v>
       </c>
       <c r="I72" s="3">
-        <v>17748300</v>
+        <v>28631000</v>
       </c>
       <c r="J72" s="3">
+        <v>17992200</v>
+      </c>
+      <c r="K72" s="3">
         <v>16222200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16345700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27632300</v>
+        <v>29719200</v>
       </c>
       <c r="E76" s="3">
-        <v>28517000</v>
+        <v>28012000</v>
       </c>
       <c r="F76" s="3">
-        <v>31631700</v>
+        <v>28908800</v>
       </c>
       <c r="G76" s="3">
-        <v>32189000</v>
+        <v>32066300</v>
       </c>
       <c r="H76" s="3">
-        <v>17887900</v>
+        <v>32631200</v>
       </c>
       <c r="I76" s="3">
-        <v>16630700</v>
+        <v>18133600</v>
       </c>
       <c r="J76" s="3">
+        <v>16859200</v>
+      </c>
+      <c r="K76" s="3">
         <v>16868800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17427800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1541500</v>
+        <v>2314600</v>
       </c>
       <c r="E81" s="3">
-        <v>-1719000</v>
+        <v>1557600</v>
       </c>
       <c r="F81" s="3">
-        <v>1838000</v>
+        <v>-1737000</v>
       </c>
       <c r="G81" s="3">
-        <v>-1507600</v>
+        <v>1857300</v>
       </c>
       <c r="H81" s="3">
-        <v>1319800</v>
+        <v>-1523400</v>
       </c>
       <c r="I81" s="3">
-        <v>1305400</v>
+        <v>1333600</v>
       </c>
       <c r="J81" s="3">
+        <v>1319100</v>
+      </c>
+      <c r="K81" s="3">
         <v>626000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>284800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2301900</v>
+        <v>2571800</v>
       </c>
       <c r="E83" s="3">
-        <v>6359800</v>
+        <v>2326000</v>
       </c>
       <c r="F83" s="3">
-        <v>2410700</v>
+        <v>6426400</v>
       </c>
       <c r="G83" s="3">
-        <v>4537100</v>
+        <v>2436000</v>
       </c>
       <c r="H83" s="3">
-        <v>1438800</v>
+        <v>4584700</v>
       </c>
       <c r="I83" s="3">
-        <v>1578400</v>
+        <v>1453900</v>
       </c>
       <c r="J83" s="3">
+        <v>1594900</v>
+      </c>
+      <c r="K83" s="3">
         <v>2196200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2096900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3066500</v>
+        <v>5003600</v>
       </c>
       <c r="E89" s="3">
-        <v>3119900</v>
+        <v>3098600</v>
       </c>
       <c r="F89" s="3">
-        <v>3381600</v>
+        <v>3152500</v>
       </c>
       <c r="G89" s="3">
-        <v>2529800</v>
+        <v>3417000</v>
       </c>
       <c r="H89" s="3">
-        <v>2549300</v>
+        <v>2556300</v>
       </c>
       <c r="I89" s="3">
-        <v>2860200</v>
+        <v>2576000</v>
       </c>
       <c r="J89" s="3">
+        <v>2890200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2712400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2850800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1448100</v>
+        <v>-1590800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1562000</v>
+        <v>-1463200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1819600</v>
+        <v>-1578300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2161300</v>
+        <v>-1838600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1996100</v>
+        <v>-2184000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2262900</v>
+        <v>-2017000</v>
       </c>
       <c r="J91" s="3">
+        <v>-2286600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3541700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1839100</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1422400</v>
+        <v>-227100</v>
       </c>
       <c r="E94" s="3">
-        <v>-692700</v>
+        <v>-1437300</v>
       </c>
       <c r="F94" s="3">
-        <v>724500</v>
+        <v>-700000</v>
       </c>
       <c r="G94" s="3">
-        <v>5371500</v>
+        <v>732100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1746700</v>
+        <v>5427800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1708700</v>
+        <v>-1765000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1726600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1228400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1854600</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,38 +3293,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1223300</v>
+        <v>-333900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1243800</v>
+        <v>-1236100</v>
       </c>
       <c r="F96" s="3">
-        <v>-932900</v>
+        <v>-1256900</v>
       </c>
       <c r="G96" s="3">
-        <v>-435100</v>
+        <v>-942700</v>
       </c>
       <c r="H96" s="3">
-        <v>-435100</v>
+        <v>-439700</v>
       </c>
       <c r="I96" s="3">
-        <v>-383800</v>
+        <v>-439700</v>
       </c>
       <c r="J96" s="3">
+        <v>-387800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-558300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-497000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3246100</v>
+        <v>-2727400</v>
       </c>
       <c r="E100" s="3">
-        <v>-3164000</v>
+        <v>-3280100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2954600</v>
+        <v>-3197100</v>
       </c>
       <c r="G100" s="3">
-        <v>-6157600</v>
+        <v>-2985600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1008800</v>
+        <v>-6222100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1667700</v>
+        <v>-1019400</v>
       </c>
       <c r="J100" s="3">
+        <v>-1685200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1156600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1414500</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-132400</v>
+        <v>-232300</v>
       </c>
       <c r="E101" s="3">
-        <v>-125200</v>
+        <v>-133800</v>
       </c>
       <c r="F101" s="3">
-        <v>-101600</v>
+        <v>-126500</v>
       </c>
       <c r="G101" s="3">
-        <v>134400</v>
+        <v>-102700</v>
       </c>
       <c r="H101" s="3">
-        <v>153900</v>
+        <v>135800</v>
       </c>
       <c r="I101" s="3">
-        <v>-220600</v>
+        <v>155600</v>
       </c>
       <c r="J101" s="3">
+        <v>-223000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-80000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-174000</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1734400</v>
+        <v>1816900</v>
       </c>
       <c r="E102" s="3">
-        <v>-862100</v>
+        <v>-1752600</v>
       </c>
       <c r="F102" s="3">
-        <v>1049900</v>
+        <v>-871100</v>
       </c>
       <c r="G102" s="3">
-        <v>1878100</v>
+        <v>1060900</v>
       </c>
       <c r="H102" s="3">
-        <v>-52300</v>
+        <v>1897700</v>
       </c>
       <c r="I102" s="3">
-        <v>-736900</v>
+        <v>-52900</v>
       </c>
       <c r="J102" s="3">
+        <v>-744600</v>
+      </c>
+      <c r="K102" s="3">
         <v>247300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-592300</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27711200</v>
+        <v>29426300</v>
       </c>
       <c r="E8" s="3">
-        <v>28482800</v>
+        <v>30245600</v>
       </c>
       <c r="F8" s="3">
-        <v>28021300</v>
+        <v>29755500</v>
       </c>
       <c r="G8" s="3">
-        <v>27900000</v>
+        <v>29626700</v>
       </c>
       <c r="H8" s="3">
-        <v>24457100</v>
+        <v>25970700</v>
       </c>
       <c r="I8" s="3">
-        <v>19521900</v>
+        <v>20730100</v>
       </c>
       <c r="J8" s="3">
-        <v>20449000</v>
+        <v>21714600</v>
       </c>
       <c r="K8" s="3">
         <v>21715900</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16012600</v>
+        <v>17003600</v>
       </c>
       <c r="E9" s="3">
-        <v>16397400</v>
+        <v>17412200</v>
       </c>
       <c r="F9" s="3">
-        <v>38796000</v>
+        <v>41197000</v>
       </c>
       <c r="G9" s="3">
-        <v>32421400</v>
+        <v>34427900</v>
       </c>
       <c r="H9" s="3">
-        <v>17100500</v>
+        <v>18158800</v>
       </c>
       <c r="I9" s="3">
-        <v>21785700</v>
+        <v>23134000</v>
       </c>
       <c r="J9" s="3">
-        <v>11497400</v>
+        <v>12209000</v>
       </c>
       <c r="K9" s="3">
         <v>17829400</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11698600</v>
+        <v>12422600</v>
       </c>
       <c r="E10" s="3">
-        <v>12085400</v>
+        <v>12833400</v>
       </c>
       <c r="F10" s="3">
-        <v>-10774600</v>
+        <v>-11441500</v>
       </c>
       <c r="G10" s="3">
-        <v>-4521400</v>
+        <v>-4801200</v>
       </c>
       <c r="H10" s="3">
-        <v>7356600</v>
+        <v>7811900</v>
       </c>
       <c r="I10" s="3">
-        <v>-2263800</v>
+        <v>-2403900</v>
       </c>
       <c r="J10" s="3">
-        <v>8951600</v>
+        <v>9505600</v>
       </c>
       <c r="K10" s="3">
         <v>3886500</v>
@@ -899,22 +899,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-238500</v>
+        <v>-253300</v>
       </c>
       <c r="E14" s="3">
-        <v>590100</v>
+        <v>626600</v>
       </c>
       <c r="F14" s="3">
-        <v>-106800</v>
+        <v>-113400</v>
       </c>
       <c r="G14" s="3">
-        <v>-722800</v>
+        <v>-767500</v>
       </c>
       <c r="H14" s="3">
-        <v>-1103400</v>
+        <v>-1171700</v>
       </c>
       <c r="I14" s="3">
-        <v>-182500</v>
+        <v>-193800</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -947,7 +947,7 @@
         <v>8</v>
       </c>
       <c r="I15" s="3">
-        <v>255100</v>
+        <v>270900</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23497800</v>
+        <v>24952100</v>
       </c>
       <c r="E17" s="3">
-        <v>25146700</v>
+        <v>26703000</v>
       </c>
       <c r="F17" s="3">
-        <v>28390500</v>
+        <v>30147600</v>
       </c>
       <c r="G17" s="3">
-        <v>24104500</v>
+        <v>25596300</v>
       </c>
       <c r="H17" s="3">
-        <v>24120000</v>
+        <v>25612800</v>
       </c>
       <c r="I17" s="3">
-        <v>17013400</v>
+        <v>18066300</v>
       </c>
       <c r="J17" s="3">
-        <v>18004700</v>
+        <v>19119000</v>
       </c>
       <c r="K17" s="3">
         <v>19920900</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4213400</v>
+        <v>4474200</v>
       </c>
       <c r="E18" s="3">
-        <v>3336100</v>
+        <v>3542600</v>
       </c>
       <c r="F18" s="3">
-        <v>-369200</v>
+        <v>-392000</v>
       </c>
       <c r="G18" s="3">
-        <v>3795500</v>
+        <v>4030400</v>
       </c>
       <c r="H18" s="3">
-        <v>337000</v>
+        <v>357900</v>
       </c>
       <c r="I18" s="3">
-        <v>2508600</v>
+        <v>2663800</v>
       </c>
       <c r="J18" s="3">
-        <v>2444300</v>
+        <v>2595500</v>
       </c>
       <c r="K18" s="3">
         <v>1794900</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-139000</v>
+        <v>-147600</v>
       </c>
       <c r="E20" s="3">
-        <v>-126500</v>
+        <v>-134300</v>
       </c>
       <c r="F20" s="3">
-        <v>-88100</v>
+        <v>-93600</v>
       </c>
       <c r="G20" s="3">
-        <v>87100</v>
+        <v>92500</v>
       </c>
       <c r="H20" s="3">
-        <v>-189800</v>
+        <v>-201500</v>
       </c>
       <c r="I20" s="3">
-        <v>273800</v>
+        <v>290700</v>
       </c>
       <c r="J20" s="3">
-        <v>361900</v>
+        <v>384300</v>
       </c>
       <c r="K20" s="3">
         <v>447500</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6635600</v>
+        <v>7059400</v>
       </c>
       <c r="E21" s="3">
-        <v>5526000</v>
+        <v>5879800</v>
       </c>
       <c r="F21" s="3">
-        <v>5942600</v>
+        <v>6343000</v>
       </c>
       <c r="G21" s="3">
-        <v>6308500</v>
+        <v>6711300</v>
       </c>
       <c r="H21" s="3">
-        <v>4713000</v>
+        <v>5028000</v>
       </c>
       <c r="I21" s="3">
-        <v>4230200</v>
+        <v>4499400</v>
       </c>
       <c r="J21" s="3">
-        <v>4394500</v>
+        <v>4674600</v>
       </c>
       <c r="K21" s="3">
         <v>4441300</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>632600</v>
+        <v>671700</v>
       </c>
       <c r="E22" s="3">
-        <v>746700</v>
+        <v>792900</v>
       </c>
       <c r="F22" s="3">
-        <v>766400</v>
+        <v>813800</v>
       </c>
       <c r="G22" s="3">
-        <v>893900</v>
+        <v>949200</v>
       </c>
       <c r="H22" s="3">
-        <v>856600</v>
+        <v>909600</v>
       </c>
       <c r="I22" s="3">
-        <v>499800</v>
+        <v>530800</v>
       </c>
       <c r="J22" s="3">
-        <v>599400</v>
+        <v>636500</v>
       </c>
       <c r="K22" s="3">
         <v>649600</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3441900</v>
+        <v>3654900</v>
       </c>
       <c r="E23" s="3">
-        <v>2462900</v>
+        <v>2615400</v>
       </c>
       <c r="F23" s="3">
-        <v>-1223700</v>
+        <v>-1299400</v>
       </c>
       <c r="G23" s="3">
-        <v>2988700</v>
+        <v>3173700</v>
       </c>
       <c r="H23" s="3">
-        <v>-709300</v>
+        <v>-753200</v>
       </c>
       <c r="I23" s="3">
-        <v>2282500</v>
+        <v>2423700</v>
       </c>
       <c r="J23" s="3">
-        <v>2206800</v>
+        <v>2343400</v>
       </c>
       <c r="K23" s="3">
         <v>1592800</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>835800</v>
+        <v>887600</v>
       </c>
       <c r="E24" s="3">
-        <v>680300</v>
+        <v>722400</v>
       </c>
       <c r="F24" s="3">
-        <v>555800</v>
+        <v>590200</v>
       </c>
       <c r="G24" s="3">
-        <v>865900</v>
+        <v>919500</v>
       </c>
       <c r="H24" s="3">
-        <v>809900</v>
+        <v>860000</v>
       </c>
       <c r="I24" s="3">
-        <v>602500</v>
+        <v>639800</v>
       </c>
       <c r="J24" s="3">
-        <v>551700</v>
+        <v>585800</v>
       </c>
       <c r="K24" s="3">
         <v>564400</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2606000</v>
+        <v>2767300</v>
       </c>
       <c r="E26" s="3">
-        <v>1782600</v>
+        <v>1893000</v>
       </c>
       <c r="F26" s="3">
-        <v>-1779500</v>
+        <v>-1889700</v>
       </c>
       <c r="G26" s="3">
-        <v>2122800</v>
+        <v>2254200</v>
       </c>
       <c r="H26" s="3">
-        <v>-1519200</v>
+        <v>-1613300</v>
       </c>
       <c r="I26" s="3">
-        <v>1680000</v>
+        <v>1783900</v>
       </c>
       <c r="J26" s="3">
-        <v>1655100</v>
+        <v>1757500</v>
       </c>
       <c r="K26" s="3">
         <v>1028300</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2314600</v>
+        <v>2457900</v>
       </c>
       <c r="E27" s="3">
-        <v>1557600</v>
+        <v>1654000</v>
       </c>
       <c r="F27" s="3">
-        <v>-1737000</v>
+        <v>-1844500</v>
       </c>
       <c r="G27" s="3">
-        <v>1812700</v>
+        <v>1924900</v>
       </c>
       <c r="H27" s="3">
-        <v>-1630200</v>
+        <v>-1731100</v>
       </c>
       <c r="I27" s="3">
-        <v>1333600</v>
+        <v>1416100</v>
       </c>
       <c r="J27" s="3">
-        <v>1319100</v>
+        <v>1400700</v>
       </c>
       <c r="K27" s="3">
         <v>626000</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>44600</v>
+        <v>47400</v>
       </c>
       <c r="H29" s="3">
-        <v>106800</v>
+        <v>113400</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>139000</v>
+        <v>147600</v>
       </c>
       <c r="E32" s="3">
-        <v>126500</v>
+        <v>134300</v>
       </c>
       <c r="F32" s="3">
-        <v>88100</v>
+        <v>93600</v>
       </c>
       <c r="G32" s="3">
-        <v>-87100</v>
+        <v>-92500</v>
       </c>
       <c r="H32" s="3">
-        <v>189800</v>
+        <v>201500</v>
       </c>
       <c r="I32" s="3">
-        <v>-273800</v>
+        <v>-290700</v>
       </c>
       <c r="J32" s="3">
-        <v>-361900</v>
+        <v>-384300</v>
       </c>
       <c r="K32" s="3">
         <v>-447500</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2314600</v>
+        <v>2457900</v>
       </c>
       <c r="E33" s="3">
-        <v>1557600</v>
+        <v>1654000</v>
       </c>
       <c r="F33" s="3">
-        <v>-1737000</v>
+        <v>-1844500</v>
       </c>
       <c r="G33" s="3">
-        <v>1857300</v>
+        <v>1972200</v>
       </c>
       <c r="H33" s="3">
-        <v>-1523400</v>
+        <v>-1617700</v>
       </c>
       <c r="I33" s="3">
-        <v>1333600</v>
+        <v>1416100</v>
       </c>
       <c r="J33" s="3">
-        <v>1319100</v>
+        <v>1400700</v>
       </c>
       <c r="K33" s="3">
         <v>626000</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2314600</v>
+        <v>2457900</v>
       </c>
       <c r="E35" s="3">
-        <v>1557600</v>
+        <v>1654000</v>
       </c>
       <c r="F35" s="3">
-        <v>-1737000</v>
+        <v>-1844500</v>
       </c>
       <c r="G35" s="3">
-        <v>1857300</v>
+        <v>1972200</v>
       </c>
       <c r="H35" s="3">
-        <v>-1523400</v>
+        <v>-1617700</v>
       </c>
       <c r="I35" s="3">
-        <v>1333600</v>
+        <v>1416100</v>
       </c>
       <c r="J35" s="3">
-        <v>1319100</v>
+        <v>1400700</v>
       </c>
       <c r="K35" s="3">
         <v>626000</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2408500</v>
+        <v>2549300</v>
       </c>
       <c r="E41" s="3">
-        <v>1588600</v>
+        <v>1681500</v>
       </c>
       <c r="F41" s="3">
-        <v>2547900</v>
+        <v>2696800</v>
       </c>
       <c r="G41" s="3">
-        <v>8426000</v>
+        <v>8918600</v>
       </c>
       <c r="H41" s="3">
-        <v>3324000</v>
+        <v>3518300</v>
       </c>
       <c r="I41" s="3">
-        <v>3052400</v>
+        <v>3230900</v>
       </c>
       <c r="J41" s="3">
-        <v>639800</v>
+        <v>677200</v>
       </c>
       <c r="K41" s="3">
         <v>1814400</v>
@@ -1687,25 +1687,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1911200</v>
+        <v>2022900</v>
       </c>
       <c r="E42" s="3">
-        <v>1031000</v>
+        <v>1091300</v>
       </c>
       <c r="F42" s="3">
-        <v>1840400</v>
+        <v>1948000</v>
       </c>
       <c r="G42" s="3">
-        <v>1817500</v>
+        <v>1923800</v>
       </c>
       <c r="H42" s="3">
-        <v>1246400</v>
+        <v>1319200</v>
       </c>
       <c r="I42" s="3">
-        <v>1417000</v>
+        <v>1499800</v>
       </c>
       <c r="J42" s="3">
-        <v>1694800</v>
+        <v>1793900</v>
       </c>
       <c r="K42" s="3">
         <v>2299900</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3862900</v>
+        <v>4088800</v>
       </c>
       <c r="E43" s="3">
-        <v>4279000</v>
+        <v>4529200</v>
       </c>
       <c r="F43" s="3">
-        <v>4492300</v>
+        <v>4755000</v>
       </c>
       <c r="G43" s="3">
-        <v>7244100</v>
+        <v>7667700</v>
       </c>
       <c r="H43" s="3">
-        <v>4392400</v>
+        <v>4649300</v>
       </c>
       <c r="I43" s="3">
-        <v>5509800</v>
+        <v>5832000</v>
       </c>
       <c r="J43" s="3">
-        <v>2706000</v>
+        <v>2864200</v>
       </c>
       <c r="K43" s="3">
         <v>8557000</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2594700</v>
+        <v>2746400</v>
       </c>
       <c r="E44" s="3">
-        <v>3205400</v>
+        <v>3392800</v>
       </c>
       <c r="F44" s="3">
-        <v>2985900</v>
+        <v>3160400</v>
       </c>
       <c r="G44" s="3">
-        <v>5503600</v>
+        <v>5825300</v>
       </c>
       <c r="H44" s="3">
-        <v>3183500</v>
+        <v>3369700</v>
       </c>
       <c r="I44" s="3">
-        <v>3841000</v>
+        <v>4065600</v>
       </c>
       <c r="J44" s="3">
-        <v>1772800</v>
+        <v>1876400</v>
       </c>
       <c r="K44" s="3">
         <v>6236600</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1925700</v>
+        <v>2038300</v>
       </c>
       <c r="E45" s="3">
-        <v>2024600</v>
+        <v>2142900</v>
       </c>
       <c r="F45" s="3">
-        <v>1260900</v>
+        <v>1334700</v>
       </c>
       <c r="G45" s="3">
-        <v>5283000</v>
+        <v>5591900</v>
       </c>
       <c r="H45" s="3">
-        <v>1722900</v>
+        <v>1823600</v>
       </c>
       <c r="I45" s="3">
-        <v>967500</v>
+        <v>1024100</v>
       </c>
       <c r="J45" s="3">
-        <v>1083000</v>
+        <v>1146300</v>
       </c>
       <c r="K45" s="3">
         <v>3166000</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12702900</v>
+        <v>13445700</v>
       </c>
       <c r="E46" s="3">
-        <v>12128600</v>
+        <v>12837800</v>
       </c>
       <c r="F46" s="3">
-        <v>13127400</v>
+        <v>13894900</v>
       </c>
       <c r="G46" s="3">
-        <v>15017700</v>
+        <v>15895800</v>
       </c>
       <c r="H46" s="3">
-        <v>13869200</v>
+        <v>14680100</v>
       </c>
       <c r="I46" s="3">
-        <v>7522900</v>
+        <v>7962800</v>
       </c>
       <c r="J46" s="3">
-        <v>7896400</v>
+        <v>8358100</v>
       </c>
       <c r="K46" s="3">
         <v>8492400</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3969000</v>
+        <v>4201100</v>
       </c>
       <c r="E47" s="3">
-        <v>3790100</v>
+        <v>4011700</v>
       </c>
       <c r="F47" s="3">
-        <v>3783800</v>
+        <v>4005100</v>
       </c>
       <c r="G47" s="3">
-        <v>5548300</v>
+        <v>5872700</v>
       </c>
       <c r="H47" s="3">
-        <v>4048100</v>
+        <v>4284800</v>
       </c>
       <c r="I47" s="3">
-        <v>2552000</v>
+        <v>2701200</v>
       </c>
       <c r="J47" s="3">
-        <v>2173300</v>
+        <v>2300400</v>
       </c>
       <c r="K47" s="3">
         <v>4013700</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28286600</v>
+        <v>29940500</v>
       </c>
       <c r="E48" s="3">
-        <v>29015900</v>
+        <v>30712500</v>
       </c>
       <c r="F48" s="3">
-        <v>31369200</v>
+        <v>33203400</v>
       </c>
       <c r="G48" s="3">
-        <v>66691900</v>
+        <v>70591300</v>
       </c>
       <c r="H48" s="3">
-        <v>38230500</v>
+        <v>40465800</v>
       </c>
       <c r="I48" s="3">
-        <v>44859700</v>
+        <v>47482600</v>
       </c>
       <c r="J48" s="3">
-        <v>20837600</v>
+        <v>22055900</v>
       </c>
       <c r="K48" s="3">
         <v>25485400</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14235400</v>
+        <v>15067700</v>
       </c>
       <c r="E49" s="3">
-        <v>15454700</v>
+        <v>16358300</v>
       </c>
       <c r="F49" s="3">
-        <v>16224600</v>
+        <v>17173200</v>
       </c>
       <c r="G49" s="3">
-        <v>35921900</v>
+        <v>38022200</v>
       </c>
       <c r="H49" s="3">
-        <v>18628900</v>
+        <v>19718100</v>
       </c>
       <c r="I49" s="3">
-        <v>16087200</v>
+        <v>17027900</v>
       </c>
       <c r="J49" s="3">
-        <v>7788200</v>
+        <v>8243600</v>
       </c>
       <c r="K49" s="3">
         <v>25165200</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1470000</v>
+        <v>1556000</v>
       </c>
       <c r="E52" s="3">
-        <v>1715600</v>
+        <v>1815900</v>
       </c>
       <c r="F52" s="3">
-        <v>1744700</v>
+        <v>1846700</v>
       </c>
       <c r="G52" s="3">
-        <v>2676900</v>
+        <v>2833400</v>
       </c>
       <c r="H52" s="3">
-        <v>1480400</v>
+        <v>1567000</v>
       </c>
       <c r="I52" s="3">
-        <v>1028900</v>
+        <v>1089100</v>
       </c>
       <c r="J52" s="3">
-        <v>780300</v>
+        <v>825900</v>
       </c>
       <c r="K52" s="3">
         <v>2361400</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60664000</v>
+        <v>64211000</v>
       </c>
       <c r="E54" s="3">
-        <v>62104900</v>
+        <v>65736100</v>
       </c>
       <c r="F54" s="3">
-        <v>66249700</v>
+        <v>70123300</v>
       </c>
       <c r="G54" s="3">
-        <v>72427400</v>
+        <v>76662200</v>
       </c>
       <c r="H54" s="3">
-        <v>76257000</v>
+        <v>80715800</v>
       </c>
       <c r="I54" s="3">
-        <v>41084200</v>
+        <v>43486400</v>
       </c>
       <c r="J54" s="3">
-        <v>39475800</v>
+        <v>41783900</v>
       </c>
       <c r="K54" s="3">
         <v>42280300</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3677700</v>
+        <v>3892700</v>
       </c>
       <c r="E57" s="3">
-        <v>3922200</v>
+        <v>4151500</v>
       </c>
       <c r="F57" s="3">
-        <v>3865000</v>
+        <v>4091000</v>
       </c>
       <c r="G57" s="3">
-        <v>3440500</v>
+        <v>3641700</v>
       </c>
       <c r="H57" s="3">
-        <v>3842100</v>
+        <v>4066700</v>
       </c>
       <c r="I57" s="3">
-        <v>2209700</v>
+        <v>2338900</v>
       </c>
       <c r="J57" s="3">
-        <v>2012100</v>
+        <v>2129700</v>
       </c>
       <c r="K57" s="3">
         <v>2202400</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2065100</v>
+        <v>2185900</v>
       </c>
       <c r="E58" s="3">
-        <v>3096100</v>
+        <v>3277200</v>
       </c>
       <c r="F58" s="3">
-        <v>3884700</v>
+        <v>4111900</v>
       </c>
       <c r="G58" s="3">
-        <v>12416800</v>
+        <v>13142800</v>
       </c>
       <c r="H58" s="3">
-        <v>7098400</v>
+        <v>7513500</v>
       </c>
       <c r="I58" s="3">
-        <v>5166500</v>
+        <v>5468600</v>
       </c>
       <c r="J58" s="3">
-        <v>3156500</v>
+        <v>3341000</v>
       </c>
       <c r="K58" s="3">
         <v>5770700</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3770300</v>
+        <v>3990700</v>
       </c>
       <c r="E59" s="3">
-        <v>4141700</v>
+        <v>4383900</v>
       </c>
       <c r="F59" s="3">
-        <v>4234300</v>
+        <v>4481900</v>
       </c>
       <c r="G59" s="3">
-        <v>4427800</v>
+        <v>4686700</v>
       </c>
       <c r="H59" s="3">
-        <v>4490200</v>
+        <v>4752800</v>
       </c>
       <c r="I59" s="3">
-        <v>2518700</v>
+        <v>2666000</v>
       </c>
       <c r="J59" s="3">
-        <v>2593600</v>
+        <v>2745300</v>
       </c>
       <c r="K59" s="3">
         <v>5404300</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9513100</v>
+        <v>10069400</v>
       </c>
       <c r="E60" s="3">
-        <v>11160000</v>
+        <v>11812600</v>
       </c>
       <c r="F60" s="3">
-        <v>11984000</v>
+        <v>12684700</v>
       </c>
       <c r="G60" s="3">
-        <v>13014000</v>
+        <v>13774900</v>
       </c>
       <c r="H60" s="3">
-        <v>15430800</v>
+        <v>16333000</v>
       </c>
       <c r="I60" s="3">
-        <v>7123400</v>
+        <v>7539900</v>
       </c>
       <c r="J60" s="3">
-        <v>7762200</v>
+        <v>8216100</v>
       </c>
       <c r="K60" s="3">
         <v>8517000</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12674800</v>
+        <v>13415900</v>
       </c>
       <c r="E61" s="3">
-        <v>13537300</v>
+        <v>14328800</v>
       </c>
       <c r="F61" s="3">
-        <v>15362100</v>
+        <v>16260300</v>
       </c>
       <c r="G61" s="3">
-        <v>15257000</v>
+        <v>16149100</v>
       </c>
       <c r="H61" s="3">
-        <v>15458900</v>
+        <v>16362700</v>
       </c>
       <c r="I61" s="3">
-        <v>9568300</v>
+        <v>10127700</v>
       </c>
       <c r="J61" s="3">
-        <v>9139700</v>
+        <v>9674000</v>
       </c>
       <c r="K61" s="3">
         <v>10110800</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5705400</v>
+        <v>6039000</v>
       </c>
       <c r="E62" s="3">
-        <v>6141300</v>
+        <v>6500400</v>
       </c>
       <c r="F62" s="3">
-        <v>6678100</v>
+        <v>7068600</v>
       </c>
       <c r="G62" s="3">
-        <v>10244500</v>
+        <v>10843500</v>
       </c>
       <c r="H62" s="3">
-        <v>8203300</v>
+        <v>8683000</v>
       </c>
       <c r="I62" s="3">
-        <v>4592200</v>
+        <v>4860700</v>
       </c>
       <c r="J62" s="3">
-        <v>3144000</v>
+        <v>3327800</v>
       </c>
       <c r="K62" s="3">
         <v>7285500</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30944800</v>
+        <v>32754100</v>
       </c>
       <c r="E66" s="3">
-        <v>34092900</v>
+        <v>36086300</v>
       </c>
       <c r="F66" s="3">
-        <v>37341000</v>
+        <v>39524300</v>
       </c>
       <c r="G66" s="3">
-        <v>40361200</v>
+        <v>42721100</v>
       </c>
       <c r="H66" s="3">
-        <v>43625800</v>
+        <v>46176600</v>
       </c>
       <c r="I66" s="3">
-        <v>22950600</v>
+        <v>24292500</v>
       </c>
       <c r="J66" s="3">
-        <v>22616600</v>
+        <v>23939000</v>
       </c>
       <c r="K66" s="3">
         <v>25411500</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19944900</v>
+        <v>21111100</v>
       </c>
       <c r="E72" s="3">
-        <v>17878800</v>
+        <v>18924100</v>
       </c>
       <c r="F72" s="3">
-        <v>15998800</v>
+        <v>16934300</v>
       </c>
       <c r="G72" s="3">
-        <v>17214000</v>
+        <v>18220500</v>
       </c>
       <c r="H72" s="3">
-        <v>15593100</v>
+        <v>16504800</v>
       </c>
       <c r="I72" s="3">
-        <v>28631000</v>
+        <v>30305000</v>
       </c>
       <c r="J72" s="3">
-        <v>17992200</v>
+        <v>19044200</v>
       </c>
       <c r="K72" s="3">
         <v>16222200</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29719200</v>
+        <v>31456900</v>
       </c>
       <c r="E76" s="3">
-        <v>28012000</v>
+        <v>29649800</v>
       </c>
       <c r="F76" s="3">
-        <v>28908800</v>
+        <v>30599000</v>
       </c>
       <c r="G76" s="3">
-        <v>32066300</v>
+        <v>33941200</v>
       </c>
       <c r="H76" s="3">
-        <v>32631200</v>
+        <v>34539100</v>
       </c>
       <c r="I76" s="3">
-        <v>18133600</v>
+        <v>19193900</v>
       </c>
       <c r="J76" s="3">
-        <v>16859200</v>
+        <v>17844900</v>
       </c>
       <c r="K76" s="3">
         <v>16868800</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2314600</v>
+        <v>2457900</v>
       </c>
       <c r="E81" s="3">
-        <v>1557600</v>
+        <v>1654000</v>
       </c>
       <c r="F81" s="3">
-        <v>-1737000</v>
+        <v>-1844500</v>
       </c>
       <c r="G81" s="3">
-        <v>1857300</v>
+        <v>1972200</v>
       </c>
       <c r="H81" s="3">
-        <v>-1523400</v>
+        <v>-1617700</v>
       </c>
       <c r="I81" s="3">
-        <v>1333600</v>
+        <v>1416100</v>
       </c>
       <c r="J81" s="3">
-        <v>1319100</v>
+        <v>1400700</v>
       </c>
       <c r="K81" s="3">
         <v>626000</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2571800</v>
+        <v>2731000</v>
       </c>
       <c r="E83" s="3">
-        <v>2326000</v>
+        <v>2470000</v>
       </c>
       <c r="F83" s="3">
-        <v>6426400</v>
+        <v>6824100</v>
       </c>
       <c r="G83" s="3">
-        <v>2436000</v>
+        <v>2586700</v>
       </c>
       <c r="H83" s="3">
-        <v>4584700</v>
+        <v>4868400</v>
       </c>
       <c r="I83" s="3">
-        <v>1453900</v>
+        <v>1543900</v>
       </c>
       <c r="J83" s="3">
-        <v>1594900</v>
+        <v>1693600</v>
       </c>
       <c r="K83" s="3">
         <v>2196200</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5003600</v>
+        <v>5313300</v>
       </c>
       <c r="E89" s="3">
-        <v>3098600</v>
+        <v>3290400</v>
       </c>
       <c r="F89" s="3">
-        <v>3152500</v>
+        <v>3347600</v>
       </c>
       <c r="G89" s="3">
-        <v>3417000</v>
+        <v>3628500</v>
       </c>
       <c r="H89" s="3">
-        <v>2556300</v>
+        <v>2714500</v>
       </c>
       <c r="I89" s="3">
-        <v>2576000</v>
+        <v>2735400</v>
       </c>
       <c r="J89" s="3">
-        <v>2890200</v>
+        <v>3069000</v>
       </c>
       <c r="K89" s="3">
         <v>2712400</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1590800</v>
+        <v>-1689200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1463200</v>
+        <v>-1553800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1578300</v>
+        <v>-1676000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1838600</v>
+        <v>-1952400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2184000</v>
+        <v>-2319100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2017000</v>
+        <v>-2141800</v>
       </c>
       <c r="J91" s="3">
-        <v>-2286600</v>
+        <v>-2428100</v>
       </c>
       <c r="K91" s="3">
         <v>-3541700</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-227100</v>
+        <v>-241200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1437300</v>
+        <v>-1526300</v>
       </c>
       <c r="F94" s="3">
-        <v>-700000</v>
+        <v>-743300</v>
       </c>
       <c r="G94" s="3">
-        <v>732100</v>
+        <v>777400</v>
       </c>
       <c r="H94" s="3">
-        <v>5427800</v>
+        <v>5763700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1765000</v>
+        <v>-1874200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1726600</v>
+        <v>-1833500</v>
       </c>
       <c r="K94" s="3">
         <v>-1228400</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-333900</v>
+        <v>-354600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1236100</v>
+        <v>-1312600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1256900</v>
+        <v>-1334700</v>
       </c>
       <c r="G96" s="3">
-        <v>-942700</v>
+        <v>-1001000</v>
       </c>
       <c r="H96" s="3">
-        <v>-439700</v>
+        <v>-466900</v>
       </c>
       <c r="I96" s="3">
-        <v>-439700</v>
+        <v>-466900</v>
       </c>
       <c r="J96" s="3">
-        <v>-387800</v>
+        <v>-411800</v>
       </c>
       <c r="K96" s="3">
         <v>-558300</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2727400</v>
+        <v>-2896200</v>
       </c>
       <c r="E100" s="3">
-        <v>-3280100</v>
+        <v>-3483100</v>
       </c>
       <c r="F100" s="3">
-        <v>-3197100</v>
+        <v>-3395000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2985600</v>
+        <v>-3170400</v>
       </c>
       <c r="H100" s="3">
-        <v>-6222100</v>
+        <v>-6607200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1019400</v>
+        <v>-1082500</v>
       </c>
       <c r="J100" s="3">
-        <v>-1685200</v>
+        <v>-1789500</v>
       </c>
       <c r="K100" s="3">
         <v>-1156600</v>
@@ -3465,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-232300</v>
+        <v>-246700</v>
       </c>
       <c r="E101" s="3">
-        <v>-133800</v>
+        <v>-142100</v>
       </c>
       <c r="F101" s="3">
-        <v>-126500</v>
+        <v>-134300</v>
       </c>
       <c r="G101" s="3">
-        <v>-102700</v>
+        <v>-109000</v>
       </c>
       <c r="H101" s="3">
-        <v>135800</v>
+        <v>144300</v>
       </c>
       <c r="I101" s="3">
-        <v>155600</v>
+        <v>165200</v>
       </c>
       <c r="J101" s="3">
-        <v>-223000</v>
+        <v>-236800</v>
       </c>
       <c r="K101" s="3">
         <v>-80000</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1816900</v>
+        <v>1929300</v>
       </c>
       <c r="E102" s="3">
-        <v>-1752600</v>
+        <v>-1861000</v>
       </c>
       <c r="F102" s="3">
-        <v>-871100</v>
+        <v>-925000</v>
       </c>
       <c r="G102" s="3">
-        <v>1060900</v>
+        <v>1126500</v>
       </c>
       <c r="H102" s="3">
-        <v>1897700</v>
+        <v>2015200</v>
       </c>
       <c r="I102" s="3">
-        <v>-52900</v>
+        <v>-56200</v>
       </c>
       <c r="J102" s="3">
-        <v>-744600</v>
+        <v>-790700</v>
       </c>
       <c r="K102" s="3">
         <v>247300</v>

--- a/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29426300</v>
+        <v>29556400</v>
       </c>
       <c r="E8" s="3">
-        <v>30245600</v>
+        <v>30379300</v>
       </c>
       <c r="F8" s="3">
-        <v>29755500</v>
+        <v>29887100</v>
       </c>
       <c r="G8" s="3">
-        <v>29626700</v>
+        <v>29757700</v>
       </c>
       <c r="H8" s="3">
-        <v>25970700</v>
+        <v>26085600</v>
       </c>
       <c r="I8" s="3">
-        <v>20730100</v>
+        <v>20821800</v>
       </c>
       <c r="J8" s="3">
-        <v>21714600</v>
+        <v>21810600</v>
       </c>
       <c r="K8" s="3">
         <v>21715900</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17003600</v>
+        <v>17078800</v>
       </c>
       <c r="E9" s="3">
-        <v>17412200</v>
+        <v>17489200</v>
       </c>
       <c r="F9" s="3">
-        <v>41197000</v>
+        <v>41379200</v>
       </c>
       <c r="G9" s="3">
-        <v>34427900</v>
+        <v>34580200</v>
       </c>
       <c r="H9" s="3">
-        <v>18158800</v>
+        <v>18239100</v>
       </c>
       <c r="I9" s="3">
-        <v>23134000</v>
+        <v>23236300</v>
       </c>
       <c r="J9" s="3">
-        <v>12209000</v>
+        <v>12263000</v>
       </c>
       <c r="K9" s="3">
         <v>17829400</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12422600</v>
+        <v>12477600</v>
       </c>
       <c r="E10" s="3">
-        <v>12833400</v>
+        <v>12890100</v>
       </c>
       <c r="F10" s="3">
-        <v>-11441500</v>
+        <v>-11492100</v>
       </c>
       <c r="G10" s="3">
-        <v>-4801200</v>
+        <v>-4822500</v>
       </c>
       <c r="H10" s="3">
-        <v>7811900</v>
+        <v>7846500</v>
       </c>
       <c r="I10" s="3">
-        <v>-2403900</v>
+        <v>-2414600</v>
       </c>
       <c r="J10" s="3">
-        <v>9505600</v>
+        <v>9547600</v>
       </c>
       <c r="K10" s="3">
         <v>3886500</v>
@@ -899,22 +899,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-253300</v>
+        <v>-254400</v>
       </c>
       <c r="E14" s="3">
-        <v>626600</v>
+        <v>629400</v>
       </c>
       <c r="F14" s="3">
-        <v>-113400</v>
+        <v>-113900</v>
       </c>
       <c r="G14" s="3">
-        <v>-767500</v>
+        <v>-770900</v>
       </c>
       <c r="H14" s="3">
-        <v>-1171700</v>
+        <v>-1176900</v>
       </c>
       <c r="I14" s="3">
-        <v>-193800</v>
+        <v>-194700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -947,7 +947,7 @@
         <v>8</v>
       </c>
       <c r="I15" s="3">
-        <v>270900</v>
+        <v>272100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24952100</v>
+        <v>25062400</v>
       </c>
       <c r="E17" s="3">
-        <v>26703000</v>
+        <v>26821100</v>
       </c>
       <c r="F17" s="3">
-        <v>30147600</v>
+        <v>30280900</v>
       </c>
       <c r="G17" s="3">
-        <v>25596300</v>
+        <v>25709500</v>
       </c>
       <c r="H17" s="3">
-        <v>25612800</v>
+        <v>25726100</v>
       </c>
       <c r="I17" s="3">
-        <v>18066300</v>
+        <v>18146200</v>
       </c>
       <c r="J17" s="3">
-        <v>19119000</v>
+        <v>19203600</v>
       </c>
       <c r="K17" s="3">
         <v>19920900</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4474200</v>
+        <v>4494000</v>
       </c>
       <c r="E18" s="3">
-        <v>3542600</v>
+        <v>3558200</v>
       </c>
       <c r="F18" s="3">
-        <v>-392000</v>
+        <v>-393800</v>
       </c>
       <c r="G18" s="3">
-        <v>4030400</v>
+        <v>4048200</v>
       </c>
       <c r="H18" s="3">
-        <v>357900</v>
+        <v>359500</v>
       </c>
       <c r="I18" s="3">
-        <v>2663800</v>
+        <v>2675600</v>
       </c>
       <c r="J18" s="3">
-        <v>2595500</v>
+        <v>2607000</v>
       </c>
       <c r="K18" s="3">
         <v>1794900</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-147600</v>
+        <v>-148200</v>
       </c>
       <c r="E20" s="3">
-        <v>-134300</v>
+        <v>-134900</v>
       </c>
       <c r="F20" s="3">
-        <v>-93600</v>
+        <v>-94000</v>
       </c>
       <c r="G20" s="3">
-        <v>92500</v>
+        <v>92900</v>
       </c>
       <c r="H20" s="3">
-        <v>-201500</v>
+        <v>-202400</v>
       </c>
       <c r="I20" s="3">
-        <v>290700</v>
+        <v>292000</v>
       </c>
       <c r="J20" s="3">
-        <v>384300</v>
+        <v>386000</v>
       </c>
       <c r="K20" s="3">
         <v>447500</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7059400</v>
+        <v>7082800</v>
       </c>
       <c r="E21" s="3">
-        <v>5879800</v>
+        <v>5898700</v>
       </c>
       <c r="F21" s="3">
-        <v>6343000</v>
+        <v>6351400</v>
       </c>
       <c r="G21" s="3">
-        <v>6711300</v>
+        <v>6733600</v>
       </c>
       <c r="H21" s="3">
-        <v>5028000</v>
+        <v>5036200</v>
       </c>
       <c r="I21" s="3">
-        <v>4499400</v>
+        <v>4514900</v>
       </c>
       <c r="J21" s="3">
-        <v>4674600</v>
+        <v>4690400</v>
       </c>
       <c r="K21" s="3">
         <v>4441300</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>671700</v>
+        <v>674700</v>
       </c>
       <c r="E22" s="3">
-        <v>792900</v>
+        <v>796400</v>
       </c>
       <c r="F22" s="3">
-        <v>813800</v>
+        <v>817400</v>
       </c>
       <c r="G22" s="3">
-        <v>949200</v>
+        <v>953400</v>
       </c>
       <c r="H22" s="3">
-        <v>909600</v>
+        <v>913600</v>
       </c>
       <c r="I22" s="3">
-        <v>530800</v>
+        <v>533100</v>
       </c>
       <c r="J22" s="3">
-        <v>636500</v>
+        <v>639300</v>
       </c>
       <c r="K22" s="3">
         <v>649600</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3654900</v>
+        <v>3671000</v>
       </c>
       <c r="E23" s="3">
-        <v>2615400</v>
+        <v>2626900</v>
       </c>
       <c r="F23" s="3">
-        <v>-1299400</v>
+        <v>-1305200</v>
       </c>
       <c r="G23" s="3">
-        <v>3173700</v>
+        <v>3187700</v>
       </c>
       <c r="H23" s="3">
-        <v>-753200</v>
+        <v>-756600</v>
       </c>
       <c r="I23" s="3">
-        <v>2423700</v>
+        <v>2434500</v>
       </c>
       <c r="J23" s="3">
-        <v>2343400</v>
+        <v>2353700</v>
       </c>
       <c r="K23" s="3">
         <v>1592800</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>887600</v>
+        <v>891500</v>
       </c>
       <c r="E24" s="3">
-        <v>722400</v>
+        <v>725600</v>
       </c>
       <c r="F24" s="3">
-        <v>590200</v>
+        <v>592900</v>
       </c>
       <c r="G24" s="3">
-        <v>919500</v>
+        <v>923600</v>
       </c>
       <c r="H24" s="3">
-        <v>860000</v>
+        <v>863800</v>
       </c>
       <c r="I24" s="3">
-        <v>639800</v>
+        <v>642600</v>
       </c>
       <c r="J24" s="3">
-        <v>585800</v>
+        <v>588400</v>
       </c>
       <c r="K24" s="3">
         <v>564400</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2767300</v>
+        <v>2779600</v>
       </c>
       <c r="E26" s="3">
-        <v>1893000</v>
+        <v>1901300</v>
       </c>
       <c r="F26" s="3">
-        <v>-1889700</v>
+        <v>-1898000</v>
       </c>
       <c r="G26" s="3">
-        <v>2254200</v>
+        <v>2264100</v>
       </c>
       <c r="H26" s="3">
-        <v>-1613300</v>
+        <v>-1620400</v>
       </c>
       <c r="I26" s="3">
-        <v>1783900</v>
+        <v>1791800</v>
       </c>
       <c r="J26" s="3">
-        <v>1757500</v>
+        <v>1765300</v>
       </c>
       <c r="K26" s="3">
         <v>1028300</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2457900</v>
+        <v>2468700</v>
       </c>
       <c r="E27" s="3">
-        <v>1654000</v>
+        <v>1661300</v>
       </c>
       <c r="F27" s="3">
-        <v>-1844500</v>
+        <v>-1852700</v>
       </c>
       <c r="G27" s="3">
-        <v>1924900</v>
+        <v>1933400</v>
       </c>
       <c r="H27" s="3">
-        <v>-1731100</v>
+        <v>-1738700</v>
       </c>
       <c r="I27" s="3">
-        <v>1416100</v>
+        <v>1422400</v>
       </c>
       <c r="J27" s="3">
-        <v>1400700</v>
+        <v>1406900</v>
       </c>
       <c r="K27" s="3">
         <v>626000</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>47400</v>
+        <v>47600</v>
       </c>
       <c r="H29" s="3">
-        <v>113400</v>
+        <v>113900</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>147600</v>
+        <v>148200</v>
       </c>
       <c r="E32" s="3">
-        <v>134300</v>
+        <v>134900</v>
       </c>
       <c r="F32" s="3">
-        <v>93600</v>
+        <v>94000</v>
       </c>
       <c r="G32" s="3">
-        <v>-92500</v>
+        <v>-92900</v>
       </c>
       <c r="H32" s="3">
-        <v>201500</v>
+        <v>202400</v>
       </c>
       <c r="I32" s="3">
-        <v>-290700</v>
+        <v>-292000</v>
       </c>
       <c r="J32" s="3">
-        <v>-384300</v>
+        <v>-386000</v>
       </c>
       <c r="K32" s="3">
         <v>-447500</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2457900</v>
+        <v>2468700</v>
       </c>
       <c r="E33" s="3">
-        <v>1654000</v>
+        <v>1661300</v>
       </c>
       <c r="F33" s="3">
-        <v>-1844500</v>
+        <v>-1852700</v>
       </c>
       <c r="G33" s="3">
-        <v>1972200</v>
+        <v>1981000</v>
       </c>
       <c r="H33" s="3">
-        <v>-1617700</v>
+        <v>-1624800</v>
       </c>
       <c r="I33" s="3">
-        <v>1416100</v>
+        <v>1422400</v>
       </c>
       <c r="J33" s="3">
-        <v>1400700</v>
+        <v>1406900</v>
       </c>
       <c r="K33" s="3">
         <v>626000</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2457900</v>
+        <v>2468700</v>
       </c>
       <c r="E35" s="3">
-        <v>1654000</v>
+        <v>1661300</v>
       </c>
       <c r="F35" s="3">
-        <v>-1844500</v>
+        <v>-1852700</v>
       </c>
       <c r="G35" s="3">
-        <v>1972200</v>
+        <v>1981000</v>
       </c>
       <c r="H35" s="3">
-        <v>-1617700</v>
+        <v>-1624800</v>
       </c>
       <c r="I35" s="3">
-        <v>1416100</v>
+        <v>1422400</v>
       </c>
       <c r="J35" s="3">
-        <v>1400700</v>
+        <v>1406900</v>
       </c>
       <c r="K35" s="3">
         <v>626000</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2549300</v>
+        <v>2560600</v>
       </c>
       <c r="E41" s="3">
-        <v>1681500</v>
+        <v>1689000</v>
       </c>
       <c r="F41" s="3">
-        <v>2696800</v>
+        <v>2708800</v>
       </c>
       <c r="G41" s="3">
-        <v>8918600</v>
+        <v>8958100</v>
       </c>
       <c r="H41" s="3">
-        <v>3518300</v>
+        <v>3533900</v>
       </c>
       <c r="I41" s="3">
-        <v>3230900</v>
+        <v>3245200</v>
       </c>
       <c r="J41" s="3">
-        <v>677200</v>
+        <v>680200</v>
       </c>
       <c r="K41" s="3">
         <v>1814400</v>
@@ -1687,25 +1687,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2022900</v>
+        <v>2031900</v>
       </c>
       <c r="E42" s="3">
-        <v>1091300</v>
+        <v>1096100</v>
       </c>
       <c r="F42" s="3">
-        <v>1948000</v>
+        <v>1956600</v>
       </c>
       <c r="G42" s="3">
-        <v>1923800</v>
+        <v>1932300</v>
       </c>
       <c r="H42" s="3">
-        <v>1319200</v>
+        <v>1325100</v>
       </c>
       <c r="I42" s="3">
-        <v>1499800</v>
+        <v>1506500</v>
       </c>
       <c r="J42" s="3">
-        <v>1793900</v>
+        <v>1801800</v>
       </c>
       <c r="K42" s="3">
         <v>2299900</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4088800</v>
+        <v>4106800</v>
       </c>
       <c r="E43" s="3">
-        <v>4529200</v>
+        <v>4549300</v>
       </c>
       <c r="F43" s="3">
-        <v>4755000</v>
+        <v>4776000</v>
       </c>
       <c r="G43" s="3">
-        <v>7667700</v>
+        <v>7701600</v>
       </c>
       <c r="H43" s="3">
-        <v>4649300</v>
+        <v>4669800</v>
       </c>
       <c r="I43" s="3">
-        <v>5832000</v>
+        <v>5857700</v>
       </c>
       <c r="J43" s="3">
-        <v>2864200</v>
+        <v>2876900</v>
       </c>
       <c r="K43" s="3">
         <v>8557000</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2746400</v>
+        <v>2758500</v>
       </c>
       <c r="E44" s="3">
-        <v>3392800</v>
+        <v>3407800</v>
       </c>
       <c r="F44" s="3">
-        <v>3160400</v>
+        <v>3174400</v>
       </c>
       <c r="G44" s="3">
-        <v>5825300</v>
+        <v>5851100</v>
       </c>
       <c r="H44" s="3">
-        <v>3369700</v>
+        <v>3384600</v>
       </c>
       <c r="I44" s="3">
-        <v>4065600</v>
+        <v>4083600</v>
       </c>
       <c r="J44" s="3">
-        <v>1876400</v>
+        <v>1884700</v>
       </c>
       <c r="K44" s="3">
         <v>6236600</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2038300</v>
+        <v>2047300</v>
       </c>
       <c r="E45" s="3">
-        <v>2142900</v>
+        <v>2152400</v>
       </c>
       <c r="F45" s="3">
-        <v>1334700</v>
+        <v>1340600</v>
       </c>
       <c r="G45" s="3">
-        <v>5591900</v>
+        <v>5616600</v>
       </c>
       <c r="H45" s="3">
-        <v>1823600</v>
+        <v>1831700</v>
       </c>
       <c r="I45" s="3">
-        <v>1024100</v>
+        <v>1028600</v>
       </c>
       <c r="J45" s="3">
-        <v>1146300</v>
+        <v>1151400</v>
       </c>
       <c r="K45" s="3">
         <v>3166000</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13445700</v>
+        <v>13505100</v>
       </c>
       <c r="E46" s="3">
-        <v>12837800</v>
+        <v>12894600</v>
       </c>
       <c r="F46" s="3">
-        <v>13894900</v>
+        <v>13956400</v>
       </c>
       <c r="G46" s="3">
-        <v>15895800</v>
+        <v>15966100</v>
       </c>
       <c r="H46" s="3">
-        <v>14680100</v>
+        <v>14745000</v>
       </c>
       <c r="I46" s="3">
-        <v>7962800</v>
+        <v>7998000</v>
       </c>
       <c r="J46" s="3">
-        <v>8358100</v>
+        <v>8395100</v>
       </c>
       <c r="K46" s="3">
         <v>8492400</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4201100</v>
+        <v>4219700</v>
       </c>
       <c r="E47" s="3">
-        <v>4011700</v>
+        <v>4029400</v>
       </c>
       <c r="F47" s="3">
-        <v>4005100</v>
+        <v>4022800</v>
       </c>
       <c r="G47" s="3">
-        <v>5872700</v>
+        <v>5898700</v>
       </c>
       <c r="H47" s="3">
-        <v>4284800</v>
+        <v>4303700</v>
       </c>
       <c r="I47" s="3">
-        <v>2701200</v>
+        <v>2713200</v>
       </c>
       <c r="J47" s="3">
-        <v>2300400</v>
+        <v>2310600</v>
       </c>
       <c r="K47" s="3">
         <v>4013700</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29940500</v>
+        <v>30072900</v>
       </c>
       <c r="E48" s="3">
-        <v>30712500</v>
+        <v>30848300</v>
       </c>
       <c r="F48" s="3">
-        <v>33203400</v>
+        <v>33350200</v>
       </c>
       <c r="G48" s="3">
-        <v>70591300</v>
+        <v>70903500</v>
       </c>
       <c r="H48" s="3">
-        <v>40465800</v>
+        <v>40644800</v>
       </c>
       <c r="I48" s="3">
-        <v>47482600</v>
+        <v>47692600</v>
       </c>
       <c r="J48" s="3">
-        <v>22055900</v>
+        <v>22153500</v>
       </c>
       <c r="K48" s="3">
         <v>25485400</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15067700</v>
+        <v>15134400</v>
       </c>
       <c r="E49" s="3">
-        <v>16358300</v>
+        <v>16430700</v>
       </c>
       <c r="F49" s="3">
-        <v>17173200</v>
+        <v>17249200</v>
       </c>
       <c r="G49" s="3">
-        <v>38022200</v>
+        <v>38190400</v>
       </c>
       <c r="H49" s="3">
-        <v>19718100</v>
+        <v>19805300</v>
       </c>
       <c r="I49" s="3">
-        <v>17027900</v>
+        <v>17103200</v>
       </c>
       <c r="J49" s="3">
-        <v>8243600</v>
+        <v>8280000</v>
       </c>
       <c r="K49" s="3">
         <v>25165200</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1556000</v>
+        <v>1562900</v>
       </c>
       <c r="E52" s="3">
-        <v>1815900</v>
+        <v>1823900</v>
       </c>
       <c r="F52" s="3">
-        <v>1846700</v>
+        <v>1854900</v>
       </c>
       <c r="G52" s="3">
-        <v>2833400</v>
+        <v>2845900</v>
       </c>
       <c r="H52" s="3">
-        <v>1567000</v>
+        <v>1573900</v>
       </c>
       <c r="I52" s="3">
-        <v>1089100</v>
+        <v>1093900</v>
       </c>
       <c r="J52" s="3">
-        <v>825900</v>
+        <v>829600</v>
       </c>
       <c r="K52" s="3">
         <v>2361400</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64211000</v>
+        <v>64494900</v>
       </c>
       <c r="E54" s="3">
-        <v>65736100</v>
+        <v>66026800</v>
       </c>
       <c r="F54" s="3">
-        <v>70123300</v>
+        <v>70433400</v>
       </c>
       <c r="G54" s="3">
-        <v>76662200</v>
+        <v>77001300</v>
       </c>
       <c r="H54" s="3">
-        <v>80715800</v>
+        <v>81072700</v>
       </c>
       <c r="I54" s="3">
-        <v>43486400</v>
+        <v>43678700</v>
       </c>
       <c r="J54" s="3">
-        <v>41783900</v>
+        <v>41968700</v>
       </c>
       <c r="K54" s="3">
         <v>42280300</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3892700</v>
+        <v>3910000</v>
       </c>
       <c r="E57" s="3">
-        <v>4151500</v>
+        <v>4169900</v>
       </c>
       <c r="F57" s="3">
-        <v>4091000</v>
+        <v>4109100</v>
       </c>
       <c r="G57" s="3">
-        <v>3641700</v>
+        <v>3657800</v>
       </c>
       <c r="H57" s="3">
-        <v>4066700</v>
+        <v>4084700</v>
       </c>
       <c r="I57" s="3">
-        <v>2338900</v>
+        <v>2349300</v>
       </c>
       <c r="J57" s="3">
-        <v>2129700</v>
+        <v>2139100</v>
       </c>
       <c r="K57" s="3">
         <v>2202400</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2185900</v>
+        <v>2195500</v>
       </c>
       <c r="E58" s="3">
-        <v>3277200</v>
+        <v>3291700</v>
       </c>
       <c r="F58" s="3">
-        <v>4111900</v>
+        <v>4130100</v>
       </c>
       <c r="G58" s="3">
-        <v>13142800</v>
+        <v>13200900</v>
       </c>
       <c r="H58" s="3">
-        <v>7513500</v>
+        <v>7546700</v>
       </c>
       <c r="I58" s="3">
-        <v>5468600</v>
+        <v>5492700</v>
       </c>
       <c r="J58" s="3">
-        <v>3341000</v>
+        <v>3355800</v>
       </c>
       <c r="K58" s="3">
         <v>5770700</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3990700</v>
+        <v>4008400</v>
       </c>
       <c r="E59" s="3">
-        <v>4383900</v>
+        <v>4403300</v>
       </c>
       <c r="F59" s="3">
-        <v>4481900</v>
+        <v>4501700</v>
       </c>
       <c r="G59" s="3">
-        <v>4686700</v>
+        <v>4707400</v>
       </c>
       <c r="H59" s="3">
-        <v>4752800</v>
+        <v>4773800</v>
       </c>
       <c r="I59" s="3">
-        <v>2666000</v>
+        <v>2677800</v>
       </c>
       <c r="J59" s="3">
-        <v>2745300</v>
+        <v>2757400</v>
       </c>
       <c r="K59" s="3">
         <v>5404300</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10069400</v>
+        <v>10113900</v>
       </c>
       <c r="E60" s="3">
-        <v>11812600</v>
+        <v>11864800</v>
       </c>
       <c r="F60" s="3">
-        <v>12684700</v>
+        <v>12740800</v>
       </c>
       <c r="G60" s="3">
-        <v>13774900</v>
+        <v>13835800</v>
       </c>
       <c r="H60" s="3">
-        <v>16333000</v>
+        <v>16405200</v>
       </c>
       <c r="I60" s="3">
-        <v>7539900</v>
+        <v>7573300</v>
       </c>
       <c r="J60" s="3">
-        <v>8216100</v>
+        <v>8252400</v>
       </c>
       <c r="K60" s="3">
         <v>8517000</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13415900</v>
+        <v>13475300</v>
       </c>
       <c r="E61" s="3">
-        <v>14328800</v>
+        <v>14392200</v>
       </c>
       <c r="F61" s="3">
-        <v>16260300</v>
+        <v>16332200</v>
       </c>
       <c r="G61" s="3">
-        <v>16149100</v>
+        <v>16220500</v>
       </c>
       <c r="H61" s="3">
-        <v>16362700</v>
+        <v>16435100</v>
       </c>
       <c r="I61" s="3">
-        <v>10127700</v>
+        <v>10172500</v>
       </c>
       <c r="J61" s="3">
-        <v>9674000</v>
+        <v>9716800</v>
       </c>
       <c r="K61" s="3">
         <v>10110800</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6039000</v>
+        <v>6065700</v>
       </c>
       <c r="E62" s="3">
-        <v>6500400</v>
+        <v>6529100</v>
       </c>
       <c r="F62" s="3">
-        <v>7068600</v>
+        <v>7099900</v>
       </c>
       <c r="G62" s="3">
-        <v>10843500</v>
+        <v>10891500</v>
       </c>
       <c r="H62" s="3">
-        <v>8683000</v>
+        <v>8721400</v>
       </c>
       <c r="I62" s="3">
-        <v>4860700</v>
+        <v>4882200</v>
       </c>
       <c r="J62" s="3">
-        <v>3327800</v>
+        <v>3342500</v>
       </c>
       <c r="K62" s="3">
         <v>7285500</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32754100</v>
+        <v>32898900</v>
       </c>
       <c r="E66" s="3">
-        <v>36086300</v>
+        <v>36245900</v>
       </c>
       <c r="F66" s="3">
-        <v>39524300</v>
+        <v>39699100</v>
       </c>
       <c r="G66" s="3">
-        <v>42721100</v>
+        <v>42910000</v>
       </c>
       <c r="H66" s="3">
-        <v>46176600</v>
+        <v>46380800</v>
       </c>
       <c r="I66" s="3">
-        <v>24292500</v>
+        <v>24399900</v>
       </c>
       <c r="J66" s="3">
-        <v>23939000</v>
+        <v>24044900</v>
       </c>
       <c r="K66" s="3">
         <v>25411500</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21111100</v>
+        <v>21204500</v>
       </c>
       <c r="E72" s="3">
-        <v>18924100</v>
+        <v>19007800</v>
       </c>
       <c r="F72" s="3">
-        <v>16934300</v>
+        <v>17009100</v>
       </c>
       <c r="G72" s="3">
-        <v>18220500</v>
+        <v>18301000</v>
       </c>
       <c r="H72" s="3">
-        <v>16504800</v>
+        <v>16577800</v>
       </c>
       <c r="I72" s="3">
-        <v>30305000</v>
+        <v>30439000</v>
       </c>
       <c r="J72" s="3">
-        <v>19044200</v>
+        <v>19128400</v>
       </c>
       <c r="K72" s="3">
         <v>16222200</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31456900</v>
+        <v>31596000</v>
       </c>
       <c r="E76" s="3">
-        <v>29649800</v>
+        <v>29780900</v>
       </c>
       <c r="F76" s="3">
-        <v>30599000</v>
+        <v>30734400</v>
       </c>
       <c r="G76" s="3">
-        <v>33941200</v>
+        <v>34091300</v>
       </c>
       <c r="H76" s="3">
-        <v>34539100</v>
+        <v>34691900</v>
       </c>
       <c r="I76" s="3">
-        <v>19193900</v>
+        <v>19278800</v>
       </c>
       <c r="J76" s="3">
-        <v>17844900</v>
+        <v>17923900</v>
       </c>
       <c r="K76" s="3">
         <v>16868800</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2457900</v>
+        <v>2468700</v>
       </c>
       <c r="E81" s="3">
-        <v>1654000</v>
+        <v>1661300</v>
       </c>
       <c r="F81" s="3">
-        <v>-1844500</v>
+        <v>-1852700</v>
       </c>
       <c r="G81" s="3">
-        <v>1972200</v>
+        <v>1981000</v>
       </c>
       <c r="H81" s="3">
-        <v>-1617700</v>
+        <v>-1624800</v>
       </c>
       <c r="I81" s="3">
-        <v>1416100</v>
+        <v>1422400</v>
       </c>
       <c r="J81" s="3">
-        <v>1400700</v>
+        <v>1406900</v>
       </c>
       <c r="K81" s="3">
         <v>626000</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2731000</v>
+        <v>2743100</v>
       </c>
       <c r="E83" s="3">
-        <v>2470000</v>
+        <v>2480900</v>
       </c>
       <c r="F83" s="3">
-        <v>6824100</v>
+        <v>6854300</v>
       </c>
       <c r="G83" s="3">
-        <v>2586700</v>
+        <v>2598200</v>
       </c>
       <c r="H83" s="3">
-        <v>4868400</v>
+        <v>4889900</v>
       </c>
       <c r="I83" s="3">
-        <v>1543900</v>
+        <v>1550700</v>
       </c>
       <c r="J83" s="3">
-        <v>1693600</v>
+        <v>1701100</v>
       </c>
       <c r="K83" s="3">
         <v>2196200</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5313300</v>
+        <v>5336800</v>
       </c>
       <c r="E89" s="3">
-        <v>3290400</v>
+        <v>3304900</v>
       </c>
       <c r="F89" s="3">
-        <v>3347600</v>
+        <v>3362500</v>
       </c>
       <c r="G89" s="3">
-        <v>3628500</v>
+        <v>3644500</v>
       </c>
       <c r="H89" s="3">
-        <v>2714500</v>
+        <v>2726500</v>
       </c>
       <c r="I89" s="3">
-        <v>2735400</v>
+        <v>2747500</v>
       </c>
       <c r="J89" s="3">
-        <v>3069000</v>
+        <v>3082600</v>
       </c>
       <c r="K89" s="3">
         <v>2712400</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1689200</v>
+        <v>-1696700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1553800</v>
+        <v>-1560700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1676000</v>
+        <v>-1683400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1952400</v>
+        <v>-1961100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2319100</v>
+        <v>-2329400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2141800</v>
+        <v>-2151300</v>
       </c>
       <c r="J91" s="3">
-        <v>-2428100</v>
+        <v>-2438900</v>
       </c>
       <c r="K91" s="3">
         <v>-3541700</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-241200</v>
+        <v>-242200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1526300</v>
+        <v>-1533000</v>
       </c>
       <c r="F94" s="3">
-        <v>-743300</v>
+        <v>-746600</v>
       </c>
       <c r="G94" s="3">
-        <v>777400</v>
+        <v>780900</v>
       </c>
       <c r="H94" s="3">
-        <v>5763700</v>
+        <v>5789200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1874200</v>
+        <v>-1882500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1833500</v>
+        <v>-1841600</v>
       </c>
       <c r="K94" s="3">
         <v>-1228400</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-354600</v>
+        <v>-356200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1312600</v>
+        <v>-1318400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1334700</v>
+        <v>-1340600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1001000</v>
+        <v>-1005400</v>
       </c>
       <c r="H96" s="3">
-        <v>-466900</v>
+        <v>-469000</v>
       </c>
       <c r="I96" s="3">
-        <v>-466900</v>
+        <v>-469000</v>
       </c>
       <c r="J96" s="3">
-        <v>-411800</v>
+        <v>-413700</v>
       </c>
       <c r="K96" s="3">
         <v>-558300</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2896200</v>
+        <v>-2909000</v>
       </c>
       <c r="E100" s="3">
-        <v>-3483100</v>
+        <v>-3498500</v>
       </c>
       <c r="F100" s="3">
-        <v>-3395000</v>
+        <v>-3410000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3170400</v>
+        <v>-3184400</v>
       </c>
       <c r="H100" s="3">
-        <v>-6607200</v>
+        <v>-6636400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1082500</v>
+        <v>-1087300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1789500</v>
+        <v>-1797400</v>
       </c>
       <c r="K100" s="3">
         <v>-1156600</v>
@@ -3465,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-246700</v>
+        <v>-247800</v>
       </c>
       <c r="E101" s="3">
-        <v>-142100</v>
+        <v>-142700</v>
       </c>
       <c r="F101" s="3">
-        <v>-134300</v>
+        <v>-134900</v>
       </c>
       <c r="G101" s="3">
-        <v>-109000</v>
+        <v>-109500</v>
       </c>
       <c r="H101" s="3">
-        <v>144300</v>
+        <v>144900</v>
       </c>
       <c r="I101" s="3">
-        <v>165200</v>
+        <v>165900</v>
       </c>
       <c r="J101" s="3">
-        <v>-236800</v>
+        <v>-237800</v>
       </c>
       <c r="K101" s="3">
         <v>-80000</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1929300</v>
+        <v>1937800</v>
       </c>
       <c r="E102" s="3">
-        <v>-1861000</v>
+        <v>-1869300</v>
       </c>
       <c r="F102" s="3">
-        <v>-925000</v>
+        <v>-929100</v>
       </c>
       <c r="G102" s="3">
-        <v>1126500</v>
+        <v>1131500</v>
       </c>
       <c r="H102" s="3">
-        <v>2015200</v>
+        <v>2024100</v>
       </c>
       <c r="I102" s="3">
-        <v>-56200</v>
+        <v>-56400</v>
       </c>
       <c r="J102" s="3">
-        <v>-790700</v>
+        <v>-794200</v>
       </c>
       <c r="K102" s="3">
         <v>247300</v>

--- a/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>HCMLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29556400</v>
+        <v>24619200</v>
       </c>
       <c r="E8" s="3">
-        <v>30379300</v>
+        <v>28427700</v>
       </c>
       <c r="F8" s="3">
-        <v>29887100</v>
+        <v>29219200</v>
       </c>
       <c r="G8" s="3">
-        <v>29757700</v>
+        <v>28745800</v>
       </c>
       <c r="H8" s="3">
-        <v>26085600</v>
+        <v>28621300</v>
       </c>
       <c r="I8" s="3">
-        <v>20821800</v>
+        <v>25089400</v>
       </c>
       <c r="J8" s="3">
+        <v>20026600</v>
+      </c>
+      <c r="K8" s="3">
         <v>21810600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21715900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21480800</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17078800</v>
+        <v>14311700</v>
       </c>
       <c r="E9" s="3">
-        <v>17489200</v>
+        <v>16426600</v>
       </c>
       <c r="F9" s="3">
-        <v>41379200</v>
+        <v>16821300</v>
       </c>
       <c r="G9" s="3">
-        <v>34580200</v>
+        <v>39798900</v>
       </c>
       <c r="H9" s="3">
-        <v>18239100</v>
+        <v>33259600</v>
       </c>
       <c r="I9" s="3">
-        <v>23236300</v>
+        <v>17542600</v>
       </c>
       <c r="J9" s="3">
+        <v>22348900</v>
+      </c>
+      <c r="K9" s="3">
         <v>12263000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17829400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12649900</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12477600</v>
+        <v>10307400</v>
       </c>
       <c r="E10" s="3">
-        <v>12890100</v>
+        <v>12001100</v>
       </c>
       <c r="F10" s="3">
-        <v>-11492100</v>
+        <v>12397900</v>
       </c>
       <c r="G10" s="3">
-        <v>-4822500</v>
+        <v>-11053200</v>
       </c>
       <c r="H10" s="3">
-        <v>7846500</v>
+        <v>-4638300</v>
       </c>
       <c r="I10" s="3">
-        <v>-2414600</v>
+        <v>7546800</v>
       </c>
       <c r="J10" s="3">
+        <v>-2322300</v>
+      </c>
+      <c r="K10" s="3">
         <v>9547600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3886500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8830900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,9 +872,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,42 +908,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-254400</v>
+        <v>37200</v>
       </c>
       <c r="E14" s="3">
-        <v>629400</v>
+        <v>-244700</v>
       </c>
       <c r="F14" s="3">
-        <v>-113900</v>
+        <v>605300</v>
       </c>
       <c r="G14" s="3">
-        <v>-770900</v>
+        <v>-109600</v>
       </c>
       <c r="H14" s="3">
-        <v>-1176900</v>
+        <v>-741500</v>
       </c>
       <c r="I14" s="3">
-        <v>-194700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>-1131900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-187200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>4100</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -946,21 +968,24 @@
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
-        <v>272100</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J15" s="3">
+        <v>261700</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
         <v>316900</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25062400</v>
+        <v>21070200</v>
       </c>
       <c r="E17" s="3">
-        <v>26821100</v>
+        <v>24105300</v>
       </c>
       <c r="F17" s="3">
-        <v>30280900</v>
+        <v>25796800</v>
       </c>
       <c r="G17" s="3">
-        <v>25709500</v>
+        <v>29124500</v>
       </c>
       <c r="H17" s="3">
-        <v>25726100</v>
+        <v>24727700</v>
       </c>
       <c r="I17" s="3">
-        <v>18146200</v>
+        <v>24743600</v>
       </c>
       <c r="J17" s="3">
+        <v>17453200</v>
+      </c>
+      <c r="K17" s="3">
         <v>19203600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19920900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19483300</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4494000</v>
+        <v>3548900</v>
       </c>
       <c r="E18" s="3">
-        <v>3558200</v>
+        <v>4322300</v>
       </c>
       <c r="F18" s="3">
-        <v>-393800</v>
+        <v>3422300</v>
       </c>
       <c r="G18" s="3">
-        <v>4048200</v>
+        <v>-378700</v>
       </c>
       <c r="H18" s="3">
-        <v>359500</v>
+        <v>3893600</v>
       </c>
       <c r="I18" s="3">
-        <v>2675600</v>
+        <v>345700</v>
       </c>
       <c r="J18" s="3">
+        <v>2573400</v>
+      </c>
+      <c r="K18" s="3">
         <v>2607000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1794900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1997500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-148200</v>
+        <v>-180900</v>
       </c>
       <c r="E20" s="3">
-        <v>-134900</v>
+        <v>-142600</v>
       </c>
       <c r="F20" s="3">
-        <v>-94000</v>
+        <v>-129800</v>
       </c>
       <c r="G20" s="3">
-        <v>92900</v>
+        <v>-90400</v>
       </c>
       <c r="H20" s="3">
-        <v>-202400</v>
+        <v>89400</v>
       </c>
       <c r="I20" s="3">
-        <v>292000</v>
+        <v>-194700</v>
       </c>
       <c r="J20" s="3">
+        <v>280900</v>
+      </c>
+      <c r="K20" s="3">
         <v>386000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>447500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-189500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7082800</v>
+        <v>5826700</v>
       </c>
       <c r="E21" s="3">
-        <v>5898700</v>
+        <v>6830800</v>
       </c>
       <c r="F21" s="3">
-        <v>6351400</v>
+        <v>5690200</v>
       </c>
       <c r="G21" s="3">
-        <v>6733600</v>
+        <v>6155100</v>
       </c>
       <c r="H21" s="3">
-        <v>5036200</v>
+        <v>6493900</v>
       </c>
       <c r="I21" s="3">
-        <v>4514900</v>
+        <v>4876900</v>
       </c>
       <c r="J21" s="3">
+        <v>4352900</v>
+      </c>
+      <c r="K21" s="3">
         <v>4690400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4441300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3907300</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>674700</v>
+        <v>475500</v>
       </c>
       <c r="E22" s="3">
-        <v>796400</v>
+        <v>648900</v>
       </c>
       <c r="F22" s="3">
-        <v>817400</v>
+        <v>766000</v>
       </c>
       <c r="G22" s="3">
-        <v>953400</v>
+        <v>786200</v>
       </c>
       <c r="H22" s="3">
-        <v>913600</v>
+        <v>917000</v>
       </c>
       <c r="I22" s="3">
-        <v>533100</v>
+        <v>878700</v>
       </c>
       <c r="J22" s="3">
+        <v>512800</v>
+      </c>
+      <c r="K22" s="3">
         <v>639300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>649600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>636800</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3671000</v>
+        <v>2892600</v>
       </c>
       <c r="E23" s="3">
-        <v>2626900</v>
+        <v>3530900</v>
       </c>
       <c r="F23" s="3">
-        <v>-1305200</v>
+        <v>2526600</v>
       </c>
       <c r="G23" s="3">
-        <v>3187700</v>
+        <v>-1255300</v>
       </c>
       <c r="H23" s="3">
-        <v>-756600</v>
+        <v>3066000</v>
       </c>
       <c r="I23" s="3">
-        <v>2434500</v>
+        <v>-727700</v>
       </c>
       <c r="J23" s="3">
+        <v>2341500</v>
+      </c>
+      <c r="K23" s="3">
         <v>2353700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1592800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1171200</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>891500</v>
+        <v>762800</v>
       </c>
       <c r="E24" s="3">
-        <v>725600</v>
+        <v>857400</v>
       </c>
       <c r="F24" s="3">
-        <v>592900</v>
+        <v>697900</v>
       </c>
       <c r="G24" s="3">
-        <v>923600</v>
+        <v>570200</v>
       </c>
       <c r="H24" s="3">
-        <v>863800</v>
+        <v>888300</v>
       </c>
       <c r="I24" s="3">
-        <v>642600</v>
+        <v>830900</v>
       </c>
       <c r="J24" s="3">
+        <v>618100</v>
+      </c>
+      <c r="K24" s="3">
         <v>588400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>564400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>464900</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2779600</v>
+        <v>2129800</v>
       </c>
       <c r="E26" s="3">
-        <v>1901300</v>
+        <v>2673400</v>
       </c>
       <c r="F26" s="3">
-        <v>-1898000</v>
+        <v>1828700</v>
       </c>
       <c r="G26" s="3">
-        <v>2264100</v>
+        <v>-1825500</v>
       </c>
       <c r="H26" s="3">
-        <v>-1620400</v>
+        <v>2177700</v>
       </c>
       <c r="I26" s="3">
-        <v>1791800</v>
+        <v>-1558500</v>
       </c>
       <c r="J26" s="3">
+        <v>1723400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1765300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1028300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>706200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2468700</v>
+        <v>1786200</v>
       </c>
       <c r="E27" s="3">
-        <v>1661300</v>
+        <v>2374500</v>
       </c>
       <c r="F27" s="3">
-        <v>-1852700</v>
+        <v>1597900</v>
       </c>
       <c r="G27" s="3">
-        <v>1933400</v>
+        <v>-1781900</v>
       </c>
       <c r="H27" s="3">
-        <v>-1738700</v>
+        <v>1859600</v>
       </c>
       <c r="I27" s="3">
-        <v>1422400</v>
+        <v>-1672300</v>
       </c>
       <c r="J27" s="3">
+        <v>1368100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1406900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>626000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>284800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,9 +1405,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,20 +1420,20 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>47600</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>113900</v>
+        <v>45700</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+        <v>109600</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1381,9 +1441,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>148200</v>
+        <v>180900</v>
       </c>
       <c r="E32" s="3">
-        <v>134900</v>
+        <v>142600</v>
       </c>
       <c r="F32" s="3">
-        <v>94000</v>
+        <v>129800</v>
       </c>
       <c r="G32" s="3">
-        <v>-92900</v>
+        <v>90400</v>
       </c>
       <c r="H32" s="3">
-        <v>202400</v>
+        <v>-89400</v>
       </c>
       <c r="I32" s="3">
-        <v>-292000</v>
+        <v>194700</v>
       </c>
       <c r="J32" s="3">
+        <v>-280900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-386000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-447500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>189500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2468700</v>
+        <v>1786200</v>
       </c>
       <c r="E33" s="3">
-        <v>1661300</v>
+        <v>2374500</v>
       </c>
       <c r="F33" s="3">
-        <v>-1852700</v>
+        <v>1597900</v>
       </c>
       <c r="G33" s="3">
-        <v>1981000</v>
+        <v>-1781900</v>
       </c>
       <c r="H33" s="3">
-        <v>-1624800</v>
+        <v>1905300</v>
       </c>
       <c r="I33" s="3">
-        <v>1422400</v>
+        <v>-1562800</v>
       </c>
       <c r="J33" s="3">
+        <v>1368100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1406900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>626000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>284800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2468700</v>
+        <v>1786200</v>
       </c>
       <c r="E35" s="3">
-        <v>1661300</v>
+        <v>2374500</v>
       </c>
       <c r="F35" s="3">
-        <v>-1852700</v>
+        <v>1597900</v>
       </c>
       <c r="G35" s="3">
-        <v>1981000</v>
+        <v>-1781900</v>
       </c>
       <c r="H35" s="3">
-        <v>-1624800</v>
+        <v>1905300</v>
       </c>
       <c r="I35" s="3">
-        <v>1422400</v>
+        <v>-1562800</v>
       </c>
       <c r="J35" s="3">
+        <v>1368100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1406900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>626000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>284800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,305 +1733,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2560600</v>
+        <v>1930900</v>
       </c>
       <c r="E41" s="3">
-        <v>1689000</v>
+        <v>2462800</v>
       </c>
       <c r="F41" s="3">
-        <v>2708800</v>
+        <v>1624500</v>
       </c>
       <c r="G41" s="3">
-        <v>8958100</v>
+        <v>2605300</v>
       </c>
       <c r="H41" s="3">
-        <v>3533900</v>
+        <v>8616000</v>
       </c>
       <c r="I41" s="3">
-        <v>3245200</v>
+        <v>3398900</v>
       </c>
       <c r="J41" s="3">
+        <v>3121300</v>
+      </c>
+      <c r="K41" s="3">
         <v>680200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1814400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>773500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2031900</v>
+        <v>3594700</v>
       </c>
       <c r="E42" s="3">
-        <v>1096100</v>
+        <v>1954300</v>
       </c>
       <c r="F42" s="3">
-        <v>1956600</v>
+        <v>1054300</v>
       </c>
       <c r="G42" s="3">
-        <v>1932300</v>
+        <v>1881900</v>
       </c>
       <c r="H42" s="3">
-        <v>1325100</v>
+        <v>1858500</v>
       </c>
       <c r="I42" s="3">
-        <v>1506500</v>
+        <v>1274500</v>
       </c>
       <c r="J42" s="3">
+        <v>1448900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1801800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2299900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2281300</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4106800</v>
+        <v>3309600</v>
       </c>
       <c r="E43" s="3">
-        <v>4549300</v>
+        <v>3950000</v>
       </c>
       <c r="F43" s="3">
-        <v>4776000</v>
+        <v>4375500</v>
       </c>
       <c r="G43" s="3">
-        <v>7701600</v>
+        <v>4593600</v>
       </c>
       <c r="H43" s="3">
-        <v>4669800</v>
+        <v>7407400</v>
       </c>
       <c r="I43" s="3">
-        <v>5857700</v>
+        <v>4491500</v>
       </c>
       <c r="J43" s="3">
+        <v>5634000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2876900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8557000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2904600</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2758500</v>
+        <v>2109600</v>
       </c>
       <c r="E44" s="3">
-        <v>3407800</v>
+        <v>2653200</v>
       </c>
       <c r="F44" s="3">
-        <v>3174400</v>
+        <v>3277700</v>
       </c>
       <c r="G44" s="3">
-        <v>5851100</v>
+        <v>3053200</v>
       </c>
       <c r="H44" s="3">
-        <v>3384600</v>
+        <v>5627700</v>
       </c>
       <c r="I44" s="3">
-        <v>4083600</v>
+        <v>3255300</v>
       </c>
       <c r="J44" s="3">
+        <v>3927700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1884700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6236600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2160100</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2047300</v>
+        <v>636200</v>
       </c>
       <c r="E45" s="3">
-        <v>2152400</v>
+        <v>1969100</v>
       </c>
       <c r="F45" s="3">
-        <v>1340600</v>
+        <v>2070200</v>
       </c>
       <c r="G45" s="3">
-        <v>5616600</v>
+        <v>1289400</v>
       </c>
       <c r="H45" s="3">
-        <v>1831700</v>
+        <v>5402100</v>
       </c>
       <c r="I45" s="3">
-        <v>1028600</v>
+        <v>1761700</v>
       </c>
       <c r="J45" s="3">
+        <v>989400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1151400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3166000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>324100</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13505100</v>
+        <v>11580900</v>
       </c>
       <c r="E46" s="3">
-        <v>12894600</v>
+        <v>12989400</v>
       </c>
       <c r="F46" s="3">
-        <v>13956400</v>
+        <v>12402100</v>
       </c>
       <c r="G46" s="3">
-        <v>15966100</v>
+        <v>13423400</v>
       </c>
       <c r="H46" s="3">
-        <v>14745000</v>
+        <v>15356400</v>
       </c>
       <c r="I46" s="3">
-        <v>7998000</v>
+        <v>14181900</v>
       </c>
       <c r="J46" s="3">
+        <v>7692600</v>
+      </c>
+      <c r="K46" s="3">
         <v>8395100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8492400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8443600</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4219700</v>
+        <v>4017000</v>
       </c>
       <c r="E47" s="3">
-        <v>4029400</v>
+        <v>4058500</v>
       </c>
       <c r="F47" s="3">
-        <v>4022800</v>
+        <v>3875500</v>
       </c>
       <c r="G47" s="3">
-        <v>5898700</v>
+        <v>3869100</v>
       </c>
       <c r="H47" s="3">
-        <v>4303700</v>
+        <v>5673400</v>
       </c>
       <c r="I47" s="3">
-        <v>2713200</v>
+        <v>4139400</v>
       </c>
       <c r="J47" s="3">
+        <v>2609600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2310600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4013700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2152800</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30072900</v>
+        <v>25766000</v>
       </c>
       <c r="E48" s="3">
-        <v>30848300</v>
+        <v>28924500</v>
       </c>
       <c r="F48" s="3">
-        <v>33350200</v>
+        <v>29670200</v>
       </c>
       <c r="G48" s="3">
-        <v>70903500</v>
+        <v>32076600</v>
       </c>
       <c r="H48" s="3">
-        <v>40644800</v>
+        <v>68195800</v>
       </c>
       <c r="I48" s="3">
-        <v>47692600</v>
+        <v>39092600</v>
       </c>
       <c r="J48" s="3">
+        <v>45871300</v>
+      </c>
+      <c r="K48" s="3">
         <v>22153500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25485400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23747600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15134400</v>
+        <v>13772300</v>
       </c>
       <c r="E49" s="3">
-        <v>16430700</v>
+        <v>14556400</v>
       </c>
       <c r="F49" s="3">
-        <v>17249200</v>
+        <v>15803200</v>
       </c>
       <c r="G49" s="3">
-        <v>38190400</v>
+        <v>16590400</v>
       </c>
       <c r="H49" s="3">
-        <v>19805300</v>
+        <v>36731900</v>
       </c>
       <c r="I49" s="3">
-        <v>17103200</v>
+        <v>19048900</v>
       </c>
       <c r="J49" s="3">
+        <v>16450000</v>
+      </c>
+      <c r="K49" s="3">
         <v>8280000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>25165200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8753300</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1562900</v>
+        <v>1485100</v>
       </c>
       <c r="E52" s="3">
-        <v>1823900</v>
+        <v>1503200</v>
       </c>
       <c r="F52" s="3">
-        <v>1854900</v>
+        <v>1754300</v>
       </c>
       <c r="G52" s="3">
-        <v>2845900</v>
+        <v>1784000</v>
       </c>
       <c r="H52" s="3">
-        <v>1573900</v>
+        <v>2737200</v>
       </c>
       <c r="I52" s="3">
-        <v>1093900</v>
+        <v>1513800</v>
       </c>
       <c r="J52" s="3">
+        <v>1052100</v>
+      </c>
+      <c r="K52" s="3">
         <v>829600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2361400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>968200</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64494900</v>
+        <v>56621300</v>
       </c>
       <c r="E54" s="3">
-        <v>66026800</v>
+        <v>62031900</v>
       </c>
       <c r="F54" s="3">
-        <v>70433400</v>
+        <v>63505300</v>
       </c>
       <c r="G54" s="3">
-        <v>77001300</v>
+        <v>67743600</v>
       </c>
       <c r="H54" s="3">
-        <v>81072700</v>
+        <v>74060700</v>
       </c>
       <c r="I54" s="3">
-        <v>43678700</v>
+        <v>77976600</v>
       </c>
       <c r="J54" s="3">
+        <v>42010600</v>
+      </c>
+      <c r="K54" s="3">
         <v>41968700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42280300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44065500</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3910000</v>
+        <v>3564900</v>
       </c>
       <c r="E57" s="3">
-        <v>4169900</v>
+        <v>3760600</v>
       </c>
       <c r="F57" s="3">
-        <v>4109100</v>
+        <v>4010600</v>
       </c>
       <c r="G57" s="3">
-        <v>3657800</v>
+        <v>3952100</v>
       </c>
       <c r="H57" s="3">
-        <v>4084700</v>
+        <v>3518100</v>
       </c>
       <c r="I57" s="3">
-        <v>2349300</v>
+        <v>3928700</v>
       </c>
       <c r="J57" s="3">
+        <v>2259600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2139100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2202400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2481100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2195500</v>
+        <v>2178700</v>
       </c>
       <c r="E58" s="3">
-        <v>3291700</v>
+        <v>2111700</v>
       </c>
       <c r="F58" s="3">
-        <v>4130100</v>
+        <v>3166000</v>
       </c>
       <c r="G58" s="3">
-        <v>13200900</v>
+        <v>3972300</v>
       </c>
       <c r="H58" s="3">
-        <v>7546700</v>
+        <v>12696800</v>
       </c>
       <c r="I58" s="3">
-        <v>5492700</v>
+        <v>7258500</v>
       </c>
       <c r="J58" s="3">
+        <v>5283000</v>
+      </c>
+      <c r="K58" s="3">
         <v>3355800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5770700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2912900</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4008400</v>
+        <v>2956400</v>
       </c>
       <c r="E59" s="3">
-        <v>4403300</v>
+        <v>3855300</v>
       </c>
       <c r="F59" s="3">
-        <v>4501700</v>
+        <v>4235100</v>
       </c>
       <c r="G59" s="3">
-        <v>4707400</v>
+        <v>4329800</v>
       </c>
       <c r="H59" s="3">
-        <v>4773800</v>
+        <v>4527700</v>
       </c>
       <c r="I59" s="3">
-        <v>2677800</v>
+        <v>4591500</v>
       </c>
       <c r="J59" s="3">
+        <v>2575500</v>
+      </c>
+      <c r="K59" s="3">
         <v>2757400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5404300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2574300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10113900</v>
+        <v>8700000</v>
       </c>
       <c r="E60" s="3">
-        <v>11864800</v>
+        <v>9727700</v>
       </c>
       <c r="F60" s="3">
-        <v>12740800</v>
+        <v>11411700</v>
       </c>
       <c r="G60" s="3">
-        <v>13835800</v>
+        <v>12254300</v>
       </c>
       <c r="H60" s="3">
-        <v>16405200</v>
+        <v>13307400</v>
       </c>
       <c r="I60" s="3">
-        <v>7573300</v>
+        <v>15778700</v>
       </c>
       <c r="J60" s="3">
+        <v>7284000</v>
+      </c>
+      <c r="K60" s="3">
         <v>8252400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8517000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7968300</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13475300</v>
+        <v>12454300</v>
       </c>
       <c r="E61" s="3">
-        <v>14392200</v>
+        <v>12960600</v>
       </c>
       <c r="F61" s="3">
-        <v>16332200</v>
+        <v>13842600</v>
       </c>
       <c r="G61" s="3">
-        <v>16220500</v>
+        <v>15708500</v>
       </c>
       <c r="H61" s="3">
-        <v>16435100</v>
+        <v>15601100</v>
       </c>
       <c r="I61" s="3">
-        <v>10172500</v>
+        <v>15807400</v>
       </c>
       <c r="J61" s="3">
+        <v>9784000</v>
+      </c>
+      <c r="K61" s="3">
         <v>9716800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10110800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11932300</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6065700</v>
+        <v>5014900</v>
       </c>
       <c r="E62" s="3">
-        <v>6529100</v>
+        <v>5834000</v>
       </c>
       <c r="F62" s="3">
-        <v>7099900</v>
+        <v>6279800</v>
       </c>
       <c r="G62" s="3">
-        <v>10891500</v>
+        <v>6828700</v>
       </c>
       <c r="H62" s="3">
-        <v>8721400</v>
+        <v>10475500</v>
       </c>
       <c r="I62" s="3">
-        <v>4882200</v>
+        <v>8388300</v>
       </c>
       <c r="J62" s="3">
+        <v>4695700</v>
+      </c>
+      <c r="K62" s="3">
         <v>3342500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7285500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3809700</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32898900</v>
+        <v>28885100</v>
       </c>
       <c r="E66" s="3">
-        <v>36245900</v>
+        <v>31642600</v>
       </c>
       <c r="F66" s="3">
-        <v>39699100</v>
+        <v>34861700</v>
       </c>
       <c r="G66" s="3">
-        <v>42910000</v>
+        <v>38183000</v>
       </c>
       <c r="H66" s="3">
-        <v>46380800</v>
+        <v>41271300</v>
       </c>
       <c r="I66" s="3">
-        <v>24399900</v>
+        <v>44609600</v>
       </c>
       <c r="J66" s="3">
+        <v>23468100</v>
+      </c>
+      <c r="K66" s="3">
         <v>24044900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25411500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26637700</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21204500</v>
+        <v>22224500</v>
       </c>
       <c r="E72" s="3">
-        <v>19007800</v>
+        <v>20394700</v>
       </c>
       <c r="F72" s="3">
-        <v>17009100</v>
+        <v>18281900</v>
       </c>
       <c r="G72" s="3">
-        <v>18301000</v>
+        <v>16359600</v>
       </c>
       <c r="H72" s="3">
-        <v>16577800</v>
+        <v>17602100</v>
       </c>
       <c r="I72" s="3">
-        <v>30439000</v>
+        <v>15944700</v>
       </c>
       <c r="J72" s="3">
+        <v>29276600</v>
+      </c>
+      <c r="K72" s="3">
         <v>19128400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16222200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16345700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31596000</v>
+        <v>27736200</v>
       </c>
       <c r="E76" s="3">
-        <v>29780900</v>
+        <v>30389400</v>
       </c>
       <c r="F76" s="3">
-        <v>30734400</v>
+        <v>28643600</v>
       </c>
       <c r="G76" s="3">
-        <v>34091300</v>
+        <v>29560600</v>
       </c>
       <c r="H76" s="3">
-        <v>34691900</v>
+        <v>32789400</v>
       </c>
       <c r="I76" s="3">
-        <v>19278800</v>
+        <v>33367000</v>
       </c>
       <c r="J76" s="3">
+        <v>18542600</v>
+      </c>
+      <c r="K76" s="3">
         <v>17923900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16868800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17427800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2468700</v>
+        <v>1786200</v>
       </c>
       <c r="E81" s="3">
-        <v>1661300</v>
+        <v>2374500</v>
       </c>
       <c r="F81" s="3">
-        <v>-1852700</v>
+        <v>1597900</v>
       </c>
       <c r="G81" s="3">
-        <v>1981000</v>
+        <v>-1781900</v>
       </c>
       <c r="H81" s="3">
-        <v>-1624800</v>
+        <v>1905300</v>
       </c>
       <c r="I81" s="3">
-        <v>1422400</v>
+        <v>-1562800</v>
       </c>
       <c r="J81" s="3">
+        <v>1368100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1406900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>626000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>284800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2743100</v>
+        <v>2446800</v>
       </c>
       <c r="E83" s="3">
-        <v>2480900</v>
+        <v>2638300</v>
       </c>
       <c r="F83" s="3">
-        <v>6854300</v>
+        <v>2386200</v>
       </c>
       <c r="G83" s="3">
-        <v>2598200</v>
+        <v>6592600</v>
       </c>
       <c r="H83" s="3">
-        <v>4889900</v>
+        <v>2498900</v>
       </c>
       <c r="I83" s="3">
-        <v>1550700</v>
+        <v>4703200</v>
       </c>
       <c r="J83" s="3">
+        <v>1491500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1701100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2196200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2096900</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5336800</v>
+        <v>4912800</v>
       </c>
       <c r="E89" s="3">
-        <v>3304900</v>
+        <v>5133000</v>
       </c>
       <c r="F89" s="3">
-        <v>3362500</v>
+        <v>3178700</v>
       </c>
       <c r="G89" s="3">
-        <v>3644500</v>
+        <v>3234000</v>
       </c>
       <c r="H89" s="3">
-        <v>2726500</v>
+        <v>3505300</v>
       </c>
       <c r="I89" s="3">
-        <v>2747500</v>
+        <v>2622300</v>
       </c>
       <c r="J89" s="3">
+        <v>2642600</v>
+      </c>
+      <c r="K89" s="3">
         <v>3082600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2712400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2850800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1696700</v>
+        <v>-1185100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1560700</v>
+        <v>-1631900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1683400</v>
+        <v>-1501100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1961100</v>
+        <v>-1619100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2329400</v>
+        <v>-1886200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2151300</v>
+        <v>-2240400</v>
       </c>
       <c r="J91" s="3">
+        <v>-2069100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2438900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3541700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1839100</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-242200</v>
+        <v>-1309600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1533000</v>
+        <v>-233000</v>
       </c>
       <c r="F94" s="3">
-        <v>-746600</v>
+        <v>-1474500</v>
       </c>
       <c r="G94" s="3">
-        <v>780900</v>
+        <v>-718100</v>
       </c>
       <c r="H94" s="3">
-        <v>5789200</v>
+        <v>751100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1882500</v>
+        <v>5568100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1810600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1841600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1228400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1854600</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-356200</v>
+        <v>-1302100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1318400</v>
+        <v>-342600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1340600</v>
+        <v>-1268100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1005400</v>
+        <v>-1289400</v>
       </c>
       <c r="H96" s="3">
-        <v>-469000</v>
+        <v>-967000</v>
       </c>
       <c r="I96" s="3">
-        <v>-469000</v>
+        <v>-451100</v>
       </c>
       <c r="J96" s="3">
+        <v>-451100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-413700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-558300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-497000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2909000</v>
+        <v>-2011700</v>
       </c>
       <c r="E100" s="3">
-        <v>-3498500</v>
+        <v>-2797900</v>
       </c>
       <c r="F100" s="3">
-        <v>-3410000</v>
+        <v>-3364900</v>
       </c>
       <c r="G100" s="3">
-        <v>-3184400</v>
+        <v>-3279800</v>
       </c>
       <c r="H100" s="3">
-        <v>-6636400</v>
+        <v>-3062800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1087300</v>
+        <v>-6383000</v>
       </c>
       <c r="J100" s="3">
+        <v>-1045700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1797400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1156600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1414500</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-247800</v>
+        <v>-434000</v>
       </c>
       <c r="E101" s="3">
-        <v>-142700</v>
+        <v>-238300</v>
       </c>
       <c r="F101" s="3">
-        <v>-134900</v>
+        <v>-137200</v>
       </c>
       <c r="G101" s="3">
-        <v>-109500</v>
+        <v>-129800</v>
       </c>
       <c r="H101" s="3">
-        <v>144900</v>
+        <v>-105300</v>
       </c>
       <c r="I101" s="3">
-        <v>165900</v>
+        <v>139400</v>
       </c>
       <c r="J101" s="3">
+        <v>159600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-237800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-80000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-174000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1937800</v>
+        <v>1157400</v>
       </c>
       <c r="E102" s="3">
-        <v>-1869300</v>
+        <v>1863800</v>
       </c>
       <c r="F102" s="3">
-        <v>-929100</v>
+        <v>-1797900</v>
       </c>
       <c r="G102" s="3">
-        <v>1131500</v>
+        <v>-893600</v>
       </c>
       <c r="H102" s="3">
-        <v>2024100</v>
+        <v>1088300</v>
       </c>
       <c r="I102" s="3">
-        <v>-56400</v>
+        <v>1946800</v>
       </c>
       <c r="J102" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-794200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>247300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-592300</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24619200</v>
+        <v>25848200</v>
       </c>
       <c r="E8" s="3">
-        <v>28427700</v>
+        <v>29846900</v>
       </c>
       <c r="F8" s="3">
-        <v>29219200</v>
+        <v>30677900</v>
       </c>
       <c r="G8" s="3">
-        <v>28745800</v>
+        <v>30180800</v>
       </c>
       <c r="H8" s="3">
-        <v>28621300</v>
+        <v>30050200</v>
       </c>
       <c r="I8" s="3">
-        <v>25089400</v>
+        <v>26341900</v>
       </c>
       <c r="J8" s="3">
-        <v>20026600</v>
+        <v>21026400</v>
       </c>
       <c r="K8" s="3">
         <v>21810600</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14311700</v>
+        <v>15026200</v>
       </c>
       <c r="E9" s="3">
-        <v>16426600</v>
+        <v>17246700</v>
       </c>
       <c r="F9" s="3">
-        <v>16821300</v>
+        <v>17661100</v>
       </c>
       <c r="G9" s="3">
-        <v>39798900</v>
+        <v>41785800</v>
       </c>
       <c r="H9" s="3">
-        <v>33259600</v>
+        <v>34920000</v>
       </c>
       <c r="I9" s="3">
-        <v>17542600</v>
+        <v>18418300</v>
       </c>
       <c r="J9" s="3">
-        <v>22348900</v>
+        <v>23464700</v>
       </c>
       <c r="K9" s="3">
         <v>12263000</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10307400</v>
+        <v>10822000</v>
       </c>
       <c r="E10" s="3">
-        <v>12001100</v>
+        <v>12600200</v>
       </c>
       <c r="F10" s="3">
-        <v>12397900</v>
+        <v>13016800</v>
       </c>
       <c r="G10" s="3">
-        <v>-11053200</v>
+        <v>-11605000</v>
       </c>
       <c r="H10" s="3">
-        <v>-4638300</v>
+        <v>-4869900</v>
       </c>
       <c r="I10" s="3">
-        <v>7546800</v>
+        <v>7923600</v>
       </c>
       <c r="J10" s="3">
-        <v>-2322300</v>
+        <v>-2438300</v>
       </c>
       <c r="K10" s="3">
         <v>9547600</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>37200</v>
+        <v>39100</v>
       </c>
       <c r="E14" s="3">
-        <v>-244700</v>
+        <v>-256900</v>
       </c>
       <c r="F14" s="3">
-        <v>605300</v>
+        <v>635500</v>
       </c>
       <c r="G14" s="3">
-        <v>-109600</v>
+        <v>-115000</v>
       </c>
       <c r="H14" s="3">
-        <v>-741500</v>
+        <v>-778500</v>
       </c>
       <c r="I14" s="3">
-        <v>-1131900</v>
+        <v>-1188400</v>
       </c>
       <c r="J14" s="3">
-        <v>-187200</v>
+        <v>-196600</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -972,7 +972,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>261700</v>
+        <v>274800</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21070200</v>
+        <v>22122100</v>
       </c>
       <c r="E17" s="3">
-        <v>24105300</v>
+        <v>25308700</v>
       </c>
       <c r="F17" s="3">
-        <v>25796800</v>
+        <v>27084700</v>
       </c>
       <c r="G17" s="3">
-        <v>29124500</v>
+        <v>30578500</v>
       </c>
       <c r="H17" s="3">
-        <v>24727700</v>
+        <v>25962200</v>
       </c>
       <c r="I17" s="3">
-        <v>24743600</v>
+        <v>25978900</v>
       </c>
       <c r="J17" s="3">
-        <v>17453200</v>
+        <v>18324500</v>
       </c>
       <c r="K17" s="3">
         <v>19203600</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3548900</v>
+        <v>3726100</v>
       </c>
       <c r="E18" s="3">
-        <v>4322300</v>
+        <v>4538100</v>
       </c>
       <c r="F18" s="3">
-        <v>3422300</v>
+        <v>3593200</v>
       </c>
       <c r="G18" s="3">
-        <v>-378700</v>
+        <v>-397600</v>
       </c>
       <c r="H18" s="3">
-        <v>3893600</v>
+        <v>4088000</v>
       </c>
       <c r="I18" s="3">
-        <v>345700</v>
+        <v>363000</v>
       </c>
       <c r="J18" s="3">
-        <v>2573400</v>
+        <v>2701900</v>
       </c>
       <c r="K18" s="3">
         <v>2607000</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-180900</v>
+        <v>-189900</v>
       </c>
       <c r="E20" s="3">
-        <v>-142600</v>
+        <v>-149700</v>
       </c>
       <c r="F20" s="3">
-        <v>-129800</v>
+        <v>-136300</v>
       </c>
       <c r="G20" s="3">
-        <v>-90400</v>
+        <v>-94900</v>
       </c>
       <c r="H20" s="3">
-        <v>89400</v>
+        <v>93800</v>
       </c>
       <c r="I20" s="3">
-        <v>-194700</v>
+        <v>-204400</v>
       </c>
       <c r="J20" s="3">
-        <v>280900</v>
+        <v>294900</v>
       </c>
       <c r="K20" s="3">
         <v>386000</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5826700</v>
+        <v>6100600</v>
       </c>
       <c r="E21" s="3">
-        <v>6830800</v>
+        <v>7153500</v>
       </c>
       <c r="F21" s="3">
-        <v>5690200</v>
+        <v>5957800</v>
       </c>
       <c r="G21" s="3">
-        <v>6155100</v>
+        <v>6416800</v>
       </c>
       <c r="H21" s="3">
-        <v>6493900</v>
+        <v>6800800</v>
       </c>
       <c r="I21" s="3">
-        <v>4876900</v>
+        <v>5087800</v>
       </c>
       <c r="J21" s="3">
-        <v>4352900</v>
+        <v>4559900</v>
       </c>
       <c r="K21" s="3">
         <v>4690400</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>475500</v>
+        <v>499300</v>
       </c>
       <c r="E22" s="3">
-        <v>648900</v>
+        <v>681300</v>
       </c>
       <c r="F22" s="3">
-        <v>766000</v>
+        <v>804200</v>
       </c>
       <c r="G22" s="3">
-        <v>786200</v>
+        <v>825400</v>
       </c>
       <c r="H22" s="3">
-        <v>917000</v>
+        <v>962800</v>
       </c>
       <c r="I22" s="3">
-        <v>878700</v>
+        <v>922600</v>
       </c>
       <c r="J22" s="3">
-        <v>512800</v>
+        <v>538400</v>
       </c>
       <c r="K22" s="3">
         <v>639300</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2892600</v>
+        <v>3037000</v>
       </c>
       <c r="E23" s="3">
-        <v>3530900</v>
+        <v>3707100</v>
       </c>
       <c r="F23" s="3">
-        <v>2526600</v>
+        <v>2652700</v>
       </c>
       <c r="G23" s="3">
-        <v>-1255300</v>
+        <v>-1318000</v>
       </c>
       <c r="H23" s="3">
-        <v>3066000</v>
+        <v>3219000</v>
       </c>
       <c r="I23" s="3">
-        <v>-727700</v>
+        <v>-764000</v>
       </c>
       <c r="J23" s="3">
-        <v>2341500</v>
+        <v>2458400</v>
       </c>
       <c r="K23" s="3">
         <v>2353700</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>762800</v>
+        <v>800800</v>
       </c>
       <c r="E24" s="3">
-        <v>857400</v>
+        <v>900300</v>
       </c>
       <c r="F24" s="3">
-        <v>697900</v>
+        <v>732700</v>
       </c>
       <c r="G24" s="3">
-        <v>570200</v>
+        <v>598700</v>
       </c>
       <c r="H24" s="3">
-        <v>888300</v>
+        <v>932600</v>
       </c>
       <c r="I24" s="3">
-        <v>830900</v>
+        <v>872300</v>
       </c>
       <c r="J24" s="3">
-        <v>618100</v>
+        <v>648900</v>
       </c>
       <c r="K24" s="3">
         <v>588400</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2129800</v>
+        <v>2236100</v>
       </c>
       <c r="E26" s="3">
-        <v>2673400</v>
+        <v>2806900</v>
       </c>
       <c r="F26" s="3">
-        <v>1828700</v>
+        <v>1920000</v>
       </c>
       <c r="G26" s="3">
-        <v>-1825500</v>
+        <v>-1916700</v>
       </c>
       <c r="H26" s="3">
-        <v>2177700</v>
+        <v>2286400</v>
       </c>
       <c r="I26" s="3">
-        <v>-1558500</v>
+        <v>-1636300</v>
       </c>
       <c r="J26" s="3">
-        <v>1723400</v>
+        <v>1809400</v>
       </c>
       <c r="K26" s="3">
         <v>1765300</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1786200</v>
+        <v>1875300</v>
       </c>
       <c r="E27" s="3">
-        <v>2374500</v>
+        <v>2493000</v>
       </c>
       <c r="F27" s="3">
-        <v>1597900</v>
+        <v>1677600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1781900</v>
+        <v>-1870900</v>
       </c>
       <c r="H27" s="3">
-        <v>1859600</v>
+        <v>1952400</v>
       </c>
       <c r="I27" s="3">
-        <v>-1672300</v>
+        <v>-1755800</v>
       </c>
       <c r="J27" s="3">
-        <v>1368100</v>
+        <v>1436400</v>
       </c>
       <c r="K27" s="3">
         <v>1406900</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>45700</v>
+        <v>48000</v>
       </c>
       <c r="I29" s="3">
-        <v>109600</v>
+        <v>115000</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>180900</v>
+        <v>189900</v>
       </c>
       <c r="E32" s="3">
-        <v>142600</v>
+        <v>149700</v>
       </c>
       <c r="F32" s="3">
-        <v>129800</v>
+        <v>136300</v>
       </c>
       <c r="G32" s="3">
-        <v>90400</v>
+        <v>94900</v>
       </c>
       <c r="H32" s="3">
-        <v>-89400</v>
+        <v>-93800</v>
       </c>
       <c r="I32" s="3">
-        <v>194700</v>
+        <v>204400</v>
       </c>
       <c r="J32" s="3">
-        <v>-280900</v>
+        <v>-294900</v>
       </c>
       <c r="K32" s="3">
         <v>-386000</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1786200</v>
+        <v>1875300</v>
       </c>
       <c r="E33" s="3">
-        <v>2374500</v>
+        <v>2493000</v>
       </c>
       <c r="F33" s="3">
-        <v>1597900</v>
+        <v>1677600</v>
       </c>
       <c r="G33" s="3">
-        <v>-1781900</v>
+        <v>-1870900</v>
       </c>
       <c r="H33" s="3">
-        <v>1905300</v>
+        <v>2000400</v>
       </c>
       <c r="I33" s="3">
-        <v>-1562800</v>
+        <v>-1640800</v>
       </c>
       <c r="J33" s="3">
-        <v>1368100</v>
+        <v>1436400</v>
       </c>
       <c r="K33" s="3">
         <v>1406900</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1786200</v>
+        <v>1875300</v>
       </c>
       <c r="E35" s="3">
-        <v>2374500</v>
+        <v>2493000</v>
       </c>
       <c r="F35" s="3">
-        <v>1597900</v>
+        <v>1677600</v>
       </c>
       <c r="G35" s="3">
-        <v>-1781900</v>
+        <v>-1870900</v>
       </c>
       <c r="H35" s="3">
-        <v>1905300</v>
+        <v>2000400</v>
       </c>
       <c r="I35" s="3">
-        <v>-1562800</v>
+        <v>-1640800</v>
       </c>
       <c r="J35" s="3">
-        <v>1368100</v>
+        <v>1436400</v>
       </c>
       <c r="K35" s="3">
         <v>1406900</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1930900</v>
+        <v>2027200</v>
       </c>
       <c r="E41" s="3">
-        <v>2462800</v>
+        <v>2585700</v>
       </c>
       <c r="F41" s="3">
-        <v>1624500</v>
+        <v>1705600</v>
       </c>
       <c r="G41" s="3">
-        <v>2605300</v>
+        <v>2735400</v>
       </c>
       <c r="H41" s="3">
-        <v>8616000</v>
+        <v>9046100</v>
       </c>
       <c r="I41" s="3">
-        <v>3398900</v>
+        <v>3568600</v>
       </c>
       <c r="J41" s="3">
-        <v>3121300</v>
+        <v>3277100</v>
       </c>
       <c r="K41" s="3">
         <v>680200</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3594700</v>
+        <v>3774100</v>
       </c>
       <c r="E42" s="3">
-        <v>1954300</v>
+        <v>2051800</v>
       </c>
       <c r="F42" s="3">
-        <v>1054300</v>
+        <v>1106900</v>
       </c>
       <c r="G42" s="3">
-        <v>1881900</v>
+        <v>1975900</v>
       </c>
       <c r="H42" s="3">
-        <v>1858500</v>
+        <v>1951300</v>
       </c>
       <c r="I42" s="3">
-        <v>1274500</v>
+        <v>1338100</v>
       </c>
       <c r="J42" s="3">
-        <v>1448900</v>
+        <v>1521300</v>
       </c>
       <c r="K42" s="3">
         <v>1801800</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3309600</v>
+        <v>3474800</v>
       </c>
       <c r="E43" s="3">
-        <v>3950000</v>
+        <v>4147200</v>
       </c>
       <c r="F43" s="3">
-        <v>4375500</v>
+        <v>4594000</v>
       </c>
       <c r="G43" s="3">
-        <v>4593600</v>
+        <v>4822900</v>
       </c>
       <c r="H43" s="3">
-        <v>7407400</v>
+        <v>7777300</v>
       </c>
       <c r="I43" s="3">
-        <v>4491500</v>
+        <v>4715700</v>
       </c>
       <c r="J43" s="3">
-        <v>5634000</v>
+        <v>5915300</v>
       </c>
       <c r="K43" s="3">
         <v>2876900</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2109600</v>
+        <v>2214900</v>
       </c>
       <c r="E44" s="3">
-        <v>2653200</v>
+        <v>2785600</v>
       </c>
       <c r="F44" s="3">
-        <v>3277700</v>
+        <v>3441300</v>
       </c>
       <c r="G44" s="3">
-        <v>3053200</v>
+        <v>3205600</v>
       </c>
       <c r="H44" s="3">
-        <v>5627700</v>
+        <v>5908600</v>
       </c>
       <c r="I44" s="3">
-        <v>3255300</v>
+        <v>3417800</v>
       </c>
       <c r="J44" s="3">
-        <v>3927700</v>
+        <v>4123700</v>
       </c>
       <c r="K44" s="3">
         <v>1884700</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>636200</v>
+        <v>667900</v>
       </c>
       <c r="E45" s="3">
-        <v>1969100</v>
+        <v>2067500</v>
       </c>
       <c r="F45" s="3">
-        <v>2070200</v>
+        <v>2173600</v>
       </c>
       <c r="G45" s="3">
-        <v>1289400</v>
+        <v>1353700</v>
       </c>
       <c r="H45" s="3">
-        <v>5402100</v>
+        <v>5671800</v>
       </c>
       <c r="I45" s="3">
-        <v>1761700</v>
+        <v>1849700</v>
       </c>
       <c r="J45" s="3">
-        <v>989400</v>
+        <v>1038800</v>
       </c>
       <c r="K45" s="3">
         <v>1151400</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11580900</v>
+        <v>12159000</v>
       </c>
       <c r="E46" s="3">
-        <v>12989400</v>
+        <v>13637800</v>
       </c>
       <c r="F46" s="3">
-        <v>12402100</v>
+        <v>13021300</v>
       </c>
       <c r="G46" s="3">
-        <v>13423400</v>
+        <v>14093500</v>
       </c>
       <c r="H46" s="3">
-        <v>15356400</v>
+        <v>16123000</v>
       </c>
       <c r="I46" s="3">
-        <v>14181900</v>
+        <v>14889900</v>
       </c>
       <c r="J46" s="3">
-        <v>7692600</v>
+        <v>8076600</v>
       </c>
       <c r="K46" s="3">
         <v>8395100</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4017000</v>
+        <v>4217600</v>
       </c>
       <c r="E47" s="3">
-        <v>4058500</v>
+        <v>4261100</v>
       </c>
       <c r="F47" s="3">
-        <v>3875500</v>
+        <v>4069000</v>
       </c>
       <c r="G47" s="3">
-        <v>3869100</v>
+        <v>4062300</v>
       </c>
       <c r="H47" s="3">
-        <v>5673400</v>
+        <v>5956600</v>
       </c>
       <c r="I47" s="3">
-        <v>4139400</v>
+        <v>4346000</v>
       </c>
       <c r="J47" s="3">
-        <v>2609600</v>
+        <v>2739900</v>
       </c>
       <c r="K47" s="3">
         <v>2310600</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25766000</v>
+        <v>27052300</v>
       </c>
       <c r="E48" s="3">
-        <v>28924500</v>
+        <v>30368500</v>
       </c>
       <c r="F48" s="3">
-        <v>29670200</v>
+        <v>31151500</v>
       </c>
       <c r="G48" s="3">
-        <v>32076600</v>
+        <v>33678000</v>
       </c>
       <c r="H48" s="3">
-        <v>68195800</v>
+        <v>71600300</v>
       </c>
       <c r="I48" s="3">
-        <v>39092600</v>
+        <v>41044200</v>
       </c>
       <c r="J48" s="3">
-        <v>45871300</v>
+        <v>48161300</v>
       </c>
       <c r="K48" s="3">
         <v>22153500</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13772300</v>
+        <v>14459900</v>
       </c>
       <c r="E49" s="3">
-        <v>14556400</v>
+        <v>15283100</v>
       </c>
       <c r="F49" s="3">
-        <v>15803200</v>
+        <v>16592100</v>
       </c>
       <c r="G49" s="3">
-        <v>16590400</v>
+        <v>17418700</v>
       </c>
       <c r="H49" s="3">
-        <v>36731900</v>
+        <v>38565700</v>
       </c>
       <c r="I49" s="3">
-        <v>19048900</v>
+        <v>19999900</v>
       </c>
       <c r="J49" s="3">
-        <v>16450000</v>
+        <v>17271200</v>
       </c>
       <c r="K49" s="3">
         <v>8280000</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1485100</v>
+        <v>1559200</v>
       </c>
       <c r="E52" s="3">
-        <v>1503200</v>
+        <v>1578200</v>
       </c>
       <c r="F52" s="3">
-        <v>1754300</v>
+        <v>1841800</v>
       </c>
       <c r="G52" s="3">
-        <v>1784000</v>
+        <v>1873100</v>
       </c>
       <c r="H52" s="3">
-        <v>2737200</v>
+        <v>2873900</v>
       </c>
       <c r="I52" s="3">
-        <v>1513800</v>
+        <v>1589400</v>
       </c>
       <c r="J52" s="3">
-        <v>1052100</v>
+        <v>1104700</v>
       </c>
       <c r="K52" s="3">
         <v>829600</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>56621300</v>
+        <v>59448000</v>
       </c>
       <c r="E54" s="3">
-        <v>62031900</v>
+        <v>65128800</v>
       </c>
       <c r="F54" s="3">
-        <v>63505300</v>
+        <v>66675700</v>
       </c>
       <c r="G54" s="3">
-        <v>67743600</v>
+        <v>71125600</v>
       </c>
       <c r="H54" s="3">
-        <v>74060700</v>
+        <v>77758000</v>
       </c>
       <c r="I54" s="3">
-        <v>77976600</v>
+        <v>81869500</v>
       </c>
       <c r="J54" s="3">
-        <v>42010600</v>
+        <v>44108000</v>
       </c>
       <c r="K54" s="3">
         <v>41968700</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3564900</v>
+        <v>3742900</v>
       </c>
       <c r="E57" s="3">
-        <v>3760600</v>
+        <v>3948400</v>
       </c>
       <c r="F57" s="3">
-        <v>4010600</v>
+        <v>4210900</v>
       </c>
       <c r="G57" s="3">
-        <v>3952100</v>
+        <v>4149400</v>
       </c>
       <c r="H57" s="3">
-        <v>3518100</v>
+        <v>3693700</v>
       </c>
       <c r="I57" s="3">
-        <v>3928700</v>
+        <v>4124900</v>
       </c>
       <c r="J57" s="3">
-        <v>2259600</v>
+        <v>2372400</v>
       </c>
       <c r="K57" s="3">
         <v>2139100</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2178700</v>
+        <v>2287500</v>
       </c>
       <c r="E58" s="3">
-        <v>2111700</v>
+        <v>2217100</v>
       </c>
       <c r="F58" s="3">
-        <v>3166000</v>
+        <v>3324000</v>
       </c>
       <c r="G58" s="3">
-        <v>3972300</v>
+        <v>4170700</v>
       </c>
       <c r="H58" s="3">
-        <v>12696800</v>
+        <v>13330700</v>
       </c>
       <c r="I58" s="3">
-        <v>7258500</v>
+        <v>7620900</v>
       </c>
       <c r="J58" s="3">
-        <v>5283000</v>
+        <v>5546700</v>
       </c>
       <c r="K58" s="3">
         <v>3355800</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2956400</v>
+        <v>3104000</v>
       </c>
       <c r="E59" s="3">
-        <v>3855300</v>
+        <v>4047800</v>
       </c>
       <c r="F59" s="3">
-        <v>4235100</v>
+        <v>4446500</v>
       </c>
       <c r="G59" s="3">
-        <v>4329800</v>
+        <v>4545900</v>
       </c>
       <c r="H59" s="3">
-        <v>4527700</v>
+        <v>4753700</v>
       </c>
       <c r="I59" s="3">
-        <v>4591500</v>
+        <v>4820700</v>
       </c>
       <c r="J59" s="3">
-        <v>2575500</v>
+        <v>2704100</v>
       </c>
       <c r="K59" s="3">
         <v>2757400</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8700000</v>
+        <v>9134300</v>
       </c>
       <c r="E60" s="3">
-        <v>9727700</v>
+        <v>10213300</v>
       </c>
       <c r="F60" s="3">
-        <v>11411700</v>
+        <v>11981400</v>
       </c>
       <c r="G60" s="3">
-        <v>12254300</v>
+        <v>12866000</v>
       </c>
       <c r="H60" s="3">
-        <v>13307400</v>
+        <v>13971800</v>
       </c>
       <c r="I60" s="3">
-        <v>15778700</v>
+        <v>16566500</v>
       </c>
       <c r="J60" s="3">
-        <v>7284000</v>
+        <v>7647700</v>
       </c>
       <c r="K60" s="3">
         <v>8252400</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12454300</v>
+        <v>13076000</v>
       </c>
       <c r="E61" s="3">
-        <v>12960600</v>
+        <v>13607700</v>
       </c>
       <c r="F61" s="3">
-        <v>13842600</v>
+        <v>14533600</v>
       </c>
       <c r="G61" s="3">
-        <v>15708500</v>
+        <v>16492700</v>
       </c>
       <c r="H61" s="3">
-        <v>15601100</v>
+        <v>16379900</v>
       </c>
       <c r="I61" s="3">
-        <v>15807400</v>
+        <v>16596600</v>
       </c>
       <c r="J61" s="3">
-        <v>9784000</v>
+        <v>10272500</v>
       </c>
       <c r="K61" s="3">
         <v>9716800</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5014900</v>
+        <v>5265300</v>
       </c>
       <c r="E62" s="3">
-        <v>5834000</v>
+        <v>6125300</v>
       </c>
       <c r="F62" s="3">
-        <v>6279800</v>
+        <v>6593300</v>
       </c>
       <c r="G62" s="3">
-        <v>6828700</v>
+        <v>7169600</v>
       </c>
       <c r="H62" s="3">
-        <v>10475500</v>
+        <v>10998500</v>
       </c>
       <c r="I62" s="3">
-        <v>8388300</v>
+        <v>8807100</v>
       </c>
       <c r="J62" s="3">
-        <v>4695700</v>
+        <v>4930200</v>
       </c>
       <c r="K62" s="3">
         <v>3342500</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>28885100</v>
+        <v>30327200</v>
       </c>
       <c r="E66" s="3">
-        <v>31642600</v>
+        <v>33222300</v>
       </c>
       <c r="F66" s="3">
-        <v>34861700</v>
+        <v>36602100</v>
       </c>
       <c r="G66" s="3">
-        <v>38183000</v>
+        <v>40089200</v>
       </c>
       <c r="H66" s="3">
-        <v>41271300</v>
+        <v>43331700</v>
       </c>
       <c r="I66" s="3">
-        <v>44609600</v>
+        <v>46836600</v>
       </c>
       <c r="J66" s="3">
-        <v>23468100</v>
+        <v>24639700</v>
       </c>
       <c r="K66" s="3">
         <v>24044900</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22224500</v>
+        <v>23334000</v>
       </c>
       <c r="E72" s="3">
-        <v>20394700</v>
+        <v>21412900</v>
       </c>
       <c r="F72" s="3">
-        <v>18281900</v>
+        <v>19194600</v>
       </c>
       <c r="G72" s="3">
-        <v>16359600</v>
+        <v>17176300</v>
       </c>
       <c r="H72" s="3">
-        <v>17602100</v>
+        <v>18480900</v>
       </c>
       <c r="I72" s="3">
-        <v>15944700</v>
+        <v>16740700</v>
       </c>
       <c r="J72" s="3">
-        <v>29276600</v>
+        <v>30738200</v>
       </c>
       <c r="K72" s="3">
         <v>19128400</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27736200</v>
+        <v>29120900</v>
       </c>
       <c r="E76" s="3">
-        <v>30389400</v>
+        <v>31906500</v>
       </c>
       <c r="F76" s="3">
-        <v>28643600</v>
+        <v>30073600</v>
       </c>
       <c r="G76" s="3">
-        <v>29560600</v>
+        <v>31036400</v>
       </c>
       <c r="H76" s="3">
-        <v>32789400</v>
+        <v>34426300</v>
       </c>
       <c r="I76" s="3">
-        <v>33367000</v>
+        <v>35032800</v>
       </c>
       <c r="J76" s="3">
-        <v>18542600</v>
+        <v>19468300</v>
       </c>
       <c r="K76" s="3">
         <v>17923900</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1786200</v>
+        <v>1875300</v>
       </c>
       <c r="E81" s="3">
-        <v>2374500</v>
+        <v>2493000</v>
       </c>
       <c r="F81" s="3">
-        <v>1597900</v>
+        <v>1677600</v>
       </c>
       <c r="G81" s="3">
-        <v>-1781900</v>
+        <v>-1870900</v>
       </c>
       <c r="H81" s="3">
-        <v>1905300</v>
+        <v>2000400</v>
       </c>
       <c r="I81" s="3">
-        <v>-1562800</v>
+        <v>-1640800</v>
       </c>
       <c r="J81" s="3">
-        <v>1368100</v>
+        <v>1436400</v>
       </c>
       <c r="K81" s="3">
         <v>1406900</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2446800</v>
+        <v>2569000</v>
       </c>
       <c r="E83" s="3">
-        <v>2638300</v>
+        <v>2770000</v>
       </c>
       <c r="F83" s="3">
-        <v>2386200</v>
+        <v>2505300</v>
       </c>
       <c r="G83" s="3">
-        <v>6592600</v>
+        <v>6921700</v>
       </c>
       <c r="H83" s="3">
-        <v>2498900</v>
+        <v>2623700</v>
       </c>
       <c r="I83" s="3">
-        <v>4703200</v>
+        <v>4938000</v>
       </c>
       <c r="J83" s="3">
-        <v>1491500</v>
+        <v>1565900</v>
       </c>
       <c r="K83" s="3">
         <v>1701100</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4912800</v>
+        <v>5158000</v>
       </c>
       <c r="E89" s="3">
-        <v>5133000</v>
+        <v>5389200</v>
       </c>
       <c r="F89" s="3">
-        <v>3178700</v>
+        <v>3337400</v>
       </c>
       <c r="G89" s="3">
-        <v>3234000</v>
+        <v>3395500</v>
       </c>
       <c r="H89" s="3">
-        <v>3505300</v>
+        <v>3680300</v>
       </c>
       <c r="I89" s="3">
-        <v>2622300</v>
+        <v>2753300</v>
       </c>
       <c r="J89" s="3">
-        <v>2642600</v>
+        <v>2774500</v>
       </c>
       <c r="K89" s="3">
         <v>3082600</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1185100</v>
+        <v>-1244300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1631900</v>
+        <v>-1713400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1501100</v>
+        <v>-1576000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1619100</v>
+        <v>-1700000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1886200</v>
+        <v>-1980300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2240400</v>
+        <v>-2352300</v>
       </c>
       <c r="J91" s="3">
-        <v>-2069100</v>
+        <v>-2172400</v>
       </c>
       <c r="K91" s="3">
         <v>-2438900</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1309600</v>
+        <v>-1375000</v>
       </c>
       <c r="E94" s="3">
-        <v>-233000</v>
+        <v>-244600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1474500</v>
+        <v>-1548100</v>
       </c>
       <c r="G94" s="3">
-        <v>-718100</v>
+        <v>-753900</v>
       </c>
       <c r="H94" s="3">
-        <v>751100</v>
+        <v>788600</v>
       </c>
       <c r="I94" s="3">
-        <v>5568100</v>
+        <v>5846100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1810600</v>
+        <v>-1901000</v>
       </c>
       <c r="K94" s="3">
         <v>-1841600</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1302100</v>
+        <v>-1367100</v>
       </c>
       <c r="E96" s="3">
-        <v>-342600</v>
+        <v>-359700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1268100</v>
+        <v>-1331400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1289400</v>
+        <v>-1353700</v>
       </c>
       <c r="H96" s="3">
-        <v>-967000</v>
+        <v>-1015300</v>
       </c>
       <c r="I96" s="3">
-        <v>-451100</v>
+        <v>-473600</v>
       </c>
       <c r="J96" s="3">
-        <v>-451100</v>
+        <v>-473600</v>
       </c>
       <c r="K96" s="3">
         <v>-413700</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2011700</v>
+        <v>-2112100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2797900</v>
+        <v>-2937600</v>
       </c>
       <c r="F100" s="3">
-        <v>-3364900</v>
+        <v>-3532900</v>
       </c>
       <c r="G100" s="3">
-        <v>-3279800</v>
+        <v>-3443500</v>
       </c>
       <c r="H100" s="3">
-        <v>-3062800</v>
+        <v>-3215700</v>
       </c>
       <c r="I100" s="3">
-        <v>-6383000</v>
+        <v>-6701600</v>
       </c>
       <c r="J100" s="3">
-        <v>-1045700</v>
+        <v>-1098000</v>
       </c>
       <c r="K100" s="3">
         <v>-1797400</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-434000</v>
+        <v>-455700</v>
       </c>
       <c r="E101" s="3">
-        <v>-238300</v>
+        <v>-250200</v>
       </c>
       <c r="F101" s="3">
-        <v>-137200</v>
+        <v>-144100</v>
       </c>
       <c r="G101" s="3">
-        <v>-129800</v>
+        <v>-136300</v>
       </c>
       <c r="H101" s="3">
-        <v>-105300</v>
+        <v>-110600</v>
       </c>
       <c r="I101" s="3">
-        <v>139400</v>
+        <v>146300</v>
       </c>
       <c r="J101" s="3">
-        <v>159600</v>
+        <v>167500</v>
       </c>
       <c r="K101" s="3">
         <v>-237800</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1157400</v>
+        <v>1215200</v>
       </c>
       <c r="E102" s="3">
-        <v>1863800</v>
+        <v>1956900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1797900</v>
+        <v>-1887600</v>
       </c>
       <c r="G102" s="3">
-        <v>-893600</v>
+        <v>-938200</v>
       </c>
       <c r="H102" s="3">
-        <v>1088300</v>
+        <v>1142600</v>
       </c>
       <c r="I102" s="3">
-        <v>1946800</v>
+        <v>2044000</v>
       </c>
       <c r="J102" s="3">
-        <v>-54300</v>
+        <v>-57000</v>
       </c>
       <c r="K102" s="3">
         <v>-794200</v>

--- a/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25848200</v>
+        <v>25189800</v>
       </c>
       <c r="E8" s="3">
-        <v>29846900</v>
+        <v>29086600</v>
       </c>
       <c r="F8" s="3">
-        <v>30677900</v>
+        <v>29896500</v>
       </c>
       <c r="G8" s="3">
-        <v>30180800</v>
+        <v>29412100</v>
       </c>
       <c r="H8" s="3">
-        <v>30050200</v>
+        <v>29284700</v>
       </c>
       <c r="I8" s="3">
-        <v>26341900</v>
+        <v>25670900</v>
       </c>
       <c r="J8" s="3">
-        <v>21026400</v>
+        <v>20490800</v>
       </c>
       <c r="K8" s="3">
         <v>21810600</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15026200</v>
+        <v>14643500</v>
       </c>
       <c r="E9" s="3">
-        <v>17246700</v>
+        <v>16807400</v>
       </c>
       <c r="F9" s="3">
-        <v>17661100</v>
+        <v>17211200</v>
       </c>
       <c r="G9" s="3">
-        <v>41785800</v>
+        <v>40721500</v>
       </c>
       <c r="H9" s="3">
-        <v>34920000</v>
+        <v>34030600</v>
       </c>
       <c r="I9" s="3">
-        <v>18418300</v>
+        <v>17949200</v>
       </c>
       <c r="J9" s="3">
-        <v>23464700</v>
+        <v>22867000</v>
       </c>
       <c r="K9" s="3">
         <v>12263000</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10822000</v>
+        <v>10546400</v>
       </c>
       <c r="E10" s="3">
-        <v>12600200</v>
+        <v>12279300</v>
       </c>
       <c r="F10" s="3">
-        <v>13016800</v>
+        <v>12685300</v>
       </c>
       <c r="G10" s="3">
-        <v>-11605000</v>
+        <v>-11309400</v>
       </c>
       <c r="H10" s="3">
-        <v>-4869900</v>
+        <v>-4745800</v>
       </c>
       <c r="I10" s="3">
-        <v>7923600</v>
+        <v>7721700</v>
       </c>
       <c r="J10" s="3">
-        <v>-2438300</v>
+        <v>-2376200</v>
       </c>
       <c r="K10" s="3">
         <v>9547600</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>39100</v>
+        <v>38100</v>
       </c>
       <c r="E14" s="3">
-        <v>-256900</v>
+        <v>-250400</v>
       </c>
       <c r="F14" s="3">
-        <v>635500</v>
+        <v>619400</v>
       </c>
       <c r="G14" s="3">
-        <v>-115000</v>
+        <v>-112100</v>
       </c>
       <c r="H14" s="3">
-        <v>-778500</v>
+        <v>-758700</v>
       </c>
       <c r="I14" s="3">
-        <v>-1188400</v>
+        <v>-1158200</v>
       </c>
       <c r="J14" s="3">
-        <v>-196600</v>
+        <v>-191600</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -972,7 +972,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>274800</v>
+        <v>267800</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22122100</v>
+        <v>21558600</v>
       </c>
       <c r="E17" s="3">
-        <v>25308700</v>
+        <v>24664100</v>
       </c>
       <c r="F17" s="3">
-        <v>27084700</v>
+        <v>26394800</v>
       </c>
       <c r="G17" s="3">
-        <v>30578500</v>
+        <v>29799600</v>
       </c>
       <c r="H17" s="3">
-        <v>25962200</v>
+        <v>25300900</v>
       </c>
       <c r="I17" s="3">
-        <v>25978900</v>
+        <v>25317200</v>
       </c>
       <c r="J17" s="3">
-        <v>18324500</v>
+        <v>17857800</v>
       </c>
       <c r="K17" s="3">
         <v>19203600</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3726100</v>
+        <v>3631200</v>
       </c>
       <c r="E18" s="3">
-        <v>4538100</v>
+        <v>4422500</v>
       </c>
       <c r="F18" s="3">
-        <v>3593200</v>
+        <v>3501700</v>
       </c>
       <c r="G18" s="3">
-        <v>-397600</v>
+        <v>-387500</v>
       </c>
       <c r="H18" s="3">
-        <v>4088000</v>
+        <v>3983900</v>
       </c>
       <c r="I18" s="3">
-        <v>363000</v>
+        <v>353800</v>
       </c>
       <c r="J18" s="3">
-        <v>2701900</v>
+        <v>2633100</v>
       </c>
       <c r="K18" s="3">
         <v>2607000</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-189900</v>
+        <v>-185000</v>
       </c>
       <c r="E20" s="3">
-        <v>-149700</v>
+        <v>-145900</v>
       </c>
       <c r="F20" s="3">
-        <v>-136300</v>
+        <v>-132800</v>
       </c>
       <c r="G20" s="3">
-        <v>-94900</v>
+        <v>-92500</v>
       </c>
       <c r="H20" s="3">
-        <v>93800</v>
+        <v>91400</v>
       </c>
       <c r="I20" s="3">
-        <v>-204400</v>
+        <v>-199200</v>
       </c>
       <c r="J20" s="3">
-        <v>294900</v>
+        <v>287400</v>
       </c>
       <c r="K20" s="3">
         <v>386000</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6100600</v>
+        <v>5954900</v>
       </c>
       <c r="E21" s="3">
-        <v>7153500</v>
+        <v>6981700</v>
       </c>
       <c r="F21" s="3">
-        <v>5957800</v>
+        <v>5815400</v>
       </c>
       <c r="G21" s="3">
-        <v>6416800</v>
+        <v>6279400</v>
       </c>
       <c r="H21" s="3">
-        <v>6800800</v>
+        <v>6637500</v>
       </c>
       <c r="I21" s="3">
-        <v>5087800</v>
+        <v>4976800</v>
       </c>
       <c r="J21" s="3">
-        <v>4559900</v>
+        <v>4449700</v>
       </c>
       <c r="K21" s="3">
         <v>4690400</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>499300</v>
+        <v>486600</v>
       </c>
       <c r="E22" s="3">
-        <v>681300</v>
+        <v>664000</v>
       </c>
       <c r="F22" s="3">
-        <v>804200</v>
+        <v>783700</v>
       </c>
       <c r="G22" s="3">
-        <v>825400</v>
+        <v>804400</v>
       </c>
       <c r="H22" s="3">
-        <v>962800</v>
+        <v>938300</v>
       </c>
       <c r="I22" s="3">
-        <v>922600</v>
+        <v>899100</v>
       </c>
       <c r="J22" s="3">
-        <v>538400</v>
+        <v>524700</v>
       </c>
       <c r="K22" s="3">
         <v>639300</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3037000</v>
+        <v>2959600</v>
       </c>
       <c r="E23" s="3">
-        <v>3707100</v>
+        <v>3612700</v>
       </c>
       <c r="F23" s="3">
-        <v>2652700</v>
+        <v>2585200</v>
       </c>
       <c r="G23" s="3">
-        <v>-1318000</v>
+        <v>-1284400</v>
       </c>
       <c r="H23" s="3">
-        <v>3219000</v>
+        <v>3137000</v>
       </c>
       <c r="I23" s="3">
-        <v>-764000</v>
+        <v>-744500</v>
       </c>
       <c r="J23" s="3">
-        <v>2458400</v>
+        <v>2395800</v>
       </c>
       <c r="K23" s="3">
         <v>2353700</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>800800</v>
+        <v>780400</v>
       </c>
       <c r="E24" s="3">
-        <v>900300</v>
+        <v>877300</v>
       </c>
       <c r="F24" s="3">
-        <v>732700</v>
+        <v>714000</v>
       </c>
       <c r="G24" s="3">
-        <v>598700</v>
+        <v>583400</v>
       </c>
       <c r="H24" s="3">
-        <v>932600</v>
+        <v>908900</v>
       </c>
       <c r="I24" s="3">
-        <v>872300</v>
+        <v>850100</v>
       </c>
       <c r="J24" s="3">
-        <v>648900</v>
+        <v>632400</v>
       </c>
       <c r="K24" s="3">
         <v>588400</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2236100</v>
+        <v>2179200</v>
       </c>
       <c r="E26" s="3">
-        <v>2806900</v>
+        <v>2735400</v>
       </c>
       <c r="F26" s="3">
-        <v>1920000</v>
+        <v>1871100</v>
       </c>
       <c r="G26" s="3">
-        <v>-1916700</v>
+        <v>-1867800</v>
       </c>
       <c r="H26" s="3">
-        <v>2286400</v>
+        <v>2228100</v>
       </c>
       <c r="I26" s="3">
-        <v>-1636300</v>
+        <v>-1594600</v>
       </c>
       <c r="J26" s="3">
-        <v>1809400</v>
+        <v>1763400</v>
       </c>
       <c r="K26" s="3">
         <v>1765300</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1875300</v>
+        <v>1827600</v>
       </c>
       <c r="E27" s="3">
-        <v>2493000</v>
+        <v>2429500</v>
       </c>
       <c r="F27" s="3">
-        <v>1677600</v>
+        <v>1634900</v>
       </c>
       <c r="G27" s="3">
-        <v>-1870900</v>
+        <v>-1823200</v>
       </c>
       <c r="H27" s="3">
-        <v>1952400</v>
+        <v>1902700</v>
       </c>
       <c r="I27" s="3">
-        <v>-1755800</v>
+        <v>-1711100</v>
       </c>
       <c r="J27" s="3">
-        <v>1436400</v>
+        <v>1399800</v>
       </c>
       <c r="K27" s="3">
         <v>1406900</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>48000</v>
+        <v>46800</v>
       </c>
       <c r="I29" s="3">
-        <v>115000</v>
+        <v>112100</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>189900</v>
+        <v>185000</v>
       </c>
       <c r="E32" s="3">
-        <v>149700</v>
+        <v>145900</v>
       </c>
       <c r="F32" s="3">
-        <v>136300</v>
+        <v>132800</v>
       </c>
       <c r="G32" s="3">
-        <v>94900</v>
+        <v>92500</v>
       </c>
       <c r="H32" s="3">
-        <v>-93800</v>
+        <v>-91400</v>
       </c>
       <c r="I32" s="3">
-        <v>204400</v>
+        <v>199200</v>
       </c>
       <c r="J32" s="3">
-        <v>-294900</v>
+        <v>-287400</v>
       </c>
       <c r="K32" s="3">
         <v>-386000</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1875300</v>
+        <v>1827600</v>
       </c>
       <c r="E33" s="3">
-        <v>2493000</v>
+        <v>2429500</v>
       </c>
       <c r="F33" s="3">
-        <v>1677600</v>
+        <v>1634900</v>
       </c>
       <c r="G33" s="3">
-        <v>-1870900</v>
+        <v>-1823200</v>
       </c>
       <c r="H33" s="3">
-        <v>2000400</v>
+        <v>1949500</v>
       </c>
       <c r="I33" s="3">
-        <v>-1640800</v>
+        <v>-1599000</v>
       </c>
       <c r="J33" s="3">
-        <v>1436400</v>
+        <v>1399800</v>
       </c>
       <c r="K33" s="3">
         <v>1406900</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1875300</v>
+        <v>1827600</v>
       </c>
       <c r="E35" s="3">
-        <v>2493000</v>
+        <v>2429500</v>
       </c>
       <c r="F35" s="3">
-        <v>1677600</v>
+        <v>1634900</v>
       </c>
       <c r="G35" s="3">
-        <v>-1870900</v>
+        <v>-1823200</v>
       </c>
       <c r="H35" s="3">
-        <v>2000400</v>
+        <v>1949500</v>
       </c>
       <c r="I35" s="3">
-        <v>-1640800</v>
+        <v>-1599000</v>
       </c>
       <c r="J35" s="3">
-        <v>1436400</v>
+        <v>1399800</v>
       </c>
       <c r="K35" s="3">
         <v>1406900</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2027200</v>
+        <v>1975600</v>
       </c>
       <c r="E41" s="3">
-        <v>2585700</v>
+        <v>2519900</v>
       </c>
       <c r="F41" s="3">
-        <v>1705600</v>
+        <v>1662100</v>
       </c>
       <c r="G41" s="3">
-        <v>2735400</v>
+        <v>2665700</v>
       </c>
       <c r="H41" s="3">
-        <v>9046100</v>
+        <v>8815700</v>
       </c>
       <c r="I41" s="3">
-        <v>3568600</v>
+        <v>3477700</v>
       </c>
       <c r="J41" s="3">
-        <v>3277100</v>
+        <v>3193600</v>
       </c>
       <c r="K41" s="3">
         <v>680200</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3774100</v>
+        <v>3678000</v>
       </c>
       <c r="E42" s="3">
-        <v>2051800</v>
+        <v>1999600</v>
       </c>
       <c r="F42" s="3">
-        <v>1106900</v>
+        <v>1078700</v>
       </c>
       <c r="G42" s="3">
-        <v>1975900</v>
+        <v>1925500</v>
       </c>
       <c r="H42" s="3">
-        <v>1951300</v>
+        <v>1901600</v>
       </c>
       <c r="I42" s="3">
-        <v>1338100</v>
+        <v>1304000</v>
       </c>
       <c r="J42" s="3">
-        <v>1521300</v>
+        <v>1482500</v>
       </c>
       <c r="K42" s="3">
         <v>1801800</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3474800</v>
+        <v>3386300</v>
       </c>
       <c r="E43" s="3">
-        <v>4147200</v>
+        <v>4041600</v>
       </c>
       <c r="F43" s="3">
-        <v>4594000</v>
+        <v>4477000</v>
       </c>
       <c r="G43" s="3">
-        <v>4822900</v>
+        <v>4700100</v>
       </c>
       <c r="H43" s="3">
-        <v>7777300</v>
+        <v>7579200</v>
       </c>
       <c r="I43" s="3">
-        <v>4715700</v>
+        <v>4595600</v>
       </c>
       <c r="J43" s="3">
-        <v>5915300</v>
+        <v>5764600</v>
       </c>
       <c r="K43" s="3">
         <v>2876900</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2214900</v>
+        <v>2158500</v>
       </c>
       <c r="E44" s="3">
-        <v>2785600</v>
+        <v>2714700</v>
       </c>
       <c r="F44" s="3">
-        <v>3441300</v>
+        <v>3353600</v>
       </c>
       <c r="G44" s="3">
-        <v>3205600</v>
+        <v>3124000</v>
       </c>
       <c r="H44" s="3">
-        <v>5908600</v>
+        <v>5758100</v>
       </c>
       <c r="I44" s="3">
-        <v>3417800</v>
+        <v>3330800</v>
       </c>
       <c r="J44" s="3">
-        <v>4123700</v>
+        <v>4018700</v>
       </c>
       <c r="K44" s="3">
         <v>1884700</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>667900</v>
+        <v>650900</v>
       </c>
       <c r="E45" s="3">
-        <v>2067500</v>
+        <v>2014800</v>
       </c>
       <c r="F45" s="3">
-        <v>2173600</v>
+        <v>2118200</v>
       </c>
       <c r="G45" s="3">
-        <v>1353700</v>
+        <v>1319200</v>
       </c>
       <c r="H45" s="3">
-        <v>5671800</v>
+        <v>5527400</v>
       </c>
       <c r="I45" s="3">
-        <v>1849700</v>
+        <v>1802500</v>
       </c>
       <c r="J45" s="3">
-        <v>1038800</v>
+        <v>1012300</v>
       </c>
       <c r="K45" s="3">
         <v>1151400</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12159000</v>
+        <v>11849300</v>
       </c>
       <c r="E46" s="3">
-        <v>13637800</v>
+        <v>13290500</v>
       </c>
       <c r="F46" s="3">
-        <v>13021300</v>
+        <v>12689600</v>
       </c>
       <c r="G46" s="3">
-        <v>14093500</v>
+        <v>13734600</v>
       </c>
       <c r="H46" s="3">
-        <v>16123000</v>
+        <v>15712400</v>
       </c>
       <c r="I46" s="3">
-        <v>14889900</v>
+        <v>14510700</v>
       </c>
       <c r="J46" s="3">
-        <v>8076600</v>
+        <v>7870900</v>
       </c>
       <c r="K46" s="3">
         <v>8395100</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4217600</v>
+        <v>4110100</v>
       </c>
       <c r="E47" s="3">
-        <v>4261100</v>
+        <v>4152600</v>
       </c>
       <c r="F47" s="3">
-        <v>4069000</v>
+        <v>3965400</v>
       </c>
       <c r="G47" s="3">
-        <v>4062300</v>
+        <v>3958800</v>
       </c>
       <c r="H47" s="3">
-        <v>5956600</v>
+        <v>5804900</v>
       </c>
       <c r="I47" s="3">
-        <v>4346000</v>
+        <v>4235300</v>
       </c>
       <c r="J47" s="3">
-        <v>2739900</v>
+        <v>2670100</v>
       </c>
       <c r="K47" s="3">
         <v>2310600</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>27052300</v>
+        <v>26363200</v>
       </c>
       <c r="E48" s="3">
-        <v>30368500</v>
+        <v>29595000</v>
       </c>
       <c r="F48" s="3">
-        <v>31151500</v>
+        <v>30358000</v>
       </c>
       <c r="G48" s="3">
-        <v>33678000</v>
+        <v>32820200</v>
       </c>
       <c r="H48" s="3">
-        <v>71600300</v>
+        <v>69776600</v>
       </c>
       <c r="I48" s="3">
-        <v>41044200</v>
+        <v>39998700</v>
       </c>
       <c r="J48" s="3">
-        <v>48161300</v>
+        <v>46934600</v>
       </c>
       <c r="K48" s="3">
         <v>22153500</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14459900</v>
+        <v>14091600</v>
       </c>
       <c r="E49" s="3">
-        <v>15283100</v>
+        <v>14893800</v>
       </c>
       <c r="F49" s="3">
-        <v>16592100</v>
+        <v>16169500</v>
       </c>
       <c r="G49" s="3">
-        <v>17418700</v>
+        <v>16975000</v>
       </c>
       <c r="H49" s="3">
-        <v>38565700</v>
+        <v>37583400</v>
       </c>
       <c r="I49" s="3">
-        <v>19999900</v>
+        <v>19490500</v>
       </c>
       <c r="J49" s="3">
-        <v>17271200</v>
+        <v>16831300</v>
       </c>
       <c r="K49" s="3">
         <v>8280000</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1559200</v>
+        <v>1519500</v>
       </c>
       <c r="E52" s="3">
-        <v>1578200</v>
+        <v>1538000</v>
       </c>
       <c r="F52" s="3">
-        <v>1841800</v>
+        <v>1794900</v>
       </c>
       <c r="G52" s="3">
-        <v>1873100</v>
+        <v>1825400</v>
       </c>
       <c r="H52" s="3">
-        <v>2873900</v>
+        <v>2800700</v>
       </c>
       <c r="I52" s="3">
-        <v>1589400</v>
+        <v>1548900</v>
       </c>
       <c r="J52" s="3">
-        <v>1104700</v>
+        <v>1076500</v>
       </c>
       <c r="K52" s="3">
         <v>829600</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59448000</v>
+        <v>57933800</v>
       </c>
       <c r="E54" s="3">
-        <v>65128800</v>
+        <v>63469900</v>
       </c>
       <c r="F54" s="3">
-        <v>66675700</v>
+        <v>64977400</v>
       </c>
       <c r="G54" s="3">
-        <v>71125600</v>
+        <v>69314000</v>
       </c>
       <c r="H54" s="3">
-        <v>77758000</v>
+        <v>75777400</v>
       </c>
       <c r="I54" s="3">
-        <v>81869500</v>
+        <v>79784100</v>
       </c>
       <c r="J54" s="3">
-        <v>44108000</v>
+        <v>42984500</v>
       </c>
       <c r="K54" s="3">
         <v>41968700</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3742900</v>
+        <v>3647500</v>
       </c>
       <c r="E57" s="3">
-        <v>3948400</v>
+        <v>3847800</v>
       </c>
       <c r="F57" s="3">
-        <v>4210900</v>
+        <v>4103600</v>
       </c>
       <c r="G57" s="3">
-        <v>4149400</v>
+        <v>4043700</v>
       </c>
       <c r="H57" s="3">
-        <v>3693700</v>
+        <v>3599600</v>
       </c>
       <c r="I57" s="3">
-        <v>4124900</v>
+        <v>4019800</v>
       </c>
       <c r="J57" s="3">
-        <v>2372400</v>
+        <v>2312000</v>
       </c>
       <c r="K57" s="3">
         <v>2139100</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2287500</v>
+        <v>2229200</v>
       </c>
       <c r="E58" s="3">
-        <v>2217100</v>
+        <v>2160700</v>
       </c>
       <c r="F58" s="3">
-        <v>3324000</v>
+        <v>3239300</v>
       </c>
       <c r="G58" s="3">
-        <v>4170700</v>
+        <v>4064400</v>
       </c>
       <c r="H58" s="3">
-        <v>13330700</v>
+        <v>12991100</v>
       </c>
       <c r="I58" s="3">
-        <v>7620900</v>
+        <v>7426800</v>
       </c>
       <c r="J58" s="3">
-        <v>5546700</v>
+        <v>5405400</v>
       </c>
       <c r="K58" s="3">
         <v>3355800</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3104000</v>
+        <v>3024900</v>
       </c>
       <c r="E59" s="3">
-        <v>4047800</v>
+        <v>3944700</v>
       </c>
       <c r="F59" s="3">
-        <v>4446500</v>
+        <v>4333300</v>
       </c>
       <c r="G59" s="3">
-        <v>4545900</v>
+        <v>4430200</v>
       </c>
       <c r="H59" s="3">
-        <v>4753700</v>
+        <v>4632600</v>
       </c>
       <c r="I59" s="3">
-        <v>4820700</v>
+        <v>4697900</v>
       </c>
       <c r="J59" s="3">
-        <v>2704100</v>
+        <v>2635200</v>
       </c>
       <c r="K59" s="3">
         <v>2757400</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9134300</v>
+        <v>8901700</v>
       </c>
       <c r="E60" s="3">
-        <v>10213300</v>
+        <v>9953200</v>
       </c>
       <c r="F60" s="3">
-        <v>11981400</v>
+        <v>11676200</v>
       </c>
       <c r="G60" s="3">
-        <v>12866000</v>
+        <v>12538300</v>
       </c>
       <c r="H60" s="3">
-        <v>13971800</v>
+        <v>13615900</v>
       </c>
       <c r="I60" s="3">
-        <v>16566500</v>
+        <v>16144500</v>
       </c>
       <c r="J60" s="3">
-        <v>7647700</v>
+        <v>7452900</v>
       </c>
       <c r="K60" s="3">
         <v>8252400</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13076000</v>
+        <v>12743000</v>
       </c>
       <c r="E61" s="3">
-        <v>13607700</v>
+        <v>13261100</v>
       </c>
       <c r="F61" s="3">
-        <v>14533600</v>
+        <v>14163400</v>
       </c>
       <c r="G61" s="3">
-        <v>16492700</v>
+        <v>16072600</v>
       </c>
       <c r="H61" s="3">
-        <v>16379900</v>
+        <v>15962700</v>
       </c>
       <c r="I61" s="3">
-        <v>16596600</v>
+        <v>16173900</v>
       </c>
       <c r="J61" s="3">
-        <v>10272500</v>
+        <v>10010800</v>
       </c>
       <c r="K61" s="3">
         <v>9716800</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5265300</v>
+        <v>5131100</v>
       </c>
       <c r="E62" s="3">
-        <v>6125300</v>
+        <v>5969300</v>
       </c>
       <c r="F62" s="3">
-        <v>6593300</v>
+        <v>6425400</v>
       </c>
       <c r="G62" s="3">
-        <v>7169600</v>
+        <v>6987000</v>
       </c>
       <c r="H62" s="3">
-        <v>10998500</v>
+        <v>10718400</v>
       </c>
       <c r="I62" s="3">
-        <v>8807100</v>
+        <v>8582700</v>
       </c>
       <c r="J62" s="3">
-        <v>4930200</v>
+        <v>4804600</v>
       </c>
       <c r="K62" s="3">
         <v>3342500</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30327200</v>
+        <v>29554700</v>
       </c>
       <c r="E66" s="3">
-        <v>33222300</v>
+        <v>32376000</v>
       </c>
       <c r="F66" s="3">
-        <v>36602100</v>
+        <v>35669800</v>
       </c>
       <c r="G66" s="3">
-        <v>40089200</v>
+        <v>39068100</v>
       </c>
       <c r="H66" s="3">
-        <v>43331700</v>
+        <v>42228000</v>
       </c>
       <c r="I66" s="3">
-        <v>46836600</v>
+        <v>45643700</v>
       </c>
       <c r="J66" s="3">
-        <v>24639700</v>
+        <v>24012100</v>
       </c>
       <c r="K66" s="3">
         <v>24044900</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23334000</v>
+        <v>22739600</v>
       </c>
       <c r="E72" s="3">
-        <v>21412900</v>
+        <v>20867400</v>
       </c>
       <c r="F72" s="3">
-        <v>19194600</v>
+        <v>18705700</v>
       </c>
       <c r="G72" s="3">
-        <v>17176300</v>
+        <v>16738800</v>
       </c>
       <c r="H72" s="3">
-        <v>18480900</v>
+        <v>18010200</v>
       </c>
       <c r="I72" s="3">
-        <v>16740700</v>
+        <v>16314300</v>
       </c>
       <c r="J72" s="3">
-        <v>30738200</v>
+        <v>29955200</v>
       </c>
       <c r="K72" s="3">
         <v>19128400</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29120900</v>
+        <v>28379100</v>
       </c>
       <c r="E76" s="3">
-        <v>31906500</v>
+        <v>31093800</v>
       </c>
       <c r="F76" s="3">
-        <v>30073600</v>
+        <v>29307600</v>
       </c>
       <c r="G76" s="3">
-        <v>31036400</v>
+        <v>30245900</v>
       </c>
       <c r="H76" s="3">
-        <v>34426300</v>
+        <v>33549400</v>
       </c>
       <c r="I76" s="3">
-        <v>35032800</v>
+        <v>34140500</v>
       </c>
       <c r="J76" s="3">
-        <v>19468300</v>
+        <v>18972400</v>
       </c>
       <c r="K76" s="3">
         <v>17923900</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1875300</v>
+        <v>1827600</v>
       </c>
       <c r="E81" s="3">
-        <v>2493000</v>
+        <v>2429500</v>
       </c>
       <c r="F81" s="3">
-        <v>1677600</v>
+        <v>1634900</v>
       </c>
       <c r="G81" s="3">
-        <v>-1870900</v>
+        <v>-1823200</v>
       </c>
       <c r="H81" s="3">
-        <v>2000400</v>
+        <v>1949500</v>
       </c>
       <c r="I81" s="3">
-        <v>-1640800</v>
+        <v>-1599000</v>
       </c>
       <c r="J81" s="3">
-        <v>1436400</v>
+        <v>1399800</v>
       </c>
       <c r="K81" s="3">
         <v>1406900</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2569000</v>
+        <v>2503500</v>
       </c>
       <c r="E83" s="3">
-        <v>2770000</v>
+        <v>2699500</v>
       </c>
       <c r="F83" s="3">
-        <v>2505300</v>
+        <v>2441500</v>
       </c>
       <c r="G83" s="3">
-        <v>6921700</v>
+        <v>6745400</v>
       </c>
       <c r="H83" s="3">
-        <v>2623700</v>
+        <v>2556900</v>
       </c>
       <c r="I83" s="3">
-        <v>4938000</v>
+        <v>4812200</v>
       </c>
       <c r="J83" s="3">
-        <v>1565900</v>
+        <v>1526100</v>
       </c>
       <c r="K83" s="3">
         <v>1701100</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5158000</v>
+        <v>5026600</v>
       </c>
       <c r="E89" s="3">
-        <v>5389200</v>
+        <v>5252000</v>
       </c>
       <c r="F89" s="3">
-        <v>3337400</v>
+        <v>3252400</v>
       </c>
       <c r="G89" s="3">
-        <v>3395500</v>
+        <v>3309000</v>
       </c>
       <c r="H89" s="3">
-        <v>3680300</v>
+        <v>3586600</v>
       </c>
       <c r="I89" s="3">
-        <v>2753300</v>
+        <v>2683100</v>
       </c>
       <c r="J89" s="3">
-        <v>2774500</v>
+        <v>2703800</v>
       </c>
       <c r="K89" s="3">
         <v>3082600</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1244300</v>
+        <v>-1212600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1713400</v>
+        <v>-1669700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1576000</v>
+        <v>-1535900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1700000</v>
+        <v>-1656700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1980300</v>
+        <v>-1929900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2352300</v>
+        <v>-2292400</v>
       </c>
       <c r="J91" s="3">
-        <v>-2172400</v>
+        <v>-2117100</v>
       </c>
       <c r="K91" s="3">
         <v>-2438900</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1375000</v>
+        <v>-1339900</v>
       </c>
       <c r="E94" s="3">
-        <v>-244600</v>
+        <v>-238400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1548100</v>
+        <v>-1508600</v>
       </c>
       <c r="G94" s="3">
-        <v>-753900</v>
+        <v>-734700</v>
       </c>
       <c r="H94" s="3">
-        <v>788600</v>
+        <v>768500</v>
       </c>
       <c r="I94" s="3">
-        <v>5846100</v>
+        <v>5697200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1901000</v>
+        <v>-1852600</v>
       </c>
       <c r="K94" s="3">
         <v>-1841600</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1367100</v>
+        <v>-1332300</v>
       </c>
       <c r="E96" s="3">
-        <v>-359700</v>
+        <v>-350500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1331400</v>
+        <v>-1297500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1353700</v>
+        <v>-1319200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1015300</v>
+        <v>-989400</v>
       </c>
       <c r="I96" s="3">
-        <v>-473600</v>
+        <v>-461500</v>
       </c>
       <c r="J96" s="3">
-        <v>-473600</v>
+        <v>-461500</v>
       </c>
       <c r="K96" s="3">
         <v>-413700</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2112100</v>
+        <v>-2058300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2937600</v>
+        <v>-2862700</v>
       </c>
       <c r="F100" s="3">
-        <v>-3532900</v>
+        <v>-3442900</v>
       </c>
       <c r="G100" s="3">
-        <v>-3443500</v>
+        <v>-3355800</v>
       </c>
       <c r="H100" s="3">
-        <v>-3215700</v>
+        <v>-3133800</v>
       </c>
       <c r="I100" s="3">
-        <v>-6701600</v>
+        <v>-6530900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1098000</v>
+        <v>-1070000</v>
       </c>
       <c r="K100" s="3">
         <v>-1797400</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-455700</v>
+        <v>-444100</v>
       </c>
       <c r="E101" s="3">
-        <v>-250200</v>
+        <v>-243800</v>
       </c>
       <c r="F101" s="3">
-        <v>-144100</v>
+        <v>-140400</v>
       </c>
       <c r="G101" s="3">
-        <v>-136300</v>
+        <v>-132800</v>
       </c>
       <c r="H101" s="3">
-        <v>-110600</v>
+        <v>-107800</v>
       </c>
       <c r="I101" s="3">
-        <v>146300</v>
+        <v>142600</v>
       </c>
       <c r="J101" s="3">
-        <v>167500</v>
+        <v>163300</v>
       </c>
       <c r="K101" s="3">
         <v>-237800</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1215200</v>
+        <v>1184300</v>
       </c>
       <c r="E102" s="3">
-        <v>1956900</v>
+        <v>1907000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1887600</v>
+        <v>-1839500</v>
       </c>
       <c r="G102" s="3">
-        <v>-938200</v>
+        <v>-914300</v>
       </c>
       <c r="H102" s="3">
-        <v>1142600</v>
+        <v>1113500</v>
       </c>
       <c r="I102" s="3">
-        <v>2044000</v>
+        <v>1991900</v>
       </c>
       <c r="J102" s="3">
-        <v>-57000</v>
+        <v>-55500</v>
       </c>
       <c r="K102" s="3">
         <v>-794200</v>

--- a/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25189800</v>
+        <v>25072500</v>
       </c>
       <c r="E8" s="3">
-        <v>29086600</v>
+        <v>28951100</v>
       </c>
       <c r="F8" s="3">
-        <v>29896500</v>
+        <v>29757200</v>
       </c>
       <c r="G8" s="3">
-        <v>29412100</v>
+        <v>29275100</v>
       </c>
       <c r="H8" s="3">
-        <v>29284700</v>
+        <v>29148300</v>
       </c>
       <c r="I8" s="3">
-        <v>25670900</v>
+        <v>25551400</v>
       </c>
       <c r="J8" s="3">
-        <v>20490800</v>
+        <v>20395400</v>
       </c>
       <c r="K8" s="3">
         <v>21810600</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14643500</v>
+        <v>14575200</v>
       </c>
       <c r="E9" s="3">
-        <v>16807400</v>
+        <v>16729100</v>
       </c>
       <c r="F9" s="3">
-        <v>17211200</v>
+        <v>17131000</v>
       </c>
       <c r="G9" s="3">
-        <v>40721500</v>
+        <v>40531800</v>
       </c>
       <c r="H9" s="3">
-        <v>34030600</v>
+        <v>33872000</v>
       </c>
       <c r="I9" s="3">
-        <v>17949200</v>
+        <v>17865600</v>
       </c>
       <c r="J9" s="3">
-        <v>22867000</v>
+        <v>22760500</v>
       </c>
       <c r="K9" s="3">
         <v>12263000</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10546400</v>
+        <v>10497300</v>
       </c>
       <c r="E10" s="3">
-        <v>12279300</v>
+        <v>12222100</v>
       </c>
       <c r="F10" s="3">
-        <v>12685300</v>
+        <v>12626200</v>
       </c>
       <c r="G10" s="3">
-        <v>-11309400</v>
+        <v>-11256700</v>
       </c>
       <c r="H10" s="3">
-        <v>-4745800</v>
+        <v>-4723700</v>
       </c>
       <c r="I10" s="3">
-        <v>7721700</v>
+        <v>7685800</v>
       </c>
       <c r="J10" s="3">
-        <v>-2376200</v>
+        <v>-2365100</v>
       </c>
       <c r="K10" s="3">
         <v>9547600</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>38100</v>
+        <v>37900</v>
       </c>
       <c r="E14" s="3">
-        <v>-250400</v>
+        <v>-249200</v>
       </c>
       <c r="F14" s="3">
-        <v>619400</v>
+        <v>616500</v>
       </c>
       <c r="G14" s="3">
-        <v>-112100</v>
+        <v>-111600</v>
       </c>
       <c r="H14" s="3">
-        <v>-758700</v>
+        <v>-755100</v>
       </c>
       <c r="I14" s="3">
-        <v>-1158200</v>
+        <v>-1152800</v>
       </c>
       <c r="J14" s="3">
-        <v>-191600</v>
+        <v>-190700</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -972,7 +972,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>267800</v>
+        <v>266500</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21558600</v>
+        <v>21458200</v>
       </c>
       <c r="E17" s="3">
-        <v>24664100</v>
+        <v>24549200</v>
       </c>
       <c r="F17" s="3">
-        <v>26394800</v>
+        <v>26271900</v>
       </c>
       <c r="G17" s="3">
-        <v>29799600</v>
+        <v>29660800</v>
       </c>
       <c r="H17" s="3">
-        <v>25300900</v>
+        <v>25183000</v>
       </c>
       <c r="I17" s="3">
-        <v>25317200</v>
+        <v>25199300</v>
       </c>
       <c r="J17" s="3">
-        <v>17857800</v>
+        <v>17774600</v>
       </c>
       <c r="K17" s="3">
         <v>19203600</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3631200</v>
+        <v>3614300</v>
       </c>
       <c r="E18" s="3">
-        <v>4422500</v>
+        <v>4401900</v>
       </c>
       <c r="F18" s="3">
-        <v>3501700</v>
+        <v>3485400</v>
       </c>
       <c r="G18" s="3">
-        <v>-387500</v>
+        <v>-385700</v>
       </c>
       <c r="H18" s="3">
-        <v>3983900</v>
+        <v>3965300</v>
       </c>
       <c r="I18" s="3">
-        <v>353800</v>
+        <v>352100</v>
       </c>
       <c r="J18" s="3">
-        <v>2633100</v>
+        <v>2620800</v>
       </c>
       <c r="K18" s="3">
         <v>2607000</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-185000</v>
+        <v>-184200</v>
       </c>
       <c r="E20" s="3">
-        <v>-145900</v>
+        <v>-145200</v>
       </c>
       <c r="F20" s="3">
-        <v>-132800</v>
+        <v>-132200</v>
       </c>
       <c r="G20" s="3">
-        <v>-92500</v>
+        <v>-92100</v>
       </c>
       <c r="H20" s="3">
-        <v>91400</v>
+        <v>91000</v>
       </c>
       <c r="I20" s="3">
-        <v>-199200</v>
+        <v>-198300</v>
       </c>
       <c r="J20" s="3">
-        <v>287400</v>
+        <v>286000</v>
       </c>
       <c r="K20" s="3">
         <v>386000</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5954900</v>
+        <v>5919600</v>
       </c>
       <c r="E21" s="3">
-        <v>6981700</v>
+        <v>6941000</v>
       </c>
       <c r="F21" s="3">
-        <v>5815400</v>
+        <v>5780900</v>
       </c>
       <c r="G21" s="3">
-        <v>6279400</v>
+        <v>6229700</v>
       </c>
       <c r="H21" s="3">
-        <v>6637500</v>
+        <v>6598800</v>
       </c>
       <c r="I21" s="3">
-        <v>4976800</v>
+        <v>4939000</v>
       </c>
       <c r="J21" s="3">
-        <v>4449700</v>
+        <v>4424300</v>
       </c>
       <c r="K21" s="3">
         <v>4690400</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>486600</v>
+        <v>484300</v>
       </c>
       <c r="E22" s="3">
-        <v>664000</v>
+        <v>660900</v>
       </c>
       <c r="F22" s="3">
-        <v>783700</v>
+        <v>780100</v>
       </c>
       <c r="G22" s="3">
-        <v>804400</v>
+        <v>800600</v>
       </c>
       <c r="H22" s="3">
-        <v>938300</v>
+        <v>933900</v>
       </c>
       <c r="I22" s="3">
-        <v>899100</v>
+        <v>894900</v>
       </c>
       <c r="J22" s="3">
-        <v>524700</v>
+        <v>522200</v>
       </c>
       <c r="K22" s="3">
         <v>639300</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2959600</v>
+        <v>2945800</v>
       </c>
       <c r="E23" s="3">
-        <v>3612700</v>
+        <v>3595900</v>
       </c>
       <c r="F23" s="3">
-        <v>2585200</v>
+        <v>2573100</v>
       </c>
       <c r="G23" s="3">
-        <v>-1284400</v>
+        <v>-1278400</v>
       </c>
       <c r="H23" s="3">
-        <v>3137000</v>
+        <v>3122400</v>
       </c>
       <c r="I23" s="3">
-        <v>-744500</v>
+        <v>-741100</v>
       </c>
       <c r="J23" s="3">
-        <v>2395800</v>
+        <v>2384600</v>
       </c>
       <c r="K23" s="3">
         <v>2353700</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>780400</v>
+        <v>776800</v>
       </c>
       <c r="E24" s="3">
-        <v>877300</v>
+        <v>873200</v>
       </c>
       <c r="F24" s="3">
-        <v>714000</v>
+        <v>710700</v>
       </c>
       <c r="G24" s="3">
-        <v>583400</v>
+        <v>580700</v>
       </c>
       <c r="H24" s="3">
-        <v>908900</v>
+        <v>904700</v>
       </c>
       <c r="I24" s="3">
-        <v>850100</v>
+        <v>846200</v>
       </c>
       <c r="J24" s="3">
-        <v>632400</v>
+        <v>629500</v>
       </c>
       <c r="K24" s="3">
         <v>588400</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2179200</v>
+        <v>2169000</v>
       </c>
       <c r="E26" s="3">
-        <v>2735400</v>
+        <v>2722600</v>
       </c>
       <c r="F26" s="3">
-        <v>1871100</v>
+        <v>1862400</v>
       </c>
       <c r="G26" s="3">
-        <v>-1867800</v>
+        <v>-1859100</v>
       </c>
       <c r="H26" s="3">
-        <v>2228100</v>
+        <v>2217800</v>
       </c>
       <c r="I26" s="3">
-        <v>-1594600</v>
+        <v>-1587200</v>
       </c>
       <c r="J26" s="3">
-        <v>1763400</v>
+        <v>1755100</v>
       </c>
       <c r="K26" s="3">
         <v>1765300</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1827600</v>
+        <v>1819100</v>
       </c>
       <c r="E27" s="3">
-        <v>2429500</v>
+        <v>2418200</v>
       </c>
       <c r="F27" s="3">
-        <v>1634900</v>
+        <v>1627300</v>
       </c>
       <c r="G27" s="3">
-        <v>-1823200</v>
+        <v>-1814700</v>
       </c>
       <c r="H27" s="3">
-        <v>1902700</v>
+        <v>1893800</v>
       </c>
       <c r="I27" s="3">
-        <v>-1711100</v>
+        <v>-1703100</v>
       </c>
       <c r="J27" s="3">
-        <v>1399800</v>
+        <v>1393300</v>
       </c>
       <c r="K27" s="3">
         <v>1406900</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>46800</v>
+        <v>46600</v>
       </c>
       <c r="I29" s="3">
-        <v>112100</v>
+        <v>111600</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>185000</v>
+        <v>184200</v>
       </c>
       <c r="E32" s="3">
-        <v>145900</v>
+        <v>145200</v>
       </c>
       <c r="F32" s="3">
-        <v>132800</v>
+        <v>132200</v>
       </c>
       <c r="G32" s="3">
-        <v>92500</v>
+        <v>92100</v>
       </c>
       <c r="H32" s="3">
-        <v>-91400</v>
+        <v>-91000</v>
       </c>
       <c r="I32" s="3">
-        <v>199200</v>
+        <v>198300</v>
       </c>
       <c r="J32" s="3">
-        <v>-287400</v>
+        <v>-286000</v>
       </c>
       <c r="K32" s="3">
         <v>-386000</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1827600</v>
+        <v>1819100</v>
       </c>
       <c r="E33" s="3">
-        <v>2429500</v>
+        <v>2418200</v>
       </c>
       <c r="F33" s="3">
-        <v>1634900</v>
+        <v>1627300</v>
       </c>
       <c r="G33" s="3">
-        <v>-1823200</v>
+        <v>-1814700</v>
       </c>
       <c r="H33" s="3">
-        <v>1949500</v>
+        <v>1940400</v>
       </c>
       <c r="I33" s="3">
-        <v>-1599000</v>
+        <v>-1591500</v>
       </c>
       <c r="J33" s="3">
-        <v>1399800</v>
+        <v>1393300</v>
       </c>
       <c r="K33" s="3">
         <v>1406900</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1827600</v>
+        <v>1819100</v>
       </c>
       <c r="E35" s="3">
-        <v>2429500</v>
+        <v>2418200</v>
       </c>
       <c r="F35" s="3">
-        <v>1634900</v>
+        <v>1627300</v>
       </c>
       <c r="G35" s="3">
-        <v>-1823200</v>
+        <v>-1814700</v>
       </c>
       <c r="H35" s="3">
-        <v>1949500</v>
+        <v>1940400</v>
       </c>
       <c r="I35" s="3">
-        <v>-1599000</v>
+        <v>-1591500</v>
       </c>
       <c r="J35" s="3">
-        <v>1399800</v>
+        <v>1393300</v>
       </c>
       <c r="K35" s="3">
         <v>1406900</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1975600</v>
+        <v>1966400</v>
       </c>
       <c r="E41" s="3">
-        <v>2519900</v>
+        <v>2508100</v>
       </c>
       <c r="F41" s="3">
-        <v>1662100</v>
+        <v>1654400</v>
       </c>
       <c r="G41" s="3">
-        <v>2665700</v>
+        <v>2653300</v>
       </c>
       <c r="H41" s="3">
-        <v>8815700</v>
+        <v>8774600</v>
       </c>
       <c r="I41" s="3">
-        <v>3477700</v>
+        <v>3461500</v>
       </c>
       <c r="J41" s="3">
-        <v>3193600</v>
+        <v>3178800</v>
       </c>
       <c r="K41" s="3">
         <v>680200</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3678000</v>
+        <v>3660900</v>
       </c>
       <c r="E42" s="3">
-        <v>1999600</v>
+        <v>1990200</v>
       </c>
       <c r="F42" s="3">
-        <v>1078700</v>
+        <v>1073700</v>
       </c>
       <c r="G42" s="3">
-        <v>1925500</v>
+        <v>1916600</v>
       </c>
       <c r="H42" s="3">
-        <v>1901600</v>
+        <v>1892700</v>
       </c>
       <c r="I42" s="3">
-        <v>1304000</v>
+        <v>1297900</v>
       </c>
       <c r="J42" s="3">
-        <v>1482500</v>
+        <v>1475600</v>
       </c>
       <c r="K42" s="3">
         <v>1801800</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3386300</v>
+        <v>3370500</v>
       </c>
       <c r="E43" s="3">
-        <v>4041600</v>
+        <v>4022700</v>
       </c>
       <c r="F43" s="3">
-        <v>4477000</v>
+        <v>4456100</v>
       </c>
       <c r="G43" s="3">
-        <v>4700100</v>
+        <v>4678200</v>
       </c>
       <c r="H43" s="3">
-        <v>7579200</v>
+        <v>7543900</v>
       </c>
       <c r="I43" s="3">
-        <v>4595600</v>
+        <v>4574200</v>
       </c>
       <c r="J43" s="3">
-        <v>5764600</v>
+        <v>5737800</v>
       </c>
       <c r="K43" s="3">
         <v>2876900</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2158500</v>
+        <v>2148400</v>
       </c>
       <c r="E44" s="3">
-        <v>2714700</v>
+        <v>2702000</v>
       </c>
       <c r="F44" s="3">
-        <v>3353600</v>
+        <v>3338000</v>
       </c>
       <c r="G44" s="3">
-        <v>3124000</v>
+        <v>3109400</v>
       </c>
       <c r="H44" s="3">
-        <v>5758100</v>
+        <v>5731300</v>
       </c>
       <c r="I44" s="3">
-        <v>3330800</v>
+        <v>3315300</v>
       </c>
       <c r="J44" s="3">
-        <v>4018700</v>
+        <v>4000000</v>
       </c>
       <c r="K44" s="3">
         <v>1884700</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>650900</v>
+        <v>647900</v>
       </c>
       <c r="E45" s="3">
-        <v>2014800</v>
+        <v>2005400</v>
       </c>
       <c r="F45" s="3">
-        <v>2118200</v>
+        <v>2108300</v>
       </c>
       <c r="G45" s="3">
-        <v>1319200</v>
+        <v>1313100</v>
       </c>
       <c r="H45" s="3">
-        <v>5527400</v>
+        <v>5501600</v>
       </c>
       <c r="I45" s="3">
-        <v>1802500</v>
+        <v>1794100</v>
       </c>
       <c r="J45" s="3">
-        <v>1012300</v>
+        <v>1007600</v>
       </c>
       <c r="K45" s="3">
         <v>1151400</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11849300</v>
+        <v>11794100</v>
       </c>
       <c r="E46" s="3">
-        <v>13290500</v>
+        <v>13228600</v>
       </c>
       <c r="F46" s="3">
-        <v>12689600</v>
+        <v>12630500</v>
       </c>
       <c r="G46" s="3">
-        <v>13734600</v>
+        <v>13670600</v>
       </c>
       <c r="H46" s="3">
-        <v>15712400</v>
+        <v>15639200</v>
       </c>
       <c r="I46" s="3">
-        <v>14510700</v>
+        <v>14443100</v>
       </c>
       <c r="J46" s="3">
-        <v>7870900</v>
+        <v>7834200</v>
       </c>
       <c r="K46" s="3">
         <v>8395100</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4110100</v>
+        <v>4091000</v>
       </c>
       <c r="E47" s="3">
-        <v>4152600</v>
+        <v>4133200</v>
       </c>
       <c r="F47" s="3">
-        <v>3965400</v>
+        <v>3946900</v>
       </c>
       <c r="G47" s="3">
-        <v>3958800</v>
+        <v>3940400</v>
       </c>
       <c r="H47" s="3">
-        <v>5804900</v>
+        <v>5777900</v>
       </c>
       <c r="I47" s="3">
-        <v>4235300</v>
+        <v>4215600</v>
       </c>
       <c r="J47" s="3">
-        <v>2670100</v>
+        <v>2657600</v>
       </c>
       <c r="K47" s="3">
         <v>2310600</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26363200</v>
+        <v>26240400</v>
       </c>
       <c r="E48" s="3">
-        <v>29595000</v>
+        <v>29457100</v>
       </c>
       <c r="F48" s="3">
-        <v>30358000</v>
+        <v>30216600</v>
       </c>
       <c r="G48" s="3">
-        <v>32820200</v>
+        <v>32667300</v>
       </c>
       <c r="H48" s="3">
-        <v>69776600</v>
+        <v>69451600</v>
       </c>
       <c r="I48" s="3">
-        <v>39998700</v>
+        <v>39812400</v>
       </c>
       <c r="J48" s="3">
-        <v>46934600</v>
+        <v>46716000</v>
       </c>
       <c r="K48" s="3">
         <v>22153500</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14091600</v>
+        <v>14026000</v>
       </c>
       <c r="E49" s="3">
-        <v>14893800</v>
+        <v>14824400</v>
       </c>
       <c r="F49" s="3">
-        <v>16169500</v>
+        <v>16094200</v>
       </c>
       <c r="G49" s="3">
-        <v>16975000</v>
+        <v>16895900</v>
       </c>
       <c r="H49" s="3">
-        <v>37583400</v>
+        <v>37408300</v>
       </c>
       <c r="I49" s="3">
-        <v>19490500</v>
+        <v>19399700</v>
       </c>
       <c r="J49" s="3">
-        <v>16831300</v>
+        <v>16752900</v>
       </c>
       <c r="K49" s="3">
         <v>8280000</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1519500</v>
+        <v>1512500</v>
       </c>
       <c r="E52" s="3">
-        <v>1538000</v>
+        <v>1530900</v>
       </c>
       <c r="F52" s="3">
-        <v>1794900</v>
+        <v>1786600</v>
       </c>
       <c r="G52" s="3">
-        <v>1825400</v>
+        <v>1816900</v>
       </c>
       <c r="H52" s="3">
-        <v>2800700</v>
+        <v>2787600</v>
       </c>
       <c r="I52" s="3">
-        <v>1548900</v>
+        <v>1541700</v>
       </c>
       <c r="J52" s="3">
-        <v>1076500</v>
+        <v>1071500</v>
       </c>
       <c r="K52" s="3">
         <v>829600</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57933800</v>
+        <v>57663900</v>
       </c>
       <c r="E54" s="3">
-        <v>63469900</v>
+        <v>63174200</v>
       </c>
       <c r="F54" s="3">
-        <v>64977400</v>
+        <v>64674800</v>
       </c>
       <c r="G54" s="3">
-        <v>69314000</v>
+        <v>68991100</v>
       </c>
       <c r="H54" s="3">
-        <v>75777400</v>
+        <v>75424500</v>
       </c>
       <c r="I54" s="3">
-        <v>79784100</v>
+        <v>79412500</v>
       </c>
       <c r="J54" s="3">
-        <v>42984500</v>
+        <v>42784300</v>
       </c>
       <c r="K54" s="3">
         <v>41968700</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3647500</v>
+        <v>3630500</v>
       </c>
       <c r="E57" s="3">
-        <v>3847800</v>
+        <v>3829900</v>
       </c>
       <c r="F57" s="3">
-        <v>4103600</v>
+        <v>4084500</v>
       </c>
       <c r="G57" s="3">
-        <v>4043700</v>
+        <v>4024900</v>
       </c>
       <c r="H57" s="3">
-        <v>3599600</v>
+        <v>3582900</v>
       </c>
       <c r="I57" s="3">
-        <v>4019800</v>
+        <v>4001100</v>
       </c>
       <c r="J57" s="3">
-        <v>2312000</v>
+        <v>2301200</v>
       </c>
       <c r="K57" s="3">
         <v>2139100</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2229200</v>
+        <v>2218800</v>
       </c>
       <c r="E58" s="3">
-        <v>2160700</v>
+        <v>2150600</v>
       </c>
       <c r="F58" s="3">
-        <v>3239300</v>
+        <v>3224300</v>
       </c>
       <c r="G58" s="3">
-        <v>4064400</v>
+        <v>4045500</v>
       </c>
       <c r="H58" s="3">
-        <v>12991100</v>
+        <v>12930600</v>
       </c>
       <c r="I58" s="3">
-        <v>7426800</v>
+        <v>7392200</v>
       </c>
       <c r="J58" s="3">
-        <v>5405400</v>
+        <v>5380300</v>
       </c>
       <c r="K58" s="3">
         <v>3355800</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3024900</v>
+        <v>3010800</v>
       </c>
       <c r="E59" s="3">
-        <v>3944700</v>
+        <v>3926300</v>
       </c>
       <c r="F59" s="3">
-        <v>4333300</v>
+        <v>4313100</v>
       </c>
       <c r="G59" s="3">
-        <v>4430200</v>
+        <v>4409500</v>
       </c>
       <c r="H59" s="3">
-        <v>4632600</v>
+        <v>4611000</v>
       </c>
       <c r="I59" s="3">
-        <v>4697900</v>
+        <v>4676000</v>
       </c>
       <c r="J59" s="3">
-        <v>2635200</v>
+        <v>2623000</v>
       </c>
       <c r="K59" s="3">
         <v>2757400</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8901700</v>
+        <v>8860200</v>
       </c>
       <c r="E60" s="3">
-        <v>9953200</v>
+        <v>9906800</v>
       </c>
       <c r="F60" s="3">
-        <v>11676200</v>
+        <v>11621800</v>
       </c>
       <c r="G60" s="3">
-        <v>12538300</v>
+        <v>12479900</v>
       </c>
       <c r="H60" s="3">
-        <v>13615900</v>
+        <v>13552500</v>
       </c>
       <c r="I60" s="3">
-        <v>16144500</v>
+        <v>16069300</v>
       </c>
       <c r="J60" s="3">
-        <v>7452900</v>
+        <v>7418200</v>
       </c>
       <c r="K60" s="3">
         <v>8252400</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12743000</v>
+        <v>12683600</v>
       </c>
       <c r="E61" s="3">
-        <v>13261100</v>
+        <v>13199300</v>
       </c>
       <c r="F61" s="3">
-        <v>14163400</v>
+        <v>14097500</v>
       </c>
       <c r="G61" s="3">
-        <v>16072600</v>
+        <v>15997800</v>
       </c>
       <c r="H61" s="3">
-        <v>15962700</v>
+        <v>15888400</v>
       </c>
       <c r="I61" s="3">
-        <v>16173900</v>
+        <v>16098500</v>
       </c>
       <c r="J61" s="3">
-        <v>10010800</v>
+        <v>9964200</v>
       </c>
       <c r="K61" s="3">
         <v>9716800</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5131100</v>
+        <v>5107200</v>
       </c>
       <c r="E62" s="3">
-        <v>5969300</v>
+        <v>5941500</v>
       </c>
       <c r="F62" s="3">
-        <v>6425400</v>
+        <v>6395400</v>
       </c>
       <c r="G62" s="3">
-        <v>6987000</v>
+        <v>6954500</v>
       </c>
       <c r="H62" s="3">
-        <v>10718400</v>
+        <v>10668400</v>
       </c>
       <c r="I62" s="3">
-        <v>8582700</v>
+        <v>8542800</v>
       </c>
       <c r="J62" s="3">
-        <v>4804600</v>
+        <v>4782200</v>
       </c>
       <c r="K62" s="3">
         <v>3342500</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29554700</v>
+        <v>29417000</v>
       </c>
       <c r="E66" s="3">
-        <v>32376000</v>
+        <v>32225200</v>
       </c>
       <c r="F66" s="3">
-        <v>35669800</v>
+        <v>35503700</v>
       </c>
       <c r="G66" s="3">
-        <v>39068100</v>
+        <v>38886100</v>
       </c>
       <c r="H66" s="3">
-        <v>42228000</v>
+        <v>42031300</v>
       </c>
       <c r="I66" s="3">
-        <v>45643700</v>
+        <v>45431100</v>
       </c>
       <c r="J66" s="3">
-        <v>24012100</v>
+        <v>23900200</v>
       </c>
       <c r="K66" s="3">
         <v>24044900</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22739600</v>
+        <v>22633700</v>
       </c>
       <c r="E72" s="3">
-        <v>20867400</v>
+        <v>20770200</v>
       </c>
       <c r="F72" s="3">
-        <v>18705700</v>
+        <v>18618600</v>
       </c>
       <c r="G72" s="3">
-        <v>16738800</v>
+        <v>16660800</v>
       </c>
       <c r="H72" s="3">
-        <v>18010200</v>
+        <v>17926300</v>
       </c>
       <c r="I72" s="3">
-        <v>16314300</v>
+        <v>16238300</v>
       </c>
       <c r="J72" s="3">
-        <v>29955200</v>
+        <v>29815700</v>
       </c>
       <c r="K72" s="3">
         <v>19128400</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28379100</v>
+        <v>28246900</v>
       </c>
       <c r="E76" s="3">
-        <v>31093800</v>
+        <v>30949000</v>
       </c>
       <c r="F76" s="3">
-        <v>29307600</v>
+        <v>29171100</v>
       </c>
       <c r="G76" s="3">
-        <v>30245900</v>
+        <v>30105000</v>
       </c>
       <c r="H76" s="3">
-        <v>33549400</v>
+        <v>33393200</v>
       </c>
       <c r="I76" s="3">
-        <v>34140500</v>
+        <v>33981500</v>
       </c>
       <c r="J76" s="3">
-        <v>18972400</v>
+        <v>18884000</v>
       </c>
       <c r="K76" s="3">
         <v>17923900</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1827600</v>
+        <v>1819100</v>
       </c>
       <c r="E81" s="3">
-        <v>2429500</v>
+        <v>2418200</v>
       </c>
       <c r="F81" s="3">
-        <v>1634900</v>
+        <v>1627300</v>
       </c>
       <c r="G81" s="3">
-        <v>-1823200</v>
+        <v>-1814700</v>
       </c>
       <c r="H81" s="3">
-        <v>1949500</v>
+        <v>1940400</v>
       </c>
       <c r="I81" s="3">
-        <v>-1599000</v>
+        <v>-1591500</v>
       </c>
       <c r="J81" s="3">
-        <v>1399800</v>
+        <v>1393300</v>
       </c>
       <c r="K81" s="3">
         <v>1406900</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2503500</v>
+        <v>2491900</v>
       </c>
       <c r="E83" s="3">
-        <v>2699500</v>
+        <v>2686900</v>
       </c>
       <c r="F83" s="3">
-        <v>2441500</v>
+        <v>2430100</v>
       </c>
       <c r="G83" s="3">
-        <v>6745400</v>
+        <v>6714000</v>
       </c>
       <c r="H83" s="3">
-        <v>2556900</v>
+        <v>2545000</v>
       </c>
       <c r="I83" s="3">
-        <v>4812200</v>
+        <v>4789800</v>
       </c>
       <c r="J83" s="3">
-        <v>1526100</v>
+        <v>1519000</v>
       </c>
       <c r="K83" s="3">
         <v>1701100</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5026600</v>
+        <v>5003200</v>
       </c>
       <c r="E89" s="3">
-        <v>5252000</v>
+        <v>5227500</v>
       </c>
       <c r="F89" s="3">
-        <v>3252400</v>
+        <v>3237300</v>
       </c>
       <c r="G89" s="3">
-        <v>3309000</v>
+        <v>3293600</v>
       </c>
       <c r="H89" s="3">
-        <v>3586600</v>
+        <v>3569900</v>
       </c>
       <c r="I89" s="3">
-        <v>2683100</v>
+        <v>2670600</v>
       </c>
       <c r="J89" s="3">
-        <v>2703800</v>
+        <v>2691200</v>
       </c>
       <c r="K89" s="3">
         <v>3082600</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1212600</v>
+        <v>-1206900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1669700</v>
+        <v>-1662000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1535900</v>
+        <v>-1528700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1656700</v>
+        <v>-1649000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1929900</v>
+        <v>-1920900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2292400</v>
+        <v>-2281700</v>
       </c>
       <c r="J91" s="3">
-        <v>-2117100</v>
+        <v>-2107300</v>
       </c>
       <c r="K91" s="3">
         <v>-2438900</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1339900</v>
+        <v>-1333700</v>
       </c>
       <c r="E94" s="3">
-        <v>-238400</v>
+        <v>-237300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1508600</v>
+        <v>-1501600</v>
       </c>
       <c r="G94" s="3">
-        <v>-734700</v>
+        <v>-731300</v>
       </c>
       <c r="H94" s="3">
-        <v>768500</v>
+        <v>764900</v>
       </c>
       <c r="I94" s="3">
-        <v>5697200</v>
+        <v>5670600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1852600</v>
+        <v>-1844000</v>
       </c>
       <c r="K94" s="3">
         <v>-1841600</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1332300</v>
+        <v>-1326100</v>
       </c>
       <c r="E96" s="3">
-        <v>-350500</v>
+        <v>-348900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1297500</v>
+        <v>-1291400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1319200</v>
+        <v>-1313100</v>
       </c>
       <c r="H96" s="3">
-        <v>-989400</v>
+        <v>-984800</v>
       </c>
       <c r="I96" s="3">
-        <v>-461500</v>
+        <v>-459400</v>
       </c>
       <c r="J96" s="3">
-        <v>-461500</v>
+        <v>-459400</v>
       </c>
       <c r="K96" s="3">
         <v>-413700</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2058300</v>
+        <v>-2048700</v>
       </c>
       <c r="E100" s="3">
-        <v>-2862700</v>
+        <v>-2849400</v>
       </c>
       <c r="F100" s="3">
-        <v>-3442900</v>
+        <v>-3426900</v>
       </c>
       <c r="G100" s="3">
-        <v>-3355800</v>
+        <v>-3340200</v>
       </c>
       <c r="H100" s="3">
-        <v>-3133800</v>
+        <v>-3119200</v>
       </c>
       <c r="I100" s="3">
-        <v>-6530900</v>
+        <v>-6500500</v>
       </c>
       <c r="J100" s="3">
-        <v>-1070000</v>
+        <v>-1065000</v>
       </c>
       <c r="K100" s="3">
         <v>-1797400</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-444100</v>
+        <v>-442000</v>
       </c>
       <c r="E101" s="3">
-        <v>-243800</v>
+        <v>-242700</v>
       </c>
       <c r="F101" s="3">
-        <v>-140400</v>
+        <v>-139800</v>
       </c>
       <c r="G101" s="3">
-        <v>-132800</v>
+        <v>-132200</v>
       </c>
       <c r="H101" s="3">
-        <v>-107800</v>
+        <v>-107300</v>
       </c>
       <c r="I101" s="3">
-        <v>142600</v>
+        <v>141900</v>
       </c>
       <c r="J101" s="3">
-        <v>163300</v>
+        <v>162500</v>
       </c>
       <c r="K101" s="3">
         <v>-237800</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1184300</v>
+        <v>1178800</v>
       </c>
       <c r="E102" s="3">
-        <v>1907000</v>
+        <v>1898200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1839500</v>
+        <v>-1831000</v>
       </c>
       <c r="G102" s="3">
-        <v>-914300</v>
+        <v>-910100</v>
       </c>
       <c r="H102" s="3">
-        <v>1113500</v>
+        <v>1108300</v>
       </c>
       <c r="I102" s="3">
-        <v>1991900</v>
+        <v>1982700</v>
       </c>
       <c r="J102" s="3">
-        <v>-55500</v>
+        <v>-55300</v>
       </c>
       <c r="K102" s="3">
         <v>-794200</v>

--- a/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>HCMLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,179 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25072500</v>
+        <v>28711800</v>
       </c>
       <c r="E8" s="3">
-        <v>28951100</v>
+        <v>24761500</v>
       </c>
       <c r="F8" s="3">
-        <v>29757200</v>
+        <v>28592000</v>
       </c>
       <c r="G8" s="3">
-        <v>29275100</v>
+        <v>29388100</v>
       </c>
       <c r="H8" s="3">
-        <v>29148300</v>
+        <v>28911900</v>
       </c>
       <c r="I8" s="3">
-        <v>25551400</v>
+        <v>28786700</v>
       </c>
       <c r="J8" s="3">
+        <v>25234400</v>
+      </c>
+      <c r="K8" s="3">
         <v>20395400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21810600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21715900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21480800</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14575200</v>
+        <v>16368600</v>
       </c>
       <c r="E9" s="3">
-        <v>16729100</v>
+        <v>14394400</v>
       </c>
       <c r="F9" s="3">
-        <v>17131000</v>
+        <v>16521600</v>
       </c>
       <c r="G9" s="3">
-        <v>40531800</v>
+        <v>16918500</v>
       </c>
       <c r="H9" s="3">
-        <v>33872000</v>
+        <v>40029000</v>
       </c>
       <c r="I9" s="3">
-        <v>17865600</v>
+        <v>33451900</v>
       </c>
       <c r="J9" s="3">
+        <v>17644000</v>
+      </c>
+      <c r="K9" s="3">
         <v>22760500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12263000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17829400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12649900</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10497300</v>
+        <v>12343300</v>
       </c>
       <c r="E10" s="3">
-        <v>12222100</v>
+        <v>10367000</v>
       </c>
       <c r="F10" s="3">
-        <v>12626200</v>
+        <v>12070400</v>
       </c>
       <c r="G10" s="3">
-        <v>-11256700</v>
+        <v>12469500</v>
       </c>
       <c r="H10" s="3">
-        <v>-4723700</v>
+        <v>-11117100</v>
       </c>
       <c r="I10" s="3">
-        <v>7685800</v>
+        <v>-4665100</v>
       </c>
       <c r="J10" s="3">
+        <v>7590400</v>
+      </c>
+      <c r="K10" s="3">
         <v>-2365100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9547600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3886500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8830900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,50 +927,56 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>37900</v>
+        <v>212900</v>
       </c>
       <c r="E14" s="3">
-        <v>-249200</v>
+        <v>37400</v>
       </c>
       <c r="F14" s="3">
-        <v>616500</v>
+        <v>-246100</v>
       </c>
       <c r="G14" s="3">
-        <v>-111600</v>
+        <v>608800</v>
       </c>
       <c r="H14" s="3">
-        <v>-755100</v>
+        <v>-110200</v>
       </c>
       <c r="I14" s="3">
-        <v>-1152800</v>
+        <v>-745800</v>
       </c>
       <c r="J14" s="3">
+        <v>-1138500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-190700</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>4100</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>441900</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -971,21 +993,24 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>266500</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
         <v>316900</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21458200</v>
+        <v>24215800</v>
       </c>
       <c r="E17" s="3">
-        <v>24549200</v>
+        <v>21192000</v>
       </c>
       <c r="F17" s="3">
-        <v>26271900</v>
+        <v>24244700</v>
       </c>
       <c r="G17" s="3">
-        <v>29660800</v>
+        <v>25945900</v>
       </c>
       <c r="H17" s="3">
-        <v>25183000</v>
+        <v>29292800</v>
       </c>
       <c r="I17" s="3">
-        <v>25199300</v>
+        <v>24870600</v>
       </c>
       <c r="J17" s="3">
+        <v>24886700</v>
+      </c>
+      <c r="K17" s="3">
         <v>17774600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19203600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19920900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19483300</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3614300</v>
+        <v>4496100</v>
       </c>
       <c r="E18" s="3">
-        <v>4401900</v>
+        <v>3569500</v>
       </c>
       <c r="F18" s="3">
-        <v>3485400</v>
+        <v>4347300</v>
       </c>
       <c r="G18" s="3">
-        <v>-385700</v>
+        <v>3442100</v>
       </c>
       <c r="H18" s="3">
-        <v>3965300</v>
+        <v>-380900</v>
       </c>
       <c r="I18" s="3">
-        <v>352100</v>
+        <v>3916100</v>
       </c>
       <c r="J18" s="3">
+        <v>347700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2620800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2607000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1794900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1997500</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,188 +1117,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-184200</v>
+        <v>-165800</v>
       </c>
       <c r="E20" s="3">
-        <v>-145200</v>
+        <v>-181900</v>
       </c>
       <c r="F20" s="3">
-        <v>-132200</v>
+        <v>-143400</v>
       </c>
       <c r="G20" s="3">
-        <v>-92100</v>
+        <v>-130500</v>
       </c>
       <c r="H20" s="3">
-        <v>91000</v>
+        <v>-90900</v>
       </c>
       <c r="I20" s="3">
-        <v>-198300</v>
+        <v>89900</v>
       </c>
       <c r="J20" s="3">
+        <v>-195800</v>
+      </c>
+      <c r="K20" s="3">
         <v>286000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>386000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>447500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-189500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5919600</v>
+        <v>6835100</v>
       </c>
       <c r="E21" s="3">
-        <v>6941000</v>
+        <v>5870800</v>
       </c>
       <c r="F21" s="3">
-        <v>5780900</v>
+        <v>6881600</v>
       </c>
       <c r="G21" s="3">
-        <v>6229700</v>
+        <v>5733300</v>
       </c>
       <c r="H21" s="3">
-        <v>6598800</v>
+        <v>6218900</v>
       </c>
       <c r="I21" s="3">
-        <v>4939000</v>
+        <v>6542200</v>
       </c>
       <c r="J21" s="3">
+        <v>4925200</v>
+      </c>
+      <c r="K21" s="3">
         <v>4424300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4690400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4441300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3907300</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>484300</v>
+        <v>431200</v>
       </c>
       <c r="E22" s="3">
-        <v>660900</v>
+        <v>478300</v>
       </c>
       <c r="F22" s="3">
-        <v>780100</v>
+        <v>652700</v>
       </c>
       <c r="G22" s="3">
-        <v>800600</v>
+        <v>770400</v>
       </c>
       <c r="H22" s="3">
-        <v>933900</v>
+        <v>790700</v>
       </c>
       <c r="I22" s="3">
-        <v>894900</v>
+        <v>922300</v>
       </c>
       <c r="J22" s="3">
+        <v>883800</v>
+      </c>
+      <c r="K22" s="3">
         <v>522200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>639300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>649600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>636800</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2945800</v>
+        <v>3899000</v>
       </c>
       <c r="E23" s="3">
-        <v>3595900</v>
+        <v>2909300</v>
       </c>
       <c r="F23" s="3">
-        <v>2573100</v>
+        <v>3551300</v>
       </c>
       <c r="G23" s="3">
-        <v>-1278400</v>
+        <v>2541200</v>
       </c>
       <c r="H23" s="3">
-        <v>3122400</v>
+        <v>-1262600</v>
       </c>
       <c r="I23" s="3">
-        <v>-741100</v>
+        <v>3083700</v>
       </c>
       <c r="J23" s="3">
+        <v>-731900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2384600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2353700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1592800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1171200</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>776800</v>
+        <v>1030400</v>
       </c>
       <c r="E24" s="3">
-        <v>873200</v>
+        <v>767200</v>
       </c>
       <c r="F24" s="3">
-        <v>710700</v>
+        <v>862400</v>
       </c>
       <c r="G24" s="3">
-        <v>580700</v>
+        <v>701900</v>
       </c>
       <c r="H24" s="3">
-        <v>904700</v>
+        <v>573500</v>
       </c>
       <c r="I24" s="3">
-        <v>846200</v>
+        <v>893400</v>
       </c>
       <c r="J24" s="3">
+        <v>835700</v>
+      </c>
+      <c r="K24" s="3">
         <v>629500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>588400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>564400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>464900</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2169000</v>
+        <v>2868600</v>
       </c>
       <c r="E26" s="3">
-        <v>2722600</v>
+        <v>2142100</v>
       </c>
       <c r="F26" s="3">
-        <v>1862400</v>
+        <v>2688900</v>
       </c>
       <c r="G26" s="3">
-        <v>-1859100</v>
+        <v>1839300</v>
       </c>
       <c r="H26" s="3">
-        <v>2217800</v>
+        <v>-1836100</v>
       </c>
       <c r="I26" s="3">
-        <v>-1587200</v>
+        <v>2190200</v>
       </c>
       <c r="J26" s="3">
+        <v>-1567500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1755100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1765300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1028300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>706200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1819100</v>
+        <v>2439600</v>
       </c>
       <c r="E27" s="3">
-        <v>2418200</v>
+        <v>1796500</v>
       </c>
       <c r="F27" s="3">
-        <v>1627300</v>
+        <v>2388200</v>
       </c>
       <c r="G27" s="3">
-        <v>-1814700</v>
+        <v>1607100</v>
       </c>
       <c r="H27" s="3">
-        <v>1893800</v>
+        <v>-1792200</v>
       </c>
       <c r="I27" s="3">
-        <v>-1703100</v>
+        <v>1870300</v>
       </c>
       <c r="J27" s="3">
+        <v>-1682000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1393300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1406900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>626000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>284800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,9 +1465,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,20 +1483,20 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>46600</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>111600</v>
+        <v>46000</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+        <v>110200</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1444,9 +1504,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>184200</v>
+        <v>165800</v>
       </c>
       <c r="E32" s="3">
-        <v>145200</v>
+        <v>181900</v>
       </c>
       <c r="F32" s="3">
-        <v>132200</v>
+        <v>143400</v>
       </c>
       <c r="G32" s="3">
-        <v>92100</v>
+        <v>130500</v>
       </c>
       <c r="H32" s="3">
-        <v>-91000</v>
+        <v>90900</v>
       </c>
       <c r="I32" s="3">
-        <v>198300</v>
+        <v>-89900</v>
       </c>
       <c r="J32" s="3">
+        <v>195800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-286000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-386000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-447500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>189500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1819100</v>
+        <v>2439600</v>
       </c>
       <c r="E33" s="3">
-        <v>2418200</v>
+        <v>1796500</v>
       </c>
       <c r="F33" s="3">
-        <v>1627300</v>
+        <v>2388200</v>
       </c>
       <c r="G33" s="3">
-        <v>-1814700</v>
+        <v>1607100</v>
       </c>
       <c r="H33" s="3">
-        <v>1940400</v>
+        <v>-1792200</v>
       </c>
       <c r="I33" s="3">
-        <v>-1591500</v>
+        <v>1916300</v>
       </c>
       <c r="J33" s="3">
+        <v>-1571800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1393300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1406900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>626000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>284800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1819100</v>
+        <v>2439600</v>
       </c>
       <c r="E35" s="3">
-        <v>2418200</v>
+        <v>1796500</v>
       </c>
       <c r="F35" s="3">
-        <v>1627300</v>
+        <v>2388200</v>
       </c>
       <c r="G35" s="3">
-        <v>-1814700</v>
+        <v>1607100</v>
       </c>
       <c r="H35" s="3">
-        <v>1940400</v>
+        <v>-1792200</v>
       </c>
       <c r="I35" s="3">
-        <v>-1591500</v>
+        <v>1916300</v>
       </c>
       <c r="J35" s="3">
+        <v>-1571800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1393300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1406900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>626000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>284800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,332 +1819,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1966400</v>
+        <v>2368900</v>
       </c>
       <c r="E41" s="3">
-        <v>2508100</v>
+        <v>1942000</v>
       </c>
       <c r="F41" s="3">
-        <v>1654400</v>
+        <v>2477000</v>
       </c>
       <c r="G41" s="3">
-        <v>2653300</v>
+        <v>1633900</v>
       </c>
       <c r="H41" s="3">
-        <v>8774600</v>
+        <v>2620400</v>
       </c>
       <c r="I41" s="3">
-        <v>3461500</v>
+        <v>8665800</v>
       </c>
       <c r="J41" s="3">
+        <v>3418600</v>
+      </c>
+      <c r="K41" s="3">
         <v>3178800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>680200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1814400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>773500</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3660900</v>
+        <v>4787100</v>
       </c>
       <c r="E42" s="3">
-        <v>1990200</v>
+        <v>3615500</v>
       </c>
       <c r="F42" s="3">
-        <v>1073700</v>
+        <v>1965600</v>
       </c>
       <c r="G42" s="3">
-        <v>1916600</v>
+        <v>1060400</v>
       </c>
       <c r="H42" s="3">
-        <v>1892700</v>
+        <v>1892800</v>
       </c>
       <c r="I42" s="3">
-        <v>1297900</v>
+        <v>1869300</v>
       </c>
       <c r="J42" s="3">
+        <v>1281800</v>
+      </c>
+      <c r="K42" s="3">
         <v>1475600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1801800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2299900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2281300</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3370500</v>
+        <v>3900100</v>
       </c>
       <c r="E43" s="3">
-        <v>4022700</v>
+        <v>3328700</v>
       </c>
       <c r="F43" s="3">
-        <v>4456100</v>
+        <v>3972800</v>
       </c>
       <c r="G43" s="3">
-        <v>4678200</v>
+        <v>4400800</v>
       </c>
       <c r="H43" s="3">
-        <v>7543900</v>
+        <v>4620200</v>
       </c>
       <c r="I43" s="3">
-        <v>4574200</v>
+        <v>7450300</v>
       </c>
       <c r="J43" s="3">
+        <v>4517500</v>
+      </c>
+      <c r="K43" s="3">
         <v>5737800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2876900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8557000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2904600</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2148400</v>
+        <v>2790500</v>
       </c>
       <c r="E44" s="3">
-        <v>2702000</v>
+        <v>2121800</v>
       </c>
       <c r="F44" s="3">
-        <v>3338000</v>
+        <v>2668500</v>
       </c>
       <c r="G44" s="3">
-        <v>3109400</v>
+        <v>3296600</v>
       </c>
       <c r="H44" s="3">
-        <v>5731300</v>
+        <v>3070800</v>
       </c>
       <c r="I44" s="3">
-        <v>3315300</v>
+        <v>5660200</v>
       </c>
       <c r="J44" s="3">
+        <v>3274100</v>
+      </c>
+      <c r="K44" s="3">
         <v>4000000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1884700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6236600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2160100</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>647900</v>
+        <v>807800</v>
       </c>
       <c r="E45" s="3">
-        <v>2005400</v>
+        <v>639800</v>
       </c>
       <c r="F45" s="3">
-        <v>2108300</v>
+        <v>1980500</v>
       </c>
       <c r="G45" s="3">
-        <v>1313100</v>
+        <v>2082200</v>
       </c>
       <c r="H45" s="3">
-        <v>5501600</v>
+        <v>1296800</v>
       </c>
       <c r="I45" s="3">
-        <v>1794100</v>
+        <v>5433400</v>
       </c>
       <c r="J45" s="3">
+        <v>1771900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1007600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1151400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3166000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>324100</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11794100</v>
+        <v>14654400</v>
       </c>
       <c r="E46" s="3">
-        <v>13228600</v>
+        <v>11647800</v>
       </c>
       <c r="F46" s="3">
-        <v>12630500</v>
+        <v>13064500</v>
       </c>
       <c r="G46" s="3">
-        <v>13670600</v>
+        <v>12473800</v>
       </c>
       <c r="H46" s="3">
-        <v>15639200</v>
+        <v>13501000</v>
       </c>
       <c r="I46" s="3">
-        <v>14443100</v>
+        <v>15445200</v>
       </c>
       <c r="J46" s="3">
+        <v>14263900</v>
+      </c>
+      <c r="K46" s="3">
         <v>7834200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8395100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8492400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8443600</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4091000</v>
+        <v>4444700</v>
       </c>
       <c r="E47" s="3">
-        <v>4133200</v>
+        <v>4040200</v>
       </c>
       <c r="F47" s="3">
-        <v>3946900</v>
+        <v>4082000</v>
       </c>
       <c r="G47" s="3">
-        <v>3940400</v>
+        <v>3897900</v>
       </c>
       <c r="H47" s="3">
-        <v>5777900</v>
+        <v>3891500</v>
       </c>
       <c r="I47" s="3">
-        <v>4215600</v>
+        <v>5706200</v>
       </c>
       <c r="J47" s="3">
+        <v>4163300</v>
+      </c>
+      <c r="K47" s="3">
         <v>2657600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2310600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4013700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2152800</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26240400</v>
+        <v>26151400</v>
       </c>
       <c r="E48" s="3">
-        <v>29457100</v>
+        <v>25914900</v>
       </c>
       <c r="F48" s="3">
-        <v>30216600</v>
+        <v>29091700</v>
       </c>
       <c r="G48" s="3">
-        <v>32667300</v>
+        <v>29841700</v>
       </c>
       <c r="H48" s="3">
-        <v>69451600</v>
+        <v>32262000</v>
       </c>
       <c r="I48" s="3">
-        <v>39812400</v>
+        <v>68590000</v>
       </c>
       <c r="J48" s="3">
+        <v>39318600</v>
+      </c>
+      <c r="K48" s="3">
         <v>46716000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22153500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25485400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23747600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14026000</v>
+        <v>16477700</v>
       </c>
       <c r="E49" s="3">
-        <v>14824400</v>
+        <v>13852000</v>
       </c>
       <c r="F49" s="3">
-        <v>16094200</v>
+        <v>14640500</v>
       </c>
       <c r="G49" s="3">
-        <v>16895900</v>
+        <v>15894600</v>
       </c>
       <c r="H49" s="3">
-        <v>37408300</v>
+        <v>16686300</v>
       </c>
       <c r="I49" s="3">
-        <v>19399700</v>
+        <v>36944300</v>
       </c>
       <c r="J49" s="3">
+        <v>19159100</v>
+      </c>
+      <c r="K49" s="3">
         <v>16752900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8280000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>25165200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8753300</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1512500</v>
+        <v>2347500</v>
       </c>
       <c r="E52" s="3">
-        <v>1530900</v>
+        <v>1493700</v>
       </c>
       <c r="F52" s="3">
-        <v>1786600</v>
+        <v>1511900</v>
       </c>
       <c r="G52" s="3">
-        <v>1816900</v>
+        <v>1764400</v>
       </c>
       <c r="H52" s="3">
-        <v>2787600</v>
+        <v>1794400</v>
       </c>
       <c r="I52" s="3">
-        <v>1541700</v>
+        <v>2753100</v>
       </c>
       <c r="J52" s="3">
+        <v>1522600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1071500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>829600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2361400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>968200</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57663900</v>
+        <v>64075800</v>
       </c>
       <c r="E54" s="3">
-        <v>63174200</v>
+        <v>56948600</v>
       </c>
       <c r="F54" s="3">
-        <v>64674800</v>
+        <v>62390500</v>
       </c>
       <c r="G54" s="3">
-        <v>68991100</v>
+        <v>63872500</v>
       </c>
       <c r="H54" s="3">
-        <v>75424500</v>
+        <v>68135300</v>
       </c>
       <c r="I54" s="3">
-        <v>79412500</v>
+        <v>74488800</v>
       </c>
       <c r="J54" s="3">
+        <v>78427400</v>
+      </c>
+      <c r="K54" s="3">
         <v>42784300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41968700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42280300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44065500</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,224 +2399,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3630500</v>
+        <v>4343000</v>
       </c>
       <c r="E57" s="3">
-        <v>3829900</v>
+        <v>3585500</v>
       </c>
       <c r="F57" s="3">
-        <v>4084500</v>
+        <v>3782400</v>
       </c>
       <c r="G57" s="3">
-        <v>4024900</v>
+        <v>4033800</v>
       </c>
       <c r="H57" s="3">
-        <v>3582900</v>
+        <v>3975000</v>
       </c>
       <c r="I57" s="3">
-        <v>4001100</v>
+        <v>3538400</v>
       </c>
       <c r="J57" s="3">
+        <v>3951400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2301200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2139100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2202400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2481100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2218800</v>
+        <v>2525200</v>
       </c>
       <c r="E58" s="3">
-        <v>2150600</v>
+        <v>2191300</v>
       </c>
       <c r="F58" s="3">
-        <v>3224300</v>
+        <v>2123900</v>
       </c>
       <c r="G58" s="3">
-        <v>4045500</v>
+        <v>3184300</v>
       </c>
       <c r="H58" s="3">
-        <v>12930600</v>
+        <v>3995300</v>
       </c>
       <c r="I58" s="3">
-        <v>7392200</v>
+        <v>12770200</v>
       </c>
       <c r="J58" s="3">
+        <v>7300500</v>
+      </c>
+      <c r="K58" s="3">
         <v>5380300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3355800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5770700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2912900</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3010800</v>
+        <v>3558800</v>
       </c>
       <c r="E59" s="3">
-        <v>3926300</v>
+        <v>2973500</v>
       </c>
       <c r="F59" s="3">
-        <v>4313100</v>
+        <v>3877600</v>
       </c>
       <c r="G59" s="3">
-        <v>4409500</v>
+        <v>4259600</v>
       </c>
       <c r="H59" s="3">
-        <v>4611000</v>
+        <v>4354800</v>
       </c>
       <c r="I59" s="3">
-        <v>4676000</v>
+        <v>4553800</v>
       </c>
       <c r="J59" s="3">
+        <v>4618000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2623000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2757400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5404300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2574300</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8860200</v>
+        <v>10427000</v>
       </c>
       <c r="E60" s="3">
-        <v>9906800</v>
+        <v>8750300</v>
       </c>
       <c r="F60" s="3">
-        <v>11621800</v>
+        <v>9783900</v>
       </c>
       <c r="G60" s="3">
-        <v>12479900</v>
+        <v>11477700</v>
       </c>
       <c r="H60" s="3">
-        <v>13552500</v>
+        <v>12325100</v>
       </c>
       <c r="I60" s="3">
-        <v>16069300</v>
+        <v>13384400</v>
       </c>
       <c r="J60" s="3">
+        <v>15869900</v>
+      </c>
+      <c r="K60" s="3">
         <v>7418200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8252400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8517000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7968300</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12683600</v>
+        <v>15249400</v>
       </c>
       <c r="E61" s="3">
-        <v>13199300</v>
+        <v>12526300</v>
       </c>
       <c r="F61" s="3">
-        <v>14097500</v>
+        <v>13035600</v>
       </c>
       <c r="G61" s="3">
-        <v>15997800</v>
+        <v>13922600</v>
       </c>
       <c r="H61" s="3">
-        <v>15888400</v>
+        <v>15799300</v>
       </c>
       <c r="I61" s="3">
-        <v>16098500</v>
+        <v>15691300</v>
       </c>
       <c r="J61" s="3">
+        <v>15898800</v>
+      </c>
+      <c r="K61" s="3">
         <v>9964200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9716800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10110800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11932300</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5107200</v>
+        <v>5793900</v>
       </c>
       <c r="E62" s="3">
-        <v>5941500</v>
+        <v>5043900</v>
       </c>
       <c r="F62" s="3">
-        <v>6395400</v>
+        <v>5867800</v>
       </c>
       <c r="G62" s="3">
-        <v>6954500</v>
+        <v>6316100</v>
       </c>
       <c r="H62" s="3">
-        <v>10668400</v>
+        <v>6868200</v>
       </c>
       <c r="I62" s="3">
-        <v>8542800</v>
+        <v>10536100</v>
       </c>
       <c r="J62" s="3">
+        <v>8436800</v>
+      </c>
+      <c r="K62" s="3">
         <v>4782200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3342500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7285500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3809700</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29417000</v>
+        <v>34453400</v>
       </c>
       <c r="E66" s="3">
-        <v>32225200</v>
+        <v>29052100</v>
       </c>
       <c r="F66" s="3">
-        <v>35503700</v>
+        <v>31825500</v>
       </c>
       <c r="G66" s="3">
-        <v>38886100</v>
+        <v>35063200</v>
       </c>
       <c r="H66" s="3">
-        <v>42031300</v>
+        <v>38403700</v>
       </c>
       <c r="I66" s="3">
-        <v>45431100</v>
+        <v>41509900</v>
       </c>
       <c r="J66" s="3">
+        <v>44867500</v>
+      </c>
+      <c r="K66" s="3">
         <v>23900200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24044900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25411500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26637700</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22633700</v>
+        <v>25555400</v>
       </c>
       <c r="E72" s="3">
-        <v>20770200</v>
+        <v>22353000</v>
       </c>
       <c r="F72" s="3">
-        <v>18618600</v>
+        <v>20512600</v>
       </c>
       <c r="G72" s="3">
-        <v>16660800</v>
+        <v>18387600</v>
       </c>
       <c r="H72" s="3">
-        <v>17926300</v>
+        <v>16454200</v>
       </c>
       <c r="I72" s="3">
-        <v>16238300</v>
+        <v>17703900</v>
       </c>
       <c r="J72" s="3">
+        <v>16036900</v>
+      </c>
+      <c r="K72" s="3">
         <v>29815700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19128400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16222200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16345700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28246900</v>
+        <v>29622400</v>
       </c>
       <c r="E76" s="3">
-        <v>30949000</v>
+        <v>27896500</v>
       </c>
       <c r="F76" s="3">
-        <v>29171100</v>
+        <v>30565000</v>
       </c>
       <c r="G76" s="3">
-        <v>30105000</v>
+        <v>28809200</v>
       </c>
       <c r="H76" s="3">
-        <v>33393200</v>
+        <v>29731500</v>
       </c>
       <c r="I76" s="3">
-        <v>33981500</v>
+        <v>32978900</v>
       </c>
       <c r="J76" s="3">
+        <v>33559900</v>
+      </c>
+      <c r="K76" s="3">
         <v>18884000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17923900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16868800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17427800</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1819100</v>
+        <v>2439600</v>
       </c>
       <c r="E81" s="3">
-        <v>2418200</v>
+        <v>1796500</v>
       </c>
       <c r="F81" s="3">
-        <v>1627300</v>
+        <v>2388200</v>
       </c>
       <c r="G81" s="3">
-        <v>-1814700</v>
+        <v>1607100</v>
       </c>
       <c r="H81" s="3">
-        <v>1940400</v>
+        <v>-1792200</v>
       </c>
       <c r="I81" s="3">
-        <v>-1591500</v>
+        <v>1916300</v>
       </c>
       <c r="J81" s="3">
+        <v>-1571800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1393300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1406900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>626000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>284800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2491900</v>
+        <v>2482400</v>
       </c>
       <c r="E83" s="3">
-        <v>2686900</v>
+        <v>2461000</v>
       </c>
       <c r="F83" s="3">
-        <v>2430100</v>
+        <v>2653600</v>
       </c>
       <c r="G83" s="3">
-        <v>6714000</v>
+        <v>2400000</v>
       </c>
       <c r="H83" s="3">
-        <v>2545000</v>
+        <v>6630700</v>
       </c>
       <c r="I83" s="3">
-        <v>4789800</v>
+        <v>2513400</v>
       </c>
       <c r="J83" s="3">
+        <v>4730400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1519000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1701100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2196200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2096900</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5003200</v>
+        <v>5398000</v>
       </c>
       <c r="E89" s="3">
-        <v>5227500</v>
+        <v>4941200</v>
       </c>
       <c r="F89" s="3">
-        <v>3237300</v>
+        <v>5162700</v>
       </c>
       <c r="G89" s="3">
-        <v>3293600</v>
+        <v>3197100</v>
       </c>
       <c r="H89" s="3">
-        <v>3569900</v>
+        <v>3252700</v>
       </c>
       <c r="I89" s="3">
-        <v>2670600</v>
+        <v>3525600</v>
       </c>
       <c r="J89" s="3">
+        <v>2637500</v>
+      </c>
+      <c r="K89" s="3">
         <v>2691200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3082600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2712400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2850800</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1206900</v>
+        <v>-1639200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1662000</v>
+        <v>-1192000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1528700</v>
+        <v>-1641300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1649000</v>
+        <v>-1509700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1920900</v>
+        <v>-1628500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2281700</v>
+        <v>-1897100</v>
       </c>
       <c r="J91" s="3">
+        <v>-2253400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2107300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2438900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3541700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1839100</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1333700</v>
+        <v>-5039600</v>
       </c>
       <c r="E94" s="3">
-        <v>-237300</v>
+        <v>-1317100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1501600</v>
+        <v>-234300</v>
       </c>
       <c r="G94" s="3">
-        <v>-731300</v>
+        <v>-1483000</v>
       </c>
       <c r="H94" s="3">
-        <v>764900</v>
+        <v>-722200</v>
       </c>
       <c r="I94" s="3">
-        <v>5670600</v>
+        <v>755400</v>
       </c>
       <c r="J94" s="3">
+        <v>5600300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1844000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1841600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1228400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1854600</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,44 +3759,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1326100</v>
+        <v>-1307500</v>
       </c>
       <c r="E96" s="3">
-        <v>-348900</v>
+        <v>-1309700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1291400</v>
+        <v>-344500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1313100</v>
+        <v>-1275400</v>
       </c>
       <c r="H96" s="3">
-        <v>-984800</v>
+        <v>-1296800</v>
       </c>
       <c r="I96" s="3">
+        <v>-972600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-453700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-459400</v>
       </c>
-      <c r="J96" s="3">
-        <v>-459400</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-413700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-558300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-497000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3912,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2048700</v>
+        <v>1192000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2849400</v>
+        <v>-2023300</v>
       </c>
       <c r="F100" s="3">
-        <v>-3426900</v>
+        <v>-2814000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3340200</v>
+        <v>-3384300</v>
       </c>
       <c r="H100" s="3">
-        <v>-3119200</v>
+        <v>-3298700</v>
       </c>
       <c r="I100" s="3">
-        <v>-6500500</v>
+        <v>-3080500</v>
       </c>
       <c r="J100" s="3">
+        <v>-6419900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1065000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1797400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1156600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1414500</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-442000</v>
+        <v>69500</v>
       </c>
       <c r="E101" s="3">
-        <v>-242700</v>
+        <v>-436600</v>
       </c>
       <c r="F101" s="3">
-        <v>-139800</v>
+        <v>-239700</v>
       </c>
       <c r="G101" s="3">
-        <v>-132200</v>
+        <v>-138000</v>
       </c>
       <c r="H101" s="3">
-        <v>-107300</v>
+        <v>-130500</v>
       </c>
       <c r="I101" s="3">
-        <v>141900</v>
+        <v>-105900</v>
       </c>
       <c r="J101" s="3">
+        <v>140200</v>
+      </c>
+      <c r="K101" s="3">
         <v>162500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-237800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-80000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-174000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1178800</v>
+        <v>1619900</v>
       </c>
       <c r="E102" s="3">
-        <v>1898200</v>
+        <v>1164100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1831000</v>
+        <v>1874600</v>
       </c>
       <c r="G102" s="3">
-        <v>-910100</v>
+        <v>-1808300</v>
       </c>
       <c r="H102" s="3">
-        <v>1108300</v>
+        <v>-898800</v>
       </c>
       <c r="I102" s="3">
-        <v>1982700</v>
+        <v>1094600</v>
       </c>
       <c r="J102" s="3">
+        <v>1958100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-55300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-794200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>247300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-592300</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>28711800</v>
+        <v>26756400</v>
       </c>
       <c r="E8" s="3">
-        <v>24761500</v>
+        <v>23075100</v>
       </c>
       <c r="F8" s="3">
-        <v>28592000</v>
+        <v>26644800</v>
       </c>
       <c r="G8" s="3">
-        <v>29388100</v>
+        <v>27386600</v>
       </c>
       <c r="H8" s="3">
-        <v>28911900</v>
+        <v>26942900</v>
       </c>
       <c r="I8" s="3">
-        <v>28786700</v>
+        <v>26826200</v>
       </c>
       <c r="J8" s="3">
-        <v>25234400</v>
+        <v>23515800</v>
       </c>
       <c r="K8" s="3">
         <v>20395400</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16368600</v>
+        <v>15253800</v>
       </c>
       <c r="E9" s="3">
-        <v>14394400</v>
+        <v>13414100</v>
       </c>
       <c r="F9" s="3">
-        <v>16521600</v>
+        <v>15396400</v>
       </c>
       <c r="G9" s="3">
-        <v>16918500</v>
+        <v>15766300</v>
       </c>
       <c r="H9" s="3">
-        <v>40029000</v>
+        <v>37302900</v>
       </c>
       <c r="I9" s="3">
-        <v>33451900</v>
+        <v>31173600</v>
       </c>
       <c r="J9" s="3">
-        <v>17644000</v>
+        <v>16442300</v>
       </c>
       <c r="K9" s="3">
         <v>22760500</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12343300</v>
+        <v>11502700</v>
       </c>
       <c r="E10" s="3">
-        <v>10367000</v>
+        <v>9661000</v>
       </c>
       <c r="F10" s="3">
-        <v>12070400</v>
+        <v>11248400</v>
       </c>
       <c r="G10" s="3">
-        <v>12469500</v>
+        <v>11620300</v>
       </c>
       <c r="H10" s="3">
-        <v>-11117100</v>
+        <v>-10360000</v>
       </c>
       <c r="I10" s="3">
-        <v>-4665100</v>
+        <v>-4347400</v>
       </c>
       <c r="J10" s="3">
-        <v>7590400</v>
+        <v>7073500</v>
       </c>
       <c r="K10" s="3">
         <v>-2365100</v>
@@ -937,25 +937,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>212900</v>
+        <v>198400</v>
       </c>
       <c r="E14" s="3">
-        <v>37400</v>
+        <v>34900</v>
       </c>
       <c r="F14" s="3">
-        <v>-246100</v>
+        <v>-229300</v>
       </c>
       <c r="G14" s="3">
-        <v>608800</v>
+        <v>567400</v>
       </c>
       <c r="H14" s="3">
-        <v>-110200</v>
+        <v>-102700</v>
       </c>
       <c r="I14" s="3">
-        <v>-745800</v>
+        <v>-695000</v>
       </c>
       <c r="J14" s="3">
-        <v>-1138500</v>
+        <v>-1060900</v>
       </c>
       <c r="K14" s="3">
         <v>-190700</v>
@@ -976,7 +976,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>441900</v>
+        <v>411800</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24215800</v>
+        <v>22566600</v>
       </c>
       <c r="E17" s="3">
-        <v>21192000</v>
+        <v>19748800</v>
       </c>
       <c r="F17" s="3">
-        <v>24244700</v>
+        <v>22593500</v>
       </c>
       <c r="G17" s="3">
-        <v>25945900</v>
+        <v>24178900</v>
       </c>
       <c r="H17" s="3">
-        <v>29292800</v>
+        <v>27297900</v>
       </c>
       <c r="I17" s="3">
-        <v>24870600</v>
+        <v>23176800</v>
       </c>
       <c r="J17" s="3">
-        <v>24886700</v>
+        <v>23191800</v>
       </c>
       <c r="K17" s="3">
         <v>17774600</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4496100</v>
+        <v>4189900</v>
       </c>
       <c r="E18" s="3">
-        <v>3569500</v>
+        <v>3326400</v>
       </c>
       <c r="F18" s="3">
-        <v>4347300</v>
+        <v>4051300</v>
       </c>
       <c r="G18" s="3">
-        <v>3442100</v>
+        <v>3207700</v>
       </c>
       <c r="H18" s="3">
-        <v>-380900</v>
+        <v>-355000</v>
       </c>
       <c r="I18" s="3">
-        <v>3916100</v>
+        <v>3649400</v>
       </c>
       <c r="J18" s="3">
-        <v>347700</v>
+        <v>324100</v>
       </c>
       <c r="K18" s="3">
         <v>2620800</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-165800</v>
+        <v>-154600</v>
       </c>
       <c r="E20" s="3">
-        <v>-181900</v>
+        <v>-169500</v>
       </c>
       <c r="F20" s="3">
-        <v>-143400</v>
+        <v>-133600</v>
       </c>
       <c r="G20" s="3">
-        <v>-130500</v>
+        <v>-121600</v>
       </c>
       <c r="H20" s="3">
-        <v>-90900</v>
+        <v>-84800</v>
       </c>
       <c r="I20" s="3">
-        <v>89900</v>
+        <v>83800</v>
       </c>
       <c r="J20" s="3">
-        <v>-195800</v>
+        <v>-182500</v>
       </c>
       <c r="K20" s="3">
         <v>286000</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6835100</v>
+        <v>6368600</v>
       </c>
       <c r="E21" s="3">
-        <v>5870800</v>
+        <v>5470000</v>
       </c>
       <c r="F21" s="3">
-        <v>6881600</v>
+        <v>6411900</v>
       </c>
       <c r="G21" s="3">
-        <v>5733300</v>
+        <v>5341900</v>
       </c>
       <c r="H21" s="3">
-        <v>6218900</v>
+        <v>5792800</v>
       </c>
       <c r="I21" s="3">
-        <v>6542200</v>
+        <v>6095600</v>
       </c>
       <c r="J21" s="3">
-        <v>4925200</v>
+        <v>4587900</v>
       </c>
       <c r="K21" s="3">
         <v>4424300</v>
@@ -1202,25 +1202,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>431200</v>
+        <v>401800</v>
       </c>
       <c r="E22" s="3">
-        <v>478300</v>
+        <v>445700</v>
       </c>
       <c r="F22" s="3">
-        <v>652700</v>
+        <v>608200</v>
       </c>
       <c r="G22" s="3">
-        <v>770400</v>
+        <v>717900</v>
       </c>
       <c r="H22" s="3">
-        <v>790700</v>
+        <v>736900</v>
       </c>
       <c r="I22" s="3">
-        <v>922300</v>
+        <v>859500</v>
       </c>
       <c r="J22" s="3">
-        <v>883800</v>
+        <v>823600</v>
       </c>
       <c r="K22" s="3">
         <v>522200</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3899000</v>
+        <v>3633500</v>
       </c>
       <c r="E23" s="3">
-        <v>2909300</v>
+        <v>2711100</v>
       </c>
       <c r="F23" s="3">
-        <v>3551300</v>
+        <v>3309400</v>
       </c>
       <c r="G23" s="3">
-        <v>2541200</v>
+        <v>2368100</v>
       </c>
       <c r="H23" s="3">
-        <v>-1262600</v>
+        <v>-1176600</v>
       </c>
       <c r="I23" s="3">
-        <v>3083700</v>
+        <v>2873700</v>
       </c>
       <c r="J23" s="3">
-        <v>-731900</v>
+        <v>-682000</v>
       </c>
       <c r="K23" s="3">
         <v>2384600</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1030400</v>
+        <v>960200</v>
       </c>
       <c r="E24" s="3">
-        <v>767200</v>
+        <v>714900</v>
       </c>
       <c r="F24" s="3">
-        <v>862400</v>
+        <v>803700</v>
       </c>
       <c r="G24" s="3">
-        <v>701900</v>
+        <v>654100</v>
       </c>
       <c r="H24" s="3">
-        <v>573500</v>
+        <v>534500</v>
       </c>
       <c r="I24" s="3">
-        <v>893400</v>
+        <v>832600</v>
       </c>
       <c r="J24" s="3">
-        <v>835700</v>
+        <v>778700</v>
       </c>
       <c r="K24" s="3">
         <v>629500</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2868600</v>
+        <v>2673300</v>
       </c>
       <c r="E26" s="3">
-        <v>2142100</v>
+        <v>1996200</v>
       </c>
       <c r="F26" s="3">
-        <v>2688900</v>
+        <v>2505700</v>
       </c>
       <c r="G26" s="3">
-        <v>1839300</v>
+        <v>1714000</v>
       </c>
       <c r="H26" s="3">
-        <v>-1836100</v>
+        <v>-1711000</v>
       </c>
       <c r="I26" s="3">
-        <v>2190200</v>
+        <v>2041100</v>
       </c>
       <c r="J26" s="3">
-        <v>-1567500</v>
+        <v>-1460800</v>
       </c>
       <c r="K26" s="3">
         <v>1755100</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2439600</v>
+        <v>2273400</v>
       </c>
       <c r="E27" s="3">
-        <v>1796500</v>
+        <v>1674100</v>
       </c>
       <c r="F27" s="3">
-        <v>2388200</v>
+        <v>2225500</v>
       </c>
       <c r="G27" s="3">
-        <v>1607100</v>
+        <v>1497700</v>
       </c>
       <c r="H27" s="3">
-        <v>-1792200</v>
+        <v>-1670200</v>
       </c>
       <c r="I27" s="3">
-        <v>1870300</v>
+        <v>1742900</v>
       </c>
       <c r="J27" s="3">
-        <v>-1682000</v>
+        <v>-1567500</v>
       </c>
       <c r="K27" s="3">
         <v>1393300</v>
@@ -1490,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>46000</v>
+        <v>42900</v>
       </c>
       <c r="J29" s="3">
-        <v>110200</v>
+        <v>102700</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>165800</v>
+        <v>154600</v>
       </c>
       <c r="E32" s="3">
-        <v>181900</v>
+        <v>169500</v>
       </c>
       <c r="F32" s="3">
-        <v>143400</v>
+        <v>133600</v>
       </c>
       <c r="G32" s="3">
-        <v>130500</v>
+        <v>121600</v>
       </c>
       <c r="H32" s="3">
-        <v>90900</v>
+        <v>84800</v>
       </c>
       <c r="I32" s="3">
-        <v>-89900</v>
+        <v>-83800</v>
       </c>
       <c r="J32" s="3">
-        <v>195800</v>
+        <v>182500</v>
       </c>
       <c r="K32" s="3">
         <v>-286000</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2439600</v>
+        <v>2273400</v>
       </c>
       <c r="E33" s="3">
-        <v>1796500</v>
+        <v>1674100</v>
       </c>
       <c r="F33" s="3">
-        <v>2388200</v>
+        <v>2225500</v>
       </c>
       <c r="G33" s="3">
-        <v>1607100</v>
+        <v>1497700</v>
       </c>
       <c r="H33" s="3">
-        <v>-1792200</v>
+        <v>-1670200</v>
       </c>
       <c r="I33" s="3">
-        <v>1916300</v>
+        <v>1785800</v>
       </c>
       <c r="J33" s="3">
-        <v>-1571800</v>
+        <v>-1464800</v>
       </c>
       <c r="K33" s="3">
         <v>1393300</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2439600</v>
+        <v>2273400</v>
       </c>
       <c r="E35" s="3">
-        <v>1796500</v>
+        <v>1674100</v>
       </c>
       <c r="F35" s="3">
-        <v>2388200</v>
+        <v>2225500</v>
       </c>
       <c r="G35" s="3">
-        <v>1607100</v>
+        <v>1497700</v>
       </c>
       <c r="H35" s="3">
-        <v>-1792200</v>
+        <v>-1670200</v>
       </c>
       <c r="I35" s="3">
-        <v>1916300</v>
+        <v>1785800</v>
       </c>
       <c r="J35" s="3">
-        <v>-1571800</v>
+        <v>-1464800</v>
       </c>
       <c r="K35" s="3">
         <v>1393300</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2368900</v>
+        <v>2207600</v>
       </c>
       <c r="E41" s="3">
-        <v>1942000</v>
+        <v>1809800</v>
       </c>
       <c r="F41" s="3">
-        <v>2477000</v>
+        <v>2308300</v>
       </c>
       <c r="G41" s="3">
-        <v>1633900</v>
+        <v>1522600</v>
       </c>
       <c r="H41" s="3">
-        <v>2620400</v>
+        <v>2441900</v>
       </c>
       <c r="I41" s="3">
-        <v>8665800</v>
+        <v>8075600</v>
       </c>
       <c r="J41" s="3">
-        <v>3418600</v>
+        <v>3185800</v>
       </c>
       <c r="K41" s="3">
         <v>3178800</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4787100</v>
+        <v>4461100</v>
       </c>
       <c r="E42" s="3">
-        <v>3615500</v>
+        <v>3369200</v>
       </c>
       <c r="F42" s="3">
-        <v>1965600</v>
+        <v>1831700</v>
       </c>
       <c r="G42" s="3">
-        <v>1060400</v>
+        <v>988100</v>
       </c>
       <c r="H42" s="3">
-        <v>1892800</v>
+        <v>1763900</v>
       </c>
       <c r="I42" s="3">
-        <v>1869300</v>
+        <v>1742000</v>
       </c>
       <c r="J42" s="3">
-        <v>1281800</v>
+        <v>1194500</v>
       </c>
       <c r="K42" s="3">
         <v>1475600</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3900100</v>
+        <v>3634500</v>
       </c>
       <c r="E43" s="3">
-        <v>3328700</v>
+        <v>3102000</v>
       </c>
       <c r="F43" s="3">
-        <v>3972800</v>
+        <v>3702300</v>
       </c>
       <c r="G43" s="3">
-        <v>4400800</v>
+        <v>4101100</v>
       </c>
       <c r="H43" s="3">
-        <v>4620200</v>
+        <v>4305500</v>
       </c>
       <c r="I43" s="3">
-        <v>7450300</v>
+        <v>6942900</v>
       </c>
       <c r="J43" s="3">
-        <v>4517500</v>
+        <v>4209800</v>
       </c>
       <c r="K43" s="3">
         <v>5737800</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2790500</v>
+        <v>2600500</v>
       </c>
       <c r="E44" s="3">
-        <v>2121800</v>
+        <v>1977300</v>
       </c>
       <c r="F44" s="3">
-        <v>2668500</v>
+        <v>2486800</v>
       </c>
       <c r="G44" s="3">
-        <v>3296600</v>
+        <v>3072100</v>
       </c>
       <c r="H44" s="3">
-        <v>3070800</v>
+        <v>2861700</v>
       </c>
       <c r="I44" s="3">
-        <v>5660200</v>
+        <v>5274700</v>
       </c>
       <c r="J44" s="3">
-        <v>3274100</v>
+        <v>3051200</v>
       </c>
       <c r="K44" s="3">
         <v>4000000</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>807800</v>
+        <v>752800</v>
       </c>
       <c r="E45" s="3">
-        <v>639800</v>
+        <v>596300</v>
       </c>
       <c r="F45" s="3">
-        <v>1980500</v>
+        <v>1845700</v>
       </c>
       <c r="G45" s="3">
-        <v>2082200</v>
+        <v>1940400</v>
       </c>
       <c r="H45" s="3">
-        <v>1296800</v>
+        <v>1208500</v>
       </c>
       <c r="I45" s="3">
-        <v>5433400</v>
+        <v>5063300</v>
       </c>
       <c r="J45" s="3">
-        <v>1771900</v>
+        <v>1651200</v>
       </c>
       <c r="K45" s="3">
         <v>1007600</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14654400</v>
+        <v>13656400</v>
       </c>
       <c r="E46" s="3">
-        <v>11647800</v>
+        <v>10854500</v>
       </c>
       <c r="F46" s="3">
-        <v>13064500</v>
+        <v>12174700</v>
       </c>
       <c r="G46" s="3">
-        <v>12473800</v>
+        <v>11624300</v>
       </c>
       <c r="H46" s="3">
-        <v>13501000</v>
+        <v>12581500</v>
       </c>
       <c r="I46" s="3">
-        <v>15445200</v>
+        <v>14393300</v>
       </c>
       <c r="J46" s="3">
-        <v>14263900</v>
+        <v>13292500</v>
       </c>
       <c r="K46" s="3">
         <v>7834200</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4444700</v>
+        <v>4142000</v>
       </c>
       <c r="E47" s="3">
-        <v>4040200</v>
+        <v>3765100</v>
       </c>
       <c r="F47" s="3">
-        <v>4082000</v>
+        <v>3804000</v>
       </c>
       <c r="G47" s="3">
-        <v>3897900</v>
+        <v>3632500</v>
       </c>
       <c r="H47" s="3">
-        <v>3891500</v>
+        <v>3626500</v>
       </c>
       <c r="I47" s="3">
-        <v>5706200</v>
+        <v>5317600</v>
       </c>
       <c r="J47" s="3">
-        <v>4163300</v>
+        <v>3879800</v>
       </c>
       <c r="K47" s="3">
         <v>2657600</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26151400</v>
+        <v>24370400</v>
       </c>
       <c r="E48" s="3">
-        <v>25914900</v>
+        <v>24150000</v>
       </c>
       <c r="F48" s="3">
-        <v>29091700</v>
+        <v>27110400</v>
       </c>
       <c r="G48" s="3">
-        <v>29841700</v>
+        <v>27809400</v>
       </c>
       <c r="H48" s="3">
-        <v>32262000</v>
+        <v>30064900</v>
       </c>
       <c r="I48" s="3">
-        <v>68590000</v>
+        <v>63918700</v>
       </c>
       <c r="J48" s="3">
-        <v>39318600</v>
+        <v>36640800</v>
       </c>
       <c r="K48" s="3">
         <v>46716000</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16477700</v>
+        <v>15355500</v>
       </c>
       <c r="E49" s="3">
-        <v>13852000</v>
+        <v>12908600</v>
       </c>
       <c r="F49" s="3">
-        <v>14640500</v>
+        <v>13643500</v>
       </c>
       <c r="G49" s="3">
-        <v>15894600</v>
+        <v>14812100</v>
       </c>
       <c r="H49" s="3">
-        <v>16686300</v>
+        <v>15549900</v>
       </c>
       <c r="I49" s="3">
-        <v>36944300</v>
+        <v>34428200</v>
       </c>
       <c r="J49" s="3">
-        <v>19159100</v>
+        <v>17854300</v>
       </c>
       <c r="K49" s="3">
         <v>16752900</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2347500</v>
+        <v>2187700</v>
       </c>
       <c r="E52" s="3">
-        <v>1493700</v>
+        <v>1392000</v>
       </c>
       <c r="F52" s="3">
-        <v>1511900</v>
+        <v>1408900</v>
       </c>
       <c r="G52" s="3">
-        <v>1764400</v>
+        <v>1644200</v>
       </c>
       <c r="H52" s="3">
-        <v>1794400</v>
+        <v>1672200</v>
       </c>
       <c r="I52" s="3">
-        <v>2753100</v>
+        <v>2565600</v>
       </c>
       <c r="J52" s="3">
-        <v>1522600</v>
+        <v>1418900</v>
       </c>
       <c r="K52" s="3">
         <v>1071500</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64075800</v>
+        <v>59711900</v>
       </c>
       <c r="E54" s="3">
-        <v>56948600</v>
+        <v>53070200</v>
       </c>
       <c r="F54" s="3">
-        <v>62390500</v>
+        <v>58141500</v>
       </c>
       <c r="G54" s="3">
-        <v>63872500</v>
+        <v>59522500</v>
       </c>
       <c r="H54" s="3">
-        <v>68135300</v>
+        <v>63495000</v>
       </c>
       <c r="I54" s="3">
-        <v>74488800</v>
+        <v>69415800</v>
       </c>
       <c r="J54" s="3">
-        <v>78427400</v>
+        <v>73086200</v>
       </c>
       <c r="K54" s="3">
         <v>42784300</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4343000</v>
+        <v>4047300</v>
       </c>
       <c r="E57" s="3">
-        <v>3585500</v>
+        <v>3341300</v>
       </c>
       <c r="F57" s="3">
-        <v>3782400</v>
+        <v>3524800</v>
       </c>
       <c r="G57" s="3">
-        <v>4033800</v>
+        <v>3759100</v>
       </c>
       <c r="H57" s="3">
-        <v>3975000</v>
+        <v>3704300</v>
       </c>
       <c r="I57" s="3">
-        <v>3538400</v>
+        <v>3297400</v>
       </c>
       <c r="J57" s="3">
-        <v>3951400</v>
+        <v>3682300</v>
       </c>
       <c r="K57" s="3">
         <v>2301200</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2525200</v>
+        <v>2353200</v>
       </c>
       <c r="E58" s="3">
-        <v>2191300</v>
+        <v>2042100</v>
       </c>
       <c r="F58" s="3">
-        <v>2123900</v>
+        <v>1979300</v>
       </c>
       <c r="G58" s="3">
-        <v>3184300</v>
+        <v>2967400</v>
       </c>
       <c r="H58" s="3">
-        <v>3995300</v>
+        <v>3723200</v>
       </c>
       <c r="I58" s="3">
-        <v>12770200</v>
+        <v>11900500</v>
       </c>
       <c r="J58" s="3">
-        <v>7300500</v>
+        <v>6803300</v>
       </c>
       <c r="K58" s="3">
         <v>5380300</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3558800</v>
+        <v>3316400</v>
       </c>
       <c r="E59" s="3">
-        <v>2973500</v>
+        <v>2771000</v>
       </c>
       <c r="F59" s="3">
-        <v>3877600</v>
+        <v>3613500</v>
       </c>
       <c r="G59" s="3">
-        <v>4259600</v>
+        <v>3969500</v>
       </c>
       <c r="H59" s="3">
-        <v>4354800</v>
+        <v>4058200</v>
       </c>
       <c r="I59" s="3">
-        <v>4553800</v>
+        <v>4243700</v>
       </c>
       <c r="J59" s="3">
-        <v>4618000</v>
+        <v>4303500</v>
       </c>
       <c r="K59" s="3">
         <v>2623000</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10427000</v>
+        <v>9716800</v>
       </c>
       <c r="E60" s="3">
-        <v>8750300</v>
+        <v>8154400</v>
       </c>
       <c r="F60" s="3">
-        <v>9783900</v>
+        <v>9117600</v>
       </c>
       <c r="G60" s="3">
-        <v>11477700</v>
+        <v>10696000</v>
       </c>
       <c r="H60" s="3">
-        <v>12325100</v>
+        <v>11485700</v>
       </c>
       <c r="I60" s="3">
-        <v>13384400</v>
+        <v>12472800</v>
       </c>
       <c r="J60" s="3">
-        <v>15869900</v>
+        <v>14789100</v>
       </c>
       <c r="K60" s="3">
         <v>7418200</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15249400</v>
+        <v>14210800</v>
       </c>
       <c r="E61" s="3">
-        <v>12526300</v>
+        <v>11673200</v>
       </c>
       <c r="F61" s="3">
-        <v>13035600</v>
+        <v>12147800</v>
       </c>
       <c r="G61" s="3">
-        <v>13922600</v>
+        <v>12974400</v>
       </c>
       <c r="H61" s="3">
-        <v>15799300</v>
+        <v>14723300</v>
       </c>
       <c r="I61" s="3">
-        <v>15691300</v>
+        <v>14622600</v>
       </c>
       <c r="J61" s="3">
-        <v>15898800</v>
+        <v>14816100</v>
       </c>
       <c r="K61" s="3">
         <v>9964200</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5793900</v>
+        <v>5399400</v>
       </c>
       <c r="E62" s="3">
-        <v>5043900</v>
+        <v>4700400</v>
       </c>
       <c r="F62" s="3">
-        <v>5867800</v>
+        <v>5468200</v>
       </c>
       <c r="G62" s="3">
-        <v>6316100</v>
+        <v>5885900</v>
       </c>
       <c r="H62" s="3">
-        <v>6868200</v>
+        <v>6400400</v>
       </c>
       <c r="I62" s="3">
-        <v>10536100</v>
+        <v>9818500</v>
       </c>
       <c r="J62" s="3">
-        <v>8436800</v>
+        <v>7862200</v>
       </c>
       <c r="K62" s="3">
         <v>4782200</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34453400</v>
+        <v>32106900</v>
       </c>
       <c r="E66" s="3">
-        <v>29052100</v>
+        <v>27073500</v>
       </c>
       <c r="F66" s="3">
-        <v>31825500</v>
+        <v>29658000</v>
       </c>
       <c r="G66" s="3">
-        <v>35063200</v>
+        <v>32675300</v>
       </c>
       <c r="H66" s="3">
-        <v>38403700</v>
+        <v>35788300</v>
       </c>
       <c r="I66" s="3">
-        <v>41509900</v>
+        <v>38682900</v>
       </c>
       <c r="J66" s="3">
-        <v>44867500</v>
+        <v>41811800</v>
       </c>
       <c r="K66" s="3">
         <v>23900200</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25555400</v>
+        <v>23815000</v>
       </c>
       <c r="E72" s="3">
-        <v>22353000</v>
+        <v>20830600</v>
       </c>
       <c r="F72" s="3">
-        <v>20512600</v>
+        <v>19115600</v>
       </c>
       <c r="G72" s="3">
-        <v>18387600</v>
+        <v>17135300</v>
       </c>
       <c r="H72" s="3">
-        <v>16454200</v>
+        <v>15333600</v>
       </c>
       <c r="I72" s="3">
-        <v>17703900</v>
+        <v>16498200</v>
       </c>
       <c r="J72" s="3">
-        <v>16036900</v>
+        <v>14944700</v>
       </c>
       <c r="K72" s="3">
         <v>29815700</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29622400</v>
+        <v>27605000</v>
       </c>
       <c r="E76" s="3">
-        <v>27896500</v>
+        <v>25996700</v>
       </c>
       <c r="F76" s="3">
-        <v>30565000</v>
+        <v>28483400</v>
       </c>
       <c r="G76" s="3">
-        <v>28809200</v>
+        <v>26847200</v>
       </c>
       <c r="H76" s="3">
-        <v>29731500</v>
+        <v>27706700</v>
       </c>
       <c r="I76" s="3">
-        <v>32978900</v>
+        <v>30732900</v>
       </c>
       <c r="J76" s="3">
-        <v>33559900</v>
+        <v>31274400</v>
       </c>
       <c r="K76" s="3">
         <v>18884000</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2439600</v>
+        <v>2273400</v>
       </c>
       <c r="E81" s="3">
-        <v>1796500</v>
+        <v>1674100</v>
       </c>
       <c r="F81" s="3">
-        <v>2388200</v>
+        <v>2225500</v>
       </c>
       <c r="G81" s="3">
-        <v>1607100</v>
+        <v>1497700</v>
       </c>
       <c r="H81" s="3">
-        <v>-1792200</v>
+        <v>-1670200</v>
       </c>
       <c r="I81" s="3">
-        <v>1916300</v>
+        <v>1785800</v>
       </c>
       <c r="J81" s="3">
-        <v>-1571800</v>
+        <v>-1464800</v>
       </c>
       <c r="K81" s="3">
         <v>1393300</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2482400</v>
+        <v>2313300</v>
       </c>
       <c r="E83" s="3">
-        <v>2461000</v>
+        <v>2293400</v>
       </c>
       <c r="F83" s="3">
-        <v>2653600</v>
+        <v>2472800</v>
       </c>
       <c r="G83" s="3">
-        <v>2400000</v>
+        <v>2236500</v>
       </c>
       <c r="H83" s="3">
-        <v>6630700</v>
+        <v>6179100</v>
       </c>
       <c r="I83" s="3">
-        <v>2513400</v>
+        <v>2342200</v>
       </c>
       <c r="J83" s="3">
-        <v>4730400</v>
+        <v>4408200</v>
       </c>
       <c r="K83" s="3">
         <v>1519000</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5398000</v>
+        <v>5030400</v>
       </c>
       <c r="E89" s="3">
-        <v>4941200</v>
+        <v>4604700</v>
       </c>
       <c r="F89" s="3">
-        <v>5162700</v>
+        <v>4811100</v>
       </c>
       <c r="G89" s="3">
-        <v>3197100</v>
+        <v>2979400</v>
       </c>
       <c r="H89" s="3">
-        <v>3252700</v>
+        <v>3031200</v>
       </c>
       <c r="I89" s="3">
-        <v>3525600</v>
+        <v>3285500</v>
       </c>
       <c r="J89" s="3">
-        <v>2637500</v>
+        <v>2457900</v>
       </c>
       <c r="K89" s="3">
         <v>2691200</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1639200</v>
+        <v>-1527600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1192000</v>
+        <v>-1110800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1641300</v>
+        <v>-1529600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1509700</v>
+        <v>-1406900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1628500</v>
+        <v>-1517600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1897100</v>
+        <v>-1767900</v>
       </c>
       <c r="J91" s="3">
-        <v>-2253400</v>
+        <v>-2099900</v>
       </c>
       <c r="K91" s="3">
         <v>-2107300</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5039600</v>
+        <v>-4696400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1317100</v>
+        <v>-1227400</v>
       </c>
       <c r="F94" s="3">
-        <v>-234300</v>
+        <v>-218400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1483000</v>
+        <v>-1382000</v>
       </c>
       <c r="H94" s="3">
-        <v>-722200</v>
+        <v>-673000</v>
       </c>
       <c r="I94" s="3">
-        <v>755400</v>
+        <v>704000</v>
       </c>
       <c r="J94" s="3">
-        <v>5600300</v>
+        <v>5218900</v>
       </c>
       <c r="K94" s="3">
         <v>-1844000</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1307500</v>
+        <v>-1218500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1309700</v>
+        <v>-1220500</v>
       </c>
       <c r="F96" s="3">
-        <v>-344500</v>
+        <v>-321100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1275400</v>
+        <v>-1188600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1296800</v>
+        <v>-1208500</v>
       </c>
       <c r="I96" s="3">
-        <v>-972600</v>
+        <v>-906400</v>
       </c>
       <c r="J96" s="3">
-        <v>-453700</v>
+        <v>-422800</v>
       </c>
       <c r="K96" s="3">
         <v>-459400</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1192000</v>
+        <v>1110800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2023300</v>
+        <v>-1885500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2814000</v>
+        <v>-2622400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3384300</v>
+        <v>-3153900</v>
       </c>
       <c r="H100" s="3">
-        <v>-3298700</v>
+        <v>-3074100</v>
       </c>
       <c r="I100" s="3">
-        <v>-3080500</v>
+        <v>-2870700</v>
       </c>
       <c r="J100" s="3">
-        <v>-6419900</v>
+        <v>-5982700</v>
       </c>
       <c r="K100" s="3">
         <v>-1065000</v>
@@ -3961,25 +3961,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>69500</v>
+        <v>64800</v>
       </c>
       <c r="E101" s="3">
-        <v>-436600</v>
+        <v>-406800</v>
       </c>
       <c r="F101" s="3">
-        <v>-239700</v>
+        <v>-223400</v>
       </c>
       <c r="G101" s="3">
-        <v>-138000</v>
+        <v>-128600</v>
       </c>
       <c r="H101" s="3">
-        <v>-130500</v>
+        <v>-121600</v>
       </c>
       <c r="I101" s="3">
-        <v>-105900</v>
+        <v>-98700</v>
       </c>
       <c r="J101" s="3">
-        <v>140200</v>
+        <v>130600</v>
       </c>
       <c r="K101" s="3">
         <v>162500</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1619900</v>
+        <v>1509600</v>
       </c>
       <c r="E102" s="3">
-        <v>1164100</v>
+        <v>1084900</v>
       </c>
       <c r="F102" s="3">
-        <v>1874600</v>
+        <v>1746900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1808300</v>
+        <v>-1685100</v>
       </c>
       <c r="H102" s="3">
-        <v>-898800</v>
+        <v>-837600</v>
       </c>
       <c r="I102" s="3">
-        <v>1094600</v>
+        <v>1020000</v>
       </c>
       <c r="J102" s="3">
-        <v>1958100</v>
+        <v>1824700</v>
       </c>
       <c r="K102" s="3">
         <v>-55300</v>

--- a/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26756400</v>
+        <v>27844800</v>
       </c>
       <c r="E8" s="3">
-        <v>23075100</v>
+        <v>24013800</v>
       </c>
       <c r="F8" s="3">
-        <v>26644800</v>
+        <v>27728600</v>
       </c>
       <c r="G8" s="3">
-        <v>27386600</v>
+        <v>28500600</v>
       </c>
       <c r="H8" s="3">
-        <v>26942900</v>
+        <v>28038900</v>
       </c>
       <c r="I8" s="3">
-        <v>26826200</v>
+        <v>27917500</v>
       </c>
       <c r="J8" s="3">
-        <v>23515800</v>
+        <v>24472400</v>
       </c>
       <c r="K8" s="3">
         <v>20395400</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15253800</v>
+        <v>15874300</v>
       </c>
       <c r="E9" s="3">
-        <v>13414100</v>
+        <v>13959800</v>
       </c>
       <c r="F9" s="3">
-        <v>15396400</v>
+        <v>16022700</v>
       </c>
       <c r="G9" s="3">
-        <v>15766300</v>
+        <v>16407600</v>
       </c>
       <c r="H9" s="3">
-        <v>37302900</v>
+        <v>38820300</v>
       </c>
       <c r="I9" s="3">
-        <v>31173600</v>
+        <v>32441700</v>
       </c>
       <c r="J9" s="3">
-        <v>16442300</v>
+        <v>17111200</v>
       </c>
       <c r="K9" s="3">
         <v>22760500</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11502700</v>
+        <v>11970600</v>
       </c>
       <c r="E10" s="3">
-        <v>9661000</v>
+        <v>10054000</v>
       </c>
       <c r="F10" s="3">
-        <v>11248400</v>
+        <v>11706000</v>
       </c>
       <c r="G10" s="3">
-        <v>11620300</v>
+        <v>12093000</v>
       </c>
       <c r="H10" s="3">
-        <v>-10360000</v>
+        <v>-10781400</v>
       </c>
       <c r="I10" s="3">
-        <v>-4347400</v>
+        <v>-4524200</v>
       </c>
       <c r="J10" s="3">
-        <v>7073500</v>
+        <v>7361200</v>
       </c>
       <c r="K10" s="3">
         <v>-2365100</v>
@@ -937,25 +937,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>198400</v>
+        <v>206500</v>
       </c>
       <c r="E14" s="3">
-        <v>34900</v>
+        <v>36300</v>
       </c>
       <c r="F14" s="3">
-        <v>-229300</v>
+        <v>-238700</v>
       </c>
       <c r="G14" s="3">
-        <v>567400</v>
+        <v>590400</v>
       </c>
       <c r="H14" s="3">
-        <v>-102700</v>
+        <v>-106900</v>
       </c>
       <c r="I14" s="3">
-        <v>-695000</v>
+        <v>-723300</v>
       </c>
       <c r="J14" s="3">
-        <v>-1060900</v>
+        <v>-1104100</v>
       </c>
       <c r="K14" s="3">
         <v>-190700</v>
@@ -976,7 +976,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>411800</v>
+        <v>428600</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22566600</v>
+        <v>23484500</v>
       </c>
       <c r="E17" s="3">
-        <v>19748800</v>
+        <v>20552100</v>
       </c>
       <c r="F17" s="3">
-        <v>22593500</v>
+        <v>23512600</v>
       </c>
       <c r="G17" s="3">
-        <v>24178900</v>
+        <v>25162500</v>
       </c>
       <c r="H17" s="3">
-        <v>27297900</v>
+        <v>28408300</v>
       </c>
       <c r="I17" s="3">
-        <v>23176800</v>
+        <v>24119600</v>
       </c>
       <c r="J17" s="3">
-        <v>23191800</v>
+        <v>24135200</v>
       </c>
       <c r="K17" s="3">
         <v>17774600</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4189900</v>
+        <v>4360300</v>
       </c>
       <c r="E18" s="3">
-        <v>3326400</v>
+        <v>3461700</v>
       </c>
       <c r="F18" s="3">
-        <v>4051300</v>
+        <v>4216100</v>
       </c>
       <c r="G18" s="3">
-        <v>3207700</v>
+        <v>3338200</v>
       </c>
       <c r="H18" s="3">
-        <v>-355000</v>
+        <v>-369400</v>
       </c>
       <c r="I18" s="3">
-        <v>3649400</v>
+        <v>3797900</v>
       </c>
       <c r="J18" s="3">
-        <v>324100</v>
+        <v>337200</v>
       </c>
       <c r="K18" s="3">
         <v>2620800</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-154600</v>
+        <v>-160800</v>
       </c>
       <c r="E20" s="3">
-        <v>-169500</v>
+        <v>-176400</v>
       </c>
       <c r="F20" s="3">
-        <v>-133600</v>
+        <v>-139000</v>
       </c>
       <c r="G20" s="3">
-        <v>-121600</v>
+        <v>-126600</v>
       </c>
       <c r="H20" s="3">
-        <v>-84800</v>
+        <v>-88200</v>
       </c>
       <c r="I20" s="3">
-        <v>83800</v>
+        <v>87200</v>
       </c>
       <c r="J20" s="3">
-        <v>-182500</v>
+        <v>-189900</v>
       </c>
       <c r="K20" s="3">
         <v>286000</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6368600</v>
+        <v>6600600</v>
       </c>
       <c r="E21" s="3">
-        <v>5470000</v>
+        <v>5665700</v>
       </c>
       <c r="F21" s="3">
-        <v>6411900</v>
+        <v>6643800</v>
       </c>
       <c r="G21" s="3">
-        <v>5341900</v>
+        <v>5533000</v>
       </c>
       <c r="H21" s="3">
-        <v>5792800</v>
+        <v>5956200</v>
       </c>
       <c r="I21" s="3">
-        <v>6095600</v>
+        <v>6316200</v>
       </c>
       <c r="J21" s="3">
-        <v>4587900</v>
+        <v>4723000</v>
       </c>
       <c r="K21" s="3">
         <v>4424300</v>
@@ -1202,25 +1202,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>401800</v>
+        <v>418200</v>
       </c>
       <c r="E22" s="3">
-        <v>445700</v>
+        <v>463800</v>
       </c>
       <c r="F22" s="3">
-        <v>608200</v>
+        <v>633000</v>
       </c>
       <c r="G22" s="3">
-        <v>717900</v>
+        <v>747100</v>
       </c>
       <c r="H22" s="3">
-        <v>736900</v>
+        <v>766800</v>
       </c>
       <c r="I22" s="3">
-        <v>859500</v>
+        <v>894500</v>
       </c>
       <c r="J22" s="3">
-        <v>823600</v>
+        <v>857100</v>
       </c>
       <c r="K22" s="3">
         <v>522200</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3633500</v>
+        <v>3781300</v>
       </c>
       <c r="E23" s="3">
-        <v>2711100</v>
+        <v>2821400</v>
       </c>
       <c r="F23" s="3">
-        <v>3309400</v>
+        <v>3444000</v>
       </c>
       <c r="G23" s="3">
-        <v>2368100</v>
+        <v>2464500</v>
       </c>
       <c r="H23" s="3">
-        <v>-1176600</v>
+        <v>-1224500</v>
       </c>
       <c r="I23" s="3">
-        <v>2873700</v>
+        <v>2990600</v>
       </c>
       <c r="J23" s="3">
-        <v>-682000</v>
+        <v>-709800</v>
       </c>
       <c r="K23" s="3">
         <v>2384600</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>960200</v>
+        <v>999300</v>
       </c>
       <c r="E24" s="3">
-        <v>714900</v>
+        <v>744000</v>
       </c>
       <c r="F24" s="3">
-        <v>803700</v>
+        <v>836400</v>
       </c>
       <c r="G24" s="3">
-        <v>654100</v>
+        <v>680700</v>
       </c>
       <c r="H24" s="3">
-        <v>534500</v>
+        <v>556200</v>
       </c>
       <c r="I24" s="3">
-        <v>832600</v>
+        <v>866500</v>
       </c>
       <c r="J24" s="3">
-        <v>778700</v>
+        <v>810400</v>
       </c>
       <c r="K24" s="3">
         <v>629500</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2673300</v>
+        <v>2782000</v>
       </c>
       <c r="E26" s="3">
-        <v>1996200</v>
+        <v>2077400</v>
       </c>
       <c r="F26" s="3">
-        <v>2505700</v>
+        <v>2607700</v>
       </c>
       <c r="G26" s="3">
-        <v>1714000</v>
+        <v>1783800</v>
       </c>
       <c r="H26" s="3">
-        <v>-1711000</v>
+        <v>-1780600</v>
       </c>
       <c r="I26" s="3">
-        <v>2041100</v>
+        <v>2124100</v>
       </c>
       <c r="J26" s="3">
-        <v>-1460800</v>
+        <v>-1520200</v>
       </c>
       <c r="K26" s="3">
         <v>1755100</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2273400</v>
+        <v>2365900</v>
       </c>
       <c r="E27" s="3">
-        <v>1674100</v>
+        <v>1742200</v>
       </c>
       <c r="F27" s="3">
-        <v>2225500</v>
+        <v>2316100</v>
       </c>
       <c r="G27" s="3">
-        <v>1497700</v>
+        <v>1558600</v>
       </c>
       <c r="H27" s="3">
-        <v>-1670200</v>
+        <v>-1738100</v>
       </c>
       <c r="I27" s="3">
-        <v>1742900</v>
+        <v>1813800</v>
       </c>
       <c r="J27" s="3">
-        <v>-1567500</v>
+        <v>-1631200</v>
       </c>
       <c r="K27" s="3">
         <v>1393300</v>
@@ -1490,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>42900</v>
+        <v>44600</v>
       </c>
       <c r="J29" s="3">
-        <v>102700</v>
+        <v>106900</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>154600</v>
+        <v>160800</v>
       </c>
       <c r="E32" s="3">
-        <v>169500</v>
+        <v>176400</v>
       </c>
       <c r="F32" s="3">
-        <v>133600</v>
+        <v>139000</v>
       </c>
       <c r="G32" s="3">
-        <v>121600</v>
+        <v>126600</v>
       </c>
       <c r="H32" s="3">
-        <v>84800</v>
+        <v>88200</v>
       </c>
       <c r="I32" s="3">
-        <v>-83800</v>
+        <v>-87200</v>
       </c>
       <c r="J32" s="3">
-        <v>182500</v>
+        <v>189900</v>
       </c>
       <c r="K32" s="3">
         <v>-286000</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2273400</v>
+        <v>2365900</v>
       </c>
       <c r="E33" s="3">
-        <v>1674100</v>
+        <v>1742200</v>
       </c>
       <c r="F33" s="3">
-        <v>2225500</v>
+        <v>2316100</v>
       </c>
       <c r="G33" s="3">
-        <v>1497700</v>
+        <v>1558600</v>
       </c>
       <c r="H33" s="3">
-        <v>-1670200</v>
+        <v>-1738100</v>
       </c>
       <c r="I33" s="3">
-        <v>1785800</v>
+        <v>1858500</v>
       </c>
       <c r="J33" s="3">
-        <v>-1464800</v>
+        <v>-1524300</v>
       </c>
       <c r="K33" s="3">
         <v>1393300</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2273400</v>
+        <v>2365900</v>
       </c>
       <c r="E35" s="3">
-        <v>1674100</v>
+        <v>1742200</v>
       </c>
       <c r="F35" s="3">
-        <v>2225500</v>
+        <v>2316100</v>
       </c>
       <c r="G35" s="3">
-        <v>1497700</v>
+        <v>1558600</v>
       </c>
       <c r="H35" s="3">
-        <v>-1670200</v>
+        <v>-1738100</v>
       </c>
       <c r="I35" s="3">
-        <v>1785800</v>
+        <v>1858500</v>
       </c>
       <c r="J35" s="3">
-        <v>-1464800</v>
+        <v>-1524300</v>
       </c>
       <c r="K35" s="3">
         <v>1393300</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2207600</v>
+        <v>2297400</v>
       </c>
       <c r="E41" s="3">
-        <v>1809800</v>
+        <v>1883400</v>
       </c>
       <c r="F41" s="3">
-        <v>2308300</v>
+        <v>2402200</v>
       </c>
       <c r="G41" s="3">
-        <v>1522600</v>
+        <v>1584500</v>
       </c>
       <c r="H41" s="3">
-        <v>2441900</v>
+        <v>2541300</v>
       </c>
       <c r="I41" s="3">
-        <v>8075600</v>
+        <v>8404100</v>
       </c>
       <c r="J41" s="3">
-        <v>3185800</v>
+        <v>3315400</v>
       </c>
       <c r="K41" s="3">
         <v>3178800</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4461100</v>
+        <v>4642500</v>
       </c>
       <c r="E42" s="3">
-        <v>3369200</v>
+        <v>3506300</v>
       </c>
       <c r="F42" s="3">
-        <v>1831700</v>
+        <v>1906200</v>
       </c>
       <c r="G42" s="3">
-        <v>988100</v>
+        <v>1028300</v>
       </c>
       <c r="H42" s="3">
-        <v>1763900</v>
+        <v>1835600</v>
       </c>
       <c r="I42" s="3">
-        <v>1742000</v>
+        <v>1812800</v>
       </c>
       <c r="J42" s="3">
-        <v>1194500</v>
+        <v>1243100</v>
       </c>
       <c r="K42" s="3">
         <v>1475600</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3634500</v>
+        <v>3782300</v>
       </c>
       <c r="E43" s="3">
-        <v>3102000</v>
+        <v>3228200</v>
       </c>
       <c r="F43" s="3">
-        <v>3702300</v>
+        <v>3852900</v>
       </c>
       <c r="G43" s="3">
-        <v>4101100</v>
+        <v>4267900</v>
       </c>
       <c r="H43" s="3">
-        <v>4305500</v>
+        <v>4480700</v>
       </c>
       <c r="I43" s="3">
-        <v>6942900</v>
+        <v>7225300</v>
       </c>
       <c r="J43" s="3">
-        <v>4209800</v>
+        <v>4381000</v>
       </c>
       <c r="K43" s="3">
         <v>5737800</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2600500</v>
+        <v>2706200</v>
       </c>
       <c r="E44" s="3">
-        <v>1977300</v>
+        <v>2057700</v>
       </c>
       <c r="F44" s="3">
-        <v>2486800</v>
+        <v>2587900</v>
       </c>
       <c r="G44" s="3">
-        <v>3072100</v>
+        <v>3197100</v>
       </c>
       <c r="H44" s="3">
-        <v>2861700</v>
+        <v>2978100</v>
       </c>
       <c r="I44" s="3">
-        <v>5274700</v>
+        <v>5489300</v>
       </c>
       <c r="J44" s="3">
-        <v>3051200</v>
+        <v>3175300</v>
       </c>
       <c r="K44" s="3">
         <v>4000000</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>752800</v>
+        <v>783400</v>
       </c>
       <c r="E45" s="3">
-        <v>596300</v>
+        <v>620500</v>
       </c>
       <c r="F45" s="3">
-        <v>1845700</v>
+        <v>1920700</v>
       </c>
       <c r="G45" s="3">
-        <v>1940400</v>
+        <v>2019300</v>
       </c>
       <c r="H45" s="3">
-        <v>1208500</v>
+        <v>1257700</v>
       </c>
       <c r="I45" s="3">
-        <v>5063300</v>
+        <v>5269300</v>
       </c>
       <c r="J45" s="3">
-        <v>1651200</v>
+        <v>1718400</v>
       </c>
       <c r="K45" s="3">
         <v>1007600</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13656400</v>
+        <v>14211900</v>
       </c>
       <c r="E46" s="3">
-        <v>10854500</v>
+        <v>11296100</v>
       </c>
       <c r="F46" s="3">
-        <v>12174700</v>
+        <v>12670000</v>
       </c>
       <c r="G46" s="3">
-        <v>11624300</v>
+        <v>12097200</v>
       </c>
       <c r="H46" s="3">
-        <v>12581500</v>
+        <v>13093300</v>
       </c>
       <c r="I46" s="3">
-        <v>14393300</v>
+        <v>14978800</v>
       </c>
       <c r="J46" s="3">
-        <v>13292500</v>
+        <v>13833200</v>
       </c>
       <c r="K46" s="3">
         <v>7834200</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4142000</v>
+        <v>4310500</v>
       </c>
       <c r="E47" s="3">
-        <v>3765100</v>
+        <v>3918200</v>
       </c>
       <c r="F47" s="3">
-        <v>3804000</v>
+        <v>3958700</v>
       </c>
       <c r="G47" s="3">
-        <v>3632500</v>
+        <v>3780200</v>
       </c>
       <c r="H47" s="3">
-        <v>3626500</v>
+        <v>3774000</v>
       </c>
       <c r="I47" s="3">
-        <v>5317600</v>
+        <v>5533900</v>
       </c>
       <c r="J47" s="3">
-        <v>3879800</v>
+        <v>4037600</v>
       </c>
       <c r="K47" s="3">
         <v>2657600</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24370400</v>
+        <v>25361700</v>
       </c>
       <c r="E48" s="3">
-        <v>24150000</v>
+        <v>25132400</v>
       </c>
       <c r="F48" s="3">
-        <v>27110400</v>
+        <v>28213200</v>
       </c>
       <c r="G48" s="3">
-        <v>27809400</v>
+        <v>28940600</v>
       </c>
       <c r="H48" s="3">
-        <v>30064900</v>
+        <v>31287800</v>
       </c>
       <c r="I48" s="3">
-        <v>63918700</v>
+        <v>66518800</v>
       </c>
       <c r="J48" s="3">
-        <v>36640800</v>
+        <v>38131300</v>
       </c>
       <c r="K48" s="3">
         <v>46716000</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15355500</v>
+        <v>15980100</v>
       </c>
       <c r="E49" s="3">
-        <v>12908600</v>
+        <v>13433700</v>
       </c>
       <c r="F49" s="3">
-        <v>13643500</v>
+        <v>14198400</v>
       </c>
       <c r="G49" s="3">
-        <v>14812100</v>
+        <v>15414600</v>
       </c>
       <c r="H49" s="3">
-        <v>15549900</v>
+        <v>16182500</v>
       </c>
       <c r="I49" s="3">
-        <v>34428200</v>
+        <v>35828700</v>
       </c>
       <c r="J49" s="3">
-        <v>17854300</v>
+        <v>18580500</v>
       </c>
       <c r="K49" s="3">
         <v>16752900</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2187700</v>
+        <v>2276600</v>
       </c>
       <c r="E52" s="3">
-        <v>1392000</v>
+        <v>1448600</v>
       </c>
       <c r="F52" s="3">
-        <v>1408900</v>
+        <v>1466200</v>
       </c>
       <c r="G52" s="3">
-        <v>1644200</v>
+        <v>1711100</v>
       </c>
       <c r="H52" s="3">
-        <v>1672200</v>
+        <v>1740200</v>
       </c>
       <c r="I52" s="3">
-        <v>2565600</v>
+        <v>2669900</v>
       </c>
       <c r="J52" s="3">
-        <v>1418900</v>
+        <v>1476600</v>
       </c>
       <c r="K52" s="3">
         <v>1071500</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59711900</v>
+        <v>62140900</v>
       </c>
       <c r="E54" s="3">
-        <v>53070200</v>
+        <v>55228900</v>
       </c>
       <c r="F54" s="3">
-        <v>58141500</v>
+        <v>60506500</v>
       </c>
       <c r="G54" s="3">
-        <v>59522500</v>
+        <v>61943700</v>
       </c>
       <c r="H54" s="3">
-        <v>63495000</v>
+        <v>66077800</v>
       </c>
       <c r="I54" s="3">
-        <v>69415800</v>
+        <v>72239500</v>
       </c>
       <c r="J54" s="3">
-        <v>73086200</v>
+        <v>76059100</v>
       </c>
       <c r="K54" s="3">
         <v>42784300</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4047300</v>
+        <v>4211900</v>
       </c>
       <c r="E57" s="3">
-        <v>3341300</v>
+        <v>3477200</v>
       </c>
       <c r="F57" s="3">
-        <v>3524800</v>
+        <v>3668200</v>
       </c>
       <c r="G57" s="3">
-        <v>3759100</v>
+        <v>3912000</v>
       </c>
       <c r="H57" s="3">
-        <v>3704300</v>
+        <v>3854900</v>
       </c>
       <c r="I57" s="3">
-        <v>3297400</v>
+        <v>3431600</v>
       </c>
       <c r="J57" s="3">
-        <v>3682300</v>
+        <v>3832100</v>
       </c>
       <c r="K57" s="3">
         <v>2301200</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2353200</v>
+        <v>2448900</v>
       </c>
       <c r="E58" s="3">
-        <v>2042100</v>
+        <v>2125100</v>
       </c>
       <c r="F58" s="3">
-        <v>1979300</v>
+        <v>2059800</v>
       </c>
       <c r="G58" s="3">
-        <v>2967400</v>
+        <v>3088100</v>
       </c>
       <c r="H58" s="3">
-        <v>3723200</v>
+        <v>3874700</v>
       </c>
       <c r="I58" s="3">
-        <v>11900500</v>
+        <v>12384600</v>
       </c>
       <c r="J58" s="3">
-        <v>6803300</v>
+        <v>7080000</v>
       </c>
       <c r="K58" s="3">
         <v>5380300</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3316400</v>
+        <v>3451300</v>
       </c>
       <c r="E59" s="3">
-        <v>2771000</v>
+        <v>2883700</v>
       </c>
       <c r="F59" s="3">
-        <v>3613500</v>
+        <v>3760500</v>
       </c>
       <c r="G59" s="3">
-        <v>3969500</v>
+        <v>4131000</v>
       </c>
       <c r="H59" s="3">
-        <v>4058200</v>
+        <v>4223300</v>
       </c>
       <c r="I59" s="3">
-        <v>4243700</v>
+        <v>4416300</v>
       </c>
       <c r="J59" s="3">
-        <v>4303500</v>
+        <v>4478600</v>
       </c>
       <c r="K59" s="3">
         <v>2623000</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9716800</v>
+        <v>10112100</v>
       </c>
       <c r="E60" s="3">
-        <v>8154400</v>
+        <v>8486100</v>
       </c>
       <c r="F60" s="3">
-        <v>9117600</v>
+        <v>9488500</v>
       </c>
       <c r="G60" s="3">
-        <v>10696000</v>
+        <v>11131100</v>
       </c>
       <c r="H60" s="3">
-        <v>11485700</v>
+        <v>11952900</v>
       </c>
       <c r="I60" s="3">
-        <v>12472800</v>
+        <v>12980200</v>
       </c>
       <c r="J60" s="3">
-        <v>14789100</v>
+        <v>15390700</v>
       </c>
       <c r="K60" s="3">
         <v>7418200</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14210800</v>
+        <v>14788900</v>
       </c>
       <c r="E61" s="3">
-        <v>11673200</v>
+        <v>12148000</v>
       </c>
       <c r="F61" s="3">
-        <v>12147800</v>
+        <v>12641900</v>
       </c>
       <c r="G61" s="3">
-        <v>12974400</v>
+        <v>13502200</v>
       </c>
       <c r="H61" s="3">
-        <v>14723300</v>
+        <v>15322200</v>
       </c>
       <c r="I61" s="3">
-        <v>14622600</v>
+        <v>15217400</v>
       </c>
       <c r="J61" s="3">
-        <v>14816100</v>
+        <v>15418700</v>
       </c>
       <c r="K61" s="3">
         <v>9964200</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5399400</v>
+        <v>5619000</v>
       </c>
       <c r="E62" s="3">
-        <v>4700400</v>
+        <v>4891600</v>
       </c>
       <c r="F62" s="3">
-        <v>5468200</v>
+        <v>5690600</v>
       </c>
       <c r="G62" s="3">
-        <v>5885900</v>
+        <v>6125400</v>
       </c>
       <c r="H62" s="3">
-        <v>6400400</v>
+        <v>6660800</v>
       </c>
       <c r="I62" s="3">
-        <v>9818500</v>
+        <v>10217900</v>
       </c>
       <c r="J62" s="3">
-        <v>7862200</v>
+        <v>8182000</v>
       </c>
       <c r="K62" s="3">
         <v>4782200</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32106900</v>
+        <v>33413000</v>
       </c>
       <c r="E66" s="3">
-        <v>27073500</v>
+        <v>28174800</v>
       </c>
       <c r="F66" s="3">
-        <v>29658000</v>
+        <v>30864500</v>
       </c>
       <c r="G66" s="3">
-        <v>32675300</v>
+        <v>34004400</v>
       </c>
       <c r="H66" s="3">
-        <v>35788300</v>
+        <v>37244100</v>
       </c>
       <c r="I66" s="3">
-        <v>38682900</v>
+        <v>40256400</v>
       </c>
       <c r="J66" s="3">
-        <v>41811800</v>
+        <v>43512600</v>
       </c>
       <c r="K66" s="3">
         <v>23900200</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23815000</v>
+        <v>24783700</v>
       </c>
       <c r="E72" s="3">
-        <v>20830600</v>
+        <v>21678000</v>
       </c>
       <c r="F72" s="3">
-        <v>19115600</v>
+        <v>19893200</v>
       </c>
       <c r="G72" s="3">
-        <v>17135300</v>
+        <v>17832400</v>
       </c>
       <c r="H72" s="3">
-        <v>15333600</v>
+        <v>15957300</v>
       </c>
       <c r="I72" s="3">
-        <v>16498200</v>
+        <v>17169300</v>
       </c>
       <c r="J72" s="3">
-        <v>14944700</v>
+        <v>15552600</v>
       </c>
       <c r="K72" s="3">
         <v>29815700</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27605000</v>
+        <v>28727900</v>
       </c>
       <c r="E76" s="3">
-        <v>25996700</v>
+        <v>27054100</v>
       </c>
       <c r="F76" s="3">
-        <v>28483400</v>
+        <v>29642100</v>
       </c>
       <c r="G76" s="3">
-        <v>26847200</v>
+        <v>27939300</v>
       </c>
       <c r="H76" s="3">
-        <v>27706700</v>
+        <v>28833700</v>
       </c>
       <c r="I76" s="3">
-        <v>30732900</v>
+        <v>31983100</v>
       </c>
       <c r="J76" s="3">
-        <v>31274400</v>
+        <v>32546500</v>
       </c>
       <c r="K76" s="3">
         <v>18884000</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2273400</v>
+        <v>2365900</v>
       </c>
       <c r="E81" s="3">
-        <v>1674100</v>
+        <v>1742200</v>
       </c>
       <c r="F81" s="3">
-        <v>2225500</v>
+        <v>2316100</v>
       </c>
       <c r="G81" s="3">
-        <v>1497700</v>
+        <v>1558600</v>
       </c>
       <c r="H81" s="3">
-        <v>-1670200</v>
+        <v>-1738100</v>
       </c>
       <c r="I81" s="3">
-        <v>1785800</v>
+        <v>1858500</v>
       </c>
       <c r="J81" s="3">
-        <v>-1464800</v>
+        <v>-1524300</v>
       </c>
       <c r="K81" s="3">
         <v>1393300</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2313300</v>
+        <v>2407400</v>
       </c>
       <c r="E83" s="3">
-        <v>2293400</v>
+        <v>2386600</v>
       </c>
       <c r="F83" s="3">
-        <v>2472800</v>
+        <v>2573400</v>
       </c>
       <c r="G83" s="3">
-        <v>2236500</v>
+        <v>2327500</v>
       </c>
       <c r="H83" s="3">
-        <v>6179100</v>
+        <v>6430400</v>
       </c>
       <c r="I83" s="3">
-        <v>2342200</v>
+        <v>2437500</v>
       </c>
       <c r="J83" s="3">
-        <v>4408200</v>
+        <v>4587500</v>
       </c>
       <c r="K83" s="3">
         <v>1519000</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5030400</v>
+        <v>5235000</v>
       </c>
       <c r="E89" s="3">
-        <v>4604700</v>
+        <v>4792000</v>
       </c>
       <c r="F89" s="3">
-        <v>4811100</v>
+        <v>5006800</v>
       </c>
       <c r="G89" s="3">
-        <v>2979400</v>
+        <v>3100600</v>
       </c>
       <c r="H89" s="3">
-        <v>3031200</v>
+        <v>3154500</v>
       </c>
       <c r="I89" s="3">
-        <v>3285500</v>
+        <v>3419100</v>
       </c>
       <c r="J89" s="3">
-        <v>2457900</v>
+        <v>2557900</v>
       </c>
       <c r="K89" s="3">
         <v>2691200</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1527600</v>
+        <v>-1589700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1110800</v>
+        <v>-1156000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1529600</v>
+        <v>-1591800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1406900</v>
+        <v>-1464200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1517600</v>
+        <v>-1579300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1767900</v>
+        <v>-1839800</v>
       </c>
       <c r="J91" s="3">
-        <v>-2099900</v>
+        <v>-2185300</v>
       </c>
       <c r="K91" s="3">
         <v>-2107300</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4696400</v>
+        <v>-4887400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1227400</v>
+        <v>-1277400</v>
       </c>
       <c r="F94" s="3">
-        <v>-218400</v>
+        <v>-227200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1382000</v>
+        <v>-1438200</v>
       </c>
       <c r="H94" s="3">
-        <v>-673000</v>
+        <v>-700400</v>
       </c>
       <c r="I94" s="3">
-        <v>704000</v>
+        <v>732600</v>
       </c>
       <c r="J94" s="3">
-        <v>5218900</v>
+        <v>5431200</v>
       </c>
       <c r="K94" s="3">
         <v>-1844000</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1218500</v>
+        <v>-1268000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1220500</v>
+        <v>-1270100</v>
       </c>
       <c r="F96" s="3">
-        <v>-321100</v>
+        <v>-334100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1188600</v>
+        <v>-1236900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1208500</v>
+        <v>-1257700</v>
       </c>
       <c r="I96" s="3">
-        <v>-906400</v>
+        <v>-943200</v>
       </c>
       <c r="J96" s="3">
-        <v>-422800</v>
+        <v>-440000</v>
       </c>
       <c r="K96" s="3">
         <v>-459400</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1110800</v>
+        <v>1156000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1885500</v>
+        <v>-1962200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2622400</v>
+        <v>-2729100</v>
       </c>
       <c r="G100" s="3">
-        <v>-3153900</v>
+        <v>-3282200</v>
       </c>
       <c r="H100" s="3">
-        <v>-3074100</v>
+        <v>-3199100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2870700</v>
+        <v>-2987500</v>
       </c>
       <c r="J100" s="3">
-        <v>-5982700</v>
+        <v>-6226000</v>
       </c>
       <c r="K100" s="3">
         <v>-1065000</v>
@@ -3961,25 +3961,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>64800</v>
+        <v>67400</v>
       </c>
       <c r="E101" s="3">
-        <v>-406800</v>
+        <v>-423400</v>
       </c>
       <c r="F101" s="3">
-        <v>-223400</v>
+        <v>-232400</v>
       </c>
       <c r="G101" s="3">
-        <v>-128600</v>
+        <v>-133900</v>
       </c>
       <c r="H101" s="3">
-        <v>-121600</v>
+        <v>-126600</v>
       </c>
       <c r="I101" s="3">
-        <v>-98700</v>
+        <v>-102700</v>
       </c>
       <c r="J101" s="3">
-        <v>130600</v>
+        <v>135900</v>
       </c>
       <c r="K101" s="3">
         <v>162500</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1509600</v>
+        <v>1571000</v>
       </c>
       <c r="E102" s="3">
-        <v>1084900</v>
+        <v>1129000</v>
       </c>
       <c r="F102" s="3">
-        <v>1746900</v>
+        <v>1818000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1685100</v>
+        <v>-1753700</v>
       </c>
       <c r="H102" s="3">
-        <v>-837600</v>
+        <v>-871600</v>
       </c>
       <c r="I102" s="3">
-        <v>1020000</v>
+        <v>1061500</v>
       </c>
       <c r="J102" s="3">
-        <v>1824700</v>
+        <v>1898900</v>
       </c>
       <c r="K102" s="3">
         <v>-55300</v>

--- a/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27844800</v>
+        <v>27847800</v>
       </c>
       <c r="E8" s="3">
-        <v>24013800</v>
+        <v>24016300</v>
       </c>
       <c r="F8" s="3">
-        <v>27728600</v>
+        <v>27731600</v>
       </c>
       <c r="G8" s="3">
-        <v>28500600</v>
+        <v>28503700</v>
       </c>
       <c r="H8" s="3">
-        <v>28038900</v>
+        <v>28041900</v>
       </c>
       <c r="I8" s="3">
-        <v>27917500</v>
+        <v>27920400</v>
       </c>
       <c r="J8" s="3">
-        <v>24472400</v>
+        <v>24475000</v>
       </c>
       <c r="K8" s="3">
         <v>20395400</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15874300</v>
+        <v>15876000</v>
       </c>
       <c r="E9" s="3">
-        <v>13959800</v>
+        <v>13961300</v>
       </c>
       <c r="F9" s="3">
-        <v>16022700</v>
+        <v>16024400</v>
       </c>
       <c r="G9" s="3">
-        <v>16407600</v>
+        <v>16409400</v>
       </c>
       <c r="H9" s="3">
-        <v>38820300</v>
+        <v>38824400</v>
       </c>
       <c r="I9" s="3">
-        <v>32441700</v>
+        <v>32445200</v>
       </c>
       <c r="J9" s="3">
-        <v>17111200</v>
+        <v>17113000</v>
       </c>
       <c r="K9" s="3">
         <v>22760500</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11970600</v>
+        <v>11971800</v>
       </c>
       <c r="E10" s="3">
-        <v>10054000</v>
+        <v>10055100</v>
       </c>
       <c r="F10" s="3">
-        <v>11706000</v>
+        <v>11707200</v>
       </c>
       <c r="G10" s="3">
-        <v>12093000</v>
+        <v>12094300</v>
       </c>
       <c r="H10" s="3">
-        <v>-10781400</v>
+        <v>-10782500</v>
       </c>
       <c r="I10" s="3">
-        <v>-4524200</v>
+        <v>-4524700</v>
       </c>
       <c r="J10" s="3">
-        <v>7361200</v>
+        <v>7362000</v>
       </c>
       <c r="K10" s="3">
         <v>-2365100</v>
@@ -946,7 +946,7 @@
         <v>-238700</v>
       </c>
       <c r="G14" s="3">
-        <v>590400</v>
+        <v>590500</v>
       </c>
       <c r="H14" s="3">
         <v>-106900</v>
@@ -955,7 +955,7 @@
         <v>-723300</v>
       </c>
       <c r="J14" s="3">
-        <v>-1104100</v>
+        <v>-1104200</v>
       </c>
       <c r="K14" s="3">
         <v>-190700</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23484500</v>
+        <v>23487000</v>
       </c>
       <c r="E17" s="3">
-        <v>20552100</v>
+        <v>20554300</v>
       </c>
       <c r="F17" s="3">
-        <v>23512600</v>
+        <v>23515100</v>
       </c>
       <c r="G17" s="3">
-        <v>25162500</v>
+        <v>25165100</v>
       </c>
       <c r="H17" s="3">
-        <v>28408300</v>
+        <v>28411300</v>
       </c>
       <c r="I17" s="3">
-        <v>24119600</v>
+        <v>24122200</v>
       </c>
       <c r="J17" s="3">
-        <v>24135200</v>
+        <v>24137700</v>
       </c>
       <c r="K17" s="3">
         <v>17774600</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4360300</v>
+        <v>4360800</v>
       </c>
       <c r="E18" s="3">
-        <v>3461700</v>
+        <v>3462000</v>
       </c>
       <c r="F18" s="3">
-        <v>4216100</v>
+        <v>4216500</v>
       </c>
       <c r="G18" s="3">
-        <v>3338200</v>
+        <v>3338500</v>
       </c>
       <c r="H18" s="3">
         <v>-369400</v>
       </c>
       <c r="I18" s="3">
-        <v>3797900</v>
+        <v>3798300</v>
       </c>
       <c r="J18" s="3">
-        <v>337200</v>
+        <v>337300</v>
       </c>
       <c r="K18" s="3">
         <v>2620800</v>
@@ -1124,13 +1124,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-160800</v>
+        <v>-160900</v>
       </c>
       <c r="E20" s="3">
         <v>-176400</v>
       </c>
       <c r="F20" s="3">
-        <v>-139000</v>
+        <v>-139100</v>
       </c>
       <c r="G20" s="3">
         <v>-126600</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6600600</v>
+        <v>6557600</v>
       </c>
       <c r="E21" s="3">
-        <v>5665700</v>
+        <v>5623000</v>
       </c>
       <c r="F21" s="3">
-        <v>6643800</v>
+        <v>6597800</v>
       </c>
       <c r="G21" s="3">
-        <v>5533000</v>
+        <v>5491400</v>
       </c>
       <c r="H21" s="3">
-        <v>5956200</v>
+        <v>5840100</v>
       </c>
       <c r="I21" s="3">
-        <v>6316200</v>
+        <v>6272600</v>
       </c>
       <c r="J21" s="3">
-        <v>4723000</v>
+        <v>4640300</v>
       </c>
       <c r="K21" s="3">
         <v>4424300</v>
@@ -1205,22 +1205,22 @@
         <v>418200</v>
       </c>
       <c r="E22" s="3">
-        <v>463800</v>
+        <v>463900</v>
       </c>
       <c r="F22" s="3">
         <v>633000</v>
       </c>
       <c r="G22" s="3">
-        <v>747100</v>
+        <v>747200</v>
       </c>
       <c r="H22" s="3">
-        <v>766800</v>
+        <v>766900</v>
       </c>
       <c r="I22" s="3">
-        <v>894500</v>
+        <v>894600</v>
       </c>
       <c r="J22" s="3">
-        <v>857100</v>
+        <v>857200</v>
       </c>
       <c r="K22" s="3">
         <v>522200</v>
@@ -1241,22 +1241,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3781300</v>
+        <v>3781700</v>
       </c>
       <c r="E23" s="3">
-        <v>2821400</v>
+        <v>2821700</v>
       </c>
       <c r="F23" s="3">
-        <v>3444000</v>
+        <v>3444400</v>
       </c>
       <c r="G23" s="3">
-        <v>2464500</v>
+        <v>2464700</v>
       </c>
       <c r="H23" s="3">
-        <v>-1224500</v>
+        <v>-1224600</v>
       </c>
       <c r="I23" s="3">
-        <v>2990600</v>
+        <v>2990900</v>
       </c>
       <c r="J23" s="3">
         <v>-709800</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>999300</v>
+        <v>999400</v>
       </c>
       <c r="E24" s="3">
-        <v>744000</v>
+        <v>744100</v>
       </c>
       <c r="F24" s="3">
-        <v>836400</v>
+        <v>836500</v>
       </c>
       <c r="G24" s="3">
-        <v>680700</v>
+        <v>680800</v>
       </c>
       <c r="H24" s="3">
-        <v>556200</v>
+        <v>556300</v>
       </c>
       <c r="I24" s="3">
         <v>866500</v>
       </c>
       <c r="J24" s="3">
-        <v>810400</v>
+        <v>810500</v>
       </c>
       <c r="K24" s="3">
         <v>629500</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2782000</v>
+        <v>2782300</v>
       </c>
       <c r="E26" s="3">
-        <v>2077400</v>
+        <v>2077600</v>
       </c>
       <c r="F26" s="3">
-        <v>2607700</v>
+        <v>2607900</v>
       </c>
       <c r="G26" s="3">
-        <v>1783800</v>
+        <v>1783900</v>
       </c>
       <c r="H26" s="3">
-        <v>-1780600</v>
+        <v>-1780800</v>
       </c>
       <c r="I26" s="3">
-        <v>2124100</v>
+        <v>2124300</v>
       </c>
       <c r="J26" s="3">
-        <v>-1520200</v>
+        <v>-1520300</v>
       </c>
       <c r="K26" s="3">
         <v>1755100</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2365900</v>
+        <v>2366100</v>
       </c>
       <c r="E27" s="3">
-        <v>1742200</v>
+        <v>1742400</v>
       </c>
       <c r="F27" s="3">
-        <v>2316100</v>
+        <v>2316300</v>
       </c>
       <c r="G27" s="3">
-        <v>1558600</v>
+        <v>1558700</v>
       </c>
       <c r="H27" s="3">
-        <v>-1738100</v>
+        <v>-1738300</v>
       </c>
       <c r="I27" s="3">
-        <v>1813800</v>
+        <v>1814000</v>
       </c>
       <c r="J27" s="3">
-        <v>-1631200</v>
+        <v>-1631400</v>
       </c>
       <c r="K27" s="3">
         <v>1393300</v>
@@ -1592,13 +1592,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>160800</v>
+        <v>160900</v>
       </c>
       <c r="E32" s="3">
         <v>176400</v>
       </c>
       <c r="F32" s="3">
-        <v>139000</v>
+        <v>139100</v>
       </c>
       <c r="G32" s="3">
         <v>126600</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2365900</v>
+        <v>2366100</v>
       </c>
       <c r="E33" s="3">
-        <v>1742200</v>
+        <v>1742400</v>
       </c>
       <c r="F33" s="3">
-        <v>2316100</v>
+        <v>2316300</v>
       </c>
       <c r="G33" s="3">
-        <v>1558600</v>
+        <v>1558700</v>
       </c>
       <c r="H33" s="3">
-        <v>-1738100</v>
+        <v>-1738300</v>
       </c>
       <c r="I33" s="3">
-        <v>1858500</v>
+        <v>1858700</v>
       </c>
       <c r="J33" s="3">
-        <v>-1524300</v>
+        <v>-1524500</v>
       </c>
       <c r="K33" s="3">
         <v>1393300</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2365900</v>
+        <v>2366100</v>
       </c>
       <c r="E35" s="3">
-        <v>1742200</v>
+        <v>1742400</v>
       </c>
       <c r="F35" s="3">
-        <v>2316100</v>
+        <v>2316300</v>
       </c>
       <c r="G35" s="3">
-        <v>1558600</v>
+        <v>1558700</v>
       </c>
       <c r="H35" s="3">
-        <v>-1738100</v>
+        <v>-1738300</v>
       </c>
       <c r="I35" s="3">
-        <v>1858500</v>
+        <v>1858700</v>
       </c>
       <c r="J35" s="3">
-        <v>-1524300</v>
+        <v>-1524500</v>
       </c>
       <c r="K35" s="3">
         <v>1393300</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2297400</v>
+        <v>2297600</v>
       </c>
       <c r="E41" s="3">
-        <v>1883400</v>
+        <v>1883600</v>
       </c>
       <c r="F41" s="3">
-        <v>2402200</v>
+        <v>2402500</v>
       </c>
       <c r="G41" s="3">
-        <v>1584500</v>
+        <v>1584700</v>
       </c>
       <c r="H41" s="3">
-        <v>2541300</v>
+        <v>2541500</v>
       </c>
       <c r="I41" s="3">
-        <v>8404100</v>
+        <v>8405000</v>
       </c>
       <c r="J41" s="3">
-        <v>3315400</v>
+        <v>3315700</v>
       </c>
       <c r="K41" s="3">
         <v>3178800</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4642500</v>
+        <v>4643000</v>
       </c>
       <c r="E42" s="3">
-        <v>3506300</v>
+        <v>3506700</v>
       </c>
       <c r="F42" s="3">
-        <v>1906200</v>
+        <v>1906400</v>
       </c>
       <c r="G42" s="3">
-        <v>1028300</v>
+        <v>1028400</v>
       </c>
       <c r="H42" s="3">
-        <v>1835600</v>
+        <v>1835800</v>
       </c>
       <c r="I42" s="3">
-        <v>1812800</v>
+        <v>1813000</v>
       </c>
       <c r="J42" s="3">
-        <v>1243100</v>
+        <v>1243300</v>
       </c>
       <c r="K42" s="3">
         <v>1475600</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3782300</v>
+        <v>3782700</v>
       </c>
       <c r="E43" s="3">
-        <v>3228200</v>
+        <v>3228500</v>
       </c>
       <c r="F43" s="3">
-        <v>3852900</v>
+        <v>3853300</v>
       </c>
       <c r="G43" s="3">
-        <v>4267900</v>
+        <v>4268400</v>
       </c>
       <c r="H43" s="3">
-        <v>4480700</v>
+        <v>4481100</v>
       </c>
       <c r="I43" s="3">
-        <v>7225300</v>
+        <v>7226100</v>
       </c>
       <c r="J43" s="3">
-        <v>4381000</v>
+        <v>4381500</v>
       </c>
       <c r="K43" s="3">
         <v>5737800</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2706200</v>
+        <v>2706500</v>
       </c>
       <c r="E44" s="3">
-        <v>2057700</v>
+        <v>2057900</v>
       </c>
       <c r="F44" s="3">
-        <v>2587900</v>
+        <v>2588200</v>
       </c>
       <c r="G44" s="3">
-        <v>3197100</v>
+        <v>3197400</v>
       </c>
       <c r="H44" s="3">
-        <v>2978100</v>
+        <v>2978400</v>
       </c>
       <c r="I44" s="3">
-        <v>5489300</v>
+        <v>5489900</v>
       </c>
       <c r="J44" s="3">
-        <v>3175300</v>
+        <v>3175600</v>
       </c>
       <c r="K44" s="3">
         <v>4000000</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>783400</v>
+        <v>783500</v>
       </c>
       <c r="E45" s="3">
-        <v>620500</v>
+        <v>620600</v>
       </c>
       <c r="F45" s="3">
-        <v>1920700</v>
+        <v>1920900</v>
       </c>
       <c r="G45" s="3">
-        <v>2019300</v>
+        <v>2019500</v>
       </c>
       <c r="H45" s="3">
-        <v>1257700</v>
+        <v>1257800</v>
       </c>
       <c r="I45" s="3">
-        <v>5269300</v>
+        <v>5269800</v>
       </c>
       <c r="J45" s="3">
-        <v>1718400</v>
+        <v>1718600</v>
       </c>
       <c r="K45" s="3">
         <v>1007600</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14211900</v>
+        <v>14213400</v>
       </c>
       <c r="E46" s="3">
-        <v>11296100</v>
+        <v>11297300</v>
       </c>
       <c r="F46" s="3">
-        <v>12670000</v>
+        <v>12671300</v>
       </c>
       <c r="G46" s="3">
-        <v>12097200</v>
+        <v>12098400</v>
       </c>
       <c r="H46" s="3">
-        <v>13093300</v>
+        <v>13094700</v>
       </c>
       <c r="I46" s="3">
-        <v>14978800</v>
+        <v>14980400</v>
       </c>
       <c r="J46" s="3">
-        <v>13833200</v>
+        <v>13834600</v>
       </c>
       <c r="K46" s="3">
         <v>7834200</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4310500</v>
+        <v>4310900</v>
       </c>
       <c r="E47" s="3">
-        <v>3918200</v>
+        <v>3918700</v>
       </c>
       <c r="F47" s="3">
-        <v>3958700</v>
+        <v>3959100</v>
       </c>
       <c r="G47" s="3">
-        <v>3780200</v>
+        <v>3780600</v>
       </c>
       <c r="H47" s="3">
-        <v>3774000</v>
+        <v>3774400</v>
       </c>
       <c r="I47" s="3">
-        <v>5533900</v>
+        <v>5534500</v>
       </c>
       <c r="J47" s="3">
-        <v>4037600</v>
+        <v>4038000</v>
       </c>
       <c r="K47" s="3">
         <v>2657600</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25361700</v>
+        <v>25364400</v>
       </c>
       <c r="E48" s="3">
-        <v>25132400</v>
+        <v>25135000</v>
       </c>
       <c r="F48" s="3">
-        <v>28213200</v>
+        <v>28216200</v>
       </c>
       <c r="G48" s="3">
-        <v>28940600</v>
+        <v>28943700</v>
       </c>
       <c r="H48" s="3">
-        <v>31287800</v>
+        <v>31291100</v>
       </c>
       <c r="I48" s="3">
-        <v>66518800</v>
+        <v>66525800</v>
       </c>
       <c r="J48" s="3">
-        <v>38131300</v>
+        <v>38135300</v>
       </c>
       <c r="K48" s="3">
         <v>46716000</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15980100</v>
+        <v>15981800</v>
       </c>
       <c r="E49" s="3">
-        <v>13433700</v>
+        <v>13435100</v>
       </c>
       <c r="F49" s="3">
-        <v>14198400</v>
+        <v>14199900</v>
       </c>
       <c r="G49" s="3">
-        <v>15414600</v>
+        <v>15416200</v>
       </c>
       <c r="H49" s="3">
-        <v>16182500</v>
+        <v>16184200</v>
       </c>
       <c r="I49" s="3">
-        <v>35828700</v>
+        <v>35832500</v>
       </c>
       <c r="J49" s="3">
-        <v>18580500</v>
+        <v>18582500</v>
       </c>
       <c r="K49" s="3">
         <v>16752900</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2276600</v>
+        <v>2276900</v>
       </c>
       <c r="E52" s="3">
-        <v>1448600</v>
+        <v>1448700</v>
       </c>
       <c r="F52" s="3">
-        <v>1466200</v>
+        <v>1466400</v>
       </c>
       <c r="G52" s="3">
-        <v>1711100</v>
+        <v>1711300</v>
       </c>
       <c r="H52" s="3">
-        <v>1740200</v>
+        <v>1740400</v>
       </c>
       <c r="I52" s="3">
-        <v>2669900</v>
+        <v>2670200</v>
       </c>
       <c r="J52" s="3">
-        <v>1476600</v>
+        <v>1476800</v>
       </c>
       <c r="K52" s="3">
         <v>1071500</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>62140900</v>
+        <v>62147500</v>
       </c>
       <c r="E54" s="3">
-        <v>55228900</v>
+        <v>55234800</v>
       </c>
       <c r="F54" s="3">
-        <v>60506500</v>
+        <v>60513000</v>
       </c>
       <c r="G54" s="3">
-        <v>61943700</v>
+        <v>61950300</v>
       </c>
       <c r="H54" s="3">
-        <v>66077800</v>
+        <v>66084800</v>
       </c>
       <c r="I54" s="3">
-        <v>72239500</v>
+        <v>72247100</v>
       </c>
       <c r="J54" s="3">
-        <v>76059100</v>
+        <v>76067200</v>
       </c>
       <c r="K54" s="3">
         <v>42784300</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4211900</v>
+        <v>4212300</v>
       </c>
       <c r="E57" s="3">
-        <v>3477200</v>
+        <v>3477600</v>
       </c>
       <c r="F57" s="3">
-        <v>3668200</v>
+        <v>3668600</v>
       </c>
       <c r="G57" s="3">
-        <v>3912000</v>
+        <v>3912400</v>
       </c>
       <c r="H57" s="3">
-        <v>3854900</v>
+        <v>3855400</v>
       </c>
       <c r="I57" s="3">
-        <v>3431600</v>
+        <v>3431900</v>
       </c>
       <c r="J57" s="3">
-        <v>3832100</v>
+        <v>3832500</v>
       </c>
       <c r="K57" s="3">
         <v>2301200</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2448900</v>
+        <v>2449200</v>
       </c>
       <c r="E58" s="3">
-        <v>2125100</v>
+        <v>2125400</v>
       </c>
       <c r="F58" s="3">
-        <v>2059800</v>
+        <v>2060000</v>
       </c>
       <c r="G58" s="3">
-        <v>3088100</v>
+        <v>3088400</v>
       </c>
       <c r="H58" s="3">
-        <v>3874700</v>
+        <v>3875100</v>
       </c>
       <c r="I58" s="3">
-        <v>12384600</v>
+        <v>12385900</v>
       </c>
       <c r="J58" s="3">
-        <v>7080000</v>
+        <v>7080800</v>
       </c>
       <c r="K58" s="3">
         <v>5380300</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3451300</v>
+        <v>3451700</v>
       </c>
       <c r="E59" s="3">
-        <v>2883700</v>
+        <v>2884000</v>
       </c>
       <c r="F59" s="3">
-        <v>3760500</v>
+        <v>3760900</v>
       </c>
       <c r="G59" s="3">
-        <v>4131000</v>
+        <v>4131400</v>
       </c>
       <c r="H59" s="3">
-        <v>4223300</v>
+        <v>4223800</v>
       </c>
       <c r="I59" s="3">
-        <v>4416300</v>
+        <v>4416800</v>
       </c>
       <c r="J59" s="3">
-        <v>4478600</v>
+        <v>4479100</v>
       </c>
       <c r="K59" s="3">
         <v>2623000</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10112100</v>
+        <v>10113200</v>
       </c>
       <c r="E60" s="3">
-        <v>8486100</v>
+        <v>8487000</v>
       </c>
       <c r="F60" s="3">
-        <v>9488500</v>
+        <v>9489500</v>
       </c>
       <c r="G60" s="3">
-        <v>11131100</v>
+        <v>11132300</v>
       </c>
       <c r="H60" s="3">
-        <v>11952900</v>
+        <v>11954200</v>
       </c>
       <c r="I60" s="3">
-        <v>12980200</v>
+        <v>12981600</v>
       </c>
       <c r="J60" s="3">
-        <v>15390700</v>
+        <v>15392400</v>
       </c>
       <c r="K60" s="3">
         <v>7418200</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14788900</v>
+        <v>14790400</v>
       </c>
       <c r="E61" s="3">
-        <v>12148000</v>
+        <v>12149300</v>
       </c>
       <c r="F61" s="3">
-        <v>12641900</v>
+        <v>12643300</v>
       </c>
       <c r="G61" s="3">
-        <v>13502200</v>
+        <v>13503600</v>
       </c>
       <c r="H61" s="3">
-        <v>15322200</v>
+        <v>15323900</v>
       </c>
       <c r="I61" s="3">
-        <v>15217400</v>
+        <v>15219000</v>
       </c>
       <c r="J61" s="3">
-        <v>15418700</v>
+        <v>15420400</v>
       </c>
       <c r="K61" s="3">
         <v>9964200</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5619000</v>
+        <v>5619600</v>
       </c>
       <c r="E62" s="3">
-        <v>4891600</v>
+        <v>4892100</v>
       </c>
       <c r="F62" s="3">
-        <v>5690600</v>
+        <v>5691200</v>
       </c>
       <c r="G62" s="3">
-        <v>6125400</v>
+        <v>6126000</v>
       </c>
       <c r="H62" s="3">
-        <v>6660800</v>
+        <v>6661500</v>
       </c>
       <c r="I62" s="3">
-        <v>10217900</v>
+        <v>10219000</v>
       </c>
       <c r="J62" s="3">
-        <v>8182000</v>
+        <v>8182900</v>
       </c>
       <c r="K62" s="3">
         <v>4782200</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33413000</v>
+        <v>33416500</v>
       </c>
       <c r="E66" s="3">
-        <v>28174800</v>
+        <v>28177800</v>
       </c>
       <c r="F66" s="3">
-        <v>30864500</v>
+        <v>30867700</v>
       </c>
       <c r="G66" s="3">
-        <v>34004400</v>
+        <v>34008100</v>
       </c>
       <c r="H66" s="3">
-        <v>37244100</v>
+        <v>37248000</v>
       </c>
       <c r="I66" s="3">
-        <v>40256400</v>
+        <v>40260700</v>
       </c>
       <c r="J66" s="3">
-        <v>43512600</v>
+        <v>43517200</v>
       </c>
       <c r="K66" s="3">
         <v>23900200</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24783700</v>
+        <v>24786300</v>
       </c>
       <c r="E72" s="3">
-        <v>21678000</v>
+        <v>21680300</v>
       </c>
       <c r="F72" s="3">
-        <v>19893200</v>
+        <v>19895300</v>
       </c>
       <c r="G72" s="3">
-        <v>17832400</v>
+        <v>17834200</v>
       </c>
       <c r="H72" s="3">
-        <v>15957300</v>
+        <v>15959000</v>
       </c>
       <c r="I72" s="3">
-        <v>17169300</v>
+        <v>17171100</v>
       </c>
       <c r="J72" s="3">
-        <v>15552600</v>
+        <v>15554200</v>
       </c>
       <c r="K72" s="3">
         <v>29815700</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28727900</v>
+        <v>28730900</v>
       </c>
       <c r="E76" s="3">
-        <v>27054100</v>
+        <v>27057000</v>
       </c>
       <c r="F76" s="3">
-        <v>29642100</v>
+        <v>29645200</v>
       </c>
       <c r="G76" s="3">
-        <v>27939300</v>
+        <v>27942200</v>
       </c>
       <c r="H76" s="3">
-        <v>28833700</v>
+        <v>28836800</v>
       </c>
       <c r="I76" s="3">
-        <v>31983100</v>
+        <v>31986500</v>
       </c>
       <c r="J76" s="3">
-        <v>32546500</v>
+        <v>32550000</v>
       </c>
       <c r="K76" s="3">
         <v>18884000</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2365900</v>
+        <v>2366100</v>
       </c>
       <c r="E81" s="3">
-        <v>1742200</v>
+        <v>1742400</v>
       </c>
       <c r="F81" s="3">
-        <v>2316100</v>
+        <v>2316300</v>
       </c>
       <c r="G81" s="3">
-        <v>1558600</v>
+        <v>1558700</v>
       </c>
       <c r="H81" s="3">
-        <v>-1738100</v>
+        <v>-1738300</v>
       </c>
       <c r="I81" s="3">
-        <v>1858500</v>
+        <v>1858700</v>
       </c>
       <c r="J81" s="3">
-        <v>-1524300</v>
+        <v>-1524500</v>
       </c>
       <c r="K81" s="3">
         <v>1393300</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2407400</v>
+        <v>2407600</v>
       </c>
       <c r="E83" s="3">
-        <v>2386600</v>
+        <v>2386900</v>
       </c>
       <c r="F83" s="3">
-        <v>2573400</v>
+        <v>2573700</v>
       </c>
       <c r="G83" s="3">
-        <v>2327500</v>
+        <v>2327700</v>
       </c>
       <c r="H83" s="3">
-        <v>6430400</v>
+        <v>6431100</v>
       </c>
       <c r="I83" s="3">
-        <v>2437500</v>
+        <v>2437700</v>
       </c>
       <c r="J83" s="3">
-        <v>4587500</v>
+        <v>4588000</v>
       </c>
       <c r="K83" s="3">
         <v>1519000</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5235000</v>
+        <v>5235600</v>
       </c>
       <c r="E89" s="3">
-        <v>4792000</v>
+        <v>4792500</v>
       </c>
       <c r="F89" s="3">
-        <v>5006800</v>
+        <v>5007300</v>
       </c>
       <c r="G89" s="3">
-        <v>3100600</v>
+        <v>3100900</v>
       </c>
       <c r="H89" s="3">
-        <v>3154500</v>
+        <v>3154900</v>
       </c>
       <c r="I89" s="3">
-        <v>3419100</v>
+        <v>3419500</v>
       </c>
       <c r="J89" s="3">
-        <v>2557900</v>
+        <v>2558100</v>
       </c>
       <c r="K89" s="3">
         <v>2691200</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1589700</v>
+        <v>-1589900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1156000</v>
+        <v>-1156100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1591800</v>
+        <v>-1592000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1464200</v>
+        <v>-1464300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1579300</v>
+        <v>-1579500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1839800</v>
+        <v>-1840000</v>
       </c>
       <c r="J91" s="3">
-        <v>-2185300</v>
+        <v>-2185600</v>
       </c>
       <c r="K91" s="3">
         <v>-2107300</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4887400</v>
+        <v>-4887900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1277400</v>
+        <v>-1277500</v>
       </c>
       <c r="F94" s="3">
-        <v>-227200</v>
+        <v>-227300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1438200</v>
+        <v>-1438400</v>
       </c>
       <c r="H94" s="3">
-        <v>-700400</v>
+        <v>-700500</v>
       </c>
       <c r="I94" s="3">
-        <v>732600</v>
+        <v>732700</v>
       </c>
       <c r="J94" s="3">
-        <v>5431200</v>
+        <v>5431700</v>
       </c>
       <c r="K94" s="3">
         <v>-1844000</v>
@@ -3766,22 +3766,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1268000</v>
+        <v>-1268200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1270100</v>
+        <v>-1270200</v>
       </c>
       <c r="F96" s="3">
-        <v>-334100</v>
+        <v>-334200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1236900</v>
+        <v>-1237000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1257700</v>
+        <v>-1257800</v>
       </c>
       <c r="I96" s="3">
-        <v>-943200</v>
+        <v>-943300</v>
       </c>
       <c r="J96" s="3">
         <v>-440000</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1156000</v>
+        <v>1156100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1962200</v>
+        <v>-1962400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2729100</v>
+        <v>-2729400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3282200</v>
+        <v>-3282500</v>
       </c>
       <c r="H100" s="3">
-        <v>-3199100</v>
+        <v>-3199500</v>
       </c>
       <c r="I100" s="3">
-        <v>-2987500</v>
+        <v>-2987800</v>
       </c>
       <c r="J100" s="3">
-        <v>-6226000</v>
+        <v>-6226700</v>
       </c>
       <c r="K100" s="3">
         <v>-1065000</v>
@@ -3961,13 +3961,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>67400</v>
+        <v>67500</v>
       </c>
       <c r="E101" s="3">
         <v>-423400</v>
       </c>
       <c r="F101" s="3">
-        <v>-232400</v>
+        <v>-232500</v>
       </c>
       <c r="G101" s="3">
         <v>-133900</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1571000</v>
+        <v>1571200</v>
       </c>
       <c r="E102" s="3">
-        <v>1129000</v>
+        <v>1129100</v>
       </c>
       <c r="F102" s="3">
-        <v>1818000</v>
+        <v>1818200</v>
       </c>
       <c r="G102" s="3">
-        <v>-1753700</v>
+        <v>-1753800</v>
       </c>
       <c r="H102" s="3">
-        <v>-871600</v>
+        <v>-871700</v>
       </c>
       <c r="I102" s="3">
-        <v>1061500</v>
+        <v>1061600</v>
       </c>
       <c r="J102" s="3">
-        <v>1898900</v>
+        <v>1899100</v>
       </c>
       <c r="K102" s="3">
         <v>-55300</v>

--- a/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>HCMLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,191 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27847800</v>
+        <v>31298500</v>
       </c>
       <c r="E8" s="3">
-        <v>24016300</v>
+        <v>28773300</v>
       </c>
       <c r="F8" s="3">
-        <v>27731600</v>
+        <v>24814500</v>
       </c>
       <c r="G8" s="3">
-        <v>28503700</v>
+        <v>28653200</v>
       </c>
       <c r="H8" s="3">
-        <v>28041900</v>
+        <v>29451000</v>
       </c>
       <c r="I8" s="3">
-        <v>27920400</v>
+        <v>28973800</v>
       </c>
       <c r="J8" s="3">
+        <v>28848400</v>
+      </c>
+      <c r="K8" s="3">
         <v>24475000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20395400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21810600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21715900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21480800</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15876000</v>
+        <v>18845100</v>
       </c>
       <c r="E9" s="3">
-        <v>13961300</v>
+        <v>16403600</v>
       </c>
       <c r="F9" s="3">
-        <v>16024400</v>
+        <v>14425200</v>
       </c>
       <c r="G9" s="3">
-        <v>16409400</v>
+        <v>16556900</v>
       </c>
       <c r="H9" s="3">
-        <v>38824400</v>
+        <v>16954700</v>
       </c>
       <c r="I9" s="3">
-        <v>32445200</v>
+        <v>40114700</v>
       </c>
       <c r="J9" s="3">
+        <v>33523400</v>
+      </c>
+      <c r="K9" s="3">
         <v>17113000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22760500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12263000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17829400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12649900</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11971800</v>
+        <v>12453300</v>
       </c>
       <c r="E10" s="3">
-        <v>10055100</v>
+        <v>12369700</v>
       </c>
       <c r="F10" s="3">
-        <v>11707200</v>
+        <v>10389200</v>
       </c>
       <c r="G10" s="3">
-        <v>12094300</v>
+        <v>12096300</v>
       </c>
       <c r="H10" s="3">
-        <v>-10782500</v>
+        <v>12496200</v>
       </c>
       <c r="I10" s="3">
-        <v>-4524700</v>
+        <v>-11140900</v>
       </c>
       <c r="J10" s="3">
+        <v>-4675100</v>
+      </c>
+      <c r="K10" s="3">
         <v>7362000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-2365100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9547600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3886500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8830900</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,56 +946,62 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>206500</v>
+        <v>-1899000</v>
       </c>
       <c r="E14" s="3">
-        <v>36300</v>
+        <v>213400</v>
       </c>
       <c r="F14" s="3">
-        <v>-238700</v>
+        <v>37500</v>
       </c>
       <c r="G14" s="3">
-        <v>590500</v>
+        <v>-246600</v>
       </c>
       <c r="H14" s="3">
-        <v>-106900</v>
+        <v>610100</v>
       </c>
       <c r="I14" s="3">
-        <v>-723300</v>
+        <v>-110400</v>
       </c>
       <c r="J14" s="3">
+        <v>-747400</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1104200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-190700</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>4100</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>428600</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+        <v>504000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>442800</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -996,21 +1018,24 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
         <v>266500</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
         <v>316900</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23487000</v>
+        <v>25945700</v>
       </c>
       <c r="E17" s="3">
-        <v>20554300</v>
+        <v>24267600</v>
       </c>
       <c r="F17" s="3">
-        <v>23515100</v>
+        <v>21237400</v>
       </c>
       <c r="G17" s="3">
-        <v>25165100</v>
+        <v>24296600</v>
       </c>
       <c r="H17" s="3">
-        <v>28411300</v>
+        <v>26001500</v>
       </c>
       <c r="I17" s="3">
-        <v>24122200</v>
+        <v>29355500</v>
       </c>
       <c r="J17" s="3">
+        <v>24923800</v>
+      </c>
+      <c r="K17" s="3">
         <v>24137700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17774600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19203600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19920900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19483300</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4360800</v>
+        <v>5352800</v>
       </c>
       <c r="E18" s="3">
-        <v>3462000</v>
+        <v>4505700</v>
       </c>
       <c r="F18" s="3">
-        <v>4216500</v>
+        <v>3577100</v>
       </c>
       <c r="G18" s="3">
-        <v>3338500</v>
+        <v>4356600</v>
       </c>
       <c r="H18" s="3">
-        <v>-369400</v>
+        <v>3449500</v>
       </c>
       <c r="I18" s="3">
-        <v>3798300</v>
+        <v>-381700</v>
       </c>
       <c r="J18" s="3">
+        <v>3924500</v>
+      </c>
+      <c r="K18" s="3">
         <v>337300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2620800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2607000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1794900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1997500</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,203 +1150,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-160900</v>
+        <v>13900</v>
       </c>
       <c r="E20" s="3">
-        <v>-176400</v>
+        <v>-166200</v>
       </c>
       <c r="F20" s="3">
-        <v>-139100</v>
+        <v>-182300</v>
       </c>
       <c r="G20" s="3">
-        <v>-126600</v>
+        <v>-143700</v>
       </c>
       <c r="H20" s="3">
-        <v>-88200</v>
+        <v>-130800</v>
       </c>
       <c r="I20" s="3">
-        <v>87200</v>
+        <v>-91100</v>
       </c>
       <c r="J20" s="3">
+        <v>90100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-189900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>286000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>386000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>447500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-189500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6557600</v>
+        <v>7659600</v>
       </c>
       <c r="E21" s="3">
-        <v>5623000</v>
+        <v>6803400</v>
       </c>
       <c r="F21" s="3">
-        <v>6597800</v>
+        <v>5837500</v>
       </c>
       <c r="G21" s="3">
-        <v>5491400</v>
+        <v>6846800</v>
       </c>
       <c r="H21" s="3">
-        <v>5840100</v>
+        <v>5700800</v>
       </c>
       <c r="I21" s="3">
-        <v>6272600</v>
+        <v>6108500</v>
       </c>
       <c r="J21" s="3">
+        <v>6509300</v>
+      </c>
+      <c r="K21" s="3">
         <v>4640300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4424300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4690400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4441300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3907300</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>418200</v>
+        <v>482500</v>
       </c>
       <c r="E22" s="3">
-        <v>463900</v>
+        <v>432100</v>
       </c>
       <c r="F22" s="3">
-        <v>633000</v>
+        <v>479300</v>
       </c>
       <c r="G22" s="3">
-        <v>747200</v>
+        <v>654100</v>
       </c>
       <c r="H22" s="3">
-        <v>766900</v>
+        <v>772000</v>
       </c>
       <c r="I22" s="3">
-        <v>894600</v>
+        <v>792400</v>
       </c>
       <c r="J22" s="3">
+        <v>924300</v>
+      </c>
+      <c r="K22" s="3">
         <v>857200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>522200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>639300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>649600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>636800</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3781700</v>
+        <v>4884200</v>
       </c>
       <c r="E23" s="3">
-        <v>2821700</v>
+        <v>3907400</v>
       </c>
       <c r="F23" s="3">
-        <v>3444400</v>
+        <v>2915500</v>
       </c>
       <c r="G23" s="3">
-        <v>2464700</v>
+        <v>3558900</v>
       </c>
       <c r="H23" s="3">
-        <v>-1224600</v>
+        <v>2546600</v>
       </c>
       <c r="I23" s="3">
-        <v>2990900</v>
+        <v>-1265300</v>
       </c>
       <c r="J23" s="3">
+        <v>3090300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-709800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2384600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2353700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1592800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1171200</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>999400</v>
+        <v>1101200</v>
       </c>
       <c r="E24" s="3">
-        <v>744100</v>
+        <v>1032600</v>
       </c>
       <c r="F24" s="3">
-        <v>836500</v>
+        <v>768800</v>
       </c>
       <c r="G24" s="3">
-        <v>680800</v>
+        <v>864200</v>
       </c>
       <c r="H24" s="3">
-        <v>556300</v>
+        <v>703400</v>
       </c>
       <c r="I24" s="3">
-        <v>866500</v>
+        <v>574700</v>
       </c>
       <c r="J24" s="3">
+        <v>895300</v>
+      </c>
+      <c r="K24" s="3">
         <v>810500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>629500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>588400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>564400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>464900</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2782300</v>
+        <v>3783000</v>
       </c>
       <c r="E26" s="3">
-        <v>2077600</v>
+        <v>2874800</v>
       </c>
       <c r="F26" s="3">
-        <v>2607900</v>
+        <v>2146700</v>
       </c>
       <c r="G26" s="3">
-        <v>1783900</v>
+        <v>2694600</v>
       </c>
       <c r="H26" s="3">
-        <v>-1780800</v>
+        <v>1843200</v>
       </c>
       <c r="I26" s="3">
-        <v>2124300</v>
+        <v>-1840000</v>
       </c>
       <c r="J26" s="3">
+        <v>2194900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1520300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1755100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1765300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1028300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>706200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2366100</v>
+        <v>3528800</v>
       </c>
       <c r="E27" s="3">
-        <v>1742400</v>
+        <v>2444800</v>
       </c>
       <c r="F27" s="3">
-        <v>2316300</v>
+        <v>1800300</v>
       </c>
       <c r="G27" s="3">
-        <v>1558700</v>
+        <v>2393300</v>
       </c>
       <c r="H27" s="3">
-        <v>-1738300</v>
+        <v>1610500</v>
       </c>
       <c r="I27" s="3">
-        <v>1814000</v>
+        <v>-1796100</v>
       </c>
       <c r="J27" s="3">
+        <v>1874300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1631400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1393300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1406900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>626000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>284800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,9 +1525,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1486,20 +1546,20 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>44600</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K29" s="3">
         <v>106900</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1507,9 +1567,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>160900</v>
+        <v>-13900</v>
       </c>
       <c r="E32" s="3">
-        <v>176400</v>
+        <v>166200</v>
       </c>
       <c r="F32" s="3">
-        <v>139100</v>
+        <v>182300</v>
       </c>
       <c r="G32" s="3">
-        <v>126600</v>
+        <v>143700</v>
       </c>
       <c r="H32" s="3">
-        <v>88200</v>
+        <v>130800</v>
       </c>
       <c r="I32" s="3">
-        <v>-87200</v>
+        <v>91100</v>
       </c>
       <c r="J32" s="3">
+        <v>-90100</v>
+      </c>
+      <c r="K32" s="3">
         <v>189900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-286000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-386000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-447500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>189500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2366100</v>
+        <v>3528800</v>
       </c>
       <c r="E33" s="3">
-        <v>1742400</v>
+        <v>2444800</v>
       </c>
       <c r="F33" s="3">
-        <v>2316300</v>
+        <v>1800300</v>
       </c>
       <c r="G33" s="3">
-        <v>1558700</v>
+        <v>2393300</v>
       </c>
       <c r="H33" s="3">
-        <v>-1738300</v>
+        <v>1610500</v>
       </c>
       <c r="I33" s="3">
-        <v>1858700</v>
+        <v>-1796100</v>
       </c>
       <c r="J33" s="3">
+        <v>1920400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1524500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1393300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1406900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>626000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>284800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2366100</v>
+        <v>3528800</v>
       </c>
       <c r="E35" s="3">
-        <v>1742400</v>
+        <v>2444800</v>
       </c>
       <c r="F35" s="3">
-        <v>2316300</v>
+        <v>1800300</v>
       </c>
       <c r="G35" s="3">
-        <v>1558700</v>
+        <v>2393300</v>
       </c>
       <c r="H35" s="3">
-        <v>-1738300</v>
+        <v>1610500</v>
       </c>
       <c r="I35" s="3">
-        <v>1858700</v>
+        <v>-1796100</v>
       </c>
       <c r="J35" s="3">
+        <v>1920400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1524500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1393300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1406900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>626000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>284800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,359 +1905,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2297600</v>
+        <v>3410900</v>
       </c>
       <c r="E41" s="3">
-        <v>1883600</v>
+        <v>2374000</v>
       </c>
       <c r="F41" s="3">
-        <v>2402500</v>
+        <v>1946200</v>
       </c>
       <c r="G41" s="3">
-        <v>1584700</v>
+        <v>2482300</v>
       </c>
       <c r="H41" s="3">
-        <v>2541500</v>
+        <v>1637400</v>
       </c>
       <c r="I41" s="3">
-        <v>8405000</v>
+        <v>2626000</v>
       </c>
       <c r="J41" s="3">
+        <v>8684300</v>
+      </c>
+      <c r="K41" s="3">
         <v>3315700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3178800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>680200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1814400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>773500</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4643000</v>
+        <v>7129500</v>
       </c>
       <c r="E42" s="3">
-        <v>3506700</v>
+        <v>4797300</v>
       </c>
       <c r="F42" s="3">
-        <v>1906400</v>
+        <v>3623200</v>
       </c>
       <c r="G42" s="3">
-        <v>1028400</v>
+        <v>1969800</v>
       </c>
       <c r="H42" s="3">
-        <v>1835800</v>
+        <v>1062600</v>
       </c>
       <c r="I42" s="3">
-        <v>1813000</v>
+        <v>1896800</v>
       </c>
       <c r="J42" s="3">
+        <v>1873300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1243300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1475600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1801800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2299900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2281300</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3782700</v>
+        <v>3616800</v>
       </c>
       <c r="E43" s="3">
-        <v>3228500</v>
+        <v>3908400</v>
       </c>
       <c r="F43" s="3">
-        <v>3853300</v>
+        <v>3334800</v>
       </c>
       <c r="G43" s="3">
-        <v>4268400</v>
+        <v>3981300</v>
       </c>
       <c r="H43" s="3">
-        <v>4481100</v>
+        <v>4409200</v>
       </c>
       <c r="I43" s="3">
-        <v>7226100</v>
+        <v>4631100</v>
       </c>
       <c r="J43" s="3">
+        <v>7467300</v>
+      </c>
+      <c r="K43" s="3">
         <v>4381500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5737800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2876900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8557000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2904600</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2706500</v>
+        <v>3066700</v>
       </c>
       <c r="E44" s="3">
-        <v>2057900</v>
+        <v>2796500</v>
       </c>
       <c r="F44" s="3">
-        <v>2588200</v>
+        <v>2126300</v>
       </c>
       <c r="G44" s="3">
-        <v>3197400</v>
+        <v>2674200</v>
       </c>
       <c r="H44" s="3">
-        <v>2978400</v>
+        <v>3303700</v>
       </c>
       <c r="I44" s="3">
-        <v>5489900</v>
+        <v>3077400</v>
       </c>
       <c r="J44" s="3">
+        <v>5672300</v>
+      </c>
+      <c r="K44" s="3">
         <v>3175600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4000000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1884700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6236600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2160100</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>783500</v>
+        <v>773100</v>
       </c>
       <c r="E45" s="3">
-        <v>620600</v>
+        <v>809600</v>
       </c>
       <c r="F45" s="3">
-        <v>1920900</v>
+        <v>642300</v>
       </c>
       <c r="G45" s="3">
-        <v>2019500</v>
+        <v>1984800</v>
       </c>
       <c r="H45" s="3">
-        <v>1257800</v>
+        <v>2087700</v>
       </c>
       <c r="I45" s="3">
-        <v>5269800</v>
+        <v>1298500</v>
       </c>
       <c r="J45" s="3">
+        <v>5443900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1718600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1007600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1151400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3166000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>324100</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14213400</v>
+        <v>17997000</v>
       </c>
       <c r="E46" s="3">
-        <v>11297300</v>
+        <v>14685800</v>
       </c>
       <c r="F46" s="3">
-        <v>12671300</v>
+        <v>11672700</v>
       </c>
       <c r="G46" s="3">
-        <v>12098400</v>
+        <v>13092400</v>
       </c>
       <c r="H46" s="3">
-        <v>13094700</v>
+        <v>12500500</v>
       </c>
       <c r="I46" s="3">
-        <v>14980400</v>
+        <v>13529900</v>
       </c>
       <c r="J46" s="3">
+        <v>15478200</v>
+      </c>
+      <c r="K46" s="3">
         <v>13834600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7834200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8395100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8492400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8443600</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4310900</v>
+        <v>3890200</v>
       </c>
       <c r="E47" s="3">
-        <v>3918700</v>
+        <v>4454200</v>
       </c>
       <c r="F47" s="3">
-        <v>3959100</v>
+        <v>4048900</v>
       </c>
       <c r="G47" s="3">
-        <v>3780600</v>
+        <v>4090700</v>
       </c>
       <c r="H47" s="3">
-        <v>3774400</v>
+        <v>3906300</v>
       </c>
       <c r="I47" s="3">
-        <v>5534500</v>
+        <v>3899800</v>
       </c>
       <c r="J47" s="3">
+        <v>5718400</v>
+      </c>
+      <c r="K47" s="3">
         <v>4038000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2657600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2310600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4013700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2152800</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25364400</v>
+        <v>21827100</v>
       </c>
       <c r="E48" s="3">
-        <v>25135000</v>
+        <v>26207400</v>
       </c>
       <c r="F48" s="3">
-        <v>28216200</v>
+        <v>25970400</v>
       </c>
       <c r="G48" s="3">
-        <v>28943700</v>
+        <v>29153900</v>
       </c>
       <c r="H48" s="3">
-        <v>31291100</v>
+        <v>29905600</v>
       </c>
       <c r="I48" s="3">
-        <v>66525800</v>
+        <v>32331100</v>
       </c>
       <c r="J48" s="3">
+        <v>68736800</v>
+      </c>
+      <c r="K48" s="3">
         <v>38135300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>46716000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22153500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25485400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23747600</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15981800</v>
+        <v>16560100</v>
       </c>
       <c r="E49" s="3">
-        <v>13435100</v>
+        <v>16513000</v>
       </c>
       <c r="F49" s="3">
-        <v>14199900</v>
+        <v>13881600</v>
       </c>
       <c r="G49" s="3">
-        <v>15416200</v>
+        <v>14671900</v>
       </c>
       <c r="H49" s="3">
-        <v>16184200</v>
+        <v>15928600</v>
       </c>
       <c r="I49" s="3">
-        <v>35832500</v>
+        <v>16722100</v>
       </c>
       <c r="J49" s="3">
+        <v>37023300</v>
+      </c>
+      <c r="K49" s="3">
         <v>18582500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16752900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8280000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>25165200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8753300</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2276900</v>
+        <v>1491500</v>
       </c>
       <c r="E52" s="3">
-        <v>1448700</v>
+        <v>2352600</v>
       </c>
       <c r="F52" s="3">
-        <v>1466400</v>
+        <v>1496900</v>
       </c>
       <c r="G52" s="3">
-        <v>1711300</v>
+        <v>1515100</v>
       </c>
       <c r="H52" s="3">
-        <v>1740400</v>
+        <v>1768200</v>
       </c>
       <c r="I52" s="3">
-        <v>2670200</v>
+        <v>1798200</v>
       </c>
       <c r="J52" s="3">
+        <v>2759000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1476800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1071500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>829600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2361400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>968200</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>62147500</v>
+        <v>61766000</v>
       </c>
       <c r="E54" s="3">
-        <v>55234800</v>
+        <v>64212900</v>
       </c>
       <c r="F54" s="3">
-        <v>60513000</v>
+        <v>57070500</v>
       </c>
       <c r="G54" s="3">
-        <v>61950300</v>
+        <v>62524100</v>
       </c>
       <c r="H54" s="3">
-        <v>66084800</v>
+        <v>64009200</v>
       </c>
       <c r="I54" s="3">
-        <v>72247100</v>
+        <v>68281100</v>
       </c>
       <c r="J54" s="3">
+        <v>74648200</v>
+      </c>
+      <c r="K54" s="3">
         <v>76067200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42784300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41968700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42280300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44065500</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,242 +2529,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4212300</v>
+        <v>4577500</v>
       </c>
       <c r="E57" s="3">
-        <v>3477600</v>
+        <v>4352300</v>
       </c>
       <c r="F57" s="3">
-        <v>3668600</v>
+        <v>3593200</v>
       </c>
       <c r="G57" s="3">
-        <v>3912400</v>
+        <v>3790500</v>
       </c>
       <c r="H57" s="3">
-        <v>3855400</v>
+        <v>4042500</v>
       </c>
       <c r="I57" s="3">
-        <v>3431900</v>
+        <v>3983500</v>
       </c>
       <c r="J57" s="3">
+        <v>3546000</v>
+      </c>
+      <c r="K57" s="3">
         <v>3832500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2301200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2139100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2202400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2481100</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2449200</v>
+        <v>1739200</v>
       </c>
       <c r="E58" s="3">
-        <v>2125400</v>
+        <v>2530600</v>
       </c>
       <c r="F58" s="3">
-        <v>2060000</v>
+        <v>2196000</v>
       </c>
       <c r="G58" s="3">
-        <v>3088400</v>
+        <v>2128500</v>
       </c>
       <c r="H58" s="3">
-        <v>3875100</v>
+        <v>3191100</v>
       </c>
       <c r="I58" s="3">
-        <v>12385900</v>
+        <v>4003900</v>
       </c>
       <c r="J58" s="3">
+        <v>12797500</v>
+      </c>
+      <c r="K58" s="3">
         <v>7080800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5380300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3355800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5770700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2912900</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3451700</v>
+        <v>3180400</v>
       </c>
       <c r="E59" s="3">
-        <v>2884000</v>
+        <v>3566400</v>
       </c>
       <c r="F59" s="3">
-        <v>3760900</v>
+        <v>2979800</v>
       </c>
       <c r="G59" s="3">
-        <v>4131400</v>
+        <v>3885900</v>
       </c>
       <c r="H59" s="3">
-        <v>4223800</v>
+        <v>4268700</v>
       </c>
       <c r="I59" s="3">
-        <v>4416800</v>
+        <v>4364100</v>
       </c>
       <c r="J59" s="3">
+        <v>4563600</v>
+      </c>
+      <c r="K59" s="3">
         <v>4479100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2623000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2757400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5404300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2574300</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10113200</v>
+        <v>9497100</v>
       </c>
       <c r="E60" s="3">
-        <v>8487000</v>
+        <v>10449300</v>
       </c>
       <c r="F60" s="3">
-        <v>9489500</v>
+        <v>8769000</v>
       </c>
       <c r="G60" s="3">
-        <v>11132300</v>
+        <v>9804800</v>
       </c>
       <c r="H60" s="3">
-        <v>11954200</v>
+        <v>11502200</v>
       </c>
       <c r="I60" s="3">
-        <v>12981600</v>
+        <v>12351500</v>
       </c>
       <c r="J60" s="3">
+        <v>13413000</v>
+      </c>
+      <c r="K60" s="3">
         <v>15392400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7418200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8252400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8517000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7968300</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14790400</v>
+        <v>14248300</v>
       </c>
       <c r="E61" s="3">
-        <v>12149300</v>
+        <v>15282000</v>
       </c>
       <c r="F61" s="3">
-        <v>12643300</v>
+        <v>12553100</v>
       </c>
       <c r="G61" s="3">
-        <v>13503600</v>
+        <v>13063500</v>
       </c>
       <c r="H61" s="3">
-        <v>15323900</v>
+        <v>13952400</v>
       </c>
       <c r="I61" s="3">
-        <v>15219000</v>
+        <v>15833100</v>
       </c>
       <c r="J61" s="3">
+        <v>15724800</v>
+      </c>
+      <c r="K61" s="3">
         <v>15420400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9964200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9716800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10110800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11932300</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5619600</v>
+        <v>6266300</v>
       </c>
       <c r="E62" s="3">
-        <v>4892100</v>
+        <v>5806300</v>
       </c>
       <c r="F62" s="3">
-        <v>5691200</v>
+        <v>5054700</v>
       </c>
       <c r="G62" s="3">
-        <v>6126000</v>
+        <v>5880300</v>
       </c>
       <c r="H62" s="3">
-        <v>6661500</v>
+        <v>6329600</v>
       </c>
       <c r="I62" s="3">
-        <v>10219000</v>
+        <v>6882900</v>
       </c>
       <c r="J62" s="3">
+        <v>10558600</v>
+      </c>
+      <c r="K62" s="3">
         <v>8182900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4782200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3342500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7285500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3809700</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33416500</v>
+        <v>31019700</v>
       </c>
       <c r="E66" s="3">
-        <v>28177800</v>
+        <v>34527100</v>
       </c>
       <c r="F66" s="3">
-        <v>30867700</v>
+        <v>29114300</v>
       </c>
       <c r="G66" s="3">
-        <v>34008100</v>
+        <v>31893600</v>
       </c>
       <c r="H66" s="3">
-        <v>37248000</v>
+        <v>35138300</v>
       </c>
       <c r="I66" s="3">
-        <v>40260700</v>
+        <v>38485900</v>
       </c>
       <c r="J66" s="3">
+        <v>41598700</v>
+      </c>
+      <c r="K66" s="3">
         <v>43517200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23900200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24044900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25411500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26637700</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24786300</v>
+        <v>29314800</v>
       </c>
       <c r="E72" s="3">
-        <v>21680300</v>
+        <v>25610100</v>
       </c>
       <c r="F72" s="3">
-        <v>19895300</v>
+        <v>22400800</v>
       </c>
       <c r="G72" s="3">
-        <v>17834200</v>
+        <v>20556500</v>
       </c>
       <c r="H72" s="3">
-        <v>15959000</v>
+        <v>18427000</v>
       </c>
       <c r="I72" s="3">
-        <v>17171100</v>
+        <v>16489400</v>
       </c>
       <c r="J72" s="3">
+        <v>17741800</v>
+      </c>
+      <c r="K72" s="3">
         <v>15554200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>29815700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19128400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16222200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16345700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28730900</v>
+        <v>30746300</v>
       </c>
       <c r="E76" s="3">
-        <v>27057000</v>
+        <v>29685800</v>
       </c>
       <c r="F76" s="3">
-        <v>29645200</v>
+        <v>27956200</v>
       </c>
       <c r="G76" s="3">
-        <v>27942200</v>
+        <v>30630500</v>
       </c>
       <c r="H76" s="3">
-        <v>28836800</v>
+        <v>28870900</v>
       </c>
       <c r="I76" s="3">
-        <v>31986500</v>
+        <v>29795200</v>
       </c>
       <c r="J76" s="3">
+        <v>33049500</v>
+      </c>
+      <c r="K76" s="3">
         <v>32550000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18884000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17923900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16868800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17427800</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2366100</v>
+        <v>3528800</v>
       </c>
       <c r="E81" s="3">
-        <v>1742400</v>
+        <v>2444800</v>
       </c>
       <c r="F81" s="3">
-        <v>2316300</v>
+        <v>1800300</v>
       </c>
       <c r="G81" s="3">
-        <v>1558700</v>
+        <v>2393300</v>
       </c>
       <c r="H81" s="3">
-        <v>-1738300</v>
+        <v>1610500</v>
       </c>
       <c r="I81" s="3">
-        <v>1858700</v>
+        <v>-1796100</v>
       </c>
       <c r="J81" s="3">
+        <v>1920400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1524500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1393300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1406900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>626000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>284800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2407600</v>
+        <v>2315000</v>
       </c>
       <c r="E83" s="3">
-        <v>2386900</v>
+        <v>2487700</v>
       </c>
       <c r="F83" s="3">
-        <v>2573700</v>
+        <v>2466200</v>
       </c>
       <c r="G83" s="3">
-        <v>2327700</v>
+        <v>2659200</v>
       </c>
       <c r="H83" s="3">
-        <v>6431100</v>
+        <v>2405100</v>
       </c>
       <c r="I83" s="3">
-        <v>2437700</v>
+        <v>6644900</v>
       </c>
       <c r="J83" s="3">
+        <v>2518800</v>
+      </c>
+      <c r="K83" s="3">
         <v>4588000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1519000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1701100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2196200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2096900</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5235600</v>
+        <v>4891700</v>
       </c>
       <c r="E89" s="3">
-        <v>4792500</v>
+        <v>5409600</v>
       </c>
       <c r="F89" s="3">
-        <v>5007300</v>
+        <v>4951700</v>
       </c>
       <c r="G89" s="3">
-        <v>3100900</v>
+        <v>5173700</v>
       </c>
       <c r="H89" s="3">
-        <v>3154900</v>
+        <v>3203900</v>
       </c>
       <c r="I89" s="3">
-        <v>3419500</v>
+        <v>3259700</v>
       </c>
       <c r="J89" s="3">
+        <v>3533100</v>
+      </c>
+      <c r="K89" s="3">
         <v>2558100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2691200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3082600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2712400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2850800</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1589900</v>
+        <v>-1660900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1156100</v>
+        <v>-1642700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1592000</v>
+        <v>-1194500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1464300</v>
+        <v>-1644900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1579500</v>
+        <v>-1513000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1840000</v>
+        <v>-1632000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1901100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2185600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2107300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2438900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3541700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1839100</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4887900</v>
+        <v>2231400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1277500</v>
+        <v>-5050400</v>
       </c>
       <c r="F94" s="3">
-        <v>-227300</v>
+        <v>-1320000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1438400</v>
+        <v>-234800</v>
       </c>
       <c r="H94" s="3">
-        <v>-700500</v>
+        <v>-1486200</v>
       </c>
       <c r="I94" s="3">
-        <v>732700</v>
+        <v>-723800</v>
       </c>
       <c r="J94" s="3">
+        <v>757000</v>
+      </c>
+      <c r="K94" s="3">
         <v>5431700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1844000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1841600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1228400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1854600</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,47 +3992,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1268200</v>
+        <v>-1426100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1270200</v>
+        <v>-1310300</v>
       </c>
       <c r="F96" s="3">
-        <v>-334200</v>
+        <v>-1312500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1237000</v>
+        <v>-345300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1257800</v>
+        <v>-1278100</v>
       </c>
       <c r="I96" s="3">
-        <v>-943300</v>
+        <v>-1299600</v>
       </c>
       <c r="J96" s="3">
+        <v>-974700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-440000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-459400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-413700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-558300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-497000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,124 +4157,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1156100</v>
+        <v>-3487000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1962400</v>
+        <v>1194500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2729400</v>
+        <v>-2027700</v>
       </c>
       <c r="G100" s="3">
-        <v>-3282500</v>
+        <v>-2820100</v>
       </c>
       <c r="H100" s="3">
-        <v>-3199500</v>
+        <v>-3391600</v>
       </c>
       <c r="I100" s="3">
-        <v>-2987800</v>
+        <v>-3305800</v>
       </c>
       <c r="J100" s="3">
+        <v>-3087100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6226700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1065000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1797400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1156600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1414500</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>67500</v>
+        <v>-265900</v>
       </c>
       <c r="E101" s="3">
-        <v>-423400</v>
+        <v>69700</v>
       </c>
       <c r="F101" s="3">
-        <v>-232500</v>
+        <v>-437500</v>
       </c>
       <c r="G101" s="3">
-        <v>-133900</v>
+        <v>-240200</v>
       </c>
       <c r="H101" s="3">
-        <v>-126600</v>
+        <v>-138300</v>
       </c>
       <c r="I101" s="3">
-        <v>-102700</v>
+        <v>-130800</v>
       </c>
       <c r="J101" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="K101" s="3">
         <v>135900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>162500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-237800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-80000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-174000</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1571200</v>
+        <v>3370100</v>
       </c>
       <c r="E102" s="3">
-        <v>1129100</v>
+        <v>1623400</v>
       </c>
       <c r="F102" s="3">
-        <v>1818200</v>
+        <v>1166600</v>
       </c>
       <c r="G102" s="3">
-        <v>-1753800</v>
+        <v>1878600</v>
       </c>
       <c r="H102" s="3">
-        <v>-871700</v>
+        <v>-1812100</v>
       </c>
       <c r="I102" s="3">
-        <v>1061600</v>
+        <v>-900700</v>
       </c>
       <c r="J102" s="3">
+        <v>1096900</v>
+      </c>
+      <c r="K102" s="3">
         <v>1899100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-55300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-794200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>247300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-592300</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>31298500</v>
+        <v>32238700</v>
       </c>
       <c r="E8" s="3">
-        <v>28773300</v>
+        <v>29637600</v>
       </c>
       <c r="F8" s="3">
-        <v>24814500</v>
+        <v>25559900</v>
       </c>
       <c r="G8" s="3">
-        <v>28653200</v>
+        <v>29513900</v>
       </c>
       <c r="H8" s="3">
-        <v>29451000</v>
+        <v>30335600</v>
       </c>
       <c r="I8" s="3">
-        <v>28973800</v>
+        <v>29844200</v>
       </c>
       <c r="J8" s="3">
-        <v>28848400</v>
+        <v>29714900</v>
       </c>
       <c r="K8" s="3">
         <v>24475000</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18845100</v>
+        <v>19411200</v>
       </c>
       <c r="E9" s="3">
-        <v>16403600</v>
+        <v>16896300</v>
       </c>
       <c r="F9" s="3">
-        <v>14425200</v>
+        <v>14858600</v>
       </c>
       <c r="G9" s="3">
-        <v>16556900</v>
+        <v>17054300</v>
       </c>
       <c r="H9" s="3">
-        <v>16954700</v>
+        <v>17464000</v>
       </c>
       <c r="I9" s="3">
-        <v>40114700</v>
+        <v>41319700</v>
       </c>
       <c r="J9" s="3">
-        <v>33523400</v>
+        <v>34530500</v>
       </c>
       <c r="K9" s="3">
         <v>17113000</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12453300</v>
+        <v>12827400</v>
       </c>
       <c r="E10" s="3">
-        <v>12369700</v>
+        <v>12741300</v>
       </c>
       <c r="F10" s="3">
-        <v>10389200</v>
+        <v>10701300</v>
       </c>
       <c r="G10" s="3">
-        <v>12096300</v>
+        <v>12459600</v>
       </c>
       <c r="H10" s="3">
-        <v>12496200</v>
+        <v>12871600</v>
       </c>
       <c r="I10" s="3">
-        <v>-11140900</v>
+        <v>-11475500</v>
       </c>
       <c r="J10" s="3">
-        <v>-4675100</v>
+        <v>-4815500</v>
       </c>
       <c r="K10" s="3">
         <v>7362000</v>
@@ -956,25 +956,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-1899000</v>
+        <v>-1956000</v>
       </c>
       <c r="E14" s="3">
-        <v>213400</v>
+        <v>219800</v>
       </c>
       <c r="F14" s="3">
-        <v>37500</v>
+        <v>38700</v>
       </c>
       <c r="G14" s="3">
-        <v>-246600</v>
+        <v>-254000</v>
       </c>
       <c r="H14" s="3">
-        <v>610100</v>
+        <v>628400</v>
       </c>
       <c r="I14" s="3">
-        <v>-110400</v>
+        <v>-113800</v>
       </c>
       <c r="J14" s="3">
-        <v>-747400</v>
+        <v>-769800</v>
       </c>
       <c r="K14" s="3">
         <v>-1104200</v>
@@ -998,10 +998,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>504000</v>
+        <v>519100</v>
       </c>
       <c r="E15" s="3">
-        <v>442800</v>
+        <v>456200</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25945700</v>
+        <v>26725100</v>
       </c>
       <c r="E17" s="3">
-        <v>24267600</v>
+        <v>24996600</v>
       </c>
       <c r="F17" s="3">
-        <v>21237400</v>
+        <v>21875300</v>
       </c>
       <c r="G17" s="3">
-        <v>24296600</v>
+        <v>25026400</v>
       </c>
       <c r="H17" s="3">
-        <v>26001500</v>
+        <v>26782500</v>
       </c>
       <c r="I17" s="3">
-        <v>29355500</v>
+        <v>30237300</v>
       </c>
       <c r="J17" s="3">
-        <v>24923800</v>
+        <v>25672500</v>
       </c>
       <c r="K17" s="3">
         <v>24137700</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5352800</v>
+        <v>5513600</v>
       </c>
       <c r="E18" s="3">
-        <v>4505700</v>
+        <v>4641000</v>
       </c>
       <c r="F18" s="3">
-        <v>3577100</v>
+        <v>3684500</v>
       </c>
       <c r="G18" s="3">
-        <v>4356600</v>
+        <v>4487500</v>
       </c>
       <c r="H18" s="3">
-        <v>3449500</v>
+        <v>3553100</v>
       </c>
       <c r="I18" s="3">
-        <v>-381700</v>
+        <v>-393200</v>
       </c>
       <c r="J18" s="3">
-        <v>3924500</v>
+        <v>4042400</v>
       </c>
       <c r="K18" s="3">
         <v>337300</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="E20" s="3">
-        <v>-166200</v>
+        <v>-171200</v>
       </c>
       <c r="F20" s="3">
-        <v>-182300</v>
+        <v>-187800</v>
       </c>
       <c r="G20" s="3">
-        <v>-143700</v>
+        <v>-148000</v>
       </c>
       <c r="H20" s="3">
-        <v>-130800</v>
+        <v>-134700</v>
       </c>
       <c r="I20" s="3">
-        <v>-91100</v>
+        <v>-93900</v>
       </c>
       <c r="J20" s="3">
-        <v>90100</v>
+        <v>92800</v>
       </c>
       <c r="K20" s="3">
         <v>-189900</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7659600</v>
+        <v>7930300</v>
       </c>
       <c r="E21" s="3">
-        <v>6803400</v>
+        <v>7051300</v>
       </c>
       <c r="F21" s="3">
-        <v>5837500</v>
+        <v>6056000</v>
       </c>
       <c r="G21" s="3">
-        <v>6846800</v>
+        <v>7099000</v>
       </c>
       <c r="H21" s="3">
-        <v>5700800</v>
+        <v>5914200</v>
       </c>
       <c r="I21" s="3">
-        <v>6108500</v>
+        <v>6408500</v>
       </c>
       <c r="J21" s="3">
-        <v>6509300</v>
+        <v>6749000</v>
       </c>
       <c r="K21" s="3">
         <v>4640300</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>482500</v>
+        <v>497000</v>
       </c>
       <c r="E22" s="3">
-        <v>432100</v>
+        <v>445100</v>
       </c>
       <c r="F22" s="3">
-        <v>479300</v>
+        <v>493700</v>
       </c>
       <c r="G22" s="3">
-        <v>654100</v>
+        <v>673700</v>
       </c>
       <c r="H22" s="3">
-        <v>772000</v>
+        <v>795200</v>
       </c>
       <c r="I22" s="3">
-        <v>792400</v>
+        <v>816200</v>
       </c>
       <c r="J22" s="3">
-        <v>924300</v>
+        <v>952100</v>
       </c>
       <c r="K22" s="3">
         <v>857200</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4884200</v>
+        <v>5030900</v>
       </c>
       <c r="E23" s="3">
-        <v>3907400</v>
+        <v>4024700</v>
       </c>
       <c r="F23" s="3">
-        <v>2915500</v>
+        <v>3003100</v>
       </c>
       <c r="G23" s="3">
-        <v>3558900</v>
+        <v>3665800</v>
       </c>
       <c r="H23" s="3">
-        <v>2546600</v>
+        <v>2623100</v>
       </c>
       <c r="I23" s="3">
-        <v>-1265300</v>
+        <v>-1303300</v>
       </c>
       <c r="J23" s="3">
-        <v>3090300</v>
+        <v>3183100</v>
       </c>
       <c r="K23" s="3">
         <v>-709800</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1101200</v>
+        <v>1134300</v>
       </c>
       <c r="E24" s="3">
-        <v>1032600</v>
+        <v>1063600</v>
       </c>
       <c r="F24" s="3">
-        <v>768800</v>
+        <v>791900</v>
       </c>
       <c r="G24" s="3">
-        <v>864200</v>
+        <v>890200</v>
       </c>
       <c r="H24" s="3">
-        <v>703400</v>
+        <v>724500</v>
       </c>
       <c r="I24" s="3">
-        <v>574700</v>
+        <v>592000</v>
       </c>
       <c r="J24" s="3">
-        <v>895300</v>
+        <v>922200</v>
       </c>
       <c r="K24" s="3">
         <v>810500</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3783000</v>
+        <v>3896600</v>
       </c>
       <c r="E26" s="3">
-        <v>2874800</v>
+        <v>2961100</v>
       </c>
       <c r="F26" s="3">
-        <v>2146700</v>
+        <v>2211200</v>
       </c>
       <c r="G26" s="3">
-        <v>2694600</v>
+        <v>2775600</v>
       </c>
       <c r="H26" s="3">
-        <v>1843200</v>
+        <v>1898600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1840000</v>
+        <v>-1895300</v>
       </c>
       <c r="J26" s="3">
-        <v>2194900</v>
+        <v>2260900</v>
       </c>
       <c r="K26" s="3">
         <v>-1520300</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3528800</v>
+        <v>3634800</v>
       </c>
       <c r="E27" s="3">
-        <v>2444800</v>
+        <v>2518200</v>
       </c>
       <c r="F27" s="3">
-        <v>1800300</v>
+        <v>1854400</v>
       </c>
       <c r="G27" s="3">
-        <v>2393300</v>
+        <v>2465200</v>
       </c>
       <c r="H27" s="3">
-        <v>1610500</v>
+        <v>1658900</v>
       </c>
       <c r="I27" s="3">
-        <v>-1796100</v>
+        <v>-1850000</v>
       </c>
       <c r="J27" s="3">
-        <v>1874300</v>
+        <v>1930600</v>
       </c>
       <c r="K27" s="3">
         <v>-1631400</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>46100</v>
+        <v>47500</v>
       </c>
       <c r="K29" s="3">
         <v>106900</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13900</v>
+        <v>-14400</v>
       </c>
       <c r="E32" s="3">
-        <v>166200</v>
+        <v>171200</v>
       </c>
       <c r="F32" s="3">
-        <v>182300</v>
+        <v>187800</v>
       </c>
       <c r="G32" s="3">
-        <v>143700</v>
+        <v>148000</v>
       </c>
       <c r="H32" s="3">
-        <v>130800</v>
+        <v>134700</v>
       </c>
       <c r="I32" s="3">
-        <v>91100</v>
+        <v>93900</v>
       </c>
       <c r="J32" s="3">
-        <v>-90100</v>
+        <v>-92800</v>
       </c>
       <c r="K32" s="3">
         <v>189900</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3528800</v>
+        <v>3634800</v>
       </c>
       <c r="E33" s="3">
-        <v>2444800</v>
+        <v>2518200</v>
       </c>
       <c r="F33" s="3">
-        <v>1800300</v>
+        <v>1854400</v>
       </c>
       <c r="G33" s="3">
-        <v>2393300</v>
+        <v>2465200</v>
       </c>
       <c r="H33" s="3">
-        <v>1610500</v>
+        <v>1658900</v>
       </c>
       <c r="I33" s="3">
-        <v>-1796100</v>
+        <v>-1850000</v>
       </c>
       <c r="J33" s="3">
-        <v>1920400</v>
+        <v>1978100</v>
       </c>
       <c r="K33" s="3">
         <v>-1524500</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3528800</v>
+        <v>3634800</v>
       </c>
       <c r="E35" s="3">
-        <v>2444800</v>
+        <v>2518200</v>
       </c>
       <c r="F35" s="3">
-        <v>1800300</v>
+        <v>1854400</v>
       </c>
       <c r="G35" s="3">
-        <v>2393300</v>
+        <v>2465200</v>
       </c>
       <c r="H35" s="3">
-        <v>1610500</v>
+        <v>1658900</v>
       </c>
       <c r="I35" s="3">
-        <v>-1796100</v>
+        <v>-1850000</v>
       </c>
       <c r="J35" s="3">
-        <v>1920400</v>
+        <v>1978100</v>
       </c>
       <c r="K35" s="3">
         <v>-1524500</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3410900</v>
+        <v>3513400</v>
       </c>
       <c r="E41" s="3">
-        <v>2374000</v>
+        <v>2445300</v>
       </c>
       <c r="F41" s="3">
-        <v>1946200</v>
+        <v>2004600</v>
       </c>
       <c r="G41" s="3">
-        <v>2482300</v>
+        <v>2556900</v>
       </c>
       <c r="H41" s="3">
-        <v>1637400</v>
+        <v>1686500</v>
       </c>
       <c r="I41" s="3">
-        <v>2626000</v>
+        <v>2704900</v>
       </c>
       <c r="J41" s="3">
-        <v>8684300</v>
+        <v>8945200</v>
       </c>
       <c r="K41" s="3">
         <v>3315700</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7129500</v>
+        <v>7343700</v>
       </c>
       <c r="E42" s="3">
-        <v>4797300</v>
+        <v>4941400</v>
       </c>
       <c r="F42" s="3">
-        <v>3623200</v>
+        <v>3732000</v>
       </c>
       <c r="G42" s="3">
-        <v>1969800</v>
+        <v>2028900</v>
       </c>
       <c r="H42" s="3">
-        <v>1062600</v>
+        <v>1094500</v>
       </c>
       <c r="I42" s="3">
-        <v>1896800</v>
+        <v>1953800</v>
       </c>
       <c r="J42" s="3">
-        <v>1873300</v>
+        <v>1929500</v>
       </c>
       <c r="K42" s="3">
         <v>1243300</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3616800</v>
+        <v>3725400</v>
       </c>
       <c r="E43" s="3">
-        <v>3908400</v>
+        <v>4025800</v>
       </c>
       <c r="F43" s="3">
-        <v>3334800</v>
+        <v>3434900</v>
       </c>
       <c r="G43" s="3">
-        <v>3981300</v>
+        <v>4100900</v>
       </c>
       <c r="H43" s="3">
-        <v>4409200</v>
+        <v>4541600</v>
       </c>
       <c r="I43" s="3">
-        <v>4631100</v>
+        <v>4770200</v>
       </c>
       <c r="J43" s="3">
-        <v>7467300</v>
+        <v>7691600</v>
       </c>
       <c r="K43" s="3">
         <v>4381500</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3066700</v>
+        <v>3158800</v>
       </c>
       <c r="E44" s="3">
-        <v>2796500</v>
+        <v>2880500</v>
       </c>
       <c r="F44" s="3">
-        <v>2126300</v>
+        <v>2190200</v>
       </c>
       <c r="G44" s="3">
-        <v>2674200</v>
+        <v>2754600</v>
       </c>
       <c r="H44" s="3">
-        <v>3303700</v>
+        <v>3402900</v>
       </c>
       <c r="I44" s="3">
-        <v>3077400</v>
+        <v>3169900</v>
       </c>
       <c r="J44" s="3">
-        <v>5672300</v>
+        <v>5842700</v>
       </c>
       <c r="K44" s="3">
         <v>3175600</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>773100</v>
+        <v>796300</v>
       </c>
       <c r="E45" s="3">
-        <v>809600</v>
+        <v>833900</v>
       </c>
       <c r="F45" s="3">
-        <v>642300</v>
+        <v>661600</v>
       </c>
       <c r="G45" s="3">
-        <v>1984800</v>
+        <v>2044400</v>
       </c>
       <c r="H45" s="3">
-        <v>2087700</v>
+        <v>2150400</v>
       </c>
       <c r="I45" s="3">
-        <v>1298500</v>
+        <v>1337500</v>
       </c>
       <c r="J45" s="3">
-        <v>5443900</v>
+        <v>5607400</v>
       </c>
       <c r="K45" s="3">
         <v>1718600</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17997000</v>
+        <v>18537600</v>
       </c>
       <c r="E46" s="3">
-        <v>14685800</v>
+        <v>15127000</v>
       </c>
       <c r="F46" s="3">
-        <v>11672700</v>
+        <v>12023400</v>
       </c>
       <c r="G46" s="3">
-        <v>13092400</v>
+        <v>13485700</v>
       </c>
       <c r="H46" s="3">
-        <v>12500500</v>
+        <v>12876000</v>
       </c>
       <c r="I46" s="3">
-        <v>13529900</v>
+        <v>13936300</v>
       </c>
       <c r="J46" s="3">
-        <v>15478200</v>
+        <v>15943200</v>
       </c>
       <c r="K46" s="3">
         <v>13834600</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3890200</v>
+        <v>4007100</v>
       </c>
       <c r="E47" s="3">
-        <v>4454200</v>
+        <v>4588000</v>
       </c>
       <c r="F47" s="3">
-        <v>4048900</v>
+        <v>4170500</v>
       </c>
       <c r="G47" s="3">
-        <v>4090700</v>
+        <v>4213600</v>
       </c>
       <c r="H47" s="3">
-        <v>3906300</v>
+        <v>4023600</v>
       </c>
       <c r="I47" s="3">
-        <v>3899800</v>
+        <v>4017000</v>
       </c>
       <c r="J47" s="3">
-        <v>5718400</v>
+        <v>5890200</v>
       </c>
       <c r="K47" s="3">
         <v>4038000</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21827100</v>
+        <v>22482800</v>
       </c>
       <c r="E48" s="3">
-        <v>26207400</v>
+        <v>26994600</v>
       </c>
       <c r="F48" s="3">
-        <v>25970400</v>
+        <v>26750500</v>
       </c>
       <c r="G48" s="3">
-        <v>29153900</v>
+        <v>30029700</v>
       </c>
       <c r="H48" s="3">
-        <v>29905600</v>
+        <v>30803900</v>
       </c>
       <c r="I48" s="3">
-        <v>32331100</v>
+        <v>33302300</v>
       </c>
       <c r="J48" s="3">
-        <v>68736800</v>
+        <v>70801600</v>
       </c>
       <c r="K48" s="3">
         <v>38135300</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16560100</v>
+        <v>17057600</v>
       </c>
       <c r="E49" s="3">
-        <v>16513000</v>
+        <v>17009000</v>
       </c>
       <c r="F49" s="3">
-        <v>13881600</v>
+        <v>14298600</v>
       </c>
       <c r="G49" s="3">
-        <v>14671900</v>
+        <v>15112600</v>
       </c>
       <c r="H49" s="3">
-        <v>15928600</v>
+        <v>16407100</v>
       </c>
       <c r="I49" s="3">
-        <v>16722100</v>
+        <v>17224400</v>
       </c>
       <c r="J49" s="3">
-        <v>37023300</v>
+        <v>38135500</v>
       </c>
       <c r="K49" s="3">
         <v>18582500</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1491500</v>
+        <v>1536300</v>
       </c>
       <c r="E52" s="3">
-        <v>2352600</v>
+        <v>2423200</v>
       </c>
       <c r="F52" s="3">
-        <v>1496900</v>
+        <v>1541900</v>
       </c>
       <c r="G52" s="3">
-        <v>1515100</v>
+        <v>1560600</v>
       </c>
       <c r="H52" s="3">
-        <v>1768200</v>
+        <v>1821300</v>
       </c>
       <c r="I52" s="3">
-        <v>1798200</v>
+        <v>1852200</v>
       </c>
       <c r="J52" s="3">
-        <v>2759000</v>
+        <v>2841800</v>
       </c>
       <c r="K52" s="3">
         <v>1476800</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>61766000</v>
+        <v>63621400</v>
       </c>
       <c r="E54" s="3">
-        <v>64212900</v>
+        <v>66141800</v>
       </c>
       <c r="F54" s="3">
-        <v>57070500</v>
+        <v>58784800</v>
       </c>
       <c r="G54" s="3">
-        <v>62524100</v>
+        <v>64402200</v>
       </c>
       <c r="H54" s="3">
-        <v>64009200</v>
+        <v>65931900</v>
       </c>
       <c r="I54" s="3">
-        <v>68281100</v>
+        <v>70332200</v>
       </c>
       <c r="J54" s="3">
-        <v>74648200</v>
+        <v>76890600</v>
       </c>
       <c r="K54" s="3">
         <v>76067200</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4577500</v>
+        <v>4715000</v>
       </c>
       <c r="E57" s="3">
-        <v>4352300</v>
+        <v>4483100</v>
       </c>
       <c r="F57" s="3">
-        <v>3593200</v>
+        <v>3701100</v>
       </c>
       <c r="G57" s="3">
-        <v>3790500</v>
+        <v>3904300</v>
       </c>
       <c r="H57" s="3">
-        <v>4042500</v>
+        <v>4163900</v>
       </c>
       <c r="I57" s="3">
-        <v>3983500</v>
+        <v>4103100</v>
       </c>
       <c r="J57" s="3">
-        <v>3546000</v>
+        <v>3652500</v>
       </c>
       <c r="K57" s="3">
         <v>3832500</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1739200</v>
+        <v>1791500</v>
       </c>
       <c r="E58" s="3">
-        <v>2530600</v>
+        <v>2606600</v>
       </c>
       <c r="F58" s="3">
-        <v>2196000</v>
+        <v>2262000</v>
       </c>
       <c r="G58" s="3">
-        <v>2128500</v>
+        <v>2192400</v>
       </c>
       <c r="H58" s="3">
-        <v>3191100</v>
+        <v>3286900</v>
       </c>
       <c r="I58" s="3">
-        <v>4003900</v>
+        <v>4124100</v>
       </c>
       <c r="J58" s="3">
-        <v>12797500</v>
+        <v>13182000</v>
       </c>
       <c r="K58" s="3">
         <v>7080800</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3180400</v>
+        <v>3275900</v>
       </c>
       <c r="E59" s="3">
-        <v>3566400</v>
+        <v>3673500</v>
       </c>
       <c r="F59" s="3">
-        <v>2979800</v>
+        <v>3069300</v>
       </c>
       <c r="G59" s="3">
-        <v>3885900</v>
+        <v>4002600</v>
       </c>
       <c r="H59" s="3">
-        <v>4268700</v>
+        <v>4396900</v>
       </c>
       <c r="I59" s="3">
-        <v>4364100</v>
+        <v>4495200</v>
       </c>
       <c r="J59" s="3">
-        <v>4563600</v>
+        <v>4700700</v>
       </c>
       <c r="K59" s="3">
         <v>4479100</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9497100</v>
+        <v>9782400</v>
       </c>
       <c r="E60" s="3">
-        <v>10449300</v>
+        <v>10763200</v>
       </c>
       <c r="F60" s="3">
-        <v>8769000</v>
+        <v>9032400</v>
       </c>
       <c r="G60" s="3">
-        <v>9804800</v>
+        <v>10099400</v>
       </c>
       <c r="H60" s="3">
-        <v>11502200</v>
+        <v>11847800</v>
       </c>
       <c r="I60" s="3">
-        <v>12351500</v>
+        <v>12722500</v>
       </c>
       <c r="J60" s="3">
-        <v>13413000</v>
+        <v>13815900</v>
       </c>
       <c r="K60" s="3">
         <v>15392400</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14248300</v>
+        <v>14676300</v>
       </c>
       <c r="E61" s="3">
-        <v>15282000</v>
+        <v>15741000</v>
       </c>
       <c r="F61" s="3">
-        <v>12553100</v>
+        <v>12930100</v>
       </c>
       <c r="G61" s="3">
-        <v>13063500</v>
+        <v>13455900</v>
       </c>
       <c r="H61" s="3">
-        <v>13952400</v>
+        <v>14371500</v>
       </c>
       <c r="I61" s="3">
-        <v>15833100</v>
+        <v>16308800</v>
       </c>
       <c r="J61" s="3">
-        <v>15724800</v>
+        <v>16197200</v>
       </c>
       <c r="K61" s="3">
         <v>15420400</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6266300</v>
+        <v>6454600</v>
       </c>
       <c r="E62" s="3">
-        <v>5806300</v>
+        <v>5980800</v>
       </c>
       <c r="F62" s="3">
-        <v>5054700</v>
+        <v>5206500</v>
       </c>
       <c r="G62" s="3">
-        <v>5880300</v>
+        <v>6057000</v>
       </c>
       <c r="H62" s="3">
-        <v>6329600</v>
+        <v>6519700</v>
       </c>
       <c r="I62" s="3">
-        <v>6882900</v>
+        <v>7089700</v>
       </c>
       <c r="J62" s="3">
-        <v>10558600</v>
+        <v>10875800</v>
       </c>
       <c r="K62" s="3">
         <v>8182900</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31019700</v>
+        <v>31951500</v>
       </c>
       <c r="E66" s="3">
-        <v>34527100</v>
+        <v>35564300</v>
       </c>
       <c r="F66" s="3">
-        <v>29114300</v>
+        <v>29988800</v>
       </c>
       <c r="G66" s="3">
-        <v>31893600</v>
+        <v>32851700</v>
       </c>
       <c r="H66" s="3">
-        <v>35138300</v>
+        <v>36193800</v>
       </c>
       <c r="I66" s="3">
-        <v>38485900</v>
+        <v>39642000</v>
       </c>
       <c r="J66" s="3">
-        <v>41598700</v>
+        <v>42848300</v>
       </c>
       <c r="K66" s="3">
         <v>43517200</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>29314800</v>
+        <v>30195400</v>
       </c>
       <c r="E72" s="3">
-        <v>25610100</v>
+        <v>26379400</v>
       </c>
       <c r="F72" s="3">
-        <v>22400800</v>
+        <v>23073700</v>
       </c>
       <c r="G72" s="3">
-        <v>20556500</v>
+        <v>21174000</v>
       </c>
       <c r="H72" s="3">
-        <v>18427000</v>
+        <v>18980500</v>
       </c>
       <c r="I72" s="3">
-        <v>16489400</v>
+        <v>16984700</v>
       </c>
       <c r="J72" s="3">
-        <v>17741800</v>
+        <v>18274700</v>
       </c>
       <c r="K72" s="3">
         <v>15554200</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30746300</v>
+        <v>31669900</v>
       </c>
       <c r="E76" s="3">
-        <v>29685800</v>
+        <v>30577500</v>
       </c>
       <c r="F76" s="3">
-        <v>27956200</v>
+        <v>28796000</v>
       </c>
       <c r="G76" s="3">
-        <v>30630500</v>
+        <v>31550600</v>
       </c>
       <c r="H76" s="3">
-        <v>28870900</v>
+        <v>29738100</v>
       </c>
       <c r="I76" s="3">
-        <v>29795200</v>
+        <v>30690200</v>
       </c>
       <c r="J76" s="3">
-        <v>33049500</v>
+        <v>34042300</v>
       </c>
       <c r="K76" s="3">
         <v>32550000</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3528800</v>
+        <v>3634800</v>
       </c>
       <c r="E81" s="3">
-        <v>2444800</v>
+        <v>2518200</v>
       </c>
       <c r="F81" s="3">
-        <v>1800300</v>
+        <v>1854400</v>
       </c>
       <c r="G81" s="3">
-        <v>2393300</v>
+        <v>2465200</v>
       </c>
       <c r="H81" s="3">
-        <v>1610500</v>
+        <v>1658900</v>
       </c>
       <c r="I81" s="3">
-        <v>-1796100</v>
+        <v>-1850000</v>
       </c>
       <c r="J81" s="3">
-        <v>1920400</v>
+        <v>1978100</v>
       </c>
       <c r="K81" s="3">
         <v>-1524500</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2315000</v>
+        <v>2384600</v>
       </c>
       <c r="E83" s="3">
-        <v>2487700</v>
+        <v>2562400</v>
       </c>
       <c r="F83" s="3">
-        <v>2466200</v>
+        <v>2540300</v>
       </c>
       <c r="G83" s="3">
-        <v>2659200</v>
+        <v>2739100</v>
       </c>
       <c r="H83" s="3">
-        <v>2405100</v>
+        <v>2477300</v>
       </c>
       <c r="I83" s="3">
-        <v>6644900</v>
+        <v>6844500</v>
       </c>
       <c r="J83" s="3">
-        <v>2518800</v>
+        <v>2594400</v>
       </c>
       <c r="K83" s="3">
         <v>4588000</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4891700</v>
+        <v>5038600</v>
       </c>
       <c r="E89" s="3">
-        <v>5409600</v>
+        <v>5572100</v>
       </c>
       <c r="F89" s="3">
-        <v>4951700</v>
+        <v>5100500</v>
       </c>
       <c r="G89" s="3">
-        <v>5173700</v>
+        <v>5329100</v>
       </c>
       <c r="H89" s="3">
-        <v>3203900</v>
+        <v>3300200</v>
       </c>
       <c r="I89" s="3">
-        <v>3259700</v>
+        <v>3357600</v>
       </c>
       <c r="J89" s="3">
-        <v>3533100</v>
+        <v>3639300</v>
       </c>
       <c r="K89" s="3">
         <v>2558100</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1660900</v>
+        <v>-1710800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1642700</v>
+        <v>-1692100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1194500</v>
+        <v>-1230400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1644900</v>
+        <v>-1694300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1513000</v>
+        <v>-1558400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1632000</v>
+        <v>-1681000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1901100</v>
+        <v>-1958200</v>
       </c>
       <c r="K91" s="3">
         <v>-2185600</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2231400</v>
+        <v>2298400</v>
       </c>
       <c r="E94" s="3">
-        <v>-5050400</v>
+        <v>-5202100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1320000</v>
+        <v>-1359600</v>
       </c>
       <c r="G94" s="3">
-        <v>-234800</v>
+        <v>-241900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1486200</v>
+        <v>-1530800</v>
       </c>
       <c r="I94" s="3">
-        <v>-723800</v>
+        <v>-745500</v>
       </c>
       <c r="J94" s="3">
-        <v>757000</v>
+        <v>779800</v>
       </c>
       <c r="K94" s="3">
         <v>5431700</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1426100</v>
+        <v>-1469000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1310300</v>
+        <v>-1349700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1312500</v>
+        <v>-1351900</v>
       </c>
       <c r="G96" s="3">
-        <v>-345300</v>
+        <v>-355600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1278100</v>
+        <v>-1316500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1299600</v>
+        <v>-1338600</v>
       </c>
       <c r="J96" s="3">
-        <v>-974700</v>
+        <v>-1004000</v>
       </c>
       <c r="K96" s="3">
         <v>-440000</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3487000</v>
+        <v>-3591800</v>
       </c>
       <c r="E100" s="3">
-        <v>1194500</v>
+        <v>1230400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2027700</v>
+        <v>-2088600</v>
       </c>
       <c r="G100" s="3">
-        <v>-2820100</v>
+        <v>-2904800</v>
       </c>
       <c r="H100" s="3">
-        <v>-3391600</v>
+        <v>-3493500</v>
       </c>
       <c r="I100" s="3">
-        <v>-3305800</v>
+        <v>-3405100</v>
       </c>
       <c r="J100" s="3">
-        <v>-3087100</v>
+        <v>-3179800</v>
       </c>
       <c r="K100" s="3">
         <v>-6226700</v>
@@ -4209,25 +4209,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-265900</v>
+        <v>-273900</v>
       </c>
       <c r="E101" s="3">
-        <v>69700</v>
+        <v>71800</v>
       </c>
       <c r="F101" s="3">
-        <v>-437500</v>
+        <v>-450600</v>
       </c>
       <c r="G101" s="3">
-        <v>-240200</v>
+        <v>-247400</v>
       </c>
       <c r="H101" s="3">
-        <v>-138300</v>
+        <v>-142500</v>
       </c>
       <c r="I101" s="3">
-        <v>-130800</v>
+        <v>-134700</v>
       </c>
       <c r="J101" s="3">
-        <v>-106200</v>
+        <v>-109300</v>
       </c>
       <c r="K101" s="3">
         <v>135900</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3370100</v>
+        <v>3471400</v>
       </c>
       <c r="E102" s="3">
-        <v>1623400</v>
+        <v>1672200</v>
       </c>
       <c r="F102" s="3">
-        <v>1166600</v>
+        <v>1201700</v>
       </c>
       <c r="G102" s="3">
-        <v>1878600</v>
+        <v>1935000</v>
       </c>
       <c r="H102" s="3">
-        <v>-1812100</v>
+        <v>-1866600</v>
       </c>
       <c r="I102" s="3">
-        <v>-900700</v>
+        <v>-927800</v>
       </c>
       <c r="J102" s="3">
-        <v>1096900</v>
+        <v>1129900</v>
       </c>
       <c r="K102" s="3">
         <v>1899100</v>

--- a/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>32238700</v>
+        <v>33052700</v>
       </c>
       <c r="E8" s="3">
-        <v>29637600</v>
+        <v>30386000</v>
       </c>
       <c r="F8" s="3">
-        <v>25559900</v>
+        <v>26205300</v>
       </c>
       <c r="G8" s="3">
-        <v>29513900</v>
+        <v>30259200</v>
       </c>
       <c r="H8" s="3">
-        <v>30335600</v>
+        <v>31101700</v>
       </c>
       <c r="I8" s="3">
-        <v>29844200</v>
+        <v>30597800</v>
       </c>
       <c r="J8" s="3">
-        <v>29714900</v>
+        <v>30465300</v>
       </c>
       <c r="K8" s="3">
         <v>24475000</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19411200</v>
+        <v>19901400</v>
       </c>
       <c r="E9" s="3">
-        <v>16896300</v>
+        <v>17323000</v>
       </c>
       <c r="F9" s="3">
-        <v>14858600</v>
+        <v>15233800</v>
       </c>
       <c r="G9" s="3">
-        <v>17054300</v>
+        <v>17484900</v>
       </c>
       <c r="H9" s="3">
-        <v>17464000</v>
+        <v>17905000</v>
       </c>
       <c r="I9" s="3">
-        <v>41319700</v>
+        <v>42363100</v>
       </c>
       <c r="J9" s="3">
-        <v>34530500</v>
+        <v>35402400</v>
       </c>
       <c r="K9" s="3">
         <v>17113000</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12827400</v>
+        <v>13151300</v>
       </c>
       <c r="E10" s="3">
-        <v>12741300</v>
+        <v>13063000</v>
       </c>
       <c r="F10" s="3">
-        <v>10701300</v>
+        <v>10971500</v>
       </c>
       <c r="G10" s="3">
-        <v>12459600</v>
+        <v>12774300</v>
       </c>
       <c r="H10" s="3">
-        <v>12871600</v>
+        <v>13196600</v>
       </c>
       <c r="I10" s="3">
-        <v>-11475500</v>
+        <v>-11765300</v>
       </c>
       <c r="J10" s="3">
-        <v>-4815500</v>
+        <v>-4937100</v>
       </c>
       <c r="K10" s="3">
         <v>7362000</v>
@@ -956,25 +956,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-1956000</v>
+        <v>-2005400</v>
       </c>
       <c r="E14" s="3">
-        <v>219800</v>
+        <v>225300</v>
       </c>
       <c r="F14" s="3">
-        <v>38700</v>
+        <v>39600</v>
       </c>
       <c r="G14" s="3">
-        <v>-254000</v>
+        <v>-260400</v>
       </c>
       <c r="H14" s="3">
-        <v>628400</v>
+        <v>644300</v>
       </c>
       <c r="I14" s="3">
-        <v>-113800</v>
+        <v>-116600</v>
       </c>
       <c r="J14" s="3">
-        <v>-769800</v>
+        <v>-789300</v>
       </c>
       <c r="K14" s="3">
         <v>-1104200</v>
@@ -998,10 +998,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>519100</v>
+        <v>532200</v>
       </c>
       <c r="E15" s="3">
-        <v>456200</v>
+        <v>467700</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26725100</v>
+        <v>27400000</v>
       </c>
       <c r="E17" s="3">
-        <v>24996600</v>
+        <v>25627800</v>
       </c>
       <c r="F17" s="3">
-        <v>21875300</v>
+        <v>22427700</v>
       </c>
       <c r="G17" s="3">
-        <v>25026400</v>
+        <v>25658400</v>
       </c>
       <c r="H17" s="3">
-        <v>26782500</v>
+        <v>27458800</v>
       </c>
       <c r="I17" s="3">
-        <v>30237300</v>
+        <v>31000900</v>
       </c>
       <c r="J17" s="3">
-        <v>25672500</v>
+        <v>26320800</v>
       </c>
       <c r="K17" s="3">
         <v>24137700</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5513600</v>
+        <v>5652800</v>
       </c>
       <c r="E18" s="3">
-        <v>4641000</v>
+        <v>4758200</v>
       </c>
       <c r="F18" s="3">
-        <v>3684500</v>
+        <v>3777600</v>
       </c>
       <c r="G18" s="3">
-        <v>4487500</v>
+        <v>4600800</v>
       </c>
       <c r="H18" s="3">
-        <v>3553100</v>
+        <v>3642800</v>
       </c>
       <c r="I18" s="3">
-        <v>-393200</v>
+        <v>-403100</v>
       </c>
       <c r="J18" s="3">
-        <v>4042400</v>
+        <v>4144500</v>
       </c>
       <c r="K18" s="3">
         <v>337300</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14400</v>
+        <v>14700</v>
       </c>
       <c r="E20" s="3">
-        <v>-171200</v>
+        <v>-175500</v>
       </c>
       <c r="F20" s="3">
-        <v>-187800</v>
+        <v>-192500</v>
       </c>
       <c r="G20" s="3">
-        <v>-148000</v>
+        <v>-151700</v>
       </c>
       <c r="H20" s="3">
-        <v>-134700</v>
+        <v>-138100</v>
       </c>
       <c r="I20" s="3">
-        <v>-93900</v>
+        <v>-96300</v>
       </c>
       <c r="J20" s="3">
-        <v>92800</v>
+        <v>95100</v>
       </c>
       <c r="K20" s="3">
         <v>-189900</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7930300</v>
+        <v>8112300</v>
       </c>
       <c r="E21" s="3">
-        <v>7051300</v>
+        <v>7209800</v>
       </c>
       <c r="F21" s="3">
-        <v>6056000</v>
+        <v>6189500</v>
       </c>
       <c r="G21" s="3">
-        <v>7099000</v>
+        <v>7257400</v>
       </c>
       <c r="H21" s="3">
-        <v>5914200</v>
+        <v>6044600</v>
       </c>
       <c r="I21" s="3">
-        <v>6408500</v>
+        <v>6517900</v>
       </c>
       <c r="J21" s="3">
-        <v>6749000</v>
+        <v>6899500</v>
       </c>
       <c r="K21" s="3">
         <v>4640300</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>497000</v>
+        <v>509600</v>
       </c>
       <c r="E22" s="3">
-        <v>445100</v>
+        <v>456300</v>
       </c>
       <c r="F22" s="3">
-        <v>493700</v>
+        <v>506200</v>
       </c>
       <c r="G22" s="3">
-        <v>673700</v>
+        <v>690700</v>
       </c>
       <c r="H22" s="3">
-        <v>795200</v>
+        <v>815300</v>
       </c>
       <c r="I22" s="3">
-        <v>816200</v>
+        <v>836800</v>
       </c>
       <c r="J22" s="3">
-        <v>952100</v>
+        <v>976100</v>
       </c>
       <c r="K22" s="3">
         <v>857200</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5030900</v>
+        <v>5157900</v>
       </c>
       <c r="E23" s="3">
-        <v>4024700</v>
+        <v>4126400</v>
       </c>
       <c r="F23" s="3">
-        <v>3003100</v>
+        <v>3078900</v>
       </c>
       <c r="G23" s="3">
-        <v>3665800</v>
+        <v>3758300</v>
       </c>
       <c r="H23" s="3">
-        <v>2623100</v>
+        <v>2689400</v>
       </c>
       <c r="I23" s="3">
-        <v>-1303300</v>
+        <v>-1336200</v>
       </c>
       <c r="J23" s="3">
-        <v>3183100</v>
+        <v>3263500</v>
       </c>
       <c r="K23" s="3">
         <v>-709800</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1134300</v>
+        <v>1162900</v>
       </c>
       <c r="E24" s="3">
-        <v>1063600</v>
+        <v>1090500</v>
       </c>
       <c r="F24" s="3">
-        <v>791900</v>
+        <v>811900</v>
       </c>
       <c r="G24" s="3">
-        <v>890200</v>
+        <v>912700</v>
       </c>
       <c r="H24" s="3">
-        <v>724500</v>
+        <v>742800</v>
       </c>
       <c r="I24" s="3">
-        <v>592000</v>
+        <v>607000</v>
       </c>
       <c r="J24" s="3">
-        <v>922200</v>
+        <v>945500</v>
       </c>
       <c r="K24" s="3">
         <v>810500</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3896600</v>
+        <v>3995000</v>
       </c>
       <c r="E26" s="3">
-        <v>2961100</v>
+        <v>3035900</v>
       </c>
       <c r="F26" s="3">
-        <v>2211200</v>
+        <v>2267000</v>
       </c>
       <c r="G26" s="3">
-        <v>2775600</v>
+        <v>2845600</v>
       </c>
       <c r="H26" s="3">
-        <v>1898600</v>
+        <v>1946500</v>
       </c>
       <c r="I26" s="3">
-        <v>-1895300</v>
+        <v>-1943100</v>
       </c>
       <c r="J26" s="3">
-        <v>2260900</v>
+        <v>2318000</v>
       </c>
       <c r="K26" s="3">
         <v>-1520300</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3634800</v>
+        <v>3726600</v>
       </c>
       <c r="E27" s="3">
-        <v>2518200</v>
+        <v>2581800</v>
       </c>
       <c r="F27" s="3">
-        <v>1854400</v>
+        <v>1901200</v>
       </c>
       <c r="G27" s="3">
-        <v>2465200</v>
+        <v>2527400</v>
       </c>
       <c r="H27" s="3">
-        <v>1658900</v>
+        <v>1700800</v>
       </c>
       <c r="I27" s="3">
-        <v>-1850000</v>
+        <v>-1896700</v>
       </c>
       <c r="J27" s="3">
-        <v>1930600</v>
+        <v>1979400</v>
       </c>
       <c r="K27" s="3">
         <v>-1631400</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>47500</v>
+        <v>48700</v>
       </c>
       <c r="K29" s="3">
         <v>106900</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14400</v>
+        <v>-14700</v>
       </c>
       <c r="E32" s="3">
-        <v>171200</v>
+        <v>175500</v>
       </c>
       <c r="F32" s="3">
-        <v>187800</v>
+        <v>192500</v>
       </c>
       <c r="G32" s="3">
-        <v>148000</v>
+        <v>151700</v>
       </c>
       <c r="H32" s="3">
-        <v>134700</v>
+        <v>138100</v>
       </c>
       <c r="I32" s="3">
-        <v>93900</v>
+        <v>96300</v>
       </c>
       <c r="J32" s="3">
-        <v>-92800</v>
+        <v>-95100</v>
       </c>
       <c r="K32" s="3">
         <v>189900</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3634800</v>
+        <v>3726600</v>
       </c>
       <c r="E33" s="3">
-        <v>2518200</v>
+        <v>2581800</v>
       </c>
       <c r="F33" s="3">
-        <v>1854400</v>
+        <v>1901200</v>
       </c>
       <c r="G33" s="3">
-        <v>2465200</v>
+        <v>2527400</v>
       </c>
       <c r="H33" s="3">
-        <v>1658900</v>
+        <v>1700800</v>
       </c>
       <c r="I33" s="3">
-        <v>-1850000</v>
+        <v>-1896700</v>
       </c>
       <c r="J33" s="3">
-        <v>1978100</v>
+        <v>2028100</v>
       </c>
       <c r="K33" s="3">
         <v>-1524500</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3634800</v>
+        <v>3726600</v>
       </c>
       <c r="E35" s="3">
-        <v>2518200</v>
+        <v>2581800</v>
       </c>
       <c r="F35" s="3">
-        <v>1854400</v>
+        <v>1901200</v>
       </c>
       <c r="G35" s="3">
-        <v>2465200</v>
+        <v>2527400</v>
       </c>
       <c r="H35" s="3">
-        <v>1658900</v>
+        <v>1700800</v>
       </c>
       <c r="I35" s="3">
-        <v>-1850000</v>
+        <v>-1896700</v>
       </c>
       <c r="J35" s="3">
-        <v>1978100</v>
+        <v>2028100</v>
       </c>
       <c r="K35" s="3">
         <v>-1524500</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3513400</v>
+        <v>3602100</v>
       </c>
       <c r="E41" s="3">
-        <v>2445300</v>
+        <v>2507100</v>
       </c>
       <c r="F41" s="3">
-        <v>2004600</v>
+        <v>2055300</v>
       </c>
       <c r="G41" s="3">
-        <v>2556900</v>
+        <v>2621400</v>
       </c>
       <c r="H41" s="3">
-        <v>1686500</v>
+        <v>1729100</v>
       </c>
       <c r="I41" s="3">
-        <v>2704900</v>
+        <v>2773200</v>
       </c>
       <c r="J41" s="3">
-        <v>8945200</v>
+        <v>9171100</v>
       </c>
       <c r="K41" s="3">
         <v>3315700</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7343700</v>
+        <v>7529100</v>
       </c>
       <c r="E42" s="3">
-        <v>4941400</v>
+        <v>5066200</v>
       </c>
       <c r="F42" s="3">
-        <v>3732000</v>
+        <v>3826300</v>
       </c>
       <c r="G42" s="3">
-        <v>2028900</v>
+        <v>2080200</v>
       </c>
       <c r="H42" s="3">
-        <v>1094500</v>
+        <v>1122200</v>
       </c>
       <c r="I42" s="3">
-        <v>1953800</v>
+        <v>2003200</v>
       </c>
       <c r="J42" s="3">
-        <v>1929500</v>
+        <v>1978300</v>
       </c>
       <c r="K42" s="3">
         <v>1243300</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3725400</v>
+        <v>3819500</v>
       </c>
       <c r="E43" s="3">
-        <v>4025800</v>
+        <v>4127500</v>
       </c>
       <c r="F43" s="3">
-        <v>3434900</v>
+        <v>3521700</v>
       </c>
       <c r="G43" s="3">
-        <v>4100900</v>
+        <v>4204500</v>
       </c>
       <c r="H43" s="3">
-        <v>4541600</v>
+        <v>4656300</v>
       </c>
       <c r="I43" s="3">
-        <v>4770200</v>
+        <v>4890700</v>
       </c>
       <c r="J43" s="3">
-        <v>7691600</v>
+        <v>7885800</v>
       </c>
       <c r="K43" s="3">
         <v>4381500</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3158800</v>
+        <v>3238600</v>
       </c>
       <c r="E44" s="3">
-        <v>2880500</v>
+        <v>2953200</v>
       </c>
       <c r="F44" s="3">
-        <v>2190200</v>
+        <v>2245500</v>
       </c>
       <c r="G44" s="3">
-        <v>2754600</v>
+        <v>2824100</v>
       </c>
       <c r="H44" s="3">
-        <v>3402900</v>
+        <v>3488800</v>
       </c>
       <c r="I44" s="3">
-        <v>3169900</v>
+        <v>3249900</v>
       </c>
       <c r="J44" s="3">
-        <v>5842700</v>
+        <v>5990200</v>
       </c>
       <c r="K44" s="3">
         <v>3175600</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>796300</v>
+        <v>816400</v>
       </c>
       <c r="E45" s="3">
-        <v>833900</v>
+        <v>854900</v>
       </c>
       <c r="F45" s="3">
-        <v>661600</v>
+        <v>678300</v>
       </c>
       <c r="G45" s="3">
-        <v>2044400</v>
+        <v>2096000</v>
       </c>
       <c r="H45" s="3">
-        <v>2150400</v>
+        <v>2204700</v>
       </c>
       <c r="I45" s="3">
-        <v>1337500</v>
+        <v>1371300</v>
       </c>
       <c r="J45" s="3">
-        <v>5607400</v>
+        <v>5749000</v>
       </c>
       <c r="K45" s="3">
         <v>1718600</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18537600</v>
+        <v>19005700</v>
       </c>
       <c r="E46" s="3">
-        <v>15127000</v>
+        <v>15508900</v>
       </c>
       <c r="F46" s="3">
-        <v>12023400</v>
+        <v>12327000</v>
       </c>
       <c r="G46" s="3">
-        <v>13485700</v>
+        <v>13826200</v>
       </c>
       <c r="H46" s="3">
-        <v>12876000</v>
+        <v>13201200</v>
       </c>
       <c r="I46" s="3">
-        <v>13936300</v>
+        <v>14288200</v>
       </c>
       <c r="J46" s="3">
-        <v>15943200</v>
+        <v>16345800</v>
       </c>
       <c r="K46" s="3">
         <v>13834600</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4007100</v>
+        <v>4108200</v>
       </c>
       <c r="E47" s="3">
-        <v>4588000</v>
+        <v>4703900</v>
       </c>
       <c r="F47" s="3">
-        <v>4170500</v>
+        <v>4275800</v>
       </c>
       <c r="G47" s="3">
-        <v>4213600</v>
+        <v>4320000</v>
       </c>
       <c r="H47" s="3">
-        <v>4023600</v>
+        <v>4125200</v>
       </c>
       <c r="I47" s="3">
-        <v>4017000</v>
+        <v>4118400</v>
       </c>
       <c r="J47" s="3">
-        <v>5890200</v>
+        <v>6038900</v>
       </c>
       <c r="K47" s="3">
         <v>4038000</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22482800</v>
+        <v>23050500</v>
       </c>
       <c r="E48" s="3">
-        <v>26994600</v>
+        <v>27676300</v>
       </c>
       <c r="F48" s="3">
-        <v>26750500</v>
+        <v>27426000</v>
       </c>
       <c r="G48" s="3">
-        <v>30029700</v>
+        <v>30788000</v>
       </c>
       <c r="H48" s="3">
-        <v>30803900</v>
+        <v>31581800</v>
       </c>
       <c r="I48" s="3">
-        <v>33302300</v>
+        <v>34143200</v>
       </c>
       <c r="J48" s="3">
-        <v>70801600</v>
+        <v>72589400</v>
       </c>
       <c r="K48" s="3">
         <v>38135300</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17057600</v>
+        <v>17488300</v>
       </c>
       <c r="E49" s="3">
-        <v>17009000</v>
+        <v>17438500</v>
       </c>
       <c r="F49" s="3">
-        <v>14298600</v>
+        <v>14659700</v>
       </c>
       <c r="G49" s="3">
-        <v>15112600</v>
+        <v>15494200</v>
       </c>
       <c r="H49" s="3">
-        <v>16407100</v>
+        <v>16821400</v>
       </c>
       <c r="I49" s="3">
-        <v>17224400</v>
+        <v>17659300</v>
       </c>
       <c r="J49" s="3">
-        <v>38135500</v>
+        <v>39098500</v>
       </c>
       <c r="K49" s="3">
         <v>18582500</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1536300</v>
+        <v>1575100</v>
       </c>
       <c r="E52" s="3">
-        <v>2423200</v>
+        <v>2484400</v>
       </c>
       <c r="F52" s="3">
-        <v>1541900</v>
+        <v>1580800</v>
       </c>
       <c r="G52" s="3">
-        <v>1560600</v>
+        <v>1600000</v>
       </c>
       <c r="H52" s="3">
-        <v>1821300</v>
+        <v>1867300</v>
       </c>
       <c r="I52" s="3">
-        <v>1852200</v>
+        <v>1899000</v>
       </c>
       <c r="J52" s="3">
-        <v>2841800</v>
+        <v>2913600</v>
       </c>
       <c r="K52" s="3">
         <v>1476800</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>63621400</v>
+        <v>65227900</v>
       </c>
       <c r="E54" s="3">
-        <v>66141800</v>
+        <v>67812000</v>
       </c>
       <c r="F54" s="3">
-        <v>58784800</v>
+        <v>60269300</v>
       </c>
       <c r="G54" s="3">
-        <v>64402200</v>
+        <v>66028500</v>
       </c>
       <c r="H54" s="3">
-        <v>65931900</v>
+        <v>67596800</v>
       </c>
       <c r="I54" s="3">
-        <v>70332200</v>
+        <v>72108200</v>
       </c>
       <c r="J54" s="3">
-        <v>76890600</v>
+        <v>78832200</v>
       </c>
       <c r="K54" s="3">
         <v>76067200</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4715000</v>
+        <v>4834100</v>
       </c>
       <c r="E57" s="3">
-        <v>4483100</v>
+        <v>4596300</v>
       </c>
       <c r="F57" s="3">
-        <v>3701100</v>
+        <v>3794600</v>
       </c>
       <c r="G57" s="3">
-        <v>3904300</v>
+        <v>4002900</v>
       </c>
       <c r="H57" s="3">
-        <v>4163900</v>
+        <v>4269000</v>
       </c>
       <c r="I57" s="3">
-        <v>4103100</v>
+        <v>4206800</v>
       </c>
       <c r="J57" s="3">
-        <v>3652500</v>
+        <v>3744700</v>
       </c>
       <c r="K57" s="3">
         <v>3832500</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1791500</v>
+        <v>1836700</v>
       </c>
       <c r="E58" s="3">
-        <v>2606600</v>
+        <v>2672400</v>
       </c>
       <c r="F58" s="3">
-        <v>2262000</v>
+        <v>2319100</v>
       </c>
       <c r="G58" s="3">
-        <v>2192400</v>
+        <v>2247800</v>
       </c>
       <c r="H58" s="3">
-        <v>3286900</v>
+        <v>3369900</v>
       </c>
       <c r="I58" s="3">
-        <v>4124100</v>
+        <v>4228300</v>
       </c>
       <c r="J58" s="3">
-        <v>13182000</v>
+        <v>13514800</v>
       </c>
       <c r="K58" s="3">
         <v>7080800</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3275900</v>
+        <v>3358600</v>
       </c>
       <c r="E59" s="3">
-        <v>3673500</v>
+        <v>3766300</v>
       </c>
       <c r="F59" s="3">
-        <v>3069300</v>
+        <v>3146900</v>
       </c>
       <c r="G59" s="3">
-        <v>4002600</v>
+        <v>4103700</v>
       </c>
       <c r="H59" s="3">
-        <v>4396900</v>
+        <v>4508000</v>
       </c>
       <c r="I59" s="3">
-        <v>4495200</v>
+        <v>4608700</v>
       </c>
       <c r="J59" s="3">
-        <v>4700700</v>
+        <v>4819400</v>
       </c>
       <c r="K59" s="3">
         <v>4479100</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9782400</v>
+        <v>10029400</v>
       </c>
       <c r="E60" s="3">
-        <v>10763200</v>
+        <v>11034900</v>
       </c>
       <c r="F60" s="3">
-        <v>9032400</v>
+        <v>9260500</v>
       </c>
       <c r="G60" s="3">
-        <v>10099400</v>
+        <v>10354400</v>
       </c>
       <c r="H60" s="3">
-        <v>11847800</v>
+        <v>12146900</v>
       </c>
       <c r="I60" s="3">
-        <v>12722500</v>
+        <v>13043800</v>
       </c>
       <c r="J60" s="3">
-        <v>13815900</v>
+        <v>14164800</v>
       </c>
       <c r="K60" s="3">
         <v>15392400</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14676300</v>
+        <v>15046900</v>
       </c>
       <c r="E61" s="3">
-        <v>15741000</v>
+        <v>16138500</v>
       </c>
       <c r="F61" s="3">
-        <v>12930100</v>
+        <v>13256700</v>
       </c>
       <c r="G61" s="3">
-        <v>13455900</v>
+        <v>13795700</v>
       </c>
       <c r="H61" s="3">
-        <v>14371500</v>
+        <v>14734400</v>
       </c>
       <c r="I61" s="3">
-        <v>16308800</v>
+        <v>16720600</v>
       </c>
       <c r="J61" s="3">
-        <v>16197200</v>
+        <v>16606200</v>
       </c>
       <c r="K61" s="3">
         <v>15420400</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6454600</v>
+        <v>6617600</v>
       </c>
       <c r="E62" s="3">
-        <v>5980800</v>
+        <v>6131800</v>
       </c>
       <c r="F62" s="3">
-        <v>5206500</v>
+        <v>5338000</v>
       </c>
       <c r="G62" s="3">
-        <v>6057000</v>
+        <v>6209900</v>
       </c>
       <c r="H62" s="3">
-        <v>6519700</v>
+        <v>6684400</v>
       </c>
       <c r="I62" s="3">
-        <v>7089700</v>
+        <v>7268700</v>
       </c>
       <c r="J62" s="3">
-        <v>10875800</v>
+        <v>11150400</v>
       </c>
       <c r="K62" s="3">
         <v>8182900</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31951500</v>
+        <v>32758300</v>
       </c>
       <c r="E66" s="3">
-        <v>35564300</v>
+        <v>36462300</v>
       </c>
       <c r="F66" s="3">
-        <v>29988800</v>
+        <v>30746100</v>
       </c>
       <c r="G66" s="3">
-        <v>32851700</v>
+        <v>33681200</v>
       </c>
       <c r="H66" s="3">
-        <v>36193800</v>
+        <v>37107800</v>
       </c>
       <c r="I66" s="3">
-        <v>39642000</v>
+        <v>40643000</v>
       </c>
       <c r="J66" s="3">
-        <v>42848300</v>
+        <v>43930300</v>
       </c>
       <c r="K66" s="3">
         <v>43517200</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>30195400</v>
+        <v>30957900</v>
       </c>
       <c r="E72" s="3">
-        <v>26379400</v>
+        <v>27045500</v>
       </c>
       <c r="F72" s="3">
-        <v>23073700</v>
+        <v>23656300</v>
       </c>
       <c r="G72" s="3">
-        <v>21174000</v>
+        <v>21708700</v>
       </c>
       <c r="H72" s="3">
-        <v>18980500</v>
+        <v>19459800</v>
       </c>
       <c r="I72" s="3">
-        <v>16984700</v>
+        <v>17413600</v>
       </c>
       <c r="J72" s="3">
-        <v>18274700</v>
+        <v>18736200</v>
       </c>
       <c r="K72" s="3">
         <v>15554200</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31669900</v>
+        <v>32469600</v>
       </c>
       <c r="E76" s="3">
-        <v>30577500</v>
+        <v>31349700</v>
       </c>
       <c r="F76" s="3">
-        <v>28796000</v>
+        <v>29523200</v>
       </c>
       <c r="G76" s="3">
-        <v>31550600</v>
+        <v>32347300</v>
       </c>
       <c r="H76" s="3">
-        <v>29738100</v>
+        <v>30489100</v>
       </c>
       <c r="I76" s="3">
-        <v>30690200</v>
+        <v>31465200</v>
       </c>
       <c r="J76" s="3">
-        <v>34042300</v>
+        <v>34901900</v>
       </c>
       <c r="K76" s="3">
         <v>32550000</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3634800</v>
+        <v>3726600</v>
       </c>
       <c r="E81" s="3">
-        <v>2518200</v>
+        <v>2581800</v>
       </c>
       <c r="F81" s="3">
-        <v>1854400</v>
+        <v>1901200</v>
       </c>
       <c r="G81" s="3">
-        <v>2465200</v>
+        <v>2527400</v>
       </c>
       <c r="H81" s="3">
-        <v>1658900</v>
+        <v>1700800</v>
       </c>
       <c r="I81" s="3">
-        <v>-1850000</v>
+        <v>-1896700</v>
       </c>
       <c r="J81" s="3">
-        <v>1978100</v>
+        <v>2028100</v>
       </c>
       <c r="K81" s="3">
         <v>-1524500</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2384600</v>
+        <v>2444800</v>
       </c>
       <c r="E83" s="3">
-        <v>2562400</v>
+        <v>2627100</v>
       </c>
       <c r="F83" s="3">
-        <v>2540300</v>
+        <v>2604500</v>
       </c>
       <c r="G83" s="3">
-        <v>2739100</v>
+        <v>2808300</v>
       </c>
       <c r="H83" s="3">
-        <v>2477300</v>
+        <v>2539900</v>
       </c>
       <c r="I83" s="3">
-        <v>6844500</v>
+        <v>7017300</v>
       </c>
       <c r="J83" s="3">
-        <v>2594400</v>
+        <v>2659900</v>
       </c>
       <c r="K83" s="3">
         <v>4588000</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5038600</v>
+        <v>5165900</v>
       </c>
       <c r="E89" s="3">
-        <v>5572100</v>
+        <v>5712800</v>
       </c>
       <c r="F89" s="3">
-        <v>5100500</v>
+        <v>5229300</v>
       </c>
       <c r="G89" s="3">
-        <v>5329100</v>
+        <v>5463700</v>
       </c>
       <c r="H89" s="3">
-        <v>3300200</v>
+        <v>3383500</v>
       </c>
       <c r="I89" s="3">
-        <v>3357600</v>
+        <v>3442400</v>
       </c>
       <c r="J89" s="3">
-        <v>3639300</v>
+        <v>3731200</v>
       </c>
       <c r="K89" s="3">
         <v>2558100</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1710800</v>
+        <v>-1754000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1692100</v>
+        <v>-1734800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1230400</v>
+        <v>-1261500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1694300</v>
+        <v>-1737100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1558400</v>
+        <v>-1597800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1681000</v>
+        <v>-1723500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1958200</v>
+        <v>-2007700</v>
       </c>
       <c r="K91" s="3">
         <v>-2185600</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2298400</v>
+        <v>2356500</v>
       </c>
       <c r="E94" s="3">
-        <v>-5202100</v>
+        <v>-5333500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1359600</v>
+        <v>-1393900</v>
       </c>
       <c r="G94" s="3">
-        <v>-241900</v>
+        <v>-248000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1530800</v>
+        <v>-1569500</v>
       </c>
       <c r="I94" s="3">
-        <v>-745500</v>
+        <v>-764300</v>
       </c>
       <c r="J94" s="3">
-        <v>779800</v>
+        <v>799500</v>
       </c>
       <c r="K94" s="3">
         <v>5431700</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1469000</v>
+        <v>-1506100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1349700</v>
+        <v>-1383800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1351900</v>
+        <v>-1386000</v>
       </c>
       <c r="G96" s="3">
-        <v>-355600</v>
+        <v>-364600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1316500</v>
+        <v>-1349800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1338600</v>
+        <v>-1372400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1004000</v>
+        <v>-1029300</v>
       </c>
       <c r="K96" s="3">
         <v>-440000</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3591800</v>
+        <v>-3682500</v>
       </c>
       <c r="E100" s="3">
-        <v>1230400</v>
+        <v>1261500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2088600</v>
+        <v>-2141300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2904800</v>
+        <v>-2978100</v>
       </c>
       <c r="H100" s="3">
-        <v>-3493500</v>
+        <v>-3581700</v>
       </c>
       <c r="I100" s="3">
-        <v>-3405100</v>
+        <v>-3491100</v>
       </c>
       <c r="J100" s="3">
-        <v>-3179800</v>
+        <v>-3260100</v>
       </c>
       <c r="K100" s="3">
         <v>-6226700</v>
@@ -4209,25 +4209,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-273900</v>
+        <v>-280800</v>
       </c>
       <c r="E101" s="3">
-        <v>71800</v>
+        <v>73600</v>
       </c>
       <c r="F101" s="3">
-        <v>-450600</v>
+        <v>-462000</v>
       </c>
       <c r="G101" s="3">
-        <v>-247400</v>
+        <v>-253700</v>
       </c>
       <c r="H101" s="3">
-        <v>-142500</v>
+        <v>-146100</v>
       </c>
       <c r="I101" s="3">
-        <v>-134700</v>
+        <v>-138100</v>
       </c>
       <c r="J101" s="3">
-        <v>-109300</v>
+        <v>-112100</v>
       </c>
       <c r="K101" s="3">
         <v>135900</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3471400</v>
+        <v>3559000</v>
       </c>
       <c r="E102" s="3">
-        <v>1672200</v>
+        <v>1714400</v>
       </c>
       <c r="F102" s="3">
-        <v>1201700</v>
+        <v>1232000</v>
       </c>
       <c r="G102" s="3">
-        <v>1935000</v>
+        <v>1983900</v>
       </c>
       <c r="H102" s="3">
-        <v>-1866600</v>
+        <v>-1913700</v>
       </c>
       <c r="I102" s="3">
-        <v>-927800</v>
+        <v>-951200</v>
       </c>
       <c r="J102" s="3">
-        <v>1129900</v>
+        <v>1158400</v>
       </c>
       <c r="K102" s="3">
         <v>1899100</v>

--- a/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HCMLY_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>33052700</v>
+        <v>32851900</v>
       </c>
       <c r="E8" s="3">
-        <v>30386000</v>
+        <v>30201400</v>
       </c>
       <c r="F8" s="3">
-        <v>26205300</v>
+        <v>26046100</v>
       </c>
       <c r="G8" s="3">
-        <v>30259200</v>
+        <v>30075300</v>
       </c>
       <c r="H8" s="3">
-        <v>31101700</v>
+        <v>30912700</v>
       </c>
       <c r="I8" s="3">
-        <v>30597800</v>
+        <v>30411900</v>
       </c>
       <c r="J8" s="3">
-        <v>30465300</v>
+        <v>30280200</v>
       </c>
       <c r="K8" s="3">
         <v>24475000</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19901400</v>
+        <v>19780500</v>
       </c>
       <c r="E9" s="3">
-        <v>17323000</v>
+        <v>17217700</v>
       </c>
       <c r="F9" s="3">
-        <v>15233800</v>
+        <v>15141200</v>
       </c>
       <c r="G9" s="3">
-        <v>17484900</v>
+        <v>17378700</v>
       </c>
       <c r="H9" s="3">
-        <v>17905000</v>
+        <v>17796200</v>
       </c>
       <c r="I9" s="3">
-        <v>42363100</v>
+        <v>42105700</v>
       </c>
       <c r="J9" s="3">
-        <v>35402400</v>
+        <v>35187300</v>
       </c>
       <c r="K9" s="3">
         <v>17113000</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13151300</v>
+        <v>13071400</v>
       </c>
       <c r="E10" s="3">
-        <v>13063000</v>
+        <v>12983700</v>
       </c>
       <c r="F10" s="3">
-        <v>10971500</v>
+        <v>10904900</v>
       </c>
       <c r="G10" s="3">
-        <v>12774300</v>
+        <v>12696700</v>
       </c>
       <c r="H10" s="3">
-        <v>13196600</v>
+        <v>13116500</v>
       </c>
       <c r="I10" s="3">
-        <v>-11765300</v>
+        <v>-11693800</v>
       </c>
       <c r="J10" s="3">
-        <v>-4937100</v>
+        <v>-4907100</v>
       </c>
       <c r="K10" s="3">
         <v>7362000</v>
@@ -956,25 +956,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-2005400</v>
+        <v>-1993200</v>
       </c>
       <c r="E14" s="3">
-        <v>225300</v>
+        <v>224000</v>
       </c>
       <c r="F14" s="3">
-        <v>39600</v>
+        <v>39400</v>
       </c>
       <c r="G14" s="3">
-        <v>-260400</v>
+        <v>-258900</v>
       </c>
       <c r="H14" s="3">
-        <v>644300</v>
+        <v>640400</v>
       </c>
       <c r="I14" s="3">
-        <v>-116600</v>
+        <v>-115900</v>
       </c>
       <c r="J14" s="3">
-        <v>-789300</v>
+        <v>-784500</v>
       </c>
       <c r="K14" s="3">
         <v>-1104200</v>
@@ -998,10 +998,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>532200</v>
+        <v>529000</v>
       </c>
       <c r="E15" s="3">
-        <v>467700</v>
+        <v>464800</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27400000</v>
+        <v>27233500</v>
       </c>
       <c r="E17" s="3">
-        <v>25627800</v>
+        <v>25472100</v>
       </c>
       <c r="F17" s="3">
-        <v>22427700</v>
+        <v>22291500</v>
       </c>
       <c r="G17" s="3">
-        <v>25658400</v>
+        <v>25502500</v>
       </c>
       <c r="H17" s="3">
-        <v>27458800</v>
+        <v>27292000</v>
       </c>
       <c r="I17" s="3">
-        <v>31000900</v>
+        <v>30812500</v>
       </c>
       <c r="J17" s="3">
-        <v>26320800</v>
+        <v>26160900</v>
       </c>
       <c r="K17" s="3">
         <v>24137700</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5652800</v>
+        <v>5618400</v>
       </c>
       <c r="E18" s="3">
-        <v>4758200</v>
+        <v>4729300</v>
       </c>
       <c r="F18" s="3">
-        <v>3777600</v>
+        <v>3754600</v>
       </c>
       <c r="G18" s="3">
-        <v>4600800</v>
+        <v>4572900</v>
       </c>
       <c r="H18" s="3">
-        <v>3642800</v>
+        <v>3620700</v>
       </c>
       <c r="I18" s="3">
-        <v>-403100</v>
+        <v>-400700</v>
       </c>
       <c r="J18" s="3">
-        <v>4144500</v>
+        <v>4119300</v>
       </c>
       <c r="K18" s="3">
         <v>337300</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="E20" s="3">
-        <v>-175500</v>
+        <v>-174500</v>
       </c>
       <c r="F20" s="3">
-        <v>-192500</v>
+        <v>-191300</v>
       </c>
       <c r="G20" s="3">
-        <v>-151700</v>
+        <v>-150800</v>
       </c>
       <c r="H20" s="3">
-        <v>-138100</v>
+        <v>-137300</v>
       </c>
       <c r="I20" s="3">
-        <v>-96300</v>
+        <v>-95700</v>
       </c>
       <c r="J20" s="3">
-        <v>95100</v>
+        <v>94500</v>
       </c>
       <c r="K20" s="3">
         <v>-189900</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8112300</v>
+        <v>8064700</v>
       </c>
       <c r="E21" s="3">
-        <v>7209800</v>
+        <v>7167800</v>
       </c>
       <c r="F21" s="3">
-        <v>6189500</v>
+        <v>6153700</v>
       </c>
       <c r="G21" s="3">
-        <v>7257400</v>
+        <v>7215200</v>
       </c>
       <c r="H21" s="3">
-        <v>6044600</v>
+        <v>6009600</v>
       </c>
       <c r="I21" s="3">
-        <v>6517900</v>
+        <v>6483000</v>
       </c>
       <c r="J21" s="3">
-        <v>6899500</v>
+        <v>6859400</v>
       </c>
       <c r="K21" s="3">
         <v>4640300</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>509600</v>
+        <v>506500</v>
       </c>
       <c r="E22" s="3">
-        <v>456300</v>
+        <v>453600</v>
       </c>
       <c r="F22" s="3">
-        <v>506200</v>
+        <v>503100</v>
       </c>
       <c r="G22" s="3">
-        <v>690700</v>
+        <v>686500</v>
       </c>
       <c r="H22" s="3">
-        <v>815300</v>
+        <v>810400</v>
       </c>
       <c r="I22" s="3">
-        <v>836800</v>
+        <v>831700</v>
       </c>
       <c r="J22" s="3">
-        <v>976100</v>
+        <v>970200</v>
       </c>
       <c r="K22" s="3">
         <v>857200</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5157900</v>
+        <v>5126600</v>
       </c>
       <c r="E23" s="3">
-        <v>4126400</v>
+        <v>4101300</v>
       </c>
       <c r="F23" s="3">
-        <v>3078900</v>
+        <v>3060200</v>
       </c>
       <c r="G23" s="3">
-        <v>3758300</v>
+        <v>3735500</v>
       </c>
       <c r="H23" s="3">
-        <v>2689400</v>
+        <v>2673000</v>
       </c>
       <c r="I23" s="3">
-        <v>-1336200</v>
+        <v>-1328100</v>
       </c>
       <c r="J23" s="3">
-        <v>3263500</v>
+        <v>3243700</v>
       </c>
       <c r="K23" s="3">
         <v>-709800</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1162900</v>
+        <v>1155900</v>
       </c>
       <c r="E24" s="3">
-        <v>1090500</v>
+        <v>1083800</v>
       </c>
       <c r="F24" s="3">
-        <v>811900</v>
+        <v>807000</v>
       </c>
       <c r="G24" s="3">
-        <v>912700</v>
+        <v>907100</v>
       </c>
       <c r="H24" s="3">
-        <v>742800</v>
+        <v>738300</v>
       </c>
       <c r="I24" s="3">
-        <v>607000</v>
+        <v>603300</v>
       </c>
       <c r="J24" s="3">
-        <v>945500</v>
+        <v>939800</v>
       </c>
       <c r="K24" s="3">
         <v>810500</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3995000</v>
+        <v>3970700</v>
       </c>
       <c r="E26" s="3">
-        <v>3035900</v>
+        <v>3017400</v>
       </c>
       <c r="F26" s="3">
-        <v>2267000</v>
+        <v>2253200</v>
       </c>
       <c r="G26" s="3">
-        <v>2845600</v>
+        <v>2828400</v>
       </c>
       <c r="H26" s="3">
-        <v>1946500</v>
+        <v>1934700</v>
       </c>
       <c r="I26" s="3">
-        <v>-1943100</v>
+        <v>-1931300</v>
       </c>
       <c r="J26" s="3">
-        <v>2318000</v>
+        <v>2303900</v>
       </c>
       <c r="K26" s="3">
         <v>-1520300</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3726600</v>
+        <v>3704000</v>
       </c>
       <c r="E27" s="3">
-        <v>2581800</v>
+        <v>2566100</v>
       </c>
       <c r="F27" s="3">
-        <v>1901200</v>
+        <v>1889700</v>
       </c>
       <c r="G27" s="3">
-        <v>2527400</v>
+        <v>2512100</v>
       </c>
       <c r="H27" s="3">
-        <v>1700800</v>
+        <v>1690500</v>
       </c>
       <c r="I27" s="3">
-        <v>-1896700</v>
+        <v>-1885200</v>
       </c>
       <c r="J27" s="3">
-        <v>1979400</v>
+        <v>1967400</v>
       </c>
       <c r="K27" s="3">
         <v>-1631400</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>48700</v>
+        <v>48400</v>
       </c>
       <c r="K29" s="3">
         <v>106900</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="E32" s="3">
-        <v>175500</v>
+        <v>174500</v>
       </c>
       <c r="F32" s="3">
-        <v>192500</v>
+        <v>191300</v>
       </c>
       <c r="G32" s="3">
-        <v>151700</v>
+        <v>150800</v>
       </c>
       <c r="H32" s="3">
-        <v>138100</v>
+        <v>137300</v>
       </c>
       <c r="I32" s="3">
-        <v>96300</v>
+        <v>95700</v>
       </c>
       <c r="J32" s="3">
-        <v>-95100</v>
+        <v>-94500</v>
       </c>
       <c r="K32" s="3">
         <v>189900</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3726600</v>
+        <v>3704000</v>
       </c>
       <c r="E33" s="3">
-        <v>2581800</v>
+        <v>2566100</v>
       </c>
       <c r="F33" s="3">
-        <v>1901200</v>
+        <v>1889700</v>
       </c>
       <c r="G33" s="3">
-        <v>2527400</v>
+        <v>2512100</v>
       </c>
       <c r="H33" s="3">
-        <v>1700800</v>
+        <v>1690500</v>
       </c>
       <c r="I33" s="3">
-        <v>-1896700</v>
+        <v>-1885200</v>
       </c>
       <c r="J33" s="3">
-        <v>2028100</v>
+        <v>2015800</v>
       </c>
       <c r="K33" s="3">
         <v>-1524500</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3726600</v>
+        <v>3704000</v>
       </c>
       <c r="E35" s="3">
-        <v>2581800</v>
+        <v>2566100</v>
       </c>
       <c r="F35" s="3">
-        <v>1901200</v>
+        <v>1889700</v>
       </c>
       <c r="G35" s="3">
-        <v>2527400</v>
+        <v>2512100</v>
       </c>
       <c r="H35" s="3">
-        <v>1700800</v>
+        <v>1690500</v>
       </c>
       <c r="I35" s="3">
-        <v>-1896700</v>
+        <v>-1885200</v>
       </c>
       <c r="J35" s="3">
-        <v>2028100</v>
+        <v>2015800</v>
       </c>
       <c r="K35" s="3">
         <v>-1524500</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3602100</v>
+        <v>3580200</v>
       </c>
       <c r="E41" s="3">
-        <v>2507100</v>
+        <v>2491800</v>
       </c>
       <c r="F41" s="3">
-        <v>2055300</v>
+        <v>2042800</v>
       </c>
       <c r="G41" s="3">
-        <v>2621400</v>
+        <v>2605500</v>
       </c>
       <c r="H41" s="3">
-        <v>1729100</v>
+        <v>1718600</v>
       </c>
       <c r="I41" s="3">
-        <v>2773200</v>
+        <v>2756300</v>
       </c>
       <c r="J41" s="3">
-        <v>9171100</v>
+        <v>9115300</v>
       </c>
       <c r="K41" s="3">
         <v>3315700</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7529100</v>
+        <v>7483400</v>
       </c>
       <c r="E42" s="3">
-        <v>5066200</v>
+        <v>5035400</v>
       </c>
       <c r="F42" s="3">
-        <v>3826300</v>
+        <v>3803000</v>
       </c>
       <c r="G42" s="3">
-        <v>2080200</v>
+        <v>2067500</v>
       </c>
       <c r="H42" s="3">
-        <v>1122200</v>
+        <v>1115400</v>
       </c>
       <c r="I42" s="3">
-        <v>2003200</v>
+        <v>1991000</v>
       </c>
       <c r="J42" s="3">
-        <v>1978300</v>
+        <v>1966200</v>
       </c>
       <c r="K42" s="3">
         <v>1243300</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3819500</v>
+        <v>3796300</v>
       </c>
       <c r="E43" s="3">
-        <v>4127500</v>
+        <v>4102400</v>
       </c>
       <c r="F43" s="3">
-        <v>3521700</v>
+        <v>3500300</v>
       </c>
       <c r="G43" s="3">
-        <v>4204500</v>
+        <v>4178900</v>
       </c>
       <c r="H43" s="3">
-        <v>4656300</v>
+        <v>4628000</v>
       </c>
       <c r="I43" s="3">
-        <v>4890700</v>
+        <v>4861000</v>
       </c>
       <c r="J43" s="3">
-        <v>7885800</v>
+        <v>7837900</v>
       </c>
       <c r="K43" s="3">
         <v>4381500</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3238600</v>
+        <v>3218900</v>
       </c>
       <c r="E44" s="3">
-        <v>2953200</v>
+        <v>2935300</v>
       </c>
       <c r="F44" s="3">
-        <v>2245500</v>
+        <v>2231800</v>
       </c>
       <c r="G44" s="3">
-        <v>2824100</v>
+        <v>2807000</v>
       </c>
       <c r="H44" s="3">
-        <v>3488800</v>
+        <v>3467600</v>
       </c>
       <c r="I44" s="3">
-        <v>3249900</v>
+        <v>3230200</v>
       </c>
       <c r="J44" s="3">
-        <v>5990200</v>
+        <v>5953800</v>
       </c>
       <c r="K44" s="3">
         <v>3175600</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>816400</v>
+        <v>811500</v>
       </c>
       <c r="E45" s="3">
-        <v>854900</v>
+        <v>849700</v>
       </c>
       <c r="F45" s="3">
-        <v>678300</v>
+        <v>674200</v>
       </c>
       <c r="G45" s="3">
-        <v>2096000</v>
+        <v>2083300</v>
       </c>
       <c r="H45" s="3">
-        <v>2204700</v>
+        <v>2191300</v>
       </c>
       <c r="I45" s="3">
-        <v>1371300</v>
+        <v>1363000</v>
       </c>
       <c r="J45" s="3">
-        <v>5749000</v>
+        <v>5714100</v>
       </c>
       <c r="K45" s="3">
         <v>1718600</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19005700</v>
+        <v>18890200</v>
       </c>
       <c r="E46" s="3">
-        <v>15508900</v>
+        <v>15414700</v>
       </c>
       <c r="F46" s="3">
-        <v>12327000</v>
+        <v>12252100</v>
       </c>
       <c r="G46" s="3">
-        <v>13826200</v>
+        <v>13742200</v>
       </c>
       <c r="H46" s="3">
-        <v>13201200</v>
+        <v>13121000</v>
       </c>
       <c r="I46" s="3">
-        <v>14288200</v>
+        <v>14201400</v>
       </c>
       <c r="J46" s="3">
-        <v>16345800</v>
+        <v>16246400</v>
       </c>
       <c r="K46" s="3">
         <v>13834600</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4108200</v>
+        <v>4083300</v>
       </c>
       <c r="E47" s="3">
-        <v>4703900</v>
+        <v>4675300</v>
       </c>
       <c r="F47" s="3">
-        <v>4275800</v>
+        <v>4249900</v>
       </c>
       <c r="G47" s="3">
-        <v>4320000</v>
+        <v>4293700</v>
       </c>
       <c r="H47" s="3">
-        <v>4125200</v>
+        <v>4100200</v>
       </c>
       <c r="I47" s="3">
-        <v>4118400</v>
+        <v>4093400</v>
       </c>
       <c r="J47" s="3">
-        <v>6038900</v>
+        <v>6002200</v>
       </c>
       <c r="K47" s="3">
         <v>4038000</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23050500</v>
+        <v>22910500</v>
       </c>
       <c r="E48" s="3">
-        <v>27676300</v>
+        <v>27508100</v>
       </c>
       <c r="F48" s="3">
-        <v>27426000</v>
+        <v>27259400</v>
       </c>
       <c r="G48" s="3">
-        <v>30788000</v>
+        <v>30600900</v>
       </c>
       <c r="H48" s="3">
-        <v>31581800</v>
+        <v>31389900</v>
       </c>
       <c r="I48" s="3">
-        <v>34143200</v>
+        <v>33935800</v>
       </c>
       <c r="J48" s="3">
-        <v>72589400</v>
+        <v>72148400</v>
       </c>
       <c r="K48" s="3">
         <v>38135300</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17488300</v>
+        <v>17382100</v>
       </c>
       <c r="E49" s="3">
-        <v>17438500</v>
+        <v>17332500</v>
       </c>
       <c r="F49" s="3">
-        <v>14659700</v>
+        <v>14570600</v>
       </c>
       <c r="G49" s="3">
-        <v>15494200</v>
+        <v>15400100</v>
       </c>
       <c r="H49" s="3">
-        <v>16821400</v>
+        <v>16719200</v>
       </c>
       <c r="I49" s="3">
-        <v>17659300</v>
+        <v>17552000</v>
       </c>
       <c r="J49" s="3">
-        <v>39098500</v>
+        <v>38860900</v>
       </c>
       <c r="K49" s="3">
         <v>18582500</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1575100</v>
+        <v>1565600</v>
       </c>
       <c r="E52" s="3">
-        <v>2484400</v>
+        <v>2469300</v>
       </c>
       <c r="F52" s="3">
-        <v>1580800</v>
+        <v>1571200</v>
       </c>
       <c r="G52" s="3">
-        <v>1600000</v>
+        <v>1590300</v>
       </c>
       <c r="H52" s="3">
-        <v>1867300</v>
+        <v>1855900</v>
       </c>
       <c r="I52" s="3">
-        <v>1899000</v>
+        <v>1887400</v>
       </c>
       <c r="J52" s="3">
-        <v>2913600</v>
+        <v>2895900</v>
       </c>
       <c r="K52" s="3">
         <v>1476800</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>65227900</v>
+        <v>64831600</v>
       </c>
       <c r="E54" s="3">
-        <v>67812000</v>
+        <v>67400000</v>
       </c>
       <c r="F54" s="3">
-        <v>60269300</v>
+        <v>59903100</v>
       </c>
       <c r="G54" s="3">
-        <v>66028500</v>
+        <v>65627300</v>
       </c>
       <c r="H54" s="3">
-        <v>67596800</v>
+        <v>67186100</v>
       </c>
       <c r="I54" s="3">
-        <v>72108200</v>
+        <v>71670100</v>
       </c>
       <c r="J54" s="3">
-        <v>78832200</v>
+        <v>78353200</v>
       </c>
       <c r="K54" s="3">
         <v>76067200</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4834100</v>
+        <v>4804700</v>
       </c>
       <c r="E57" s="3">
-        <v>4596300</v>
+        <v>4568400</v>
       </c>
       <c r="F57" s="3">
-        <v>3794600</v>
+        <v>3771500</v>
       </c>
       <c r="G57" s="3">
-        <v>4002900</v>
+        <v>3978600</v>
       </c>
       <c r="H57" s="3">
-        <v>4269000</v>
+        <v>4243100</v>
       </c>
       <c r="I57" s="3">
-        <v>4206800</v>
+        <v>4181200</v>
       </c>
       <c r="J57" s="3">
-        <v>3744700</v>
+        <v>3722000</v>
       </c>
       <c r="K57" s="3">
         <v>3832500</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1836700</v>
+        <v>1825500</v>
       </c>
       <c r="E58" s="3">
-        <v>2672400</v>
+        <v>2656200</v>
       </c>
       <c r="F58" s="3">
-        <v>2319100</v>
+        <v>2305000</v>
       </c>
       <c r="G58" s="3">
-        <v>2247800</v>
+        <v>2234100</v>
       </c>
       <c r="H58" s="3">
-        <v>3369900</v>
+        <v>3349500</v>
       </c>
       <c r="I58" s="3">
-        <v>4228300</v>
+        <v>4202600</v>
       </c>
       <c r="J58" s="3">
-        <v>13514800</v>
+        <v>13432700</v>
       </c>
       <c r="K58" s="3">
         <v>7080800</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3358600</v>
+        <v>3338200</v>
       </c>
       <c r="E59" s="3">
-        <v>3766300</v>
+        <v>3743400</v>
       </c>
       <c r="F59" s="3">
-        <v>3146900</v>
+        <v>3127700</v>
       </c>
       <c r="G59" s="3">
-        <v>4103700</v>
+        <v>4078800</v>
       </c>
       <c r="H59" s="3">
-        <v>4508000</v>
+        <v>4480600</v>
       </c>
       <c r="I59" s="3">
-        <v>4608700</v>
+        <v>4580700</v>
       </c>
       <c r="J59" s="3">
-        <v>4819400</v>
+        <v>4790100</v>
       </c>
       <c r="K59" s="3">
         <v>4479100</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10029400</v>
+        <v>9968500</v>
       </c>
       <c r="E60" s="3">
-        <v>11034900</v>
+        <v>10967900</v>
       </c>
       <c r="F60" s="3">
-        <v>9260500</v>
+        <v>9204300</v>
       </c>
       <c r="G60" s="3">
-        <v>10354400</v>
+        <v>10291500</v>
       </c>
       <c r="H60" s="3">
-        <v>12146900</v>
+        <v>12073100</v>
       </c>
       <c r="I60" s="3">
-        <v>13043800</v>
+        <v>12964500</v>
       </c>
       <c r="J60" s="3">
-        <v>14164800</v>
+        <v>14078800</v>
       </c>
       <c r="K60" s="3">
         <v>15392400</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15046900</v>
+        <v>14955500</v>
       </c>
       <c r="E61" s="3">
-        <v>16138500</v>
+        <v>16040500</v>
       </c>
       <c r="F61" s="3">
-        <v>13256700</v>
+        <v>13176100</v>
       </c>
       <c r="G61" s="3">
-        <v>13795700</v>
+        <v>13711800</v>
       </c>
       <c r="H61" s="3">
-        <v>14734400</v>
+        <v>14644900</v>
       </c>
       <c r="I61" s="3">
-        <v>16720600</v>
+        <v>16619000</v>
       </c>
       <c r="J61" s="3">
-        <v>16606200</v>
+        <v>16505300</v>
       </c>
       <c r="K61" s="3">
         <v>15420400</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6617600</v>
+        <v>6577400</v>
       </c>
       <c r="E62" s="3">
-        <v>6131800</v>
+        <v>6094500</v>
       </c>
       <c r="F62" s="3">
-        <v>5338000</v>
+        <v>5305600</v>
       </c>
       <c r="G62" s="3">
-        <v>6209900</v>
+        <v>6172200</v>
       </c>
       <c r="H62" s="3">
-        <v>6684400</v>
+        <v>6643800</v>
       </c>
       <c r="I62" s="3">
-        <v>7268700</v>
+        <v>7224500</v>
       </c>
       <c r="J62" s="3">
-        <v>11150400</v>
+        <v>11082700</v>
       </c>
       <c r="K62" s="3">
         <v>8182900</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32758300</v>
+        <v>32559300</v>
       </c>
       <c r="E66" s="3">
-        <v>36462300</v>
+        <v>36240800</v>
       </c>
       <c r="F66" s="3">
-        <v>30746100</v>
+        <v>30559300</v>
       </c>
       <c r="G66" s="3">
-        <v>33681200</v>
+        <v>33476600</v>
       </c>
       <c r="H66" s="3">
-        <v>37107800</v>
+        <v>36882300</v>
       </c>
       <c r="I66" s="3">
-        <v>40643000</v>
+        <v>40396100</v>
       </c>
       <c r="J66" s="3">
-        <v>43930300</v>
+        <v>43663400</v>
       </c>
       <c r="K66" s="3">
         <v>43517200</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>30957900</v>
+        <v>30769800</v>
       </c>
       <c r="E72" s="3">
-        <v>27045500</v>
+        <v>26881200</v>
       </c>
       <c r="F72" s="3">
-        <v>23656300</v>
+        <v>23512600</v>
       </c>
       <c r="G72" s="3">
-        <v>21708700</v>
+        <v>21576800</v>
       </c>
       <c r="H72" s="3">
-        <v>19459800</v>
+        <v>19341500</v>
       </c>
       <c r="I72" s="3">
-        <v>17413600</v>
+        <v>17307800</v>
       </c>
       <c r="J72" s="3">
-        <v>18736200</v>
+        <v>18622400</v>
       </c>
       <c r="K72" s="3">
         <v>15554200</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32469600</v>
+        <v>32272300</v>
       </c>
       <c r="E76" s="3">
-        <v>31349700</v>
+        <v>31159200</v>
       </c>
       <c r="F76" s="3">
-        <v>29523200</v>
+        <v>29343800</v>
       </c>
       <c r="G76" s="3">
-        <v>32347300</v>
+        <v>32150700</v>
       </c>
       <c r="H76" s="3">
-        <v>30489100</v>
+        <v>30303800</v>
       </c>
       <c r="I76" s="3">
-        <v>31465200</v>
+        <v>31274000</v>
       </c>
       <c r="J76" s="3">
-        <v>34901900</v>
+        <v>34689900</v>
       </c>
       <c r="K76" s="3">
         <v>32550000</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3726600</v>
+        <v>3704000</v>
       </c>
       <c r="E81" s="3">
-        <v>2581800</v>
+        <v>2566100</v>
       </c>
       <c r="F81" s="3">
-        <v>1901200</v>
+        <v>1889700</v>
       </c>
       <c r="G81" s="3">
-        <v>2527400</v>
+        <v>2512100</v>
       </c>
       <c r="H81" s="3">
-        <v>1700800</v>
+        <v>1690500</v>
       </c>
       <c r="I81" s="3">
-        <v>-1896700</v>
+        <v>-1885200</v>
       </c>
       <c r="J81" s="3">
-        <v>2028100</v>
+        <v>2015800</v>
       </c>
       <c r="K81" s="3">
         <v>-1524500</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2444800</v>
+        <v>2429900</v>
       </c>
       <c r="E83" s="3">
-        <v>2627100</v>
+        <v>2611100</v>
       </c>
       <c r="F83" s="3">
-        <v>2604500</v>
+        <v>2588600</v>
       </c>
       <c r="G83" s="3">
-        <v>2808300</v>
+        <v>2791200</v>
       </c>
       <c r="H83" s="3">
-        <v>2539900</v>
+        <v>2524500</v>
       </c>
       <c r="I83" s="3">
-        <v>7017300</v>
+        <v>6974700</v>
       </c>
       <c r="J83" s="3">
-        <v>2659900</v>
+        <v>2643800</v>
       </c>
       <c r="K83" s="3">
         <v>4588000</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5165900</v>
+        <v>5134500</v>
       </c>
       <c r="E89" s="3">
-        <v>5712800</v>
+        <v>5678100</v>
       </c>
       <c r="F89" s="3">
-        <v>5229300</v>
+        <v>5197500</v>
       </c>
       <c r="G89" s="3">
-        <v>5463700</v>
+        <v>5430500</v>
       </c>
       <c r="H89" s="3">
-        <v>3383500</v>
+        <v>3363000</v>
       </c>
       <c r="I89" s="3">
-        <v>3442400</v>
+        <v>3421500</v>
       </c>
       <c r="J89" s="3">
-        <v>3731200</v>
+        <v>3708500</v>
       </c>
       <c r="K89" s="3">
         <v>2558100</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1754000</v>
+        <v>-1743400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1734800</v>
+        <v>-1724300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1261500</v>
+        <v>-1253800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1737100</v>
+        <v>-1726500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1597800</v>
+        <v>-1588100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1723500</v>
+        <v>-1713000</v>
       </c>
       <c r="J91" s="3">
-        <v>-2007700</v>
+        <v>-1995500</v>
       </c>
       <c r="K91" s="3">
         <v>-2185600</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2356500</v>
+        <v>2342100</v>
       </c>
       <c r="E94" s="3">
-        <v>-5333500</v>
+        <v>-5301100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1393900</v>
+        <v>-1385500</v>
       </c>
       <c r="G94" s="3">
-        <v>-248000</v>
+        <v>-246500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1569500</v>
+        <v>-1559900</v>
       </c>
       <c r="I94" s="3">
-        <v>-764300</v>
+        <v>-759700</v>
       </c>
       <c r="J94" s="3">
-        <v>799500</v>
+        <v>794600</v>
       </c>
       <c r="K94" s="3">
         <v>5431700</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1506100</v>
+        <v>-1496900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1383800</v>
+        <v>-1375300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1386000</v>
+        <v>-1377600</v>
       </c>
       <c r="G96" s="3">
-        <v>-364600</v>
+        <v>-362400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1349800</v>
+        <v>-1341600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1372400</v>
+        <v>-1364100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1029300</v>
+        <v>-1023100</v>
       </c>
       <c r="K96" s="3">
         <v>-440000</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3682500</v>
+        <v>-3660100</v>
       </c>
       <c r="E100" s="3">
-        <v>1261500</v>
+        <v>1253800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2141300</v>
+        <v>-2128300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2978100</v>
+        <v>-2960000</v>
       </c>
       <c r="H100" s="3">
-        <v>-3581700</v>
+        <v>-3559900</v>
       </c>
       <c r="I100" s="3">
-        <v>-3491100</v>
+        <v>-3469900</v>
       </c>
       <c r="J100" s="3">
-        <v>-3260100</v>
+        <v>-3240300</v>
       </c>
       <c r="K100" s="3">
         <v>-6226700</v>
@@ -4209,25 +4209,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-280800</v>
+        <v>-279100</v>
       </c>
       <c r="E101" s="3">
-        <v>73600</v>
+        <v>73200</v>
       </c>
       <c r="F101" s="3">
-        <v>-462000</v>
+        <v>-459200</v>
       </c>
       <c r="G101" s="3">
-        <v>-253700</v>
+        <v>-252100</v>
       </c>
       <c r="H101" s="3">
-        <v>-146100</v>
+        <v>-145200</v>
       </c>
       <c r="I101" s="3">
-        <v>-138100</v>
+        <v>-137300</v>
       </c>
       <c r="J101" s="3">
-        <v>-112100</v>
+        <v>-111400</v>
       </c>
       <c r="K101" s="3">
         <v>135900</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3559000</v>
+        <v>3537400</v>
       </c>
       <c r="E102" s="3">
-        <v>1714400</v>
+        <v>1704000</v>
       </c>
       <c r="F102" s="3">
-        <v>1232000</v>
+        <v>1224500</v>
       </c>
       <c r="G102" s="3">
-        <v>1983900</v>
+        <v>1971900</v>
       </c>
       <c r="H102" s="3">
-        <v>-1913700</v>
+        <v>-1902100</v>
       </c>
       <c r="I102" s="3">
-        <v>-951200</v>
+        <v>-945400</v>
       </c>
       <c r="J102" s="3">
-        <v>1158400</v>
+        <v>1151400</v>
       </c>
       <c r="K102" s="3">
         <v>1899100</v>
